--- a/data/works.xlsx
+++ b/data/works.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dlf/Developer/dotlineform/dotlineform/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBB0B50-EE03-9748-985F-64B33719ECD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AFF048-3CFF-6F49-8B78-DB46689C87F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20600" xr2:uid="{3340F1A4-2CEC-C74D-85F7-446226E10E48}"/>
   </bookViews>
@@ -384,9 +384,6 @@
     <t>e.g. 'work card (PDF)'</t>
   </si>
   <si>
-    <t>file name e.g. '00286-work-card.pdf'</t>
-  </si>
-  <si>
     <t>list label</t>
   </si>
   <si>
@@ -409,6 +406,9 @@
   </si>
   <si>
     <t>filename e.g. 00286-detail-001.webp</t>
+  </si>
+  <si>
+    <t>file name e.g. '00286-work-card.pdf' (all file types are treated as 'attachments')</t>
   </si>
 </sst>
 </file>
@@ -817,7 +817,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
@@ -865,7 +865,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>40</v>
@@ -1187,7 +1187,7 @@
         <v>14</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>104</v>
@@ -1202,7 +1202,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>61</v>
@@ -1235,7 +1235,7 @@
         <v>16</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>64</v>
@@ -1317,10 +1317,10 @@
         <v>1</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1332,7 +1332,7 @@
         <v>3</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1344,10 +1344,10 @@
         <v>16</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1362,7 +1362,7 @@
         <v>113</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1566,7 +1566,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1:E1048576"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
@@ -1648,7 +1648,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>3</v>

--- a/data/works.xlsx
+++ b/data/works.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dlf/Developer/dotlineform/dotlineform/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE05A7C-C373-BD48-9ED6-2FE5568F3320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A45448F-B7C4-5E48-A497-32F6AACC1F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20600" activeTab="1" xr2:uid="{3340F1A4-2CEC-C74D-85F7-446226E10E48}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="124">
   <si>
     <t>Column name</t>
   </si>
@@ -409,6 +409,9 @@
   </si>
   <si>
     <t>file name e.g. '00286-work-card.pdf' (all file types are treated as 'attachments')</t>
+  </si>
+  <si>
+    <t>pencil and ink on paper</t>
   </si>
 </sst>
 </file>
@@ -1378,7 +1381,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
@@ -1389,7 +1392,8 @@
     <col min="4" max="4" width="20.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
-    <col min="7" max="9" width="20.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="20.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.83203125" style="1"/>
     <col min="11" max="15" width="20.83203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="20.83203125" style="8" customWidth="1"/>
@@ -1532,7 +1536,7 @@
         <v>95</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>100</v>

--- a/data/works.xlsx
+++ b/data/works.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10125"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dlf/Developer/dotlineform/dotlineform/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB1018C-2048-844D-99FF-AF0D2A80EE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D92C4C2-A4DF-0B4B-8E7D-728A75D03CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20600" activeTab="1" xr2:uid="{3340F1A4-2CEC-C74D-85F7-446226E10E48}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20600" xr2:uid="{3340F1A4-2CEC-C74D-85F7-446226E10E48}"/>
   </bookViews>
   <sheets>
     <sheet name="schema" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="123">
   <si>
     <t>Column name</t>
   </si>
@@ -309,18 +309,6 @@
     <t>accessibility</t>
   </si>
   <si>
-    <t>creators</t>
-  </si>
-  <si>
-    <t>structured list e.g. Mike Davies|Artist; Jane Smith|Collaborator</t>
-  </si>
-  <si>
-    <t>artist_display</t>
-  </si>
-  <si>
-    <t>an override when you need a specific phrasing (“with”, “after”, “in collaboration with”, etc.)</t>
-  </si>
-  <si>
     <t>public label</t>
   </si>
   <si>
@@ -415,6 +403,12 @@
   </si>
   <si>
     <t>83 particles</t>
+  </si>
+  <si>
+    <t>artist</t>
+  </si>
+  <si>
+    <t>can be more than one if collaboration</t>
   </si>
 </sst>
 </file>
@@ -820,10 +814,10 @@
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
@@ -871,7 +865,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>40</v>
@@ -883,13 +877,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -898,13 +892,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -913,13 +907,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -928,13 +922,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -943,13 +937,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -958,13 +952,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>76</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -973,16 +970,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -991,10 +985,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>60</v>
@@ -1006,13 +1000,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1021,10 +1015,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>33</v>
@@ -1036,13 +1030,13 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1051,13 +1045,16 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1066,16 +1063,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1084,13 +1078,16 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1099,16 +1096,16 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1117,31 +1114,28 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="b">
         <f>NOT(ISERROR(HLOOKUP(B21,Works!$1:$1,1,FALSE)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1150,38 +1144,38 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="b">
-        <f>NOT(ISERROR(HLOOKUP(B23,Works!$1:$1,1,FALSE)))</f>
-        <v>1</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
+    <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
     </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>26</v>
+      <c r="A26" s="1" t="b">
+        <f>NOT(ISERROR(HLOOKUP(B26,WorkImages!$1:$1,1,FALSE)))</f>
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1190,13 +1184,13 @@
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1205,13 +1199,16 @@
         <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1220,16 +1217,13 @@
         <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1238,13 +1232,13 @@
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1253,13 +1247,13 @@
         <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1268,13 +1262,13 @@
         <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1283,38 +1277,35 @@
         <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="b">
-        <f>NOT(ISERROR(HLOOKUP(B34,WorkImages!$1:$1,1,FALSE)))</f>
-        <v>1</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
+    <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="b">
+        <f>NOT(ISERROR(HLOOKUP(B37,WorkAttachments!$1:$1,1,FALSE)))</f>
+        <v>1</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>112</v>
+      <c r="D37" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1323,10 +1314,10 @@
         <v>1</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1335,10 +1326,13 @@
         <v>1</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1347,28 +1341,13 @@
         <v>1</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="b">
-        <f>NOT(ISERROR(HLOOKUP(B41,WorkAttachments!$1:$1,1,FALSE)))</f>
-        <v>1</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1378,186 +1357,173 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A006D3C4-93E9-0943-8732-0CF384DB2AB6}">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="20.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="1"/>
-    <col min="11" max="15" width="20.83203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="20.83203125" style="8" customWidth="1"/>
-    <col min="17" max="20" width="20.83203125" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="26.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="1"/>
+    <col min="10" max="14" width="20.83203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.83203125" style="8" customWidth="1"/>
+    <col min="16" max="18" width="20.83203125" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>35</v>
       </c>
+      <c r="P1" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="Q1" s="3" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>84</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2024</v>
       </c>
       <c r="E2" s="1">
         <v>2024</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" s="1">
+        <v>42</v>
+      </c>
+      <c r="L2" s="1">
+        <v>29.7</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O2" s="8">
+        <v>46046</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="1">
         <v>2024</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="L2" s="1">
-        <v>42</v>
-      </c>
-      <c r="M2" s="1">
-        <v>29.7</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="P2" s="8">
-        <v>46046</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="E3" s="1">
         <v>2024</v>
       </c>
-      <c r="F3" s="1">
-        <v>2024</v>
+      <c r="F3" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>100</v>
+        <v>119</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K3" s="1">
+        <v>29.7</v>
       </c>
       <c r="L3" s="1">
-        <v>29.7</v>
-      </c>
-      <c r="M3" s="1">
         <v>42</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="P3" s="8">
+      <c r="N3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O3" s="8">
         <v>46046</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>98</v>
+      <c r="P3" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1614,22 +1580,22 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>83</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1655,7 +1621,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>3</v>
@@ -1664,21 +1630,21 @@
         <v>16</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>83</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/data/works.xlsx
+++ b/data/works.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dlf/Developer/dotlineform/dotlineform-site/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C379724-714B-B446-9BB5-31038C8D6207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF460DE4-F7E5-B648-93F5-C394A5AB4667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20600" activeTab="1" xr2:uid="{3340F1A4-2CEC-C74D-85F7-446226E10E48}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20600" activeTab="3" xr2:uid="{3340F1A4-2CEC-C74D-85F7-446226E10E48}"/>
   </bookViews>
   <sheets>
     <sheet name="schema" sheetId="1" r:id="rId1"/>
@@ -1551,8 +1551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A006D3C4-93E9-0943-8732-0CF384DB2AB6}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C52" sqref="C52"/>
@@ -1562,7 +1562,7 @@
   <cols>
     <col min="1" max="1" width="20.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="72.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" style="1" customWidth="1"/>
     <col min="6" max="7" width="20.83203125" style="1" customWidth="1"/>
@@ -4131,7 +4131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A307C2-25E9-AF4C-9C45-B37330E6C0EA}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/data/works.xlsx
+++ b/data/works.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dlf/Developer/dotlineform/dotlineform-site/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF460DE4-F7E5-B648-93F5-C394A5AB4667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E3F2D1-E5CE-B746-AE35-72B76BCA171C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20600" activeTab="3" xr2:uid="{3340F1A4-2CEC-C74D-85F7-446226E10E48}"/>
+    <workbookView xWindow="-20" yWindow="660" windowWidth="34560" windowHeight="20600" activeTab="5" xr2:uid="{3340F1A4-2CEC-C74D-85F7-446226E10E48}"/>
   </bookViews>
   <sheets>
     <sheet name="schema" sheetId="1" r:id="rId1"/>
     <sheet name="Works" sheetId="2" r:id="rId2"/>
     <sheet name="WorkImages" sheetId="3" r:id="rId3"/>
     <sheet name="WorkAttachments" sheetId="5" r:id="rId4"/>
-    <sheet name="lookups" sheetId="4" r:id="rId5"/>
+    <sheet name="Series" sheetId="9" r:id="rId5"/>
+    <sheet name="Themes" sheetId="6" r:id="rId6"/>
+    <sheet name="ThemeSeries" sheetId="7" r:id="rId7"/>
+    <sheet name="lookups" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="195">
   <si>
     <t>Column name</t>
   </si>
@@ -601,6 +604,30 @@
   </si>
   <si>
     <t>00339</t>
+  </si>
+  <si>
+    <t>theme_id</t>
+  </si>
+  <si>
+    <t>curve-poems</t>
+  </si>
+  <si>
+    <t>theme_title</t>
+  </si>
+  <si>
+    <t>theme_date</t>
+  </si>
+  <si>
+    <t>theme_prose_key</t>
+  </si>
+  <si>
+    <t>series_id</t>
+  </si>
+  <si>
+    <t>series_title</t>
+  </si>
+  <si>
+    <t>curve-poems-series</t>
   </si>
 </sst>
 </file>
@@ -659,7 +686,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -669,6 +696,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1126,7 +1156,7 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="b">
         <f>NOT(ISERROR(HLOOKUP(B9,Works!$1:$1,1,FALSE)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
@@ -1555,7 +1585,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C52" sqref="C52"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
@@ -1591,7 +1621,7 @@
         <v>18</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>6</v>
+        <v>192</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>76</v>
@@ -1647,7 +1677,7 @@
         <v>2024</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>91</v>
@@ -1691,7 +1721,7 @@
         <v>2024</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>91</v>
@@ -1735,7 +1765,7 @@
         <v>2024</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>91</v>
@@ -1779,7 +1809,7 @@
         <v>2024</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>91</v>
@@ -1823,7 +1853,7 @@
         <v>2024</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>91</v>
@@ -1867,7 +1897,7 @@
         <v>2024</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>91</v>
@@ -1911,7 +1941,7 @@
         <v>2024</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>91</v>
@@ -1955,7 +1985,7 @@
         <v>2024</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>91</v>
@@ -1999,7 +2029,7 @@
         <v>2024</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>91</v>
@@ -2043,7 +2073,7 @@
         <v>2024</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>91</v>
@@ -2087,7 +2117,7 @@
         <v>2024</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>91</v>
@@ -2131,7 +2161,7 @@
         <v>2024</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>91</v>
@@ -2175,7 +2205,7 @@
         <v>2024</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>91</v>
@@ -2219,7 +2249,7 @@
         <v>2024</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>91</v>
@@ -2263,7 +2293,7 @@
         <v>2024</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>91</v>
@@ -2307,7 +2337,7 @@
         <v>2024</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>91</v>
@@ -2351,7 +2381,7 @@
         <v>2024</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>91</v>
@@ -2395,7 +2425,7 @@
         <v>2024</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>91</v>
@@ -2439,7 +2469,7 @@
         <v>2024</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>91</v>
@@ -2483,7 +2513,7 @@
         <v>2024</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>91</v>
@@ -2527,7 +2557,7 @@
         <v>2024</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>91</v>
@@ -2571,7 +2601,7 @@
         <v>2024</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>91</v>
@@ -2615,7 +2645,7 @@
         <v>2024</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>91</v>
@@ -2659,7 +2689,7 @@
         <v>2024</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>91</v>
@@ -2703,7 +2733,7 @@
         <v>2024</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>91</v>
@@ -2747,7 +2777,7 @@
         <v>2024</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>91</v>
@@ -2791,7 +2821,7 @@
         <v>2024</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>91</v>
@@ -2835,7 +2865,7 @@
         <v>2024</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>91</v>
@@ -2879,7 +2909,7 @@
         <v>2024</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>91</v>
@@ -2923,7 +2953,7 @@
         <v>2024</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>91</v>
@@ -2967,7 +2997,7 @@
         <v>2024</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>91</v>
@@ -3011,7 +3041,7 @@
         <v>2024</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>91</v>
@@ -3055,7 +3085,7 @@
         <v>2024</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>91</v>
@@ -3099,7 +3129,7 @@
         <v>2024</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>91</v>
@@ -3143,7 +3173,7 @@
         <v>2024</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>91</v>
@@ -3187,7 +3217,7 @@
         <v>2024</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>91</v>
@@ -3231,7 +3261,7 @@
         <v>2024</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>91</v>
@@ -3275,7 +3305,7 @@
         <v>2024</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>91</v>
@@ -3319,7 +3349,7 @@
         <v>2024</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>91</v>
@@ -3363,7 +3393,7 @@
         <v>2024</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>91</v>
@@ -3407,7 +3437,7 @@
         <v>2024</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>91</v>
@@ -3451,7 +3481,7 @@
         <v>2024</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>91</v>
@@ -3495,7 +3525,7 @@
         <v>2024</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>91</v>
@@ -3539,7 +3569,7 @@
         <v>2024</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>91</v>
@@ -3583,7 +3613,7 @@
         <v>2024</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>91</v>
@@ -3627,7 +3657,7 @@
         <v>2024</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>91</v>
@@ -3671,7 +3701,7 @@
         <v>2024</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>91</v>
@@ -3715,7 +3745,7 @@
         <v>2024</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>91</v>
@@ -3759,7 +3789,7 @@
         <v>2024</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>91</v>
@@ -3803,7 +3833,7 @@
         <v>2024</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>91</v>
@@ -3847,7 +3877,7 @@
         <v>2024</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>91</v>
@@ -3891,7 +3921,7 @@
         <v>2024</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>91</v>
@@ -3935,7 +3965,7 @@
         <v>2024</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>91</v>
@@ -3979,7 +4009,7 @@
         <v>2024</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>91</v>
@@ -4023,7 +4053,7 @@
         <v>2024</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>91</v>
@@ -4131,7 +4161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A307C2-25E9-AF4C-9C45-B37330E6C0EA}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -4177,6 +4207,135 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9B8475-BE87-C444-A643-36F19988A384}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8090762-04EB-FC46-90C1-9A8DE33FBED9}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="20.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="8">
+        <v>46046</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D2348F-09E6-1C4F-A712-D75D02A09D8F}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC30609-FE54-1C46-AE81-1F762FADE82A}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>

--- a/data/works.xlsx
+++ b/data/works.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dlf/Developer/dotlineform/dotlineform-site/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E3F2D1-E5CE-B746-AE35-72B76BCA171C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7573D2B3-5357-6341-9BC3-59A56559B588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="660" windowWidth="34560" windowHeight="20600" activeTab="5" xr2:uid="{3340F1A4-2CEC-C74D-85F7-446226E10E48}"/>
+    <workbookView xWindow="-20" yWindow="660" windowWidth="34560" windowHeight="20600" activeTab="4" xr2:uid="{3340F1A4-2CEC-C74D-85F7-446226E10E48}"/>
   </bookViews>
   <sheets>
     <sheet name="schema" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="196">
   <si>
     <t>Column name</t>
   </si>
@@ -618,9 +618,6 @@
     <t>theme_date</t>
   </si>
   <si>
-    <t>theme_prose_key</t>
-  </si>
-  <si>
     <t>series_id</t>
   </si>
   <si>
@@ -628,6 +625,12 @@
   </si>
   <si>
     <t>curve-poems-series</t>
+  </si>
+  <si>
+    <t>2024-25</t>
+  </si>
+  <si>
+    <t>curves</t>
   </si>
 </sst>
 </file>
@@ -1585,7 +1588,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
@@ -1621,7 +1624,7 @@
         <v>18</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>76</v>
@@ -1677,7 +1680,7 @@
         <v>2024</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>91</v>
@@ -1721,7 +1724,7 @@
         <v>2024</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>91</v>
@@ -1765,7 +1768,7 @@
         <v>2024</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>91</v>
@@ -1809,7 +1812,7 @@
         <v>2024</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>91</v>
@@ -1853,7 +1856,7 @@
         <v>2024</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>91</v>
@@ -1897,7 +1900,7 @@
         <v>2024</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>91</v>
@@ -1941,7 +1944,7 @@
         <v>2024</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>91</v>
@@ -1985,7 +1988,7 @@
         <v>2024</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>91</v>
@@ -2029,7 +2032,7 @@
         <v>2024</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>91</v>
@@ -2073,7 +2076,7 @@
         <v>2024</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>91</v>
@@ -2117,7 +2120,7 @@
         <v>2024</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>91</v>
@@ -2161,7 +2164,7 @@
         <v>2024</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>91</v>
@@ -2205,7 +2208,7 @@
         <v>2024</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>91</v>
@@ -2249,7 +2252,7 @@
         <v>2024</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>91</v>
@@ -2293,7 +2296,7 @@
         <v>2024</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>91</v>
@@ -2337,7 +2340,7 @@
         <v>2024</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>91</v>
@@ -2381,7 +2384,7 @@
         <v>2024</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>91</v>
@@ -2425,7 +2428,7 @@
         <v>2024</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>91</v>
@@ -2469,7 +2472,7 @@
         <v>2024</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>91</v>
@@ -2513,7 +2516,7 @@
         <v>2024</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>91</v>
@@ -2557,7 +2560,7 @@
         <v>2024</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>91</v>
@@ -2601,7 +2604,7 @@
         <v>2024</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>91</v>
@@ -2645,7 +2648,7 @@
         <v>2024</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>91</v>
@@ -2689,7 +2692,7 @@
         <v>2024</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>91</v>
@@ -2733,7 +2736,7 @@
         <v>2024</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>91</v>
@@ -2777,7 +2780,7 @@
         <v>2024</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>91</v>
@@ -2821,7 +2824,7 @@
         <v>2024</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>91</v>
@@ -2865,7 +2868,7 @@
         <v>2024</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>91</v>
@@ -2909,7 +2912,7 @@
         <v>2024</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>91</v>
@@ -2953,7 +2956,7 @@
         <v>2024</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>91</v>
@@ -2997,7 +3000,7 @@
         <v>2024</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>91</v>
@@ -3041,7 +3044,7 @@
         <v>2024</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>91</v>
@@ -3085,7 +3088,7 @@
         <v>2024</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>91</v>
@@ -3129,7 +3132,7 @@
         <v>2024</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>91</v>
@@ -3173,7 +3176,7 @@
         <v>2024</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>91</v>
@@ -3217,7 +3220,7 @@
         <v>2024</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>91</v>
@@ -3261,7 +3264,7 @@
         <v>2024</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>91</v>
@@ -3305,7 +3308,7 @@
         <v>2024</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>91</v>
@@ -3349,7 +3352,7 @@
         <v>2024</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>91</v>
@@ -3393,7 +3396,7 @@
         <v>2024</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>91</v>
@@ -3437,7 +3440,7 @@
         <v>2024</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>91</v>
@@ -3481,7 +3484,7 @@
         <v>2024</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>91</v>
@@ -3525,7 +3528,7 @@
         <v>2024</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>91</v>
@@ -3569,7 +3572,7 @@
         <v>2024</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>91</v>
@@ -3613,7 +3616,7 @@
         <v>2024</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>91</v>
@@ -3657,7 +3660,7 @@
         <v>2024</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>91</v>
@@ -3701,7 +3704,7 @@
         <v>2024</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>91</v>
@@ -3745,7 +3748,7 @@
         <v>2024</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>91</v>
@@ -3789,7 +3792,7 @@
         <v>2024</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>91</v>
@@ -3833,7 +3836,7 @@
         <v>2024</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>91</v>
@@ -3877,7 +3880,7 @@
         <v>2024</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>91</v>
@@ -3921,7 +3924,7 @@
         <v>2024</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>91</v>
@@ -3965,7 +3968,7 @@
         <v>2024</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>91</v>
@@ -4009,7 +4012,7 @@
         <v>2024</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>91</v>
@@ -4053,7 +4056,7 @@
         <v>2024</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>91</v>
@@ -4208,9 +4211,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9B8475-BE87-C444-A643-36F19988A384}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -4220,24 +4223,38 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="3" width="20.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>85</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2025</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -4249,11 +4266,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8090762-04EB-FC46-90C1-9A8DE33FBED9}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
@@ -4273,23 +4290,18 @@
       <c r="C1" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>191</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>85</v>
+        <v>195</v>
       </c>
       <c r="C2" s="8">
-        <v>46046</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>188</v>
-      </c>
+        <v>46051</v>
+      </c>
+      <c r="D2" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4304,7 +4316,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
@@ -4319,15 +4331,15 @@
         <v>187</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/data/works.xlsx
+++ b/data/works.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dlf/Developer/dotlineform/dotlineform-site/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18252E2D-5071-4A4D-A946-DB738F2AC2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C33C27-35C3-5F4C-BDFC-84B50007EC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="660" windowWidth="34560" windowHeight="20600" activeTab="1" xr2:uid="{3340F1A4-2CEC-C74D-85F7-446226E10E48}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20600" activeTab="2" xr2:uid="{3340F1A4-2CEC-C74D-85F7-446226E10E48}"/>
   </bookViews>
   <sheets>
     <sheet name="schema" sheetId="1" r:id="rId1"/>
     <sheet name="Works" sheetId="2" r:id="rId2"/>
-    <sheet name="WorkImages" sheetId="3" r:id="rId3"/>
+    <sheet name="WorkFiles" sheetId="10" r:id="rId3"/>
     <sheet name="WorkAttachments" sheetId="5" r:id="rId4"/>
     <sheet name="Series" sheetId="9" r:id="rId5"/>
     <sheet name="Themes" sheetId="6" r:id="rId6"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="193">
   <si>
     <t>Column name</t>
   </si>
@@ -231,12 +231,6 @@
     <t>join supplemental images to a work page.</t>
   </si>
   <si>
-    <t>detail | wip | install | alternate</t>
-  </si>
-  <si>
-    <t>consistent meaning and optional grouping on the work page.</t>
-  </si>
-  <si>
     <t>not derived from other fields, leave work-specific and follow master image naming</t>
   </si>
   <si>
@@ -342,21 +336,9 @@
     <t>001</t>
   </si>
   <si>
-    <t>detail</t>
-  </si>
-  <si>
     <t>reference for image rows; debugging, curation, sorting</t>
   </si>
   <si>
-    <t>00286-detail-001.webp</t>
-  </si>
-  <si>
-    <t>Detail 1</t>
-  </si>
-  <si>
-    <t>Detail 1 of work 00286</t>
-  </si>
-  <si>
     <t>00286-work-card.pdf</t>
   </si>
   <si>
@@ -628,6 +610,18 @@
   </si>
   <si>
     <t>curves</t>
+  </si>
+  <si>
+    <t>detail | work in progress | installation</t>
+  </si>
+  <si>
+    <t>consistent meaning and optional grouping of images on the work page.</t>
+  </si>
+  <si>
+    <t>file_id</t>
+  </si>
+  <si>
+    <t>file_label</t>
   </si>
 </sst>
 </file>
@@ -686,7 +680,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -696,9 +690,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1087,7 +1078,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>40</v>
@@ -1099,13 +1090,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1165,7 +1156,7 @@
         <v>43</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1174,16 +1165,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1192,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>59</v>
@@ -1210,7 +1201,7 @@
         <v>24</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>60</v>
@@ -1270,7 +1261,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>44</v>
@@ -1303,7 +1294,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>36</v>
@@ -1321,7 +1312,7 @@
         <v>56</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>57</v>
@@ -1387,29 +1378,29 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="b">
-        <f>NOT(ISERROR(HLOOKUP(B26,WorkImages!$1:$1,1,FALSE)))</f>
-        <v>1</v>
+        <f>NOT(ISERROR(HLOOKUP(B26,#REF!,1,FALSE)))</f>
+        <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="b">
-        <f>NOT(ISERROR(HLOOKUP(B27,WorkImages!$1:$1,1,FALSE)))</f>
-        <v>1</v>
+        <f>NOT(ISERROR(HLOOKUP(B27,#REF!,1,FALSE)))</f>
+        <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>61</v>
@@ -1417,41 +1408,41 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="b">
-        <f>NOT(ISERROR(HLOOKUP(B28,WorkImages!$1:$1,1,FALSE)))</f>
-        <v>1</v>
+        <f>NOT(ISERROR(HLOOKUP(B28,#REF!,1,FALSE)))</f>
+        <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>62</v>
+        <v>189</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>63</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="b">
-        <f>NOT(ISERROR(HLOOKUP(B29,WorkImages!$1:$1,1,FALSE)))</f>
-        <v>1</v>
+        <f>NOT(ISERROR(HLOOKUP(B29,#REF!,1,FALSE)))</f>
+        <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="b">
-        <f>NOT(ISERROR(HLOOKUP(B30,WorkImages!$1:$1,1,FALSE)))</f>
-        <v>1</v>
+        <f>NOT(ISERROR(HLOOKUP(B30,#REF!,1,FALSE)))</f>
+        <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>17</v>
@@ -1460,62 +1451,62 @@
         <v>25</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="b">
-        <f>NOT(ISERROR(HLOOKUP(B31,WorkImages!$1:$1,1,FALSE)))</f>
-        <v>1</v>
+        <f>NOT(ISERROR(HLOOKUP(B31,#REF!,1,FALSE)))</f>
+        <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="b">
-        <f>NOT(ISERROR(HLOOKUP(B32,WorkImages!$1:$1,1,FALSE)))</f>
-        <v>1</v>
+        <f>NOT(ISERROR(HLOOKUP(B32,#REF!,1,FALSE)))</f>
+        <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="b">
-        <f>NOT(ISERROR(HLOOKUP(B33,WorkImages!$1:$1,1,FALSE)))</f>
-        <v>1</v>
+        <f>NOT(ISERROR(HLOOKUP(B33,#REF!,1,FALSE)))</f>
+        <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1524,10 +1515,10 @@
         <v>1</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1539,7 +1530,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1551,10 +1542,10 @@
         <v>16</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1563,13 +1554,13 @@
         <v>1</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1581,8 +1572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A006D3C4-93E9-0943-8732-0CF384DB2AB6}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="F56" sqref="F56"/>
@@ -1592,7 +1583,7 @@
   <cols>
     <col min="1" max="1" width="20.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="72.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" style="1" customWidth="1"/>
     <col min="6" max="7" width="20.83203125" style="1" customWidth="1"/>
@@ -1609,7 +1600,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>4</v>
@@ -1621,13 +1612,13 @@
         <v>18</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>24</v>
@@ -1662,13 +1653,13 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D2" s="1">
         <v>2024</v>
@@ -1677,16 +1668,16 @@
         <v>2024</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K2" s="1">
         <v>42</v>
@@ -1695,24 +1686,24 @@
         <v>29.7</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O2" s="8">
         <v>46046</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D3" s="1">
         <v>2024</v>
@@ -1721,16 +1712,16 @@
         <v>2024</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K3" s="1">
         <v>29.7</v>
@@ -1739,42 +1730,42 @@
         <v>42</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O3" s="8">
         <v>46046</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2024</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2024</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K4" s="1">
         <v>42</v>
@@ -1783,42 +1774,42 @@
         <v>29.7</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O4" s="8">
         <v>46046</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2024</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2024</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K5" s="1">
         <v>42</v>
@@ -1827,42 +1818,42 @@
         <v>29.7</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O5" s="8">
         <v>46046</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2024</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2024</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K6" s="1">
         <v>42</v>
@@ -1871,42 +1862,42 @@
         <v>29.7</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O6" s="8">
         <v>46046</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2024</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2024</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="J7" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K7" s="1">
         <v>42</v>
@@ -1915,42 +1906,42 @@
         <v>29.7</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O7" s="8">
         <v>46046</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2024</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2024</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K8" s="1">
         <v>42</v>
@@ -1959,24 +1950,24 @@
         <v>29.7</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O8" s="8">
         <v>46046</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D9" s="1">
         <v>2024</v>
@@ -1985,16 +1976,16 @@
         <v>2024</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K9" s="1">
         <v>42</v>
@@ -2003,24 +1994,24 @@
         <v>29.7</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O9" s="8">
         <v>46046</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D10" s="1">
         <v>2024</v>
@@ -2029,16 +2020,16 @@
         <v>2024</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K10" s="1">
         <v>42</v>
@@ -2047,24 +2038,24 @@
         <v>29.7</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O10" s="8">
         <v>46046</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D11" s="1">
         <v>2024</v>
@@ -2073,16 +2064,16 @@
         <v>2024</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1">
         <v>42</v>
@@ -2091,24 +2082,24 @@
         <v>29.7</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O11" s="8">
         <v>46046</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D12" s="1">
         <v>2024</v>
@@ -2117,16 +2108,16 @@
         <v>2024</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K12" s="1">
         <v>42</v>
@@ -2135,24 +2126,24 @@
         <v>29.7</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O12" s="8">
         <v>46046</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D13" s="1">
         <v>2024</v>
@@ -2161,16 +2152,16 @@
         <v>2024</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K13" s="1">
         <v>42</v>
@@ -2179,24 +2170,24 @@
         <v>29.7</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O13" s="8">
         <v>46046</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D14" s="1">
         <v>2024</v>
@@ -2205,16 +2196,16 @@
         <v>2024</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K14" s="1">
         <v>42</v>
@@ -2223,24 +2214,24 @@
         <v>29.7</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O14" s="8">
         <v>46046</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D15" s="1">
         <v>2024</v>
@@ -2249,16 +2240,16 @@
         <v>2024</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K15" s="1">
         <v>42</v>
@@ -2267,24 +2258,24 @@
         <v>29.7</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O15" s="8">
         <v>46046</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D16" s="1">
         <v>2024</v>
@@ -2293,16 +2284,16 @@
         <v>2024</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K16" s="1">
         <v>42</v>
@@ -2311,24 +2302,24 @@
         <v>29.7</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O16" s="8">
         <v>46046</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D17" s="1">
         <v>2024</v>
@@ -2337,16 +2328,16 @@
         <v>2024</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1">
         <v>42</v>
@@ -2355,24 +2346,24 @@
         <v>29.7</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O17" s="8">
         <v>46046</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D18" s="1">
         <v>2024</v>
@@ -2381,16 +2372,16 @@
         <v>2024</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K18" s="1">
         <v>42</v>
@@ -2399,42 +2390,42 @@
         <v>29.7</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O18" s="8">
         <v>46046</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2024</v>
-      </c>
-      <c r="E19" s="1">
-        <v>2024</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="J19" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K19" s="1">
         <v>42</v>
@@ -2443,42 +2434,42 @@
         <v>29.7</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O19" s="8">
         <v>46046</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="1">
-        <v>2024</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2024</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="J20" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K20" s="1">
         <v>42</v>
@@ -2487,42 +2478,42 @@
         <v>29.7</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O20" s="8">
         <v>46046</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2024</v>
-      </c>
-      <c r="E21" s="1">
-        <v>2024</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="J21" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K21" s="1">
         <v>42</v>
@@ -2531,42 +2522,42 @@
         <v>29.7</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O21" s="8">
         <v>46046</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="1">
-        <v>2024</v>
-      </c>
-      <c r="E22" s="1">
-        <v>2024</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="J22" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K22" s="1">
         <v>42</v>
@@ -2575,24 +2566,24 @@
         <v>29.7</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O22" s="8">
         <v>46046</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D23" s="1">
         <v>2024</v>
@@ -2601,16 +2592,16 @@
         <v>2024</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K23" s="1">
         <v>42</v>
@@ -2619,24 +2610,24 @@
         <v>29.7</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O23" s="8">
         <v>46046</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D24" s="1">
         <v>2024</v>
@@ -2645,16 +2636,16 @@
         <v>2024</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K24" s="1">
         <v>42</v>
@@ -2663,42 +2654,42 @@
         <v>29.7</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O24" s="8">
         <v>46046</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2024</v>
-      </c>
-      <c r="E25" s="1">
-        <v>2024</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="J25" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K25" s="1">
         <v>42</v>
@@ -2707,42 +2698,42 @@
         <v>29.7</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O25" s="8">
         <v>46046</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="1">
-        <v>2024</v>
-      </c>
-      <c r="E26" s="1">
-        <v>2024</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="J26" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K26" s="1">
         <v>42</v>
@@ -2751,24 +2742,24 @@
         <v>29.7</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O26" s="8">
         <v>46046</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27" s="1">
         <v>2024</v>
@@ -2777,16 +2768,16 @@
         <v>2024</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K27" s="1">
         <v>42</v>
@@ -2795,42 +2786,42 @@
         <v>29.7</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O27" s="8">
         <v>46046</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="1">
-        <v>2024</v>
-      </c>
-      <c r="E28" s="1">
-        <v>2024</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="J28" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K28" s="1">
         <v>42</v>
@@ -2839,24 +2830,24 @@
         <v>29.7</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O28" s="8">
         <v>46046</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D29" s="1">
         <v>2024</v>
@@ -2865,16 +2856,16 @@
         <v>2024</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K29" s="1">
         <v>42</v>
@@ -2883,42 +2874,42 @@
         <v>29.7</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8">
         <v>46046</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="1">
-        <v>2024</v>
-      </c>
-      <c r="E30" s="1">
-        <v>2024</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="J30" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K30" s="1">
         <v>42</v>
@@ -2927,24 +2918,24 @@
         <v>29.7</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8">
         <v>46046</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D31" s="1">
         <v>2024</v>
@@ -2953,16 +2944,16 @@
         <v>2024</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K31" s="1">
         <v>42</v>
@@ -2971,42 +2962,42 @@
         <v>29.7</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8">
         <v>46046</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="1">
-        <v>2024</v>
-      </c>
-      <c r="E32" s="1">
-        <v>2024</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="J32" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K32" s="1">
         <v>42</v>
@@ -3015,42 +3006,42 @@
         <v>29.7</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8">
         <v>46046</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" s="1">
-        <v>2024</v>
-      </c>
-      <c r="E33" s="1">
-        <v>2024</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="J33" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K33" s="1">
         <v>42</v>
@@ -3059,42 +3050,42 @@
         <v>29.7</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O33" s="8">
         <v>46046</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" s="1">
-        <v>2024</v>
-      </c>
-      <c r="E34" s="1">
-        <v>2024</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="J34" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K34" s="1">
         <v>42</v>
@@ -3103,24 +3094,24 @@
         <v>29.7</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O34" s="8">
         <v>46046</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D35" s="1">
         <v>2024</v>
@@ -3129,16 +3120,16 @@
         <v>2024</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K35" s="1">
         <v>42</v>
@@ -3147,24 +3138,24 @@
         <v>29.7</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O35" s="8">
         <v>46046</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D36" s="1">
         <v>2024</v>
@@ -3173,16 +3164,16 @@
         <v>2024</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K36" s="1">
         <v>42</v>
@@ -3191,24 +3182,24 @@
         <v>29.7</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O36" s="8">
         <v>46046</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D37" s="1">
         <v>2024</v>
@@ -3217,16 +3208,16 @@
         <v>2024</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K37" s="1">
         <v>42</v>
@@ -3235,24 +3226,24 @@
         <v>29.7</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O37" s="8">
         <v>46046</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D38" s="1">
         <v>2024</v>
@@ -3261,16 +3252,16 @@
         <v>2024</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K38" s="1">
         <v>42</v>
@@ -3279,24 +3270,24 @@
         <v>29.7</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O38" s="8">
         <v>46046</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D39" s="1">
         <v>2024</v>
@@ -3305,16 +3296,16 @@
         <v>2024</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K39" s="1">
         <v>42</v>
@@ -3323,24 +3314,24 @@
         <v>29.7</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O39" s="8">
         <v>46046</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D40" s="1">
         <v>2024</v>
@@ -3349,16 +3340,16 @@
         <v>2024</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K40" s="1">
         <v>42</v>
@@ -3367,24 +3358,24 @@
         <v>29.7</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O40" s="8">
         <v>46046</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D41" s="1">
         <v>2024</v>
@@ -3393,16 +3384,16 @@
         <v>2024</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K41" s="1">
         <v>42</v>
@@ -3411,24 +3402,24 @@
         <v>29.7</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O41" s="8">
         <v>46046</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D42" s="1">
         <v>2024</v>
@@ -3437,16 +3428,16 @@
         <v>2024</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K42" s="1">
         <v>42</v>
@@ -3455,42 +3446,42 @@
         <v>29.7</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O42" s="8">
         <v>46046</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E43" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D43" s="1">
-        <v>2024</v>
-      </c>
-      <c r="E43" s="1">
-        <v>2024</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="J43" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K43" s="1">
         <v>42</v>
@@ -3499,24 +3490,24 @@
         <v>29.7</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O43" s="8">
         <v>46046</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D44" s="1">
         <v>2024</v>
@@ -3525,16 +3516,16 @@
         <v>2024</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K44" s="1">
         <v>42</v>
@@ -3543,24 +3534,24 @@
         <v>29.7</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O44" s="8">
         <v>46046</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D45" s="1">
         <v>2024</v>
@@ -3569,16 +3560,16 @@
         <v>2024</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K45" s="1">
         <v>42</v>
@@ -3587,24 +3578,24 @@
         <v>29.7</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O45" s="8">
         <v>46046</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D46" s="1">
         <v>2024</v>
@@ -3613,16 +3604,16 @@
         <v>2024</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K46" s="1">
         <v>42</v>
@@ -3631,24 +3622,24 @@
         <v>29.7</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O46" s="8">
         <v>46046</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D47" s="1">
         <v>2024</v>
@@ -3657,16 +3648,16 @@
         <v>2024</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K47" s="1">
         <v>42</v>
@@ -3675,24 +3666,24 @@
         <v>29.7</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O47" s="8">
         <v>46046</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D48" s="1">
         <v>2024</v>
@@ -3701,16 +3692,16 @@
         <v>2024</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K48" s="1">
         <v>42</v>
@@ -3719,24 +3710,24 @@
         <v>29.7</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O48" s="8">
         <v>46046</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D49" s="1">
         <v>2024</v>
@@ -3745,16 +3736,16 @@
         <v>2024</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1">
         <v>42</v>
@@ -3763,24 +3754,24 @@
         <v>29.7</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O49" s="8">
         <v>46046</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D50" s="1">
         <v>2024</v>
@@ -3789,16 +3780,16 @@
         <v>2024</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1">
         <v>42</v>
@@ -3807,24 +3798,24 @@
         <v>29.7</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O50" s="8">
         <v>46046</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D51" s="1">
         <v>2024</v>
@@ -3833,16 +3824,16 @@
         <v>2024</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K51" s="1">
         <v>42</v>
@@ -3851,24 +3842,24 @@
         <v>29.7</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O51" s="8">
         <v>46046</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D52" s="1">
         <v>2024</v>
@@ -3877,16 +3868,16 @@
         <v>2024</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K52" s="1">
         <v>42</v>
@@ -3895,24 +3886,24 @@
         <v>29.7</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O52" s="8">
         <v>46046</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D53" s="1">
         <v>2024</v>
@@ -3921,16 +3912,16 @@
         <v>2024</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1">
         <v>42</v>
@@ -3939,24 +3930,24 @@
         <v>29.7</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O53" s="8">
         <v>46046</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D54" s="1">
         <v>2024</v>
@@ -3965,16 +3956,16 @@
         <v>2024</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K54" s="1">
         <v>42</v>
@@ -3983,42 +3974,42 @@
         <v>29.7</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O54" s="8">
         <v>46046</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B55" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D55" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E55" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D55" s="1">
-        <v>2024</v>
-      </c>
-      <c r="E55" s="1">
-        <v>2024</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="J55" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K55" s="1">
         <v>42</v>
@@ -4027,42 +4018,42 @@
         <v>29.7</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O55" s="8">
         <v>46046</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B56" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D56" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E56" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H56" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D56" s="1">
-        <v>2024</v>
-      </c>
-      <c r="E56" s="1">
-        <v>2024</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="J56" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K56" s="1">
         <v>42</v>
@@ -4071,13 +4062,13 @@
         <v>29.7</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O56" s="8">
         <v>46046</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -4086,70 +4077,40 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D97D8E-FD08-1349-9CBB-22A16DB9F6B8}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1FD9C38-EEDE-3B48-B7E6-A7692F053C8D}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="20.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="20.83203125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4162,7 +4123,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
@@ -4175,7 +4136,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>3</v>
@@ -4184,21 +4145,21 @@
         <v>16</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4228,10 +4189,10 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>5</v>
@@ -4242,16 +4203,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C2" s="6">
         <v>2025</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -4279,21 +4240,21 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C2" s="8">
         <v>46051</v>
@@ -4318,25 +4279,25 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>191</v>
+      <c r="A1" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="6" t="s">
         <v>188</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -4364,13 +4325,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>32</v>

--- a/data/works.xlsx
+++ b/data/works.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dlf/Developer/dotlineform/dotlineform-site/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FA6616-13A6-254E-BCB1-176AD165083E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBB8CAA-8360-714E-8F9C-AF25654CE335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20600" activeTab="1" xr2:uid="{3340F1A4-2CEC-C74D-85F7-446226E10E48}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="379">
   <si>
     <t>Column name</t>
   </si>
@@ -1175,6 +1175,9 @@
   </si>
   <si>
     <t>ready</t>
+  </si>
+  <si>
+    <t>2017-25</t>
   </si>
 </sst>
 </file>
@@ -2055,7 +2058,7 @@
   <dimension ref="A1:X107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C58" sqref="C58"/>
@@ -7360,13 +7363,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9B8475-BE87-C444-A643-36F19988A384}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
@@ -7404,6 +7407,20 @@
       </c>
       <c r="D2" s="1" t="s">
         <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2025</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>378</v>
       </c>
     </row>
   </sheetData>

--- a/data/works.xlsx
+++ b/data/works.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dlf/Developer/dotlineform/dotlineform-site/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBB8CAA-8360-714E-8F9C-AF25654CE335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7B0334-6D33-6149-8F54-9AC609A97BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20600" activeTab="1" xr2:uid="{3340F1A4-2CEC-C74D-85F7-446226E10E48}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="380">
   <si>
     <t>Column name</t>
   </si>
@@ -1178,6 +1178,9 @@
   </si>
   <si>
     <t>2017-25</t>
+  </si>
+  <si>
+    <t>draft</t>
   </si>
 </sst>
 </file>
@@ -2058,10 +2061,10 @@
   <dimension ref="A1:X107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C58" sqref="C58"/>
+      <selection pane="bottomRight" activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
@@ -5062,7 +5065,7 @@
         <v>274</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>260</v>
@@ -5109,7 +5112,7 @@
         <v>275</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>260</v>
@@ -5156,7 +5159,7 @@
         <v>276</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>260</v>
@@ -5203,7 +5206,7 @@
         <v>277</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>260</v>
@@ -5250,7 +5253,7 @@
         <v>278</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>260</v>
@@ -5297,7 +5300,7 @@
         <v>279</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>260</v>
@@ -5344,7 +5347,7 @@
         <v>280</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>260</v>
@@ -5391,7 +5394,7 @@
         <v>281</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>260</v>
@@ -5438,7 +5441,7 @@
         <v>282</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>260</v>
@@ -5485,7 +5488,7 @@
         <v>283</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>260</v>
@@ -5532,7 +5535,7 @@
         <v>284</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>260</v>
@@ -5579,7 +5582,7 @@
         <v>285</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>260</v>
@@ -5626,7 +5629,7 @@
         <v>286</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>260</v>
@@ -5673,7 +5676,7 @@
         <v>287</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>260</v>
@@ -5720,7 +5723,7 @@
         <v>288</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>260</v>
@@ -5767,7 +5770,7 @@
         <v>289</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>260</v>
@@ -5814,7 +5817,7 @@
         <v>290</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>260</v>
@@ -5861,7 +5864,7 @@
         <v>291</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>260</v>
@@ -5908,7 +5911,7 @@
         <v>292</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>260</v>
@@ -5955,7 +5958,7 @@
         <v>293</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>260</v>
@@ -6002,7 +6005,7 @@
         <v>294</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>260</v>
@@ -6049,7 +6052,7 @@
         <v>295</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>260</v>
@@ -6096,7 +6099,7 @@
         <v>296</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>260</v>
@@ -6143,7 +6146,7 @@
         <v>297</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>260</v>
@@ -6190,7 +6193,7 @@
         <v>298</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>260</v>
@@ -6237,7 +6240,7 @@
         <v>299</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>260</v>
@@ -6284,7 +6287,7 @@
         <v>300</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>260</v>
@@ -6331,7 +6334,7 @@
         <v>301</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>260</v>
@@ -6378,7 +6381,7 @@
         <v>302</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>260</v>
@@ -6425,7 +6428,7 @@
         <v>303</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>260</v>
@@ -6472,7 +6475,7 @@
         <v>304</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>260</v>
@@ -6519,7 +6522,7 @@
         <v>305</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>260</v>
@@ -6566,7 +6569,7 @@
         <v>306</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>260</v>
@@ -6613,7 +6616,7 @@
         <v>307</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>260</v>
@@ -6660,7 +6663,7 @@
         <v>308</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>260</v>
@@ -6707,7 +6710,7 @@
         <v>309</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>260</v>
@@ -6754,7 +6757,7 @@
         <v>310</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>260</v>
@@ -6801,7 +6804,7 @@
         <v>311</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>260</v>
@@ -6848,7 +6851,7 @@
         <v>312</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>260</v>
@@ -6895,7 +6898,7 @@
         <v>313</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>260</v>
@@ -6942,7 +6945,7 @@
         <v>314</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>260</v>
@@ -6989,7 +6992,7 @@
         <v>315</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>260</v>
@@ -7036,7 +7039,7 @@
         <v>316</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>260</v>
@@ -7083,7 +7086,7 @@
         <v>317</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>260</v>
@@ -7130,7 +7133,7 @@
         <v>318</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>260</v>
@@ -7177,7 +7180,7 @@
         <v>319</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>260</v>
@@ -7224,7 +7227,7 @@
         <v>320</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>260</v>
@@ -7271,7 +7274,7 @@
         <v>321</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>260</v>

--- a/data/works.xlsx
+++ b/data/works.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dlf/Developer/dotlineform/dotlineform-site/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7B071C-BDD0-754F-A0D0-AAF57688BE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBB02C3-6E79-0045-ADDC-A08A942A0AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="379">
   <si>
     <t>Works</t>
   </si>
@@ -1153,6 +1153,15 @@
   </si>
   <si>
     <t>progress tracking. internal use only - field not written into front matter.</t>
+  </si>
+  <si>
+    <t>works_print</t>
+  </si>
+  <si>
+    <t>_works_print folder - for converting into pdf</t>
+  </si>
+  <si>
+    <t>create a print version of work page (default blank=no)</t>
   </si>
 </sst>
 </file>
@@ -1564,10 +1573,10 @@
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
@@ -1649,13 +1658,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1663,13 +1672,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>373</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>374</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1677,13 +1686,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1691,13 +1700,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1705,13 +1714,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1719,13 +1728,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1733,13 +1742,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1747,13 +1756,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1761,13 +1770,13 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1775,10 +1784,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>35</v>
@@ -1789,13 +1798,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1803,10 +1812,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>40</v>
@@ -1817,13 +1826,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1831,13 +1840,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1845,13 +1854,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1859,13 +1868,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1873,13 +1882,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1887,13 +1896,13 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1901,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>61</v>
@@ -1915,7 +1924,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>61</v>
@@ -1924,28 +1933,28 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1953,10 +1962,10 @@
         <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>69</v>
@@ -1967,12 +1976,26 @@
         <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1983,41 +2006,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W107"/>
+  <dimension ref="A1:X107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U5" sqref="U5"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="37.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="10" customWidth="1"/>
-    <col min="10" max="11" width="20.83203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="29.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.1640625" style="1" customWidth="1"/>
-    <col min="16" max="19" width="20.83203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="26.83203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="15.5" style="1" customWidth="1"/>
-    <col min="22" max="22" width="15.1640625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="17.83203125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="10.83203125" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="13.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="10" customWidth="1"/>
+    <col min="11" max="12" width="20.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="29.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.1640625" style="1" customWidth="1"/>
+    <col min="17" max="20" width="20.83203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="26.83203125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="15.5" style="1" customWidth="1"/>
+    <col min="23" max="23" width="15.1640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="17.83203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="10.83203125" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -2028,67 +2052,70 @@
         <v>12</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>75</v>
       </c>
@@ -2098,47 +2125,47 @@
       <c r="C2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="8">
+      <c r="E2" s="8">
         <v>46046</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="10">
-        <v>2024</v>
-      </c>
       <c r="I2" s="10">
         <v>2024</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <v>42</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P2" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T2" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="U2" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>86</v>
       </c>
@@ -2148,47 +2175,47 @@
       <c r="C3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="8">
+      <c r="E3" s="8">
         <v>46046</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H3" s="10">
-        <v>2024</v>
-      </c>
       <c r="I3" s="10">
         <v>2024</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <v>42</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P3" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T3" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="U3" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>89</v>
       </c>
@@ -2198,47 +2225,47 @@
       <c r="C4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="8">
+      <c r="E4" s="8">
         <v>46046</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H4" s="10">
-        <v>2024</v>
-      </c>
       <c r="I4" s="10">
         <v>2024</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <v>42</v>
       </c>
-      <c r="O4" s="1">
+      <c r="P4" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T4" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="U4" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>91</v>
       </c>
@@ -2248,47 +2275,47 @@
       <c r="C5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="8">
+      <c r="E5" s="8">
         <v>46046</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H5" s="10">
-        <v>2024</v>
-      </c>
       <c r="I5" s="10">
         <v>2024</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <v>42</v>
       </c>
-      <c r="O5" s="1">
+      <c r="P5" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T5" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="U5" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>93</v>
       </c>
@@ -2298,47 +2325,47 @@
       <c r="C6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="8">
+      <c r="E6" s="8">
         <v>46046</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H6" s="10">
-        <v>2024</v>
-      </c>
       <c r="I6" s="10">
         <v>2024</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>42</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T6" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="U6" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>95</v>
       </c>
@@ -2348,47 +2375,47 @@
       <c r="C7" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="8">
+      <c r="E7" s="8">
         <v>46046</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H7" s="10">
-        <v>2024</v>
-      </c>
       <c r="I7" s="10">
         <v>2024</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>42</v>
       </c>
-      <c r="O7" s="1">
+      <c r="P7" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T7" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="U7" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>97</v>
       </c>
@@ -2398,47 +2425,47 @@
       <c r="C8" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="8">
+      <c r="E8" s="8">
         <v>46046</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="10">
-        <v>2024</v>
-      </c>
       <c r="I8" s="10">
         <v>2024</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <v>42</v>
       </c>
-      <c r="O8" s="1">
+      <c r="P8" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T8" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="U8" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>100</v>
       </c>
@@ -2448,47 +2475,47 @@
       <c r="C9" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="8">
+      <c r="E9" s="8">
         <v>46046</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H9" s="10">
-        <v>2024</v>
-      </c>
       <c r="I9" s="10">
         <v>2024</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <v>42</v>
       </c>
-      <c r="O9" s="1">
+      <c r="P9" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T9" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="U9" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>103</v>
       </c>
@@ -2498,47 +2525,47 @@
       <c r="C10" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="8">
+      <c r="E10" s="8">
         <v>46046</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H10" s="10">
-        <v>2024</v>
-      </c>
       <c r="I10" s="10">
         <v>2024</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="N10" s="1">
+      <c r="O10" s="1">
         <v>42</v>
       </c>
-      <c r="O10" s="1">
+      <c r="P10" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T10" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="U10" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>105</v>
       </c>
@@ -2548,47 +2575,47 @@
       <c r="C11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="8">
+      <c r="E11" s="8">
         <v>46046</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="G11" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="10">
-        <v>2024</v>
-      </c>
       <c r="I11" s="10">
         <v>2024</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="N11" s="1">
+      <c r="O11" s="1">
         <v>42</v>
       </c>
-      <c r="O11" s="1">
+      <c r="P11" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="R11" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T11" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="U11" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>108</v>
       </c>
@@ -2598,47 +2625,47 @@
       <c r="C12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="8">
+      <c r="E12" s="8">
         <v>46046</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H12" s="10">
-        <v>2024</v>
-      </c>
       <c r="I12" s="10">
         <v>2024</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="N12" s="1">
+      <c r="O12" s="1">
         <v>42</v>
       </c>
-      <c r="O12" s="1">
+      <c r="P12" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="R12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T12" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="U12" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>111</v>
       </c>
@@ -2648,47 +2675,47 @@
       <c r="C13" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="8">
+      <c r="E13" s="8">
         <v>46046</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="10">
-        <v>2024</v>
-      </c>
       <c r="I13" s="10">
         <v>2024</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="N13" s="1">
+      <c r="O13" s="1">
         <v>42</v>
       </c>
-      <c r="O13" s="1">
+      <c r="P13" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="R13" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T13" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="U13" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>113</v>
       </c>
@@ -2698,47 +2725,47 @@
       <c r="C14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="8">
+      <c r="E14" s="8">
         <v>46046</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="G14" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H14" s="10">
-        <v>2024</v>
-      </c>
       <c r="I14" s="10">
         <v>2024</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="N14" s="1">
+      <c r="O14" s="1">
         <v>42</v>
       </c>
-      <c r="O14" s="1">
+      <c r="P14" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="R14" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T14" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="U14" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>115</v>
       </c>
@@ -2748,47 +2775,47 @@
       <c r="C15" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="8">
+      <c r="E15" s="8">
         <v>46046</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="G15" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H15" s="10">
-        <v>2024</v>
-      </c>
       <c r="I15" s="10">
         <v>2024</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="N15" s="1">
+      <c r="O15" s="1">
         <v>42</v>
       </c>
-      <c r="O15" s="1">
+      <c r="P15" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="R15" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T15" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="U15" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>117</v>
       </c>
@@ -2798,47 +2825,47 @@
       <c r="C16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="8">
+      <c r="E16" s="8">
         <v>46046</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="G16" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="10">
-        <v>2024</v>
-      </c>
       <c r="I16" s="10">
         <v>2024</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="N16" s="1">
+      <c r="O16" s="1">
         <v>42</v>
       </c>
-      <c r="O16" s="1">
+      <c r="P16" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="R16" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T16" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>119</v>
       </c>
@@ -2848,47 +2875,47 @@
       <c r="C17" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="8">
+      <c r="E17" s="8">
         <v>46046</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="G17" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H17" s="10">
-        <v>2024</v>
-      </c>
       <c r="I17" s="10">
         <v>2024</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="N17" s="1">
+      <c r="O17" s="1">
         <v>42</v>
       </c>
-      <c r="O17" s="1">
+      <c r="P17" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="R17" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T17" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>121</v>
       </c>
@@ -2898,47 +2925,47 @@
       <c r="C18" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="8">
+      <c r="E18" s="8">
         <v>46046</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="G18" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="10">
-        <v>2024</v>
-      </c>
       <c r="I18" s="10">
         <v>2024</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="N18" s="1">
+      <c r="O18" s="1">
         <v>42</v>
       </c>
-      <c r="O18" s="1">
+      <c r="P18" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="R18" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T18" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>123</v>
       </c>
@@ -2948,47 +2975,47 @@
       <c r="C19" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="8">
+      <c r="E19" s="8">
         <v>46046</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="G19" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H19" s="10">
-        <v>2024</v>
-      </c>
       <c r="I19" s="10">
         <v>2024</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="M19" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="N19" s="1">
+      <c r="O19" s="1">
         <v>42</v>
       </c>
-      <c r="O19" s="1">
+      <c r="P19" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q19" s="1" t="s">
+      <c r="R19" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T19" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>125</v>
       </c>
@@ -2998,47 +3025,47 @@
       <c r="C20" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="8">
+      <c r="E20" s="8">
         <v>46046</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="G20" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H20" s="10">
-        <v>2024</v>
-      </c>
       <c r="I20" s="10">
         <v>2024</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="M20" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="N20" s="1">
+      <c r="O20" s="1">
         <v>42</v>
       </c>
-      <c r="O20" s="1">
+      <c r="P20" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="R20" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T20" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>127</v>
       </c>
@@ -3048,47 +3075,47 @@
       <c r="C21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="8">
+      <c r="E21" s="8">
         <v>46046</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="G21" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H21" s="10">
-        <v>2024</v>
-      </c>
       <c r="I21" s="10">
         <v>2024</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="M21" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="N21" s="1">
+      <c r="O21" s="1">
         <v>42</v>
       </c>
-      <c r="O21" s="1">
+      <c r="P21" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q21" s="1" t="s">
+      <c r="R21" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T21" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>129</v>
       </c>
@@ -3098,47 +3125,47 @@
       <c r="C22" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="8">
+      <c r="E22" s="8">
         <v>46046</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="G22" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H22" s="10">
-        <v>2024</v>
-      </c>
       <c r="I22" s="10">
         <v>2024</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="L22" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="M22" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="N22" s="1">
+      <c r="O22" s="1">
         <v>42</v>
       </c>
-      <c r="O22" s="1">
+      <c r="P22" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="R22" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T22" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>131</v>
       </c>
@@ -3148,47 +3175,47 @@
       <c r="C23" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="8">
+      <c r="E23" s="8">
         <v>46046</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="G23" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H23" s="10">
-        <v>2024</v>
-      </c>
       <c r="I23" s="10">
         <v>2024</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="L23" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="M23" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="N23" s="1">
+      <c r="O23" s="1">
         <v>42</v>
       </c>
-      <c r="O23" s="1">
+      <c r="P23" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q23" s="1" t="s">
+      <c r="R23" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T23" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>133</v>
       </c>
@@ -3198,47 +3225,47 @@
       <c r="C24" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="8">
+      <c r="E24" s="8">
         <v>46046</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="G24" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H24" s="10">
-        <v>2024</v>
-      </c>
       <c r="I24" s="10">
         <v>2024</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="L24" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="M24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="N24" s="1">
+      <c r="O24" s="1">
         <v>42</v>
       </c>
-      <c r="O24" s="1">
+      <c r="P24" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q24" s="1" t="s">
+      <c r="R24" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T24" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>136</v>
       </c>
@@ -3248,47 +3275,47 @@
       <c r="C25" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="8">
+      <c r="E25" s="8">
         <v>46046</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="G25" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H25" s="10">
-        <v>2024</v>
-      </c>
       <c r="I25" s="10">
         <v>2024</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="L25" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="M25" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="N25" s="1">
+      <c r="O25" s="1">
         <v>42</v>
       </c>
-      <c r="O25" s="1">
+      <c r="P25" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q25" s="1" t="s">
+      <c r="R25" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T25" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>138</v>
       </c>
@@ -3298,47 +3325,47 @@
       <c r="C26" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="8">
+      <c r="E26" s="8">
         <v>46046</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="G26" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H26" s="10">
-        <v>2024</v>
-      </c>
       <c r="I26" s="10">
         <v>2024</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="L26" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="M26" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="N26" s="1">
+      <c r="O26" s="1">
         <v>42</v>
       </c>
-      <c r="O26" s="1">
+      <c r="P26" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q26" s="1" t="s">
+      <c r="R26" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T26" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>140</v>
       </c>
@@ -3348,47 +3375,47 @@
       <c r="C27" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="8">
+      <c r="E27" s="8">
         <v>46046</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="G27" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H27" s="10">
-        <v>2024</v>
-      </c>
       <c r="I27" s="10">
         <v>2024</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J27" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="L27" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="M27" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="N27" s="1">
+      <c r="O27" s="1">
         <v>42</v>
       </c>
-      <c r="O27" s="1">
+      <c r="P27" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q27" s="1" t="s">
+      <c r="R27" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T27" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>142</v>
       </c>
@@ -3398,47 +3425,47 @@
       <c r="C28" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="8">
+      <c r="E28" s="8">
         <v>46046</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="G28" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H28" s="10">
-        <v>2024</v>
-      </c>
       <c r="I28" s="10">
         <v>2024</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J28" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="L28" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="M28" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="N28" s="1">
+      <c r="O28" s="1">
         <v>42</v>
       </c>
-      <c r="O28" s="1">
+      <c r="P28" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q28" s="1" t="s">
+      <c r="R28" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T28" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>144</v>
       </c>
@@ -3448,47 +3475,47 @@
       <c r="C29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="8">
+      <c r="E29" s="8">
         <v>46046</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="G29" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H29" s="10">
-        <v>2024</v>
-      </c>
       <c r="I29" s="10">
         <v>2024</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J29" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="L29" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="M29" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="N29" s="1">
+      <c r="O29" s="1">
         <v>42</v>
       </c>
-      <c r="O29" s="1">
+      <c r="P29" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q29" s="1" t="s">
+      <c r="R29" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T29" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>146</v>
       </c>
@@ -3498,47 +3525,47 @@
       <c r="C30" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="8">
+      <c r="E30" s="8">
         <v>46046</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="G30" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H30" s="10">
-        <v>2024</v>
-      </c>
       <c r="I30" s="10">
         <v>2024</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J30" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="L30" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="M30" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="N30" s="1">
+      <c r="O30" s="1">
         <v>42</v>
       </c>
-      <c r="O30" s="1">
+      <c r="P30" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q30" s="1" t="s">
+      <c r="R30" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T30" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>149</v>
       </c>
@@ -3548,47 +3575,47 @@
       <c r="C31" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="8">
+      <c r="E31" s="8">
         <v>46046</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="G31" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H31" s="10">
-        <v>2024</v>
-      </c>
       <c r="I31" s="10">
         <v>2024</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J31" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K31" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="L31" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="M31" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="N31" s="1">
+      <c r="O31" s="1">
         <v>42</v>
       </c>
-      <c r="O31" s="1">
+      <c r="P31" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q31" s="1" t="s">
+      <c r="R31" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T31" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>151</v>
       </c>
@@ -3598,47 +3625,47 @@
       <c r="C32" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="8">
+      <c r="E32" s="8">
         <v>46046</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="G32" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H32" s="10">
-        <v>2024</v>
-      </c>
       <c r="I32" s="10">
         <v>2024</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="J32" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K32" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="L32" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="M32" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="N32" s="1">
+      <c r="O32" s="1">
         <v>42</v>
       </c>
-      <c r="O32" s="1">
+      <c r="P32" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q32" s="1" t="s">
+      <c r="R32" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T32" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>153</v>
       </c>
@@ -3648,47 +3675,47 @@
       <c r="C33" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="8">
+      <c r="E33" s="8">
         <v>46046</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="G33" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H33" s="10">
-        <v>2024</v>
-      </c>
       <c r="I33" s="10">
         <v>2024</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="J33" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="L33" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="M33" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="N33" s="1">
+      <c r="O33" s="1">
         <v>42</v>
       </c>
-      <c r="O33" s="1">
+      <c r="P33" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q33" s="1" t="s">
+      <c r="R33" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T33" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>155</v>
       </c>
@@ -3698,47 +3725,47 @@
       <c r="C34" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="8">
+      <c r="E34" s="8">
         <v>46046</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="G34" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H34" s="10">
-        <v>2024</v>
-      </c>
       <c r="I34" s="10">
         <v>2024</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="J34" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K34" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="L34" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="M34" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="N34" s="1">
+      <c r="O34" s="1">
         <v>42</v>
       </c>
-      <c r="O34" s="1">
+      <c r="P34" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q34" s="1" t="s">
+      <c r="R34" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T34" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>158</v>
       </c>
@@ -3748,47 +3775,47 @@
       <c r="C35" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="8">
+      <c r="E35" s="8">
         <v>46046</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="G35" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H35" s="10">
-        <v>2024</v>
-      </c>
       <c r="I35" s="10">
         <v>2024</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="J35" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K35" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="L35" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="M35" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="N35" s="1">
+      <c r="O35" s="1">
         <v>42</v>
       </c>
-      <c r="O35" s="1">
+      <c r="P35" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q35" s="1" t="s">
+      <c r="R35" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T35" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>161</v>
       </c>
@@ -3798,47 +3825,47 @@
       <c r="C36" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="8">
+      <c r="E36" s="8">
         <v>46046</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="G36" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H36" s="10">
-        <v>2024</v>
-      </c>
       <c r="I36" s="10">
         <v>2024</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="J36" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K36" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="L36" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="M36" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="N36" s="1">
+      <c r="O36" s="1">
         <v>42</v>
       </c>
-      <c r="O36" s="1">
+      <c r="P36" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q36" s="1" t="s">
+      <c r="R36" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T36" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U36" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>163</v>
       </c>
@@ -3848,47 +3875,47 @@
       <c r="C37" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D37" s="8">
+      <c r="E37" s="8">
         <v>46046</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="G37" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H37" s="10">
-        <v>2024</v>
-      </c>
       <c r="I37" s="10">
         <v>2024</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="J37" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K37" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="L37" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="M37" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="N37" s="1">
+      <c r="O37" s="1">
         <v>42</v>
       </c>
-      <c r="O37" s="1">
+      <c r="P37" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q37" s="1" t="s">
+      <c r="R37" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T37" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U37" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>166</v>
       </c>
@@ -3898,47 +3925,47 @@
       <c r="C38" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="8">
+      <c r="E38" s="8">
         <v>46046</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="G38" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H38" s="10">
-        <v>2024</v>
-      </c>
       <c r="I38" s="10">
         <v>2024</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="J38" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K38" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="L38" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="M38" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="N38" s="1">
+      <c r="O38" s="1">
         <v>42</v>
       </c>
-      <c r="O38" s="1">
+      <c r="P38" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q38" s="1" t="s">
+      <c r="R38" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T38" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>168</v>
       </c>
@@ -3948,47 +3975,47 @@
       <c r="C39" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D39" s="8">
+      <c r="E39" s="8">
         <v>46046</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="G39" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H39" s="10">
-        <v>2024</v>
-      </c>
       <c r="I39" s="10">
         <v>2024</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="J39" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K39" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="L39" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="M39" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="N39" s="1">
+      <c r="O39" s="1">
         <v>42</v>
       </c>
-      <c r="O39" s="1">
+      <c r="P39" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q39" s="1" t="s">
+      <c r="R39" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T39" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>171</v>
       </c>
@@ -3998,47 +4025,47 @@
       <c r="C40" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="8">
+      <c r="E40" s="8">
         <v>46046</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="G40" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H40" s="10">
-        <v>2024</v>
-      </c>
       <c r="I40" s="10">
         <v>2024</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="J40" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K40" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="L40" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L40" s="1" t="s">
+      <c r="M40" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="N40" s="1">
+      <c r="O40" s="1">
         <v>42</v>
       </c>
-      <c r="O40" s="1">
+      <c r="P40" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q40" s="1" t="s">
+      <c r="R40" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T40" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>173</v>
       </c>
@@ -4048,47 +4075,47 @@
       <c r="C41" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D41" s="8">
+      <c r="E41" s="8">
         <v>46046</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="G41" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H41" s="10">
-        <v>2024</v>
-      </c>
       <c r="I41" s="10">
         <v>2024</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="J41" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K41" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="L41" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L41" s="1" t="s">
+      <c r="M41" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="N41" s="1">
+      <c r="O41" s="1">
         <v>42</v>
       </c>
-      <c r="O41" s="1">
+      <c r="P41" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q41" s="1" t="s">
+      <c r="R41" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T41" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>175</v>
       </c>
@@ -4098,47 +4125,47 @@
       <c r="C42" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D42" s="8">
+      <c r="E42" s="8">
         <v>46046</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="G42" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H42" s="10">
-        <v>2024</v>
-      </c>
       <c r="I42" s="10">
         <v>2024</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J42" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K42" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="L42" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="M42" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="N42" s="1">
+      <c r="O42" s="1">
         <v>42</v>
       </c>
-      <c r="O42" s="1">
+      <c r="P42" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q42" s="1" t="s">
+      <c r="R42" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T42" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>177</v>
       </c>
@@ -4148,47 +4175,47 @@
       <c r="C43" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D43" s="8">
+      <c r="E43" s="8">
         <v>46046</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="G43" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H43" s="10">
-        <v>2024</v>
-      </c>
       <c r="I43" s="10">
         <v>2024</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="J43" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K43" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="L43" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="M43" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="N43" s="1">
+      <c r="O43" s="1">
         <v>42</v>
       </c>
-      <c r="O43" s="1">
+      <c r="P43" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q43" s="1" t="s">
+      <c r="R43" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T43" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>179</v>
       </c>
@@ -4198,47 +4225,47 @@
       <c r="C44" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D44" s="8">
+      <c r="E44" s="8">
         <v>46046</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="G44" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H44" s="10">
-        <v>2024</v>
-      </c>
       <c r="I44" s="10">
         <v>2024</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="J44" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K44" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="L44" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="M44" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="N44" s="1">
+      <c r="O44" s="1">
         <v>42</v>
       </c>
-      <c r="O44" s="1">
+      <c r="P44" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q44" s="1" t="s">
+      <c r="R44" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T44" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>181</v>
       </c>
@@ -4248,47 +4275,47 @@
       <c r="C45" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D45" s="8">
+      <c r="E45" s="8">
         <v>46046</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="G45" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H45" s="10">
-        <v>2024</v>
-      </c>
       <c r="I45" s="10">
         <v>2024</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="J45" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K45" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="L45" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="M45" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="N45" s="1">
+      <c r="O45" s="1">
         <v>42</v>
       </c>
-      <c r="O45" s="1">
+      <c r="P45" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q45" s="1" t="s">
+      <c r="R45" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T45" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>183</v>
       </c>
@@ -4298,47 +4325,47 @@
       <c r="C46" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D46" s="8">
+      <c r="E46" s="8">
         <v>46046</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="G46" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H46" s="10">
-        <v>2024</v>
-      </c>
       <c r="I46" s="10">
         <v>2024</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="J46" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K46" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="L46" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L46" s="1" t="s">
+      <c r="M46" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="N46" s="1">
+      <c r="O46" s="1">
         <v>42</v>
       </c>
-      <c r="O46" s="1">
+      <c r="P46" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q46" s="1" t="s">
+      <c r="R46" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T46" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>185</v>
       </c>
@@ -4348,47 +4375,47 @@
       <c r="C47" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D47" s="8">
+      <c r="E47" s="8">
         <v>46046</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="G47" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H47" s="10">
-        <v>2024</v>
-      </c>
       <c r="I47" s="10">
         <v>2024</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="J47" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K47" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K47" s="1" t="s">
+      <c r="L47" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L47" s="1" t="s">
+      <c r="M47" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="N47" s="1">
+      <c r="O47" s="1">
         <v>42</v>
       </c>
-      <c r="O47" s="1">
+      <c r="P47" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q47" s="1" t="s">
+      <c r="R47" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T47" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>187</v>
       </c>
@@ -4398,47 +4425,47 @@
       <c r="C48" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D48" s="8">
+      <c r="E48" s="8">
         <v>46046</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="G48" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H48" s="10">
-        <v>2024</v>
-      </c>
       <c r="I48" s="10">
         <v>2024</v>
       </c>
-      <c r="J48" s="1" t="s">
+      <c r="J48" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K48" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K48" s="1" t="s">
+      <c r="L48" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L48" s="1" t="s">
+      <c r="M48" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="N48" s="1">
+      <c r="O48" s="1">
         <v>42</v>
       </c>
-      <c r="O48" s="1">
+      <c r="P48" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q48" s="1" t="s">
+      <c r="R48" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T48" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>189</v>
       </c>
@@ -4448,47 +4475,47 @@
       <c r="C49" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D49" s="8">
+      <c r="E49" s="8">
         <v>46046</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="G49" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H49" s="10">
-        <v>2024</v>
-      </c>
       <c r="I49" s="10">
         <v>2024</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="J49" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K49" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K49" s="1" t="s">
+      <c r="L49" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="M49" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="N49" s="1">
+      <c r="O49" s="1">
         <v>42</v>
       </c>
-      <c r="O49" s="1">
+      <c r="P49" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q49" s="1" t="s">
+      <c r="R49" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T49" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>191</v>
       </c>
@@ -4498,47 +4525,47 @@
       <c r="C50" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D50" s="8">
+      <c r="E50" s="8">
         <v>46046</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="G50" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H50" s="10">
-        <v>2024</v>
-      </c>
       <c r="I50" s="10">
         <v>2024</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="J50" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K50" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K50" s="1" t="s">
+      <c r="L50" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L50" s="1" t="s">
+      <c r="M50" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="N50" s="1">
+      <c r="O50" s="1">
         <v>42</v>
       </c>
-      <c r="O50" s="1">
+      <c r="P50" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q50" s="1" t="s">
+      <c r="R50" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T50" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>193</v>
       </c>
@@ -4548,47 +4575,47 @@
       <c r="C51" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D51" s="8">
+      <c r="E51" s="8">
         <v>46046</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="G51" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H51" s="10">
-        <v>2024</v>
-      </c>
       <c r="I51" s="10">
         <v>2024</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="J51" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K51" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K51" s="1" t="s">
+      <c r="L51" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L51" s="1" t="s">
+      <c r="M51" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="N51" s="1">
+      <c r="O51" s="1">
         <v>42</v>
       </c>
-      <c r="O51" s="1">
+      <c r="P51" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q51" s="1" t="s">
+      <c r="R51" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T51" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>195</v>
       </c>
@@ -4598,47 +4625,47 @@
       <c r="C52" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D52" s="8">
+      <c r="E52" s="8">
         <v>46046</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="G52" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H52" s="10">
-        <v>2024</v>
-      </c>
       <c r="I52" s="10">
         <v>2024</v>
       </c>
-      <c r="J52" s="1" t="s">
+      <c r="J52" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K52" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K52" s="1" t="s">
+      <c r="L52" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L52" s="1" t="s">
+      <c r="M52" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="N52" s="1">
+      <c r="O52" s="1">
         <v>42</v>
       </c>
-      <c r="O52" s="1">
+      <c r="P52" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q52" s="1" t="s">
+      <c r="R52" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T52" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>197</v>
       </c>
@@ -4648,47 +4675,47 @@
       <c r="C53" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D53" s="8">
+      <c r="E53" s="8">
         <v>46046</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="G53" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="H53" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H53" s="10">
-        <v>2024</v>
-      </c>
       <c r="I53" s="10">
         <v>2024</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="J53" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K53" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K53" s="1" t="s">
+      <c r="L53" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L53" s="1" t="s">
+      <c r="M53" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="N53" s="1">
+      <c r="O53" s="1">
         <v>42</v>
       </c>
-      <c r="O53" s="1">
+      <c r="P53" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q53" s="1" t="s">
+      <c r="R53" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T53" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>199</v>
       </c>
@@ -4698,47 +4725,47 @@
       <c r="C54" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D54" s="8">
+      <c r="E54" s="8">
         <v>46046</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="G54" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="H54" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H54" s="10">
-        <v>2024</v>
-      </c>
       <c r="I54" s="10">
         <v>2024</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="J54" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K54" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K54" s="1" t="s">
+      <c r="L54" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L54" s="1" t="s">
+      <c r="M54" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="N54" s="1">
+      <c r="O54" s="1">
         <v>42</v>
       </c>
-      <c r="O54" s="1">
+      <c r="P54" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q54" s="1" t="s">
+      <c r="R54" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T54" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>201</v>
       </c>
@@ -4748,47 +4775,47 @@
       <c r="C55" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D55" s="8">
+      <c r="E55" s="8">
         <v>46046</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="G55" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="H55" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H55" s="10">
-        <v>2024</v>
-      </c>
       <c r="I55" s="10">
         <v>2024</v>
       </c>
-      <c r="J55" s="1" t="s">
+      <c r="J55" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K55" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K55" s="1" t="s">
+      <c r="L55" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L55" s="1" t="s">
+      <c r="M55" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="N55" s="1">
+      <c r="O55" s="1">
         <v>42</v>
       </c>
-      <c r="O55" s="1">
+      <c r="P55" s="1">
         <v>29.7</v>
       </c>
-      <c r="Q55" s="1" t="s">
+      <c r="R55" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T55" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>203</v>
       </c>
@@ -4798,47 +4825,47 @@
       <c r="C56" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D56" s="8">
+      <c r="E56" s="8">
         <v>46046</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="G56" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H56" s="10">
-        <v>2024</v>
-      </c>
       <c r="I56" s="10">
         <v>2024</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="J56" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K56" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K56" s="1" t="s">
+      <c r="L56" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L56" s="1" t="s">
+      <c r="M56" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="N56" s="1">
+      <c r="O56" s="1">
         <v>29.7</v>
       </c>
-      <c r="O56" s="1">
+      <c r="P56" s="1">
         <v>42</v>
       </c>
-      <c r="Q56" s="1" t="s">
+      <c r="R56" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T56" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>207</v>
       </c>
@@ -4848,44 +4875,44 @@
       <c r="C57" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D57" s="8">
+      <c r="E57" s="8">
         <v>46053</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="H57" s="10">
-        <v>2017</v>
       </c>
       <c r="I57" s="10">
         <v>2017</v>
       </c>
-      <c r="J57" s="1" t="s">
+      <c r="J57" s="10">
+        <v>2017</v>
+      </c>
+      <c r="K57" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K57" s="1" t="s">
+      <c r="L57" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L57" s="1" t="s">
+      <c r="M57" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="N57" s="1">
-        <v>30</v>
       </c>
       <c r="O57" s="1">
         <v>30</v>
       </c>
-      <c r="Q57" s="1" t="s">
+      <c r="P57" s="1">
+        <v>30</v>
+      </c>
+      <c r="R57" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="T57" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>215</v>
       </c>
@@ -4895,44 +4922,44 @@
       <c r="C58" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D58" s="8">
+      <c r="E58" s="8">
         <v>46053</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="F58" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="G58" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="H58" s="10">
-        <v>2017</v>
       </c>
       <c r="I58" s="10">
         <v>2017</v>
       </c>
-      <c r="J58" s="1" t="s">
+      <c r="J58" s="10">
+        <v>2017</v>
+      </c>
+      <c r="K58" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K58" s="1" t="s">
+      <c r="L58" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L58" s="1" t="s">
+      <c r="M58" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="N58" s="1">
-        <v>30</v>
       </c>
       <c r="O58" s="1">
         <v>30</v>
       </c>
-      <c r="Q58" s="1" t="s">
+      <c r="P58" s="1">
+        <v>30</v>
+      </c>
+      <c r="R58" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="T58" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>218</v>
       </c>
@@ -4942,44 +4969,44 @@
       <c r="C59" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D59" s="8">
+      <c r="E59" s="8">
         <v>46053</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="F59" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="H59" s="10">
-        <v>2017</v>
       </c>
       <c r="I59" s="10">
         <v>2017</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="J59" s="10">
+        <v>2017</v>
+      </c>
+      <c r="K59" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K59" s="1" t="s">
+      <c r="L59" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L59" s="1" t="s">
+      <c r="M59" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="N59" s="1">
-        <v>30</v>
       </c>
       <c r="O59" s="1">
         <v>30</v>
       </c>
-      <c r="Q59" s="1" t="s">
+      <c r="P59" s="1">
+        <v>30</v>
+      </c>
+      <c r="R59" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="T59" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>221</v>
       </c>
@@ -4989,44 +5016,44 @@
       <c r="C60" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D60" s="8">
+      <c r="E60" s="8">
         <v>46053</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="F60" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="H60" s="10">
-        <v>2017</v>
       </c>
       <c r="I60" s="10">
         <v>2017</v>
       </c>
-      <c r="J60" s="1" t="s">
+      <c r="J60" s="10">
+        <v>2017</v>
+      </c>
+      <c r="K60" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K60" s="1" t="s">
+      <c r="L60" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L60" s="1" t="s">
+      <c r="M60" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="N60" s="1">
-        <v>30</v>
       </c>
       <c r="O60" s="1">
         <v>30</v>
       </c>
-      <c r="Q60" s="1" t="s">
+      <c r="P60" s="1">
+        <v>30</v>
+      </c>
+      <c r="R60" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="T60" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>226</v>
       </c>
@@ -5036,44 +5063,44 @@
       <c r="C61" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D61" s="8">
+      <c r="E61" s="8">
         <v>46053</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="F61" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="G61" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="H61" s="10">
-        <v>2024</v>
-      </c>
       <c r="I61" s="10">
         <v>2024</v>
       </c>
-      <c r="J61" s="1" t="s">
+      <c r="J61" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K61" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K61" s="1" t="s">
+      <c r="L61" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L61" s="1" t="s">
+      <c r="M61" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N61" s="1">
+      <c r="O61" s="1">
         <v>30</v>
       </c>
-      <c r="O61" s="1">
+      <c r="P61" s="1">
         <v>40</v>
       </c>
-      <c r="Q61" s="1" t="s">
+      <c r="R61" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="T61" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>229</v>
       </c>
@@ -5083,44 +5110,44 @@
       <c r="C62" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D62" s="8">
+      <c r="E62" s="8">
         <v>46053</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="F62" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="G62" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="H62" s="10">
-        <v>2024</v>
-      </c>
       <c r="I62" s="10">
         <v>2024</v>
       </c>
-      <c r="J62" s="1" t="s">
+      <c r="J62" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K62" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K62" s="1" t="s">
+      <c r="L62" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L62" s="1" t="s">
+      <c r="M62" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="N62" s="1">
-        <v>30</v>
       </c>
       <c r="O62" s="1">
         <v>30</v>
       </c>
-      <c r="Q62" s="1" t="s">
+      <c r="P62" s="1">
+        <v>30</v>
+      </c>
+      <c r="R62" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="T62" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>232</v>
       </c>
@@ -5130,44 +5157,44 @@
       <c r="C63" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D63" s="8">
+      <c r="E63" s="8">
         <v>46053</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="F63" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="H63" s="10">
-        <v>2024</v>
-      </c>
       <c r="I63" s="10">
         <v>2024</v>
       </c>
-      <c r="J63" s="1" t="s">
+      <c r="J63" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K63" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K63" s="1" t="s">
+      <c r="L63" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L63" s="1" t="s">
+      <c r="M63" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="N63" s="1">
-        <v>30</v>
       </c>
       <c r="O63" s="1">
         <v>30</v>
       </c>
-      <c r="Q63" s="1" t="s">
+      <c r="P63" s="1">
+        <v>30</v>
+      </c>
+      <c r="R63" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="T63" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>235</v>
       </c>
@@ -5177,44 +5204,44 @@
       <c r="C64" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D64" s="8">
+      <c r="E64" s="8">
         <v>46053</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="F64" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="G64" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="H64" s="10">
-        <v>2025</v>
       </c>
       <c r="I64" s="10">
         <v>2025</v>
       </c>
-      <c r="J64" s="1" t="s">
+      <c r="J64" s="10">
+        <v>2025</v>
+      </c>
+      <c r="K64" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K64" s="1" t="s">
+      <c r="L64" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L64" s="1" t="s">
+      <c r="M64" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N64" s="1">
+      <c r="O64" s="1">
         <v>30</v>
       </c>
-      <c r="O64" s="1">
+      <c r="P64" s="1">
         <v>40</v>
       </c>
-      <c r="Q64" s="1" t="s">
+      <c r="R64" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="T64" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>238</v>
       </c>
@@ -5224,44 +5251,44 @@
       <c r="C65" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D65" s="8">
+      <c r="E65" s="8">
         <v>46053</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="F65" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="G65" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="H65" s="10">
-        <v>2025</v>
       </c>
       <c r="I65" s="10">
         <v>2025</v>
       </c>
-      <c r="J65" s="1" t="s">
+      <c r="J65" s="10">
+        <v>2025</v>
+      </c>
+      <c r="K65" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K65" s="1" t="s">
+      <c r="L65" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L65" s="1" t="s">
+      <c r="M65" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="N65" s="1">
-        <v>30</v>
       </c>
       <c r="O65" s="1">
         <v>30</v>
       </c>
-      <c r="Q65" s="1" t="s">
+      <c r="P65" s="1">
+        <v>30</v>
+      </c>
+      <c r="R65" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="T65" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>241</v>
       </c>
@@ -5271,44 +5298,44 @@
       <c r="C66" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D66" s="8">
+      <c r="E66" s="8">
         <v>46053</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="H66" s="10">
-        <v>2025</v>
       </c>
       <c r="I66" s="10">
         <v>2025</v>
       </c>
-      <c r="J66" s="1" t="s">
+      <c r="J66" s="10">
+        <v>2025</v>
+      </c>
+      <c r="K66" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K66" s="1" t="s">
+      <c r="L66" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L66" s="1" t="s">
+      <c r="M66" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N66" s="1">
+      <c r="O66" s="1">
         <v>40</v>
       </c>
-      <c r="O66" s="1">
+      <c r="P66" s="1">
         <v>30</v>
       </c>
-      <c r="Q66" s="1" t="s">
+      <c r="R66" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="T66" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>244</v>
       </c>
@@ -5318,44 +5345,44 @@
       <c r="C67" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D67" s="8">
+      <c r="E67" s="8">
         <v>46053</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="F67" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="G67" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="H67" s="10">
-        <v>2025</v>
       </c>
       <c r="I67" s="10">
         <v>2025</v>
       </c>
-      <c r="J67" s="1" t="s">
+      <c r="J67" s="10">
+        <v>2025</v>
+      </c>
+      <c r="K67" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K67" s="1" t="s">
+      <c r="L67" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L67" s="1" t="s">
+      <c r="M67" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="N67" s="1">
-        <v>30</v>
       </c>
       <c r="O67" s="1">
         <v>30</v>
       </c>
-      <c r="Q67" s="1" t="s">
+      <c r="P67" s="1">
+        <v>30</v>
+      </c>
+      <c r="R67" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="T67" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>247</v>
       </c>
@@ -5365,44 +5392,44 @@
       <c r="C68" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D68" s="8">
+      <c r="E68" s="8">
         <v>46053</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="F68" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="G68" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="H68" s="10">
-        <v>2025</v>
       </c>
       <c r="I68" s="10">
         <v>2025</v>
       </c>
-      <c r="J68" s="1" t="s">
+      <c r="J68" s="10">
+        <v>2025</v>
+      </c>
+      <c r="K68" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K68" s="1" t="s">
+      <c r="L68" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L68" s="1" t="s">
+      <c r="M68" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="N68" s="1">
-        <v>30</v>
       </c>
       <c r="O68" s="1">
         <v>30</v>
       </c>
-      <c r="Q68" s="1" t="s">
+      <c r="P68" s="1">
+        <v>30</v>
+      </c>
+      <c r="R68" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="T68" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>250</v>
       </c>
@@ -5412,44 +5439,44 @@
       <c r="C69" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D69" s="8">
+      <c r="E69" s="8">
         <v>46053</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="F69" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="G69" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="H69" s="10">
-        <v>2025</v>
       </c>
       <c r="I69" s="10">
         <v>2025</v>
       </c>
-      <c r="J69" s="1" t="s">
+      <c r="J69" s="10">
+        <v>2025</v>
+      </c>
+      <c r="K69" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K69" s="1" t="s">
+      <c r="L69" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L69" s="1" t="s">
+      <c r="M69" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="N69" s="1">
-        <v>30</v>
       </c>
       <c r="O69" s="1">
         <v>30</v>
       </c>
-      <c r="Q69" s="1" t="s">
+      <c r="P69" s="1">
+        <v>30</v>
+      </c>
+      <c r="R69" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="T69" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>253</v>
       </c>
@@ -5459,44 +5486,44 @@
       <c r="C70" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D70" s="8">
+      <c r="E70" s="8">
         <v>46053</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="G70" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="H70" s="10">
-        <v>2024</v>
-      </c>
       <c r="I70" s="10">
         <v>2024</v>
       </c>
-      <c r="J70" s="1" t="s">
+      <c r="J70" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K70" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K70" s="1" t="s">
+      <c r="L70" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L70" s="1" t="s">
+      <c r="M70" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="N70" s="1">
-        <v>30</v>
       </c>
       <c r="O70" s="1">
         <v>30</v>
       </c>
-      <c r="Q70" s="1" t="s">
+      <c r="P70" s="1">
+        <v>30</v>
+      </c>
+      <c r="R70" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="T70" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>256</v>
       </c>
@@ -5506,44 +5533,44 @@
       <c r="C71" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D71" s="8">
+      <c r="E71" s="8">
         <v>46053</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="F71" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="G71" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="H71" s="10">
-        <v>2024</v>
-      </c>
       <c r="I71" s="10">
         <v>2024</v>
       </c>
-      <c r="J71" s="1" t="s">
+      <c r="J71" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K71" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K71" s="1" t="s">
+      <c r="L71" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L71" s="1" t="s">
+      <c r="M71" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="N71" s="1">
-        <v>50</v>
       </c>
       <c r="O71" s="1">
         <v>50</v>
       </c>
-      <c r="Q71" s="1" t="s">
+      <c r="P71" s="1">
+        <v>50</v>
+      </c>
+      <c r="R71" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="T71" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>259</v>
       </c>
@@ -5553,44 +5580,44 @@
       <c r="C72" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D72" s="8">
+      <c r="E72" s="8">
         <v>46053</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="F72" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="G72" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="H72" s="10">
-        <v>2024</v>
-      </c>
       <c r="I72" s="10">
         <v>2024</v>
       </c>
-      <c r="J72" s="1" t="s">
+      <c r="J72" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K72" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K72" s="1" t="s">
+      <c r="L72" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L72" s="1" t="s">
+      <c r="M72" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="N72" s="1">
-        <v>50</v>
       </c>
       <c r="O72" s="1">
         <v>50</v>
       </c>
-      <c r="Q72" s="1" t="s">
+      <c r="P72" s="1">
+        <v>50</v>
+      </c>
+      <c r="R72" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="T72" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>262</v>
       </c>
@@ -5600,44 +5627,44 @@
       <c r="C73" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D73" s="8">
+      <c r="E73" s="8">
         <v>46053</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="G73" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="H73" s="10">
-        <v>2024</v>
-      </c>
       <c r="I73" s="10">
         <v>2024</v>
       </c>
-      <c r="J73" s="1" t="s">
+      <c r="J73" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K73" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K73" s="1" t="s">
+      <c r="L73" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L73" s="1" t="s">
+      <c r="M73" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="N73" s="1">
-        <v>50</v>
       </c>
       <c r="O73" s="1">
         <v>50</v>
       </c>
-      <c r="Q73" s="1" t="s">
+      <c r="P73" s="1">
+        <v>50</v>
+      </c>
+      <c r="R73" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="T73" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>265</v>
       </c>
@@ -5647,44 +5674,44 @@
       <c r="C74" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D74" s="8">
+      <c r="E74" s="8">
         <v>46053</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="F74" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="G74" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="H74" s="10">
-        <v>2024</v>
-      </c>
       <c r="I74" s="10">
         <v>2024</v>
       </c>
-      <c r="J74" s="1" t="s">
+      <c r="J74" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K74" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K74" s="1" t="s">
+      <c r="L74" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L74" s="1" t="s">
+      <c r="M74" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="N74" s="1">
-        <v>50</v>
       </c>
       <c r="O74" s="1">
         <v>50</v>
       </c>
-      <c r="Q74" s="1" t="s">
+      <c r="P74" s="1">
+        <v>50</v>
+      </c>
+      <c r="R74" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="T74" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>268</v>
       </c>
@@ -5694,44 +5721,44 @@
       <c r="C75" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D75" s="8">
+      <c r="E75" s="8">
         <v>46053</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="F75" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="G75" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="H75" s="10">
-        <v>2024</v>
-      </c>
       <c r="I75" s="10">
         <v>2024</v>
       </c>
-      <c r="J75" s="1" t="s">
+      <c r="J75" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K75" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K75" s="1" t="s">
+      <c r="L75" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L75" s="1" t="s">
+      <c r="M75" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="N75" s="1">
-        <v>50</v>
       </c>
       <c r="O75" s="1">
         <v>50</v>
       </c>
-      <c r="Q75" s="1" t="s">
+      <c r="P75" s="1">
+        <v>50</v>
+      </c>
+      <c r="R75" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="T75" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>271</v>
       </c>
@@ -5741,44 +5768,44 @@
       <c r="C76" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D76" s="8">
+      <c r="E76" s="8">
         <v>46053</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="F76" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="G76" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="H76" s="10">
-        <v>2023</v>
       </c>
       <c r="I76" s="10">
         <v>2023</v>
       </c>
-      <c r="J76" s="1" t="s">
+      <c r="J76" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K76" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K76" s="1" t="s">
+      <c r="L76" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L76" s="1" t="s">
+      <c r="M76" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="N76" s="1">
-        <v>50</v>
       </c>
       <c r="O76" s="1">
         <v>50</v>
       </c>
-      <c r="Q76" s="1" t="s">
+      <c r="P76" s="1">
+        <v>50</v>
+      </c>
+      <c r="R76" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="T76" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>274</v>
       </c>
@@ -5788,44 +5815,44 @@
       <c r="C77" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D77" s="8">
+      <c r="E77" s="8">
         <v>46053</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="F77" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="G77" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="H77" s="10">
-        <v>2023</v>
       </c>
       <c r="I77" s="10">
         <v>2023</v>
       </c>
-      <c r="J77" s="1" t="s">
+      <c r="J77" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K77" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K77" s="1" t="s">
+      <c r="L77" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L77" s="1" t="s">
+      <c r="M77" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="N77" s="1">
-        <v>50</v>
       </c>
       <c r="O77" s="1">
         <v>50</v>
       </c>
-      <c r="Q77" s="1" t="s">
+      <c r="P77" s="1">
+        <v>50</v>
+      </c>
+      <c r="R77" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="T77" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
         <v>277</v>
       </c>
@@ -5835,44 +5862,44 @@
       <c r="C78" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D78" s="8">
+      <c r="E78" s="8">
         <v>46053</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="F78" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="G78" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="H78" s="10">
-        <v>2023</v>
       </c>
       <c r="I78" s="10">
         <v>2023</v>
       </c>
-      <c r="J78" s="1" t="s">
+      <c r="J78" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K78" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K78" s="1" t="s">
+      <c r="L78" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L78" s="1" t="s">
+      <c r="M78" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="N78" s="1">
-        <v>50</v>
       </c>
       <c r="O78" s="1">
         <v>50</v>
       </c>
-      <c r="Q78" s="1" t="s">
+      <c r="P78" s="1">
+        <v>50</v>
+      </c>
+      <c r="R78" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="T78" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U78" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
         <v>280</v>
       </c>
@@ -5882,44 +5909,44 @@
       <c r="C79" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D79" s="8">
+      <c r="E79" s="8">
         <v>46053</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="F79" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="G79" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="H79" s="10">
-        <v>2023</v>
       </c>
       <c r="I79" s="10">
         <v>2023</v>
       </c>
-      <c r="J79" s="1" t="s">
+      <c r="J79" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K79" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K79" s="1" t="s">
+      <c r="L79" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L79" s="1" t="s">
+      <c r="M79" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="N79" s="1">
-        <v>50</v>
       </c>
       <c r="O79" s="1">
         <v>50</v>
       </c>
-      <c r="Q79" s="1" t="s">
+      <c r="P79" s="1">
+        <v>50</v>
+      </c>
+      <c r="R79" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="T79" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U79" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
         <v>283</v>
       </c>
@@ -5929,44 +5956,44 @@
       <c r="C80" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D80" s="8">
+      <c r="E80" s="8">
         <v>46053</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="F80" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="G80" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="H80" s="10">
-        <v>2024</v>
-      </c>
       <c r="I80" s="10">
         <v>2024</v>
       </c>
-      <c r="J80" s="1" t="s">
+      <c r="J80" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K80" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K80" s="1" t="s">
+      <c r="L80" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L80" s="1" t="s">
+      <c r="M80" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="N80" s="1">
-        <v>50</v>
       </c>
       <c r="O80" s="1">
         <v>50</v>
       </c>
-      <c r="Q80" s="1" t="s">
+      <c r="P80" s="1">
+        <v>50</v>
+      </c>
+      <c r="R80" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="T80" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>286</v>
       </c>
@@ -5976,44 +6003,44 @@
       <c r="C81" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D81" s="8">
+      <c r="E81" s="8">
         <v>46053</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="F81" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="G81" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="H81" s="10">
-        <v>2024</v>
-      </c>
       <c r="I81" s="10">
         <v>2024</v>
       </c>
-      <c r="J81" s="1" t="s">
+      <c r="J81" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K81" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K81" s="1" t="s">
+      <c r="L81" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L81" s="1" t="s">
+      <c r="M81" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="N81" s="1">
-        <v>40</v>
       </c>
       <c r="O81" s="1">
         <v>40</v>
       </c>
-      <c r="Q81" s="1" t="s">
+      <c r="P81" s="1">
+        <v>40</v>
+      </c>
+      <c r="R81" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="T81" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>289</v>
       </c>
@@ -6023,44 +6050,44 @@
       <c r="C82" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D82" s="8">
+      <c r="E82" s="8">
         <v>46053</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="F82" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="G82" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="H82" s="10">
-        <v>2024</v>
-      </c>
       <c r="I82" s="10">
         <v>2024</v>
       </c>
-      <c r="J82" s="1" t="s">
+      <c r="J82" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K82" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K82" s="1" t="s">
+      <c r="L82" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L82" s="1" t="s">
+      <c r="M82" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="N82" s="1">
-        <v>40</v>
       </c>
       <c r="O82" s="1">
         <v>40</v>
       </c>
-      <c r="Q82" s="1" t="s">
+      <c r="P82" s="1">
+        <v>40</v>
+      </c>
+      <c r="R82" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="T82" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>292</v>
       </c>
@@ -6070,44 +6097,44 @@
       <c r="C83" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D83" s="8">
+      <c r="E83" s="8">
         <v>46053</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="F83" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="G83" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="H83" s="10">
-        <v>2024</v>
-      </c>
       <c r="I83" s="10">
         <v>2024</v>
       </c>
-      <c r="J83" s="1" t="s">
+      <c r="J83" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K83" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K83" s="1" t="s">
+      <c r="L83" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L83" s="1" t="s">
+      <c r="M83" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="N83" s="1">
-        <v>40</v>
       </c>
       <c r="O83" s="1">
         <v>40</v>
       </c>
-      <c r="Q83" s="1" t="s">
+      <c r="P83" s="1">
+        <v>40</v>
+      </c>
+      <c r="R83" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="T83" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>295</v>
       </c>
@@ -6117,44 +6144,44 @@
       <c r="C84" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D84" s="8">
+      <c r="E84" s="8">
         <v>46053</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="F84" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="G84" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="H84" s="10">
-        <v>2024</v>
-      </c>
       <c r="I84" s="10">
         <v>2024</v>
       </c>
-      <c r="J84" s="1" t="s">
+      <c r="J84" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K84" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K84" s="1" t="s">
+      <c r="L84" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L84" s="1" t="s">
+      <c r="M84" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N84" s="1">
+      <c r="O84" s="1">
         <v>30</v>
       </c>
-      <c r="O84" s="1">
+      <c r="P84" s="1">
         <v>40</v>
       </c>
-      <c r="Q84" s="1" t="s">
+      <c r="R84" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="T84" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>298</v>
       </c>
@@ -6164,44 +6191,44 @@
       <c r="C85" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D85" s="8">
+      <c r="E85" s="8">
         <v>46053</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="F85" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="G85" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="H85" s="10">
-        <v>2021</v>
       </c>
       <c r="I85" s="10">
         <v>2021</v>
       </c>
-      <c r="J85" s="1" t="s">
+      <c r="J85" s="10">
+        <v>2021</v>
+      </c>
+      <c r="K85" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K85" s="1" t="s">
+      <c r="L85" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L85" s="1" t="s">
+      <c r="M85" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="N85" s="1">
-        <v>30</v>
       </c>
       <c r="O85" s="1">
         <v>30</v>
       </c>
-      <c r="Q85" s="1" t="s">
+      <c r="P85" s="1">
+        <v>30</v>
+      </c>
+      <c r="R85" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="T85" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>301</v>
       </c>
@@ -6211,44 +6238,44 @@
       <c r="C86" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D86" s="8">
+      <c r="E86" s="8">
         <v>46053</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="F86" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="G86" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="H86" s="10">
-        <v>2023</v>
       </c>
       <c r="I86" s="10">
         <v>2023</v>
       </c>
-      <c r="J86" s="1" t="s">
+      <c r="J86" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K86" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K86" s="1" t="s">
+      <c r="L86" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L86" s="1" t="s">
+      <c r="M86" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="N86" s="1">
-        <v>30</v>
       </c>
       <c r="O86" s="1">
         <v>30</v>
       </c>
-      <c r="Q86" s="1" t="s">
+      <c r="P86" s="1">
+        <v>30</v>
+      </c>
+      <c r="R86" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="T86" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
         <v>304</v>
       </c>
@@ -6258,44 +6285,44 @@
       <c r="C87" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D87" s="8">
+      <c r="E87" s="8">
         <v>46053</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="F87" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="G87" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="H87" s="10">
-        <v>2023</v>
       </c>
       <c r="I87" s="10">
         <v>2023</v>
       </c>
-      <c r="J87" s="1" t="s">
+      <c r="J87" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K87" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K87" s="1" t="s">
+      <c r="L87" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L87" s="1" t="s">
+      <c r="M87" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="N87" s="1">
-        <v>30</v>
       </c>
       <c r="O87" s="1">
         <v>30</v>
       </c>
-      <c r="Q87" s="1" t="s">
+      <c r="P87" s="1">
+        <v>30</v>
+      </c>
+      <c r="R87" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="T87" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
         <v>307</v>
       </c>
@@ -6305,44 +6332,44 @@
       <c r="C88" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D88" s="8">
+      <c r="E88" s="8">
         <v>46053</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="F88" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="G88" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="H88" s="10">
-        <v>2023</v>
       </c>
       <c r="I88" s="10">
         <v>2023</v>
       </c>
-      <c r="J88" s="1" t="s">
+      <c r="J88" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K88" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K88" s="1" t="s">
+      <c r="L88" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L88" s="1" t="s">
+      <c r="M88" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="N88" s="1">
-        <v>30</v>
       </c>
       <c r="O88" s="1">
         <v>30</v>
       </c>
-      <c r="Q88" s="1" t="s">
+      <c r="P88" s="1">
+        <v>30</v>
+      </c>
+      <c r="R88" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="T88" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
         <v>310</v>
       </c>
@@ -6352,44 +6379,44 @@
       <c r="C89" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D89" s="8">
+      <c r="E89" s="8">
         <v>46053</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="F89" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="G89" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="H89" s="10">
-        <v>2023</v>
       </c>
       <c r="I89" s="10">
         <v>2023</v>
       </c>
-      <c r="J89" s="1" t="s">
+      <c r="J89" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K89" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K89" s="1" t="s">
+      <c r="L89" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L89" s="1" t="s">
+      <c r="M89" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="N89" s="1">
-        <v>30</v>
       </c>
       <c r="O89" s="1">
         <v>30</v>
       </c>
-      <c r="Q89" s="1" t="s">
+      <c r="P89" s="1">
+        <v>30</v>
+      </c>
+      <c r="R89" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="T89" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
         <v>313</v>
       </c>
@@ -6399,44 +6426,44 @@
       <c r="C90" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D90" s="8">
+      <c r="E90" s="8">
         <v>46053</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="F90" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="G90" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="H90" s="10">
-        <v>2023</v>
       </c>
       <c r="I90" s="10">
         <v>2023</v>
       </c>
-      <c r="J90" s="1" t="s">
+      <c r="J90" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K90" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K90" s="1" t="s">
+      <c r="L90" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L90" s="1" t="s">
+      <c r="M90" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="N90" s="1">
-        <v>30</v>
       </c>
       <c r="O90" s="1">
         <v>30</v>
       </c>
-      <c r="Q90" s="1" t="s">
+      <c r="P90" s="1">
+        <v>30</v>
+      </c>
+      <c r="R90" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="T90" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
         <v>316</v>
       </c>
@@ -6446,44 +6473,44 @@
       <c r="C91" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D91" s="8">
+      <c r="E91" s="8">
         <v>46053</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="F91" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="G91" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="H91" s="10">
-        <v>2023</v>
       </c>
       <c r="I91" s="10">
         <v>2023</v>
       </c>
-      <c r="J91" s="1" t="s">
+      <c r="J91" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K91" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K91" s="1" t="s">
+      <c r="L91" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L91" s="1" t="s">
+      <c r="M91" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="N91" s="1">
-        <v>30</v>
       </c>
       <c r="O91" s="1">
         <v>30</v>
       </c>
-      <c r="Q91" s="1" t="s">
+      <c r="P91" s="1">
+        <v>30</v>
+      </c>
+      <c r="R91" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="T91" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
         <v>319</v>
       </c>
@@ -6493,44 +6520,44 @@
       <c r="C92" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D92" s="8">
+      <c r="E92" s="8">
         <v>46053</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="F92" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="G92" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="H92" s="10">
-        <v>2023</v>
       </c>
       <c r="I92" s="10">
         <v>2023</v>
       </c>
-      <c r="J92" s="1" t="s">
+      <c r="J92" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K92" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K92" s="1" t="s">
+      <c r="L92" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L92" s="1" t="s">
+      <c r="M92" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N92" s="1">
+      <c r="O92" s="1">
         <v>30</v>
       </c>
-      <c r="O92" s="1">
+      <c r="P92" s="1">
         <v>40</v>
       </c>
-      <c r="Q92" s="1" t="s">
+      <c r="R92" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="T92" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
         <v>322</v>
       </c>
@@ -6540,44 +6567,44 @@
       <c r="C93" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D93" s="8">
+      <c r="E93" s="8">
         <v>46053</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="F93" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="G93" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="H93" s="10">
-        <v>2023</v>
       </c>
       <c r="I93" s="10">
         <v>2023</v>
       </c>
-      <c r="J93" s="1" t="s">
+      <c r="J93" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K93" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K93" s="1" t="s">
+      <c r="L93" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L93" s="1" t="s">
+      <c r="M93" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="N93" s="1">
-        <v>30</v>
       </c>
       <c r="O93" s="1">
         <v>30</v>
       </c>
-      <c r="Q93" s="1" t="s">
+      <c r="P93" s="1">
+        <v>30</v>
+      </c>
+      <c r="R93" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="T93" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
         <v>325</v>
       </c>
@@ -6587,44 +6614,44 @@
       <c r="C94" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D94" s="8">
+      <c r="E94" s="8">
         <v>46053</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="F94" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="G94" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="H94" s="10">
-        <v>2023</v>
       </c>
       <c r="I94" s="10">
         <v>2023</v>
       </c>
-      <c r="J94" s="1" t="s">
+      <c r="J94" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K94" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K94" s="1" t="s">
+      <c r="L94" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L94" s="1" t="s">
+      <c r="M94" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N94" s="1">
+      <c r="O94" s="1">
         <v>22.5</v>
       </c>
-      <c r="O94" s="1">
+      <c r="P94" s="1">
         <v>40</v>
       </c>
-      <c r="Q94" s="1" t="s">
+      <c r="R94" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="T94" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
         <v>328</v>
       </c>
@@ -6634,44 +6661,44 @@
       <c r="C95" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D95" s="8">
+      <c r="E95" s="8">
         <v>46053</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="F95" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="G95" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="H95" s="10">
-        <v>2023</v>
       </c>
       <c r="I95" s="10">
         <v>2023</v>
       </c>
-      <c r="J95" s="1" t="s">
+      <c r="J95" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K95" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K95" s="1" t="s">
+      <c r="L95" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L95" s="1" t="s">
+      <c r="M95" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N95" s="1">
+      <c r="O95" s="1">
         <v>22.5</v>
       </c>
-      <c r="O95" s="1">
+      <c r="P95" s="1">
         <v>40</v>
       </c>
-      <c r="Q95" s="1" t="s">
+      <c r="R95" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="T95" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
         <v>331</v>
       </c>
@@ -6681,44 +6708,44 @@
       <c r="C96" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D96" s="8">
+      <c r="E96" s="8">
         <v>46053</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="F96" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="G96" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="H96" s="10">
-        <v>2023</v>
       </c>
       <c r="I96" s="10">
         <v>2023</v>
       </c>
-      <c r="J96" s="1" t="s">
+      <c r="J96" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K96" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K96" s="1" t="s">
+      <c r="L96" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L96" s="1" t="s">
+      <c r="M96" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="N96" s="1">
-        <v>30</v>
       </c>
       <c r="O96" s="1">
         <v>30</v>
       </c>
-      <c r="Q96" s="1" t="s">
+      <c r="P96" s="1">
+        <v>30</v>
+      </c>
+      <c r="R96" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="T96" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
         <v>334</v>
       </c>
@@ -6728,44 +6755,44 @@
       <c r="C97" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D97" s="8">
+      <c r="E97" s="8">
         <v>46053</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="F97" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="G97" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="H97" s="10">
-        <v>2023</v>
       </c>
       <c r="I97" s="10">
         <v>2023</v>
       </c>
-      <c r="J97" s="1" t="s">
+      <c r="J97" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K97" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K97" s="1" t="s">
+      <c r="L97" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L97" s="1" t="s">
+      <c r="M97" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="N97" s="1">
-        <v>30</v>
       </c>
       <c r="O97" s="1">
         <v>30</v>
       </c>
-      <c r="Q97" s="1" t="s">
+      <c r="P97" s="1">
+        <v>30</v>
+      </c>
+      <c r="R97" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="T97" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
         <v>337</v>
       </c>
@@ -6775,44 +6802,44 @@
       <c r="C98" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D98" s="8">
+      <c r="E98" s="8">
         <v>46053</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="F98" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="G98" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="H98" s="10">
-        <v>2023</v>
       </c>
       <c r="I98" s="10">
         <v>2023</v>
       </c>
-      <c r="J98" s="1" t="s">
+      <c r="J98" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K98" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K98" s="1" t="s">
+      <c r="L98" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L98" s="1" t="s">
+      <c r="M98" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="N98" s="1">
-        <v>30</v>
       </c>
       <c r="O98" s="1">
         <v>30</v>
       </c>
-      <c r="Q98" s="1" t="s">
+      <c r="P98" s="1">
+        <v>30</v>
+      </c>
+      <c r="R98" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="T98" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
         <v>340</v>
       </c>
@@ -6822,44 +6849,44 @@
       <c r="C99" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D99" s="8">
+      <c r="E99" s="8">
         <v>46053</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="F99" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="G99" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="H99" s="10">
-        <v>2023</v>
       </c>
       <c r="I99" s="10">
         <v>2023</v>
       </c>
-      <c r="J99" s="1" t="s">
+      <c r="J99" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K99" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K99" s="1" t="s">
+      <c r="L99" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L99" s="1" t="s">
+      <c r="M99" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="N99" s="1">
-        <v>30</v>
       </c>
       <c r="O99" s="1">
         <v>30</v>
       </c>
-      <c r="Q99" s="1" t="s">
+      <c r="P99" s="1">
+        <v>30</v>
+      </c>
+      <c r="R99" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="T99" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
         <v>343</v>
       </c>
@@ -6869,44 +6896,44 @@
       <c r="C100" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D100" s="8">
+      <c r="E100" s="8">
         <v>46053</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="F100" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F100" s="1" t="s">
+      <c r="G100" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="H100" s="10">
-        <v>2023</v>
       </c>
       <c r="I100" s="10">
         <v>2023</v>
       </c>
-      <c r="J100" s="1" t="s">
+      <c r="J100" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K100" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K100" s="1" t="s">
+      <c r="L100" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L100" s="1" t="s">
+      <c r="M100" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="N100" s="1">
-        <v>30</v>
       </c>
       <c r="O100" s="1">
         <v>30</v>
       </c>
-      <c r="Q100" s="1" t="s">
+      <c r="P100" s="1">
+        <v>30</v>
+      </c>
+      <c r="R100" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="T100" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
         <v>346</v>
       </c>
@@ -6916,44 +6943,44 @@
       <c r="C101" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D101" s="8">
+      <c r="E101" s="8">
         <v>46053</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="F101" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="G101" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="H101" s="10">
-        <v>2023</v>
       </c>
       <c r="I101" s="10">
         <v>2023</v>
       </c>
-      <c r="J101" s="1" t="s">
+      <c r="J101" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K101" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K101" s="1" t="s">
+      <c r="L101" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L101" s="1" t="s">
+      <c r="M101" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="N101" s="1">
-        <v>30</v>
       </c>
       <c r="O101" s="1">
         <v>30</v>
       </c>
-      <c r="Q101" s="1" t="s">
+      <c r="P101" s="1">
+        <v>30</v>
+      </c>
+      <c r="R101" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="T101" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
         <v>349</v>
       </c>
@@ -6963,44 +6990,44 @@
       <c r="C102" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D102" s="8">
+      <c r="E102" s="8">
         <v>46053</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="F102" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="G102" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="H102" s="10">
-        <v>2023</v>
       </c>
       <c r="I102" s="10">
         <v>2023</v>
       </c>
-      <c r="J102" s="1" t="s">
+      <c r="J102" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K102" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K102" s="1" t="s">
+      <c r="L102" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L102" s="1" t="s">
+      <c r="M102" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="N102" s="1">
-        <v>30</v>
       </c>
       <c r="O102" s="1">
         <v>30</v>
       </c>
-      <c r="Q102" s="1" t="s">
+      <c r="P102" s="1">
+        <v>30</v>
+      </c>
+      <c r="R102" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="T102" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U102" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
         <v>352</v>
       </c>
@@ -7010,44 +7037,44 @@
       <c r="C103" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D103" s="8">
+      <c r="E103" s="8">
         <v>46053</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="F103" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F103" s="1" t="s">
+      <c r="G103" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="H103" s="10">
-        <v>2023</v>
       </c>
       <c r="I103" s="10">
         <v>2023</v>
       </c>
-      <c r="J103" s="1" t="s">
+      <c r="J103" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K103" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K103" s="1" t="s">
+      <c r="L103" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L103" s="1" t="s">
+      <c r="M103" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="N103" s="1">
-        <v>30</v>
       </c>
       <c r="O103" s="1">
         <v>30</v>
       </c>
-      <c r="Q103" s="1" t="s">
+      <c r="P103" s="1">
+        <v>30</v>
+      </c>
+      <c r="R103" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="T103" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U103" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>355</v>
       </c>
@@ -7057,44 +7084,44 @@
       <c r="C104" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D104" s="8">
+      <c r="E104" s="8">
         <v>46053</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="F104" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F104" s="1" t="s">
+      <c r="G104" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="H104" s="10">
-        <v>2023</v>
       </c>
       <c r="I104" s="10">
         <v>2023</v>
       </c>
-      <c r="J104" s="1" t="s">
+      <c r="J104" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K104" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K104" s="1" t="s">
+      <c r="L104" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L104" s="1" t="s">
+      <c r="M104" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N104" s="1">
+      <c r="O104" s="1">
         <v>40</v>
       </c>
-      <c r="O104" s="1">
+      <c r="P104" s="1">
         <v>30</v>
       </c>
-      <c r="Q104" s="1" t="s">
+      <c r="R104" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="T104" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U104" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
         <v>358</v>
       </c>
@@ -7104,44 +7131,44 @@
       <c r="C105" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D105" s="8">
+      <c r="E105" s="8">
         <v>46053</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="F105" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F105" s="1" t="s">
+      <c r="G105" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="H105" s="10">
-        <v>2023</v>
       </c>
       <c r="I105" s="10">
         <v>2023</v>
       </c>
-      <c r="J105" s="1" t="s">
+      <c r="J105" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K105" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K105" s="1" t="s">
+      <c r="L105" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L105" s="1" t="s">
+      <c r="M105" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="N105" s="1">
-        <v>30</v>
       </c>
       <c r="O105" s="1">
         <v>30</v>
       </c>
-      <c r="Q105" s="1" t="s">
+      <c r="P105" s="1">
+        <v>30</v>
+      </c>
+      <c r="R105" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="T105" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U105" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
         <v>361</v>
       </c>
@@ -7151,44 +7178,44 @@
       <c r="C106" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D106" s="8">
+      <c r="E106" s="8">
         <v>46053</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="F106" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F106" s="1" t="s">
+      <c r="G106" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="H106" s="10">
-        <v>2023</v>
       </c>
       <c r="I106" s="10">
         <v>2023</v>
       </c>
-      <c r="J106" s="1" t="s">
+      <c r="J106" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K106" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K106" s="1" t="s">
+      <c r="L106" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L106" s="1" t="s">
+      <c r="M106" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="N106" s="1">
-        <v>30</v>
       </c>
       <c r="O106" s="1">
         <v>30</v>
       </c>
-      <c r="Q106" s="1" t="s">
+      <c r="P106" s="1">
+        <v>30</v>
+      </c>
+      <c r="R106" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="T106" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U106" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
         <v>364</v>
       </c>
@@ -7198,40 +7225,40 @@
       <c r="C107" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D107" s="8">
+      <c r="E107" s="8">
         <v>46053</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="F107" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="G107" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="H107" s="10">
-        <v>2023</v>
       </c>
       <c r="I107" s="10">
         <v>2023</v>
       </c>
-      <c r="J107" s="1" t="s">
+      <c r="J107" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K107" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K107" s="1" t="s">
+      <c r="L107" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L107" s="1" t="s">
+      <c r="M107" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="N107" s="1">
-        <v>30</v>
       </c>
       <c r="O107" s="1">
         <v>30</v>
       </c>
-      <c r="Q107" s="1" t="s">
+      <c r="P107" s="1">
+        <v>30</v>
+      </c>
+      <c r="R107" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="T107" s="6" t="s">
+      <c r="U107" s="6" t="s">
         <v>85</v>
       </c>
     </row>

--- a/data/works.xlsx
+++ b/data/works.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dlf/Developer/dotlineform/dotlineform-site/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBB02C3-6E79-0045-ADDC-A08A942A0AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501F26D5-7453-5044-AB74-39C7D7EFD38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -276,9 +276,6 @@
     <t>pen on paper</t>
   </si>
   <si>
-    <t>curves;intuition</t>
-  </si>
-  <si>
     <t>box 2 (A3)</t>
   </si>
   <si>
@@ -669,9 +666,6 @@
     <t>digital c-type print</t>
   </si>
   <si>
-    <t>forms;found</t>
-  </si>
-  <si>
     <t>00404</t>
   </si>
   <si>
@@ -1162,6 +1156,12 @@
   </si>
   <si>
     <t>create a print version of work page (default blank=no)</t>
+  </si>
+  <si>
+    <t>curves,intuition</t>
+  </si>
+  <si>
+    <t>forms,found</t>
   </si>
 </sst>
 </file>
@@ -1658,13 +1658,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>378</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1672,13 +1672,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2009,10 +2009,10 @@
   <dimension ref="A1:X107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
@@ -2052,10 +2052,10 @@
         <v>12</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>15</v>
@@ -2135,7 +2135,7 @@
         <v>79</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I2" s="10">
         <v>2024</v>
@@ -2159,15 +2159,15 @@
         <v>29.7</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>76</v>
@@ -2182,10 +2182,10 @@
         <v>78</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I3" s="10">
         <v>2024</v>
@@ -2200,7 +2200,7 @@
         <v>81</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O3" s="1">
         <v>42</v>
@@ -2209,15 +2209,15 @@
         <v>29.7</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>76</v>
@@ -2232,10 +2232,10 @@
         <v>78</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I4" s="10">
         <v>2024</v>
@@ -2250,7 +2250,7 @@
         <v>81</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O4" s="1">
         <v>42</v>
@@ -2259,15 +2259,15 @@
         <v>29.7</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>76</v>
@@ -2282,10 +2282,10 @@
         <v>78</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I5" s="10">
         <v>2024</v>
@@ -2309,15 +2309,15 @@
         <v>29.7</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>76</v>
@@ -2332,10 +2332,10 @@
         <v>78</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I6" s="10">
         <v>2024</v>
@@ -2350,7 +2350,7 @@
         <v>81</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O6" s="1">
         <v>42</v>
@@ -2359,15 +2359,15 @@
         <v>29.7</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U6" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>76</v>
@@ -2382,10 +2382,10 @@
         <v>78</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I7" s="10">
         <v>2024</v>
@@ -2400,7 +2400,7 @@
         <v>81</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O7" s="1">
         <v>42</v>
@@ -2409,15 +2409,15 @@
         <v>29.7</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U7" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>76</v>
@@ -2432,10 +2432,10 @@
         <v>78</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I8" s="10">
         <v>2024</v>
@@ -2450,7 +2450,7 @@
         <v>81</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O8" s="1">
         <v>42</v>
@@ -2459,15 +2459,15 @@
         <v>29.7</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U8" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>76</v>
@@ -2482,10 +2482,10 @@
         <v>78</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I9" s="10">
         <v>2024</v>
@@ -2500,7 +2500,7 @@
         <v>81</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O9" s="1">
         <v>42</v>
@@ -2509,15 +2509,15 @@
         <v>29.7</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U9" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>76</v>
@@ -2532,10 +2532,10 @@
         <v>78</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I10" s="10">
         <v>2024</v>
@@ -2550,7 +2550,7 @@
         <v>81</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O10" s="1">
         <v>42</v>
@@ -2559,18 +2559,18 @@
         <v>29.7</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U10" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>77</v>
@@ -2582,10 +2582,10 @@
         <v>78</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I11" s="10">
         <v>2024</v>
@@ -2609,18 +2609,18 @@
         <v>29.7</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U11" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>77</v>
@@ -2632,10 +2632,10 @@
         <v>78</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I12" s="10">
         <v>2024</v>
@@ -2650,7 +2650,7 @@
         <v>81</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O12" s="1">
         <v>42</v>
@@ -2659,15 +2659,15 @@
         <v>29.7</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U12" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>76</v>
@@ -2682,10 +2682,10 @@
         <v>78</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I13" s="10">
         <v>2024</v>
@@ -2700,7 +2700,7 @@
         <v>81</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O13" s="1">
         <v>42</v>
@@ -2709,15 +2709,15 @@
         <v>29.7</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U13" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>76</v>
@@ -2732,10 +2732,10 @@
         <v>78</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I14" s="10">
         <v>2024</v>
@@ -2750,7 +2750,7 @@
         <v>81</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O14" s="1">
         <v>42</v>
@@ -2759,15 +2759,15 @@
         <v>29.7</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>76</v>
@@ -2782,10 +2782,10 @@
         <v>78</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I15" s="10">
         <v>2024</v>
@@ -2800,7 +2800,7 @@
         <v>81</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O15" s="1">
         <v>42</v>
@@ -2809,15 +2809,15 @@
         <v>29.7</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U15" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>76</v>
@@ -2832,10 +2832,10 @@
         <v>78</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I16" s="10">
         <v>2024</v>
@@ -2850,7 +2850,7 @@
         <v>81</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O16" s="1">
         <v>42</v>
@@ -2859,15 +2859,15 @@
         <v>29.7</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U16" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>76</v>
@@ -2882,10 +2882,10 @@
         <v>78</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I17" s="10">
         <v>2024</v>
@@ -2900,7 +2900,7 @@
         <v>81</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O17" s="1">
         <v>42</v>
@@ -2909,15 +2909,15 @@
         <v>29.7</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U17" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>76</v>
@@ -2932,10 +2932,10 @@
         <v>78</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I18" s="10">
         <v>2024</v>
@@ -2950,7 +2950,7 @@
         <v>81</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O18" s="1">
         <v>42</v>
@@ -2959,15 +2959,15 @@
         <v>29.7</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U18" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>76</v>
@@ -2982,10 +2982,10 @@
         <v>78</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I19" s="10">
         <v>2024</v>
@@ -3000,7 +3000,7 @@
         <v>81</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O19" s="1">
         <v>42</v>
@@ -3009,15 +3009,15 @@
         <v>29.7</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U19" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>76</v>
@@ -3032,10 +3032,10 @@
         <v>78</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I20" s="10">
         <v>2024</v>
@@ -3050,7 +3050,7 @@
         <v>81</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O20" s="1">
         <v>42</v>
@@ -3059,15 +3059,15 @@
         <v>29.7</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U20" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>76</v>
@@ -3082,10 +3082,10 @@
         <v>78</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I21" s="10">
         <v>2024</v>
@@ -3100,7 +3100,7 @@
         <v>81</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O21" s="1">
         <v>42</v>
@@ -3109,15 +3109,15 @@
         <v>29.7</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U21" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>76</v>
@@ -3132,10 +3132,10 @@
         <v>78</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I22" s="10">
         <v>2024</v>
@@ -3150,7 +3150,7 @@
         <v>81</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O22" s="1">
         <v>42</v>
@@ -3159,15 +3159,15 @@
         <v>29.7</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U22" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>76</v>
@@ -3182,10 +3182,10 @@
         <v>78</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I23" s="10">
         <v>2024</v>
@@ -3209,18 +3209,18 @@
         <v>29.7</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U23" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>77</v>
@@ -3232,10 +3232,10 @@
         <v>78</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I24" s="10">
         <v>2024</v>
@@ -3250,7 +3250,7 @@
         <v>81</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O24" s="1">
         <v>42</v>
@@ -3259,15 +3259,15 @@
         <v>29.7</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U24" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>76</v>
@@ -3282,10 +3282,10 @@
         <v>78</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I25" s="10">
         <v>2024</v>
@@ -3300,7 +3300,7 @@
         <v>81</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O25" s="1">
         <v>42</v>
@@ -3309,15 +3309,15 @@
         <v>29.7</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U25" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>76</v>
@@ -3332,10 +3332,10 @@
         <v>78</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I26" s="10">
         <v>2024</v>
@@ -3350,7 +3350,7 @@
         <v>81</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O26" s="1">
         <v>42</v>
@@ -3359,15 +3359,15 @@
         <v>29.7</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U26" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>76</v>
@@ -3382,10 +3382,10 @@
         <v>78</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I27" s="10">
         <v>2024</v>
@@ -3400,7 +3400,7 @@
         <v>81</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O27" s="1">
         <v>42</v>
@@ -3409,15 +3409,15 @@
         <v>29.7</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U27" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>76</v>
@@ -3432,10 +3432,10 @@
         <v>78</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I28" s="10">
         <v>2024</v>
@@ -3450,7 +3450,7 @@
         <v>81</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O28" s="1">
         <v>42</v>
@@ -3459,15 +3459,15 @@
         <v>29.7</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U28" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>76</v>
@@ -3482,10 +3482,10 @@
         <v>78</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I29" s="10">
         <v>2024</v>
@@ -3500,7 +3500,7 @@
         <v>81</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O29" s="1">
         <v>42</v>
@@ -3509,15 +3509,15 @@
         <v>29.7</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U29" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>76</v>
@@ -3532,10 +3532,10 @@
         <v>78</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I30" s="10">
         <v>2024</v>
@@ -3550,7 +3550,7 @@
         <v>81</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O30" s="1">
         <v>42</v>
@@ -3559,15 +3559,15 @@
         <v>29.7</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U30" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>76</v>
@@ -3582,10 +3582,10 @@
         <v>78</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I31" s="10">
         <v>2024</v>
@@ -3600,7 +3600,7 @@
         <v>81</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O31" s="1">
         <v>42</v>
@@ -3609,15 +3609,15 @@
         <v>29.7</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U31" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>76</v>
@@ -3632,10 +3632,10 @@
         <v>78</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I32" s="10">
         <v>2024</v>
@@ -3650,7 +3650,7 @@
         <v>81</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O32" s="1">
         <v>42</v>
@@ -3659,15 +3659,15 @@
         <v>29.7</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U32" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>76</v>
@@ -3682,10 +3682,10 @@
         <v>78</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I33" s="10">
         <v>2024</v>
@@ -3700,7 +3700,7 @@
         <v>81</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O33" s="1">
         <v>42</v>
@@ -3709,18 +3709,18 @@
         <v>29.7</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U33" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>77</v>
@@ -3732,10 +3732,10 @@
         <v>78</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I34" s="10">
         <v>2024</v>
@@ -3759,18 +3759,18 @@
         <v>29.7</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U34" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>77</v>
@@ -3782,10 +3782,10 @@
         <v>78</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I35" s="10">
         <v>2024</v>
@@ -3809,15 +3809,15 @@
         <v>29.7</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U35" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>76</v>
@@ -3832,10 +3832,10 @@
         <v>78</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I36" s="10">
         <v>2024</v>
@@ -3859,15 +3859,15 @@
         <v>29.7</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U36" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>76</v>
@@ -3882,10 +3882,10 @@
         <v>78</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I37" s="10">
         <v>2024</v>
@@ -3900,7 +3900,7 @@
         <v>81</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O37" s="1">
         <v>42</v>
@@ -3909,15 +3909,15 @@
         <v>29.7</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U37" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>76</v>
@@ -3932,10 +3932,10 @@
         <v>78</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I38" s="10">
         <v>2024</v>
@@ -3950,7 +3950,7 @@
         <v>81</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O38" s="1">
         <v>42</v>
@@ -3959,15 +3959,15 @@
         <v>29.7</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U38" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>76</v>
@@ -3982,10 +3982,10 @@
         <v>78</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I39" s="10">
         <v>2024</v>
@@ -4000,7 +4000,7 @@
         <v>81</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O39" s="1">
         <v>42</v>
@@ -4009,15 +4009,15 @@
         <v>29.7</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U39" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>76</v>
@@ -4032,10 +4032,10 @@
         <v>78</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I40" s="10">
         <v>2024</v>
@@ -4050,7 +4050,7 @@
         <v>81</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O40" s="1">
         <v>42</v>
@@ -4059,15 +4059,15 @@
         <v>29.7</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U40" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>76</v>
@@ -4082,10 +4082,10 @@
         <v>78</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I41" s="10">
         <v>2024</v>
@@ -4100,7 +4100,7 @@
         <v>81</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O41" s="1">
         <v>42</v>
@@ -4109,15 +4109,15 @@
         <v>29.7</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U41" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>76</v>
@@ -4132,10 +4132,10 @@
         <v>78</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I42" s="10">
         <v>2024</v>
@@ -4150,7 +4150,7 @@
         <v>81</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O42" s="1">
         <v>42</v>
@@ -4159,15 +4159,15 @@
         <v>29.7</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U42" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>76</v>
@@ -4182,10 +4182,10 @@
         <v>78</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I43" s="10">
         <v>2024</v>
@@ -4209,15 +4209,15 @@
         <v>29.7</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U43" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>76</v>
@@ -4232,10 +4232,10 @@
         <v>78</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I44" s="10">
         <v>2024</v>
@@ -4250,7 +4250,7 @@
         <v>81</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O44" s="1">
         <v>42</v>
@@ -4259,15 +4259,15 @@
         <v>29.7</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U44" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>76</v>
@@ -4282,10 +4282,10 @@
         <v>78</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I45" s="10">
         <v>2024</v>
@@ -4300,7 +4300,7 @@
         <v>81</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O45" s="1">
         <v>42</v>
@@ -4309,15 +4309,15 @@
         <v>29.7</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U45" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>76</v>
@@ -4332,10 +4332,10 @@
         <v>78</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I46" s="10">
         <v>2024</v>
@@ -4350,7 +4350,7 @@
         <v>81</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O46" s="1">
         <v>42</v>
@@ -4359,15 +4359,15 @@
         <v>29.7</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U46" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>76</v>
@@ -4382,10 +4382,10 @@
         <v>78</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I47" s="10">
         <v>2024</v>
@@ -4400,7 +4400,7 @@
         <v>81</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O47" s="1">
         <v>42</v>
@@ -4409,15 +4409,15 @@
         <v>29.7</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U47" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>76</v>
@@ -4432,10 +4432,10 @@
         <v>78</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I48" s="10">
         <v>2024</v>
@@ -4450,7 +4450,7 @@
         <v>81</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O48" s="1">
         <v>42</v>
@@ -4459,15 +4459,15 @@
         <v>29.7</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U48" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>76</v>
@@ -4482,10 +4482,10 @@
         <v>78</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I49" s="10">
         <v>2024</v>
@@ -4500,7 +4500,7 @@
         <v>81</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O49" s="1">
         <v>42</v>
@@ -4509,15 +4509,15 @@
         <v>29.7</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U49" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>76</v>
@@ -4532,10 +4532,10 @@
         <v>78</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I50" s="10">
         <v>2024</v>
@@ -4550,7 +4550,7 @@
         <v>81</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O50" s="1">
         <v>42</v>
@@ -4559,15 +4559,15 @@
         <v>29.7</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U50" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>76</v>
@@ -4582,10 +4582,10 @@
         <v>78</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I51" s="10">
         <v>2024</v>
@@ -4600,7 +4600,7 @@
         <v>81</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O51" s="1">
         <v>42</v>
@@ -4609,15 +4609,15 @@
         <v>29.7</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U51" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>76</v>
@@ -4632,10 +4632,10 @@
         <v>78</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I52" s="10">
         <v>2024</v>
@@ -4650,7 +4650,7 @@
         <v>81</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O52" s="1">
         <v>42</v>
@@ -4659,15 +4659,15 @@
         <v>29.7</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U52" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>76</v>
@@ -4682,10 +4682,10 @@
         <v>78</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I53" s="10">
         <v>2024</v>
@@ -4709,15 +4709,15 @@
         <v>29.7</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U53" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>76</v>
@@ -4732,10 +4732,10 @@
         <v>78</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I54" s="10">
         <v>2024</v>
@@ -4750,7 +4750,7 @@
         <v>81</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O54" s="1">
         <v>42</v>
@@ -4759,15 +4759,15 @@
         <v>29.7</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U54" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>76</v>
@@ -4782,10 +4782,10 @@
         <v>78</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I55" s="10">
         <v>2024</v>
@@ -4800,7 +4800,7 @@
         <v>81</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O55" s="1">
         <v>42</v>
@@ -4809,18 +4809,18 @@
         <v>29.7</v>
       </c>
       <c r="R55" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U55" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>77</v>
@@ -4832,10 +4832,10 @@
         <v>78</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I56" s="10">
         <v>2024</v>
@@ -4850,7 +4850,7 @@
         <v>81</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O56" s="1">
         <v>29.7</v>
@@ -4859,18 +4859,18 @@
         <v>42</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="U56" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>77</v>
@@ -4879,10 +4879,10 @@
         <v>46053</v>
       </c>
       <c r="F57" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="I57" s="10">
         <v>2017</v>
@@ -4891,13 +4891,13 @@
         <v>2017</v>
       </c>
       <c r="K57" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L57" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L57" s="1" t="s">
+      <c r="M57" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O57" s="1">
         <v>30</v>
@@ -4906,18 +4906,18 @@
         <v>30</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>214</v>
+        <v>378</v>
       </c>
       <c r="U57" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>77</v>
@@ -4926,10 +4926,10 @@
         <v>46053</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I58" s="10">
         <v>2017</v>
@@ -4938,13 +4938,13 @@
         <v>2017</v>
       </c>
       <c r="K58" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L58" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L58" s="1" t="s">
+      <c r="M58" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O58" s="1">
         <v>30</v>
@@ -4953,18 +4953,18 @@
         <v>30</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>214</v>
+        <v>378</v>
       </c>
       <c r="U58" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>77</v>
@@ -4973,10 +4973,10 @@
         <v>46053</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I59" s="10">
         <v>2017</v>
@@ -4985,13 +4985,13 @@
         <v>2017</v>
       </c>
       <c r="K59" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L59" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L59" s="1" t="s">
+      <c r="M59" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O59" s="1">
         <v>30</v>
@@ -5000,30 +5000,30 @@
         <v>30</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>214</v>
+        <v>378</v>
       </c>
       <c r="U59" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="E60" s="8">
         <v>46053</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I60" s="10">
         <v>2017</v>
@@ -5032,13 +5032,13 @@
         <v>2017</v>
       </c>
       <c r="K60" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L60" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L60" s="1" t="s">
+      <c r="M60" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O60" s="1">
         <v>30</v>
@@ -5047,30 +5047,30 @@
         <v>30</v>
       </c>
       <c r="R60" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U60" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E61" s="8">
         <v>46053</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I61" s="10">
         <v>2024</v>
@@ -5079,13 +5079,13 @@
         <v>2024</v>
       </c>
       <c r="K61" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L61" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L61" s="1" t="s">
+      <c r="M61" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O61" s="1">
         <v>30</v>
@@ -5094,30 +5094,30 @@
         <v>40</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U61" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E62" s="8">
         <v>46053</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I62" s="10">
         <v>2024</v>
@@ -5126,13 +5126,13 @@
         <v>2024</v>
       </c>
       <c r="K62" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L62" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L62" s="1" t="s">
+      <c r="M62" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O62" s="1">
         <v>30</v>
@@ -5141,30 +5141,30 @@
         <v>30</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U62" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E63" s="8">
         <v>46053</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I63" s="10">
         <v>2024</v>
@@ -5173,13 +5173,13 @@
         <v>2024</v>
       </c>
       <c r="K63" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L63" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L63" s="1" t="s">
+      <c r="M63" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M63" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O63" s="1">
         <v>30</v>
@@ -5188,30 +5188,30 @@
         <v>30</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U63" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E64" s="8">
         <v>46053</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I64" s="10">
         <v>2025</v>
@@ -5220,13 +5220,13 @@
         <v>2025</v>
       </c>
       <c r="K64" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L64" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L64" s="1" t="s">
+      <c r="M64" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O64" s="1">
         <v>30</v>
@@ -5235,30 +5235,30 @@
         <v>40</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U64" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E65" s="8">
         <v>46053</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I65" s="10">
         <v>2025</v>
@@ -5267,13 +5267,13 @@
         <v>2025</v>
       </c>
       <c r="K65" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L65" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L65" s="1" t="s">
+      <c r="M65" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M65" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O65" s="1">
         <v>30</v>
@@ -5282,30 +5282,30 @@
         <v>30</v>
       </c>
       <c r="R65" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U65" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E66" s="8">
         <v>46053</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I66" s="10">
         <v>2025</v>
@@ -5314,13 +5314,13 @@
         <v>2025</v>
       </c>
       <c r="K66" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L66" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L66" s="1" t="s">
+      <c r="M66" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M66" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O66" s="1">
         <v>40</v>
@@ -5329,30 +5329,30 @@
         <v>30</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U66" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E67" s="8">
         <v>46053</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I67" s="10">
         <v>2025</v>
@@ -5361,13 +5361,13 @@
         <v>2025</v>
       </c>
       <c r="K67" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L67" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L67" s="1" t="s">
+      <c r="M67" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M67" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O67" s="1">
         <v>30</v>
@@ -5376,30 +5376,30 @@
         <v>30</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U67" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E68" s="8">
         <v>46053</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I68" s="10">
         <v>2025</v>
@@ -5408,13 +5408,13 @@
         <v>2025</v>
       </c>
       <c r="K68" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L68" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L68" s="1" t="s">
+      <c r="M68" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M68" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O68" s="1">
         <v>30</v>
@@ -5423,30 +5423,30 @@
         <v>30</v>
       </c>
       <c r="R68" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U68" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E69" s="8">
         <v>46053</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I69" s="10">
         <v>2025</v>
@@ -5455,13 +5455,13 @@
         <v>2025</v>
       </c>
       <c r="K69" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L69" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L69" s="1" t="s">
+      <c r="M69" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M69" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O69" s="1">
         <v>30</v>
@@ -5470,30 +5470,30 @@
         <v>30</v>
       </c>
       <c r="R69" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U69" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E70" s="8">
         <v>46053</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I70" s="10">
         <v>2024</v>
@@ -5502,13 +5502,13 @@
         <v>2024</v>
       </c>
       <c r="K70" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L70" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L70" s="1" t="s">
+      <c r="M70" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M70" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O70" s="1">
         <v>30</v>
@@ -5517,30 +5517,30 @@
         <v>30</v>
       </c>
       <c r="R70" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U70" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E71" s="8">
         <v>46053</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I71" s="10">
         <v>2024</v>
@@ -5549,13 +5549,13 @@
         <v>2024</v>
       </c>
       <c r="K71" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L71" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L71" s="1" t="s">
+      <c r="M71" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M71" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O71" s="1">
         <v>50</v>
@@ -5564,30 +5564,30 @@
         <v>50</v>
       </c>
       <c r="R71" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U71" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E72" s="8">
         <v>46053</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I72" s="10">
         <v>2024</v>
@@ -5596,13 +5596,13 @@
         <v>2024</v>
       </c>
       <c r="K72" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L72" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L72" s="1" t="s">
+      <c r="M72" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M72" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O72" s="1">
         <v>50</v>
@@ -5611,30 +5611,30 @@
         <v>50</v>
       </c>
       <c r="R72" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U72" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E73" s="8">
         <v>46053</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I73" s="10">
         <v>2024</v>
@@ -5643,13 +5643,13 @@
         <v>2024</v>
       </c>
       <c r="K73" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L73" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L73" s="1" t="s">
+      <c r="M73" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M73" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O73" s="1">
         <v>50</v>
@@ -5658,30 +5658,30 @@
         <v>50</v>
       </c>
       <c r="R73" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U73" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E74" s="8">
         <v>46053</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I74" s="10">
         <v>2024</v>
@@ -5690,13 +5690,13 @@
         <v>2024</v>
       </c>
       <c r="K74" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L74" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L74" s="1" t="s">
+      <c r="M74" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M74" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O74" s="1">
         <v>50</v>
@@ -5705,30 +5705,30 @@
         <v>50</v>
       </c>
       <c r="R74" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U74" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E75" s="8">
         <v>46053</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I75" s="10">
         <v>2024</v>
@@ -5737,13 +5737,13 @@
         <v>2024</v>
       </c>
       <c r="K75" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L75" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L75" s="1" t="s">
+      <c r="M75" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M75" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O75" s="1">
         <v>50</v>
@@ -5752,30 +5752,30 @@
         <v>50</v>
       </c>
       <c r="R75" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U75" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E76" s="8">
         <v>46053</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I76" s="10">
         <v>2023</v>
@@ -5784,13 +5784,13 @@
         <v>2023</v>
       </c>
       <c r="K76" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L76" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L76" s="1" t="s">
+      <c r="M76" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M76" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O76" s="1">
         <v>50</v>
@@ -5799,30 +5799,30 @@
         <v>50</v>
       </c>
       <c r="R76" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U76" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E77" s="8">
         <v>46053</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I77" s="10">
         <v>2023</v>
@@ -5831,13 +5831,13 @@
         <v>2023</v>
       </c>
       <c r="K77" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L77" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L77" s="1" t="s">
+      <c r="M77" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M77" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O77" s="1">
         <v>50</v>
@@ -5846,30 +5846,30 @@
         <v>50</v>
       </c>
       <c r="R77" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U77" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E78" s="8">
         <v>46053</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I78" s="10">
         <v>2023</v>
@@ -5878,13 +5878,13 @@
         <v>2023</v>
       </c>
       <c r="K78" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L78" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L78" s="1" t="s">
+      <c r="M78" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M78" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O78" s="1">
         <v>50</v>
@@ -5893,30 +5893,30 @@
         <v>50</v>
       </c>
       <c r="R78" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U78" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E79" s="8">
         <v>46053</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I79" s="10">
         <v>2023</v>
@@ -5925,13 +5925,13 @@
         <v>2023</v>
       </c>
       <c r="K79" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L79" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L79" s="1" t="s">
+      <c r="M79" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M79" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O79" s="1">
         <v>50</v>
@@ -5940,30 +5940,30 @@
         <v>50</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U79" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E80" s="8">
         <v>46053</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I80" s="10">
         <v>2024</v>
@@ -5972,13 +5972,13 @@
         <v>2024</v>
       </c>
       <c r="K80" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L80" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L80" s="1" t="s">
+      <c r="M80" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M80" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O80" s="1">
         <v>50</v>
@@ -5987,30 +5987,30 @@
         <v>50</v>
       </c>
       <c r="R80" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U80" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E81" s="8">
         <v>46053</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I81" s="10">
         <v>2024</v>
@@ -6019,13 +6019,13 @@
         <v>2024</v>
       </c>
       <c r="K81" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L81" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L81" s="1" t="s">
+      <c r="M81" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M81" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O81" s="1">
         <v>40</v>
@@ -6034,30 +6034,30 @@
         <v>40</v>
       </c>
       <c r="R81" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U81" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E82" s="8">
         <v>46053</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I82" s="10">
         <v>2024</v>
@@ -6066,13 +6066,13 @@
         <v>2024</v>
       </c>
       <c r="K82" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L82" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L82" s="1" t="s">
+      <c r="M82" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M82" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O82" s="1">
         <v>40</v>
@@ -6081,30 +6081,30 @@
         <v>40</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U82" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E83" s="8">
         <v>46053</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I83" s="10">
         <v>2024</v>
@@ -6113,13 +6113,13 @@
         <v>2024</v>
       </c>
       <c r="K83" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L83" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L83" s="1" t="s">
+      <c r="M83" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M83" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O83" s="1">
         <v>40</v>
@@ -6128,30 +6128,30 @@
         <v>40</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U83" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E84" s="8">
         <v>46053</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I84" s="10">
         <v>2024</v>
@@ -6160,13 +6160,13 @@
         <v>2024</v>
       </c>
       <c r="K84" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L84" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L84" s="1" t="s">
+      <c r="M84" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M84" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O84" s="1">
         <v>30</v>
@@ -6175,30 +6175,30 @@
         <v>40</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U84" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E85" s="8">
         <v>46053</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I85" s="10">
         <v>2021</v>
@@ -6207,13 +6207,13 @@
         <v>2021</v>
       </c>
       <c r="K85" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L85" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L85" s="1" t="s">
+      <c r="M85" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M85" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O85" s="1">
         <v>30</v>
@@ -6222,30 +6222,30 @@
         <v>30</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U85" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E86" s="8">
         <v>46053</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I86" s="10">
         <v>2023</v>
@@ -6254,13 +6254,13 @@
         <v>2023</v>
       </c>
       <c r="K86" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L86" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L86" s="1" t="s">
+      <c r="M86" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M86" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O86" s="1">
         <v>30</v>
@@ -6269,30 +6269,30 @@
         <v>30</v>
       </c>
       <c r="R86" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U86" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E87" s="8">
         <v>46053</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I87" s="10">
         <v>2023</v>
@@ -6301,13 +6301,13 @@
         <v>2023</v>
       </c>
       <c r="K87" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L87" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L87" s="1" t="s">
+      <c r="M87" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M87" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O87" s="1">
         <v>30</v>
@@ -6316,30 +6316,30 @@
         <v>30</v>
       </c>
       <c r="R87" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U87" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E88" s="8">
         <v>46053</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I88" s="10">
         <v>2023</v>
@@ -6348,13 +6348,13 @@
         <v>2023</v>
       </c>
       <c r="K88" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L88" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L88" s="1" t="s">
+      <c r="M88" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M88" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O88" s="1">
         <v>30</v>
@@ -6363,30 +6363,30 @@
         <v>30</v>
       </c>
       <c r="R88" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U88" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E89" s="8">
         <v>46053</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I89" s="10">
         <v>2023</v>
@@ -6395,13 +6395,13 @@
         <v>2023</v>
       </c>
       <c r="K89" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L89" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L89" s="1" t="s">
+      <c r="M89" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M89" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O89" s="1">
         <v>30</v>
@@ -6410,30 +6410,30 @@
         <v>30</v>
       </c>
       <c r="R89" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U89" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E90" s="8">
         <v>46053</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I90" s="10">
         <v>2023</v>
@@ -6442,13 +6442,13 @@
         <v>2023</v>
       </c>
       <c r="K90" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L90" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L90" s="1" t="s">
+      <c r="M90" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M90" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O90" s="1">
         <v>30</v>
@@ -6457,30 +6457,30 @@
         <v>30</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U90" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E91" s="8">
         <v>46053</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I91" s="10">
         <v>2023</v>
@@ -6489,13 +6489,13 @@
         <v>2023</v>
       </c>
       <c r="K91" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L91" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L91" s="1" t="s">
+      <c r="M91" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M91" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O91" s="1">
         <v>30</v>
@@ -6504,30 +6504,30 @@
         <v>30</v>
       </c>
       <c r="R91" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U91" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E92" s="8">
         <v>46053</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I92" s="10">
         <v>2023</v>
@@ -6536,13 +6536,13 @@
         <v>2023</v>
       </c>
       <c r="K92" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L92" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L92" s="1" t="s">
+      <c r="M92" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M92" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O92" s="1">
         <v>30</v>
@@ -6551,30 +6551,30 @@
         <v>40</v>
       </c>
       <c r="R92" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U92" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E93" s="8">
         <v>46053</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I93" s="10">
         <v>2023</v>
@@ -6583,13 +6583,13 @@
         <v>2023</v>
       </c>
       <c r="K93" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L93" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L93" s="1" t="s">
+      <c r="M93" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M93" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O93" s="1">
         <v>30</v>
@@ -6598,30 +6598,30 @@
         <v>30</v>
       </c>
       <c r="R93" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U93" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E94" s="8">
         <v>46053</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I94" s="10">
         <v>2023</v>
@@ -6630,13 +6630,13 @@
         <v>2023</v>
       </c>
       <c r="K94" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L94" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L94" s="1" t="s">
+      <c r="M94" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M94" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O94" s="1">
         <v>22.5</v>
@@ -6645,30 +6645,30 @@
         <v>40</v>
       </c>
       <c r="R94" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U94" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E95" s="8">
         <v>46053</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I95" s="10">
         <v>2023</v>
@@ -6677,13 +6677,13 @@
         <v>2023</v>
       </c>
       <c r="K95" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L95" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L95" s="1" t="s">
+      <c r="M95" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M95" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O95" s="1">
         <v>22.5</v>
@@ -6692,30 +6692,30 @@
         <v>40</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U95" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E96" s="8">
         <v>46053</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I96" s="10">
         <v>2023</v>
@@ -6724,13 +6724,13 @@
         <v>2023</v>
       </c>
       <c r="K96" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L96" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L96" s="1" t="s">
+      <c r="M96" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M96" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O96" s="1">
         <v>30</v>
@@ -6739,30 +6739,30 @@
         <v>30</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U96" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E97" s="8">
         <v>46053</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I97" s="10">
         <v>2023</v>
@@ -6771,13 +6771,13 @@
         <v>2023</v>
       </c>
       <c r="K97" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L97" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L97" s="1" t="s">
+      <c r="M97" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M97" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O97" s="1">
         <v>30</v>
@@ -6786,30 +6786,30 @@
         <v>30</v>
       </c>
       <c r="R97" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U97" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E98" s="8">
         <v>46053</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I98" s="10">
         <v>2023</v>
@@ -6818,13 +6818,13 @@
         <v>2023</v>
       </c>
       <c r="K98" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L98" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L98" s="1" t="s">
+      <c r="M98" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M98" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O98" s="1">
         <v>30</v>
@@ -6833,30 +6833,30 @@
         <v>30</v>
       </c>
       <c r="R98" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U98" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E99" s="8">
         <v>46053</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I99" s="10">
         <v>2023</v>
@@ -6865,13 +6865,13 @@
         <v>2023</v>
       </c>
       <c r="K99" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L99" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L99" s="1" t="s">
+      <c r="M99" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M99" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O99" s="1">
         <v>30</v>
@@ -6880,30 +6880,30 @@
         <v>30</v>
       </c>
       <c r="R99" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U99" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E100" s="8">
         <v>46053</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I100" s="10">
         <v>2023</v>
@@ -6912,13 +6912,13 @@
         <v>2023</v>
       </c>
       <c r="K100" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L100" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L100" s="1" t="s">
+      <c r="M100" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M100" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O100" s="1">
         <v>30</v>
@@ -6927,30 +6927,30 @@
         <v>30</v>
       </c>
       <c r="R100" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U100" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E101" s="8">
         <v>46053</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I101" s="10">
         <v>2023</v>
@@ -6959,13 +6959,13 @@
         <v>2023</v>
       </c>
       <c r="K101" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L101" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L101" s="1" t="s">
+      <c r="M101" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M101" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O101" s="1">
         <v>30</v>
@@ -6974,30 +6974,30 @@
         <v>30</v>
       </c>
       <c r="R101" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U101" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E102" s="8">
         <v>46053</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I102" s="10">
         <v>2023</v>
@@ -7006,13 +7006,13 @@
         <v>2023</v>
       </c>
       <c r="K102" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L102" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L102" s="1" t="s">
+      <c r="M102" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M102" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O102" s="1">
         <v>30</v>
@@ -7021,30 +7021,30 @@
         <v>30</v>
       </c>
       <c r="R102" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U102" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E103" s="8">
         <v>46053</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I103" s="10">
         <v>2023</v>
@@ -7053,13 +7053,13 @@
         <v>2023</v>
       </c>
       <c r="K103" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L103" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L103" s="1" t="s">
+      <c r="M103" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M103" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O103" s="1">
         <v>30</v>
@@ -7068,30 +7068,30 @@
         <v>30</v>
       </c>
       <c r="R103" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U103" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E104" s="8">
         <v>46053</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I104" s="10">
         <v>2023</v>
@@ -7100,13 +7100,13 @@
         <v>2023</v>
       </c>
       <c r="K104" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L104" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L104" s="1" t="s">
+      <c r="M104" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M104" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O104" s="1">
         <v>40</v>
@@ -7115,30 +7115,30 @@
         <v>30</v>
       </c>
       <c r="R104" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U104" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E105" s="8">
         <v>46053</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I105" s="10">
         <v>2023</v>
@@ -7147,13 +7147,13 @@
         <v>2023</v>
       </c>
       <c r="K105" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L105" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L105" s="1" t="s">
+      <c r="M105" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M105" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O105" s="1">
         <v>30</v>
@@ -7162,30 +7162,30 @@
         <v>30</v>
       </c>
       <c r="R105" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U105" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E106" s="8">
         <v>46053</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I106" s="10">
         <v>2023</v>
@@ -7194,13 +7194,13 @@
         <v>2023</v>
       </c>
       <c r="K106" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L106" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L106" s="1" t="s">
+      <c r="M106" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M106" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O106" s="1">
         <v>30</v>
@@ -7209,30 +7209,30 @@
         <v>30</v>
       </c>
       <c r="R106" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U106" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E107" s="8">
         <v>46053</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I107" s="10">
         <v>2023</v>
@@ -7241,13 +7241,13 @@
         <v>2023</v>
       </c>
       <c r="K107" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L107" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L107" s="1" t="s">
+      <c r="M107" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="M107" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O107" s="1">
         <v>30</v>
@@ -7256,14 +7256,15 @@
         <v>30</v>
       </c>
       <c r="R107" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U107" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -7298,10 +7299,10 @@
         <v>75</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -7359,15 +7360,15 @@
         <v>2025</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>77</v>
@@ -7376,7 +7377,7 @@
         <v>2025</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -7402,7 +7403,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>9</v>
@@ -7413,10 +7414,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>77</v>
@@ -7449,7 +7450,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>27</v>
@@ -7457,7 +7458,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>80</v>

--- a/data/works.xlsx
+++ b/data/works.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dlf/Developer/dotlineform/dotlineform-site/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501F26D5-7453-5044-AB74-39C7D7EFD38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A19190-8193-2745-928E-26226D268005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schema" sheetId="1" r:id="rId1"/>
@@ -2008,7 +2008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -7389,8 +7389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>

--- a/data/works.xlsx
+++ b/data/works.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dlf/Developer/dotlineform/dotlineform-site/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A19190-8193-2745-928E-26226D268005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AE162A-87C4-234C-9E65-A6EF16D341DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schema" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="379">
   <si>
     <t>Works</t>
   </si>
@@ -1576,7 +1576,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
@@ -1658,13 +1658,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1672,13 +1672,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>371</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>372</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>373</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1686,13 +1686,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1700,13 +1700,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1714,13 +1714,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1728,13 +1728,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1742,13 +1742,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1756,13 +1756,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1770,13 +1770,13 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1784,10 +1784,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>35</v>
@@ -1798,13 +1798,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1812,10 +1812,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>40</v>
@@ -1826,13 +1826,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1840,13 +1840,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>374</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>44</v>
+        <v>376</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>45</v>
+        <v>375</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2008,11 +2008,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X107"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R12" sqref="R12"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
@@ -2020,19 +2020,20 @@
     <col min="1" max="1" width="11.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="37.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="10" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="10" customWidth="1"/>
-    <col min="11" max="12" width="20.83203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="29.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.1640625" style="1" customWidth="1"/>
-    <col min="17" max="20" width="20.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" style="10" customWidth="1"/>
+    <col min="10" max="11" width="20.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="29.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.1640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="20.83203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16.83203125" style="8" customWidth="1"/>
+    <col min="18" max="20" width="20.83203125" style="1" customWidth="1"/>
     <col min="21" max="21" width="26.83203125" style="1" customWidth="1"/>
     <col min="22" max="22" width="15.5" style="1" customWidth="1"/>
     <col min="23" max="23" width="15.1640625" style="1" customWidth="1"/>
@@ -2052,46 +2053,46 @@
         <v>12</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>46</v>
@@ -2125,37 +2126,37 @@
       <c r="C2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="8">
+      <c r="D2" s="8">
         <v>46046</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H2" s="10">
+        <v>2024</v>
+      </c>
       <c r="I2" s="10">
         <v>2024</v>
       </c>
-      <c r="J2" s="10">
-        <v>2024</v>
+      <c r="J2" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M2" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="N2" s="1">
+        <v>42</v>
+      </c>
       <c r="O2" s="1">
-        <v>42</v>
-      </c>
-      <c r="P2" s="1">
         <v>29.7</v>
       </c>
       <c r="R2" s="1" t="s">
@@ -2175,37 +2176,37 @@
       <c r="C3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="8">
+      <c r="D3" s="8">
         <v>46046</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H3" s="10">
+        <v>2024</v>
+      </c>
       <c r="I3" s="10">
         <v>2024</v>
       </c>
-      <c r="J3" s="10">
-        <v>2024</v>
+      <c r="J3" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M3" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="N3" s="1">
+        <v>42</v>
+      </c>
       <c r="O3" s="1">
-        <v>42</v>
-      </c>
-      <c r="P3" s="1">
         <v>29.7</v>
       </c>
       <c r="R3" s="1" t="s">
@@ -2225,37 +2226,37 @@
       <c r="C4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="8">
+      <c r="D4" s="8">
         <v>46046</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H4" s="10">
+        <v>2024</v>
+      </c>
       <c r="I4" s="10">
         <v>2024</v>
       </c>
-      <c r="J4" s="10">
-        <v>2024</v>
+      <c r="J4" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M4" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="N4" s="1">
+        <v>42</v>
+      </c>
       <c r="O4" s="1">
-        <v>42</v>
-      </c>
-      <c r="P4" s="1">
         <v>29.7</v>
       </c>
       <c r="R4" s="1" t="s">
@@ -2275,37 +2276,37 @@
       <c r="C5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="8">
+      <c r="D5" s="8">
         <v>46046</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H5" s="10">
+        <v>2024</v>
+      </c>
       <c r="I5" s="10">
         <v>2024</v>
       </c>
-      <c r="J5" s="10">
-        <v>2024</v>
+      <c r="J5" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M5" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="N5" s="1">
+        <v>42</v>
+      </c>
       <c r="O5" s="1">
-        <v>42</v>
-      </c>
-      <c r="P5" s="1">
         <v>29.7</v>
       </c>
       <c r="R5" s="1" t="s">
@@ -2325,37 +2326,37 @@
       <c r="C6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="8">
+      <c r="D6" s="8">
         <v>46046</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H6" s="10">
+        <v>2024</v>
+      </c>
       <c r="I6" s="10">
         <v>2024</v>
       </c>
-      <c r="J6" s="10">
-        <v>2024</v>
+      <c r="J6" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M6" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="N6" s="1">
+        <v>42</v>
+      </c>
       <c r="O6" s="1">
-        <v>42</v>
-      </c>
-      <c r="P6" s="1">
         <v>29.7</v>
       </c>
       <c r="R6" s="1" t="s">
@@ -2375,37 +2376,37 @@
       <c r="C7" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="8">
+      <c r="D7" s="8">
         <v>46046</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H7" s="10">
+        <v>2024</v>
+      </c>
       <c r="I7" s="10">
         <v>2024</v>
       </c>
-      <c r="J7" s="10">
-        <v>2024</v>
+      <c r="J7" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M7" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="N7" s="1">
+        <v>42</v>
+      </c>
       <c r="O7" s="1">
-        <v>42</v>
-      </c>
-      <c r="P7" s="1">
         <v>29.7</v>
       </c>
       <c r="R7" s="1" t="s">
@@ -2425,37 +2426,37 @@
       <c r="C8" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="8">
+      <c r="D8" s="8">
         <v>46046</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H8" s="10">
+        <v>2024</v>
+      </c>
       <c r="I8" s="10">
         <v>2024</v>
       </c>
-      <c r="J8" s="10">
-        <v>2024</v>
+      <c r="J8" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M8" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="N8" s="1">
+        <v>42</v>
+      </c>
       <c r="O8" s="1">
-        <v>42</v>
-      </c>
-      <c r="P8" s="1">
         <v>29.7</v>
       </c>
       <c r="R8" s="1" t="s">
@@ -2475,37 +2476,37 @@
       <c r="C9" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="8">
+      <c r="D9" s="8">
         <v>46046</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H9" s="10">
+        <v>2024</v>
+      </c>
       <c r="I9" s="10">
         <v>2024</v>
       </c>
-      <c r="J9" s="10">
-        <v>2024</v>
+      <c r="J9" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M9" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="N9" s="1">
+        <v>42</v>
+      </c>
       <c r="O9" s="1">
-        <v>42</v>
-      </c>
-      <c r="P9" s="1">
         <v>29.7</v>
       </c>
       <c r="R9" s="1" t="s">
@@ -2525,37 +2526,37 @@
       <c r="C10" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="8">
+      <c r="D10" s="8">
         <v>46046</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H10" s="10">
+        <v>2024</v>
+      </c>
       <c r="I10" s="10">
         <v>2024</v>
       </c>
-      <c r="J10" s="10">
-        <v>2024</v>
+      <c r="J10" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M10" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="N10" s="1">
+        <v>42</v>
+      </c>
       <c r="O10" s="1">
-        <v>42</v>
-      </c>
-      <c r="P10" s="1">
         <v>29.7</v>
       </c>
       <c r="R10" s="1" t="s">
@@ -2575,37 +2576,37 @@
       <c r="C11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="8">
+      <c r="D11" s="8">
         <v>46046</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H11" s="10">
+        <v>2024</v>
+      </c>
       <c r="I11" s="10">
         <v>2024</v>
       </c>
-      <c r="J11" s="10">
-        <v>2024</v>
+      <c r="J11" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M11" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="N11" s="1">
+        <v>42</v>
+      </c>
       <c r="O11" s="1">
-        <v>42</v>
-      </c>
-      <c r="P11" s="1">
         <v>29.7</v>
       </c>
       <c r="R11" s="1" t="s">
@@ -2625,37 +2626,37 @@
       <c r="C12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E12" s="8">
+      <c r="D12" s="8">
         <v>46046</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H12" s="10">
+        <v>2024</v>
+      </c>
       <c r="I12" s="10">
         <v>2024</v>
       </c>
-      <c r="J12" s="10">
-        <v>2024</v>
+      <c r="J12" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M12" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="N12" s="1">
+        <v>42</v>
+      </c>
       <c r="O12" s="1">
-        <v>42</v>
-      </c>
-      <c r="P12" s="1">
         <v>29.7</v>
       </c>
       <c r="R12" s="1" t="s">
@@ -2675,37 +2676,37 @@
       <c r="C13" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="8">
+      <c r="D13" s="8">
         <v>46046</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H13" s="10">
+        <v>2024</v>
+      </c>
       <c r="I13" s="10">
         <v>2024</v>
       </c>
-      <c r="J13" s="10">
-        <v>2024</v>
+      <c r="J13" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M13" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="N13" s="1">
+        <v>42</v>
+      </c>
       <c r="O13" s="1">
-        <v>42</v>
-      </c>
-      <c r="P13" s="1">
         <v>29.7</v>
       </c>
       <c r="R13" s="1" t="s">
@@ -2725,37 +2726,37 @@
       <c r="C14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="8">
+      <c r="D14" s="8">
         <v>46046</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="F14" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H14" s="10">
+        <v>2024</v>
+      </c>
       <c r="I14" s="10">
         <v>2024</v>
       </c>
-      <c r="J14" s="10">
-        <v>2024</v>
+      <c r="J14" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M14" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="N14" s="1">
+        <v>42</v>
+      </c>
       <c r="O14" s="1">
-        <v>42</v>
-      </c>
-      <c r="P14" s="1">
         <v>29.7</v>
       </c>
       <c r="R14" s="1" t="s">
@@ -2775,37 +2776,37 @@
       <c r="C15" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="8">
+      <c r="D15" s="8">
         <v>46046</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="F15" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H15" s="10">
+        <v>2024</v>
+      </c>
       <c r="I15" s="10">
         <v>2024</v>
       </c>
-      <c r="J15" s="10">
-        <v>2024</v>
+      <c r="J15" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M15" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="N15" s="1">
+        <v>42</v>
+      </c>
       <c r="O15" s="1">
-        <v>42</v>
-      </c>
-      <c r="P15" s="1">
         <v>29.7</v>
       </c>
       <c r="R15" s="1" t="s">
@@ -2825,37 +2826,37 @@
       <c r="C16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="8">
+      <c r="D16" s="8">
         <v>46046</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="F16" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H16" s="10">
+        <v>2024</v>
+      </c>
       <c r="I16" s="10">
         <v>2024</v>
       </c>
-      <c r="J16" s="10">
-        <v>2024</v>
+      <c r="J16" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="N16" s="1">
+        <v>42</v>
+      </c>
       <c r="O16" s="1">
-        <v>42</v>
-      </c>
-      <c r="P16" s="1">
         <v>29.7</v>
       </c>
       <c r="R16" s="1" t="s">
@@ -2875,37 +2876,37 @@
       <c r="C17" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="8">
+      <c r="D17" s="8">
         <v>46046</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H17" s="10">
+        <v>2024</v>
+      </c>
       <c r="I17" s="10">
         <v>2024</v>
       </c>
-      <c r="J17" s="10">
-        <v>2024</v>
+      <c r="J17" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M17" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="N17" s="1">
+        <v>42</v>
+      </c>
       <c r="O17" s="1">
-        <v>42</v>
-      </c>
-      <c r="P17" s="1">
         <v>29.7</v>
       </c>
       <c r="R17" s="1" t="s">
@@ -2925,37 +2926,37 @@
       <c r="C18" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E18" s="8">
+      <c r="D18" s="8">
         <v>46046</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="F18" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H18" s="10">
+        <v>2024</v>
+      </c>
       <c r="I18" s="10">
         <v>2024</v>
       </c>
-      <c r="J18" s="10">
-        <v>2024</v>
+      <c r="J18" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M18" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="N18" s="1">
+        <v>42</v>
+      </c>
       <c r="O18" s="1">
-        <v>42</v>
-      </c>
-      <c r="P18" s="1">
         <v>29.7</v>
       </c>
       <c r="R18" s="1" t="s">
@@ -2975,37 +2976,37 @@
       <c r="C19" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="8">
+      <c r="D19" s="8">
         <v>46046</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="F19" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H19" s="10">
+        <v>2024</v>
+      </c>
       <c r="I19" s="10">
         <v>2024</v>
       </c>
-      <c r="J19" s="10">
-        <v>2024</v>
+      <c r="J19" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M19" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="N19" s="1">
+        <v>42</v>
+      </c>
       <c r="O19" s="1">
-        <v>42</v>
-      </c>
-      <c r="P19" s="1">
         <v>29.7</v>
       </c>
       <c r="R19" s="1" t="s">
@@ -3025,37 +3026,37 @@
       <c r="C20" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="8">
+      <c r="D20" s="8">
         <v>46046</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="F20" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H20" s="10">
+        <v>2024</v>
+      </c>
       <c r="I20" s="10">
         <v>2024</v>
       </c>
-      <c r="J20" s="10">
-        <v>2024</v>
+      <c r="J20" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M20" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="N20" s="1">
+        <v>42</v>
+      </c>
       <c r="O20" s="1">
-        <v>42</v>
-      </c>
-      <c r="P20" s="1">
         <v>29.7</v>
       </c>
       <c r="R20" s="1" t="s">
@@ -3075,37 +3076,37 @@
       <c r="C21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="8">
+      <c r="D21" s="8">
         <v>46046</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="F21" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H21" s="10">
+        <v>2024</v>
+      </c>
       <c r="I21" s="10">
         <v>2024</v>
       </c>
-      <c r="J21" s="10">
-        <v>2024</v>
+      <c r="J21" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M21" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="N21" s="1">
+        <v>42</v>
+      </c>
       <c r="O21" s="1">
-        <v>42</v>
-      </c>
-      <c r="P21" s="1">
         <v>29.7</v>
       </c>
       <c r="R21" s="1" t="s">
@@ -3125,37 +3126,37 @@
       <c r="C22" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="8">
+      <c r="D22" s="8">
         <v>46046</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="F22" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H22" s="10">
+        <v>2024</v>
+      </c>
       <c r="I22" s="10">
         <v>2024</v>
       </c>
-      <c r="J22" s="10">
-        <v>2024</v>
+      <c r="J22" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M22" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="N22" s="1">
+        <v>42</v>
+      </c>
       <c r="O22" s="1">
-        <v>42</v>
-      </c>
-      <c r="P22" s="1">
         <v>29.7</v>
       </c>
       <c r="R22" s="1" t="s">
@@ -3175,37 +3176,37 @@
       <c r="C23" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="8">
+      <c r="D23" s="8">
         <v>46046</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="F23" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H23" s="10">
+        <v>2024</v>
+      </c>
       <c r="I23" s="10">
         <v>2024</v>
       </c>
-      <c r="J23" s="10">
-        <v>2024</v>
+      <c r="J23" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M23" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="N23" s="1">
+        <v>42</v>
+      </c>
       <c r="O23" s="1">
-        <v>42</v>
-      </c>
-      <c r="P23" s="1">
         <v>29.7</v>
       </c>
       <c r="R23" s="1" t="s">
@@ -3225,37 +3226,37 @@
       <c r="C24" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="8">
+      <c r="D24" s="8">
         <v>46046</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="F24" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H24" s="10">
+        <v>2024</v>
+      </c>
       <c r="I24" s="10">
         <v>2024</v>
       </c>
-      <c r="J24" s="10">
-        <v>2024</v>
+      <c r="J24" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M24" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="N24" s="1">
+        <v>42</v>
+      </c>
       <c r="O24" s="1">
-        <v>42</v>
-      </c>
-      <c r="P24" s="1">
         <v>29.7</v>
       </c>
       <c r="R24" s="1" t="s">
@@ -3275,37 +3276,37 @@
       <c r="C25" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="8">
+      <c r="D25" s="8">
         <v>46046</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="F25" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H25" s="10">
+        <v>2024</v>
+      </c>
       <c r="I25" s="10">
         <v>2024</v>
       </c>
-      <c r="J25" s="10">
-        <v>2024</v>
+      <c r="J25" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M25" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="N25" s="1">
+        <v>42</v>
+      </c>
       <c r="O25" s="1">
-        <v>42</v>
-      </c>
-      <c r="P25" s="1">
         <v>29.7</v>
       </c>
       <c r="R25" s="1" t="s">
@@ -3325,37 +3326,37 @@
       <c r="C26" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E26" s="8">
+      <c r="D26" s="8">
         <v>46046</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="F26" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H26" s="10">
+        <v>2024</v>
+      </c>
       <c r="I26" s="10">
         <v>2024</v>
       </c>
-      <c r="J26" s="10">
-        <v>2024</v>
+      <c r="J26" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M26" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="N26" s="1">
+        <v>42</v>
+      </c>
       <c r="O26" s="1">
-        <v>42</v>
-      </c>
-      <c r="P26" s="1">
         <v>29.7</v>
       </c>
       <c r="R26" s="1" t="s">
@@ -3375,37 +3376,37 @@
       <c r="C27" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="8">
+      <c r="D27" s="8">
         <v>46046</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="F27" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H27" s="10">
+        <v>2024</v>
+      </c>
       <c r="I27" s="10">
         <v>2024</v>
       </c>
-      <c r="J27" s="10">
-        <v>2024</v>
+      <c r="J27" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M27" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="N27" s="1">
+        <v>42</v>
+      </c>
       <c r="O27" s="1">
-        <v>42</v>
-      </c>
-      <c r="P27" s="1">
         <v>29.7</v>
       </c>
       <c r="R27" s="1" t="s">
@@ -3425,37 +3426,37 @@
       <c r="C28" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="8">
+      <c r="D28" s="8">
         <v>46046</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="F28" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H28" s="10">
+        <v>2024</v>
+      </c>
       <c r="I28" s="10">
         <v>2024</v>
       </c>
-      <c r="J28" s="10">
-        <v>2024</v>
+      <c r="J28" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M28" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="N28" s="1">
+        <v>42</v>
+      </c>
       <c r="O28" s="1">
-        <v>42</v>
-      </c>
-      <c r="P28" s="1">
         <v>29.7</v>
       </c>
       <c r="R28" s="1" t="s">
@@ -3475,37 +3476,37 @@
       <c r="C29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E29" s="8">
+      <c r="D29" s="8">
         <v>46046</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="F29" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H29" s="10">
+        <v>2024</v>
+      </c>
       <c r="I29" s="10">
         <v>2024</v>
       </c>
-      <c r="J29" s="10">
-        <v>2024</v>
+      <c r="J29" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M29" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="N29" s="1">
+        <v>42</v>
+      </c>
       <c r="O29" s="1">
-        <v>42</v>
-      </c>
-      <c r="P29" s="1">
         <v>29.7</v>
       </c>
       <c r="R29" s="1" t="s">
@@ -3525,37 +3526,37 @@
       <c r="C30" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E30" s="8">
+      <c r="D30" s="8">
         <v>46046</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="F30" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H30" s="10">
+        <v>2024</v>
+      </c>
       <c r="I30" s="10">
         <v>2024</v>
       </c>
-      <c r="J30" s="10">
-        <v>2024</v>
+      <c r="J30" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M30" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="N30" s="1">
+        <v>42</v>
+      </c>
       <c r="O30" s="1">
-        <v>42</v>
-      </c>
-      <c r="P30" s="1">
         <v>29.7</v>
       </c>
       <c r="R30" s="1" t="s">
@@ -3575,37 +3576,37 @@
       <c r="C31" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E31" s="8">
+      <c r="D31" s="8">
         <v>46046</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="F31" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H31" s="10">
+        <v>2024</v>
+      </c>
       <c r="I31" s="10">
         <v>2024</v>
       </c>
-      <c r="J31" s="10">
-        <v>2024</v>
+      <c r="J31" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M31" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="N31" s="1">
+        <v>42</v>
+      </c>
       <c r="O31" s="1">
-        <v>42</v>
-      </c>
-      <c r="P31" s="1">
         <v>29.7</v>
       </c>
       <c r="R31" s="1" t="s">
@@ -3625,37 +3626,37 @@
       <c r="C32" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E32" s="8">
+      <c r="D32" s="8">
         <v>46046</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="F32" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H32" s="10">
+        <v>2024</v>
+      </c>
       <c r="I32" s="10">
         <v>2024</v>
       </c>
-      <c r="J32" s="10">
-        <v>2024</v>
+      <c r="J32" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M32" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="N32" s="1">
+        <v>42</v>
+      </c>
       <c r="O32" s="1">
-        <v>42</v>
-      </c>
-      <c r="P32" s="1">
         <v>29.7</v>
       </c>
       <c r="R32" s="1" t="s">
@@ -3675,37 +3676,37 @@
       <c r="C33" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E33" s="8">
+      <c r="D33" s="8">
         <v>46046</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="F33" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H33" s="10">
+        <v>2024</v>
+      </c>
       <c r="I33" s="10">
         <v>2024</v>
       </c>
-      <c r="J33" s="10">
-        <v>2024</v>
+      <c r="J33" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M33" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="N33" s="1">
+        <v>42</v>
+      </c>
       <c r="O33" s="1">
-        <v>42</v>
-      </c>
-      <c r="P33" s="1">
         <v>29.7</v>
       </c>
       <c r="R33" s="1" t="s">
@@ -3725,37 +3726,37 @@
       <c r="C34" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="8">
+      <c r="D34" s="8">
         <v>46046</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="F34" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H34" s="10">
+        <v>2024</v>
+      </c>
       <c r="I34" s="10">
         <v>2024</v>
       </c>
-      <c r="J34" s="10">
-        <v>2024</v>
+      <c r="J34" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M34" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="N34" s="1">
+        <v>42</v>
+      </c>
       <c r="O34" s="1">
-        <v>42</v>
-      </c>
-      <c r="P34" s="1">
         <v>29.7</v>
       </c>
       <c r="R34" s="1" t="s">
@@ -3775,37 +3776,37 @@
       <c r="C35" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E35" s="8">
+      <c r="D35" s="8">
         <v>46046</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="F35" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H35" s="10">
+        <v>2024</v>
+      </c>
       <c r="I35" s="10">
         <v>2024</v>
       </c>
-      <c r="J35" s="10">
-        <v>2024</v>
+      <c r="J35" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M35" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="N35" s="1">
+        <v>42</v>
+      </c>
       <c r="O35" s="1">
-        <v>42</v>
-      </c>
-      <c r="P35" s="1">
         <v>29.7</v>
       </c>
       <c r="R35" s="1" t="s">
@@ -3825,37 +3826,37 @@
       <c r="C36" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E36" s="8">
+      <c r="D36" s="8">
         <v>46046</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="F36" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H36" s="10">
+        <v>2024</v>
+      </c>
       <c r="I36" s="10">
         <v>2024</v>
       </c>
-      <c r="J36" s="10">
-        <v>2024</v>
+      <c r="J36" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M36" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="N36" s="1">
+        <v>42</v>
+      </c>
       <c r="O36" s="1">
-        <v>42</v>
-      </c>
-      <c r="P36" s="1">
         <v>29.7</v>
       </c>
       <c r="R36" s="1" t="s">
@@ -3875,37 +3876,37 @@
       <c r="C37" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E37" s="8">
+      <c r="D37" s="8">
         <v>46046</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="F37" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H37" s="10">
+        <v>2024</v>
+      </c>
       <c r="I37" s="10">
         <v>2024</v>
       </c>
-      <c r="J37" s="10">
-        <v>2024</v>
+      <c r="J37" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M37" s="1" t="s">
         <v>164</v>
       </c>
+      <c r="N37" s="1">
+        <v>42</v>
+      </c>
       <c r="O37" s="1">
-        <v>42</v>
-      </c>
-      <c r="P37" s="1">
         <v>29.7</v>
       </c>
       <c r="R37" s="1" t="s">
@@ -3925,37 +3926,37 @@
       <c r="C38" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E38" s="8">
+      <c r="D38" s="8">
         <v>46046</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="F38" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H38" s="10">
+        <v>2024</v>
+      </c>
       <c r="I38" s="10">
         <v>2024</v>
       </c>
-      <c r="J38" s="10">
-        <v>2024</v>
+      <c r="J38" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M38" s="1" t="s">
         <v>164</v>
       </c>
+      <c r="N38" s="1">
+        <v>42</v>
+      </c>
       <c r="O38" s="1">
-        <v>42</v>
-      </c>
-      <c r="P38" s="1">
         <v>29.7</v>
       </c>
       <c r="R38" s="1" t="s">
@@ -3975,37 +3976,37 @@
       <c r="C39" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E39" s="8">
+      <c r="D39" s="8">
         <v>46046</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="F39" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H39" s="10">
+        <v>2024</v>
+      </c>
       <c r="I39" s="10">
         <v>2024</v>
       </c>
-      <c r="J39" s="10">
-        <v>2024</v>
+      <c r="J39" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M39" s="1" t="s">
         <v>169</v>
       </c>
+      <c r="N39" s="1">
+        <v>42</v>
+      </c>
       <c r="O39" s="1">
-        <v>42</v>
-      </c>
-      <c r="P39" s="1">
         <v>29.7</v>
       </c>
       <c r="R39" s="1" t="s">
@@ -4025,37 +4026,37 @@
       <c r="C40" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E40" s="8">
+      <c r="D40" s="8">
         <v>46046</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="F40" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H40" s="10">
+        <v>2024</v>
+      </c>
       <c r="I40" s="10">
         <v>2024</v>
       </c>
-      <c r="J40" s="10">
-        <v>2024</v>
+      <c r="J40" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M40" s="1" t="s">
         <v>169</v>
       </c>
+      <c r="N40" s="1">
+        <v>42</v>
+      </c>
       <c r="O40" s="1">
-        <v>42</v>
-      </c>
-      <c r="P40" s="1">
         <v>29.7</v>
       </c>
       <c r="R40" s="1" t="s">
@@ -4075,37 +4076,37 @@
       <c r="C41" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E41" s="8">
+      <c r="D41" s="8">
         <v>46046</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="F41" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H41" s="10">
+        <v>2024</v>
+      </c>
       <c r="I41" s="10">
         <v>2024</v>
       </c>
-      <c r="J41" s="10">
-        <v>2024</v>
+      <c r="J41" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M41" s="1" t="s">
         <v>169</v>
       </c>
+      <c r="N41" s="1">
+        <v>42</v>
+      </c>
       <c r="O41" s="1">
-        <v>42</v>
-      </c>
-      <c r="P41" s="1">
         <v>29.7</v>
       </c>
       <c r="R41" s="1" t="s">
@@ -4125,37 +4126,37 @@
       <c r="C42" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E42" s="8">
+      <c r="D42" s="8">
         <v>46046</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="F42" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H42" s="10">
+        <v>2024</v>
+      </c>
       <c r="I42" s="10">
         <v>2024</v>
       </c>
-      <c r="J42" s="10">
-        <v>2024</v>
+      <c r="J42" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M42" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="N42" s="1">
+        <v>42</v>
+      </c>
       <c r="O42" s="1">
-        <v>42</v>
-      </c>
-      <c r="P42" s="1">
         <v>29.7</v>
       </c>
       <c r="R42" s="1" t="s">
@@ -4175,37 +4176,37 @@
       <c r="C43" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E43" s="8">
+      <c r="D43" s="8">
         <v>46046</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="F43" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H43" s="10">
+        <v>2024</v>
+      </c>
       <c r="I43" s="10">
         <v>2024</v>
       </c>
-      <c r="J43" s="10">
-        <v>2024</v>
+      <c r="J43" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M43" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="N43" s="1">
+        <v>42</v>
+      </c>
       <c r="O43" s="1">
-        <v>42</v>
-      </c>
-      <c r="P43" s="1">
         <v>29.7</v>
       </c>
       <c r="R43" s="1" t="s">
@@ -4225,37 +4226,37 @@
       <c r="C44" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E44" s="8">
+      <c r="D44" s="8">
         <v>46046</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="F44" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H44" s="10">
+        <v>2024</v>
+      </c>
       <c r="I44" s="10">
         <v>2024</v>
       </c>
-      <c r="J44" s="10">
-        <v>2024</v>
+      <c r="J44" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M44" s="1" t="s">
         <v>169</v>
       </c>
+      <c r="N44" s="1">
+        <v>42</v>
+      </c>
       <c r="O44" s="1">
-        <v>42</v>
-      </c>
-      <c r="P44" s="1">
         <v>29.7</v>
       </c>
       <c r="R44" s="1" t="s">
@@ -4275,37 +4276,37 @@
       <c r="C45" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E45" s="8">
+      <c r="D45" s="8">
         <v>46046</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="F45" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H45" s="10">
+        <v>2024</v>
+      </c>
       <c r="I45" s="10">
         <v>2024</v>
       </c>
-      <c r="J45" s="10">
-        <v>2024</v>
+      <c r="J45" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M45" s="1" t="s">
         <v>169</v>
       </c>
+      <c r="N45" s="1">
+        <v>42</v>
+      </c>
       <c r="O45" s="1">
-        <v>42</v>
-      </c>
-      <c r="P45" s="1">
         <v>29.7</v>
       </c>
       <c r="R45" s="1" t="s">
@@ -4325,37 +4326,37 @@
       <c r="C46" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E46" s="8">
+      <c r="D46" s="8">
         <v>46046</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="F46" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H46" s="10">
+        <v>2024</v>
+      </c>
       <c r="I46" s="10">
         <v>2024</v>
       </c>
-      <c r="J46" s="10">
-        <v>2024</v>
+      <c r="J46" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M46" s="1" t="s">
         <v>164</v>
       </c>
+      <c r="N46" s="1">
+        <v>42</v>
+      </c>
       <c r="O46" s="1">
-        <v>42</v>
-      </c>
-      <c r="P46" s="1">
         <v>29.7</v>
       </c>
       <c r="R46" s="1" t="s">
@@ -4375,37 +4376,37 @@
       <c r="C47" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E47" s="8">
+      <c r="D47" s="8">
         <v>46046</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="F47" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H47" s="10">
+        <v>2024</v>
+      </c>
       <c r="I47" s="10">
         <v>2024</v>
       </c>
-      <c r="J47" s="10">
-        <v>2024</v>
+      <c r="J47" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M47" s="1" t="s">
         <v>169</v>
       </c>
+      <c r="N47" s="1">
+        <v>42</v>
+      </c>
       <c r="O47" s="1">
-        <v>42</v>
-      </c>
-      <c r="P47" s="1">
         <v>29.7</v>
       </c>
       <c r="R47" s="1" t="s">
@@ -4425,37 +4426,37 @@
       <c r="C48" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E48" s="8">
+      <c r="D48" s="8">
         <v>46046</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="F48" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H48" s="10">
+        <v>2024</v>
+      </c>
       <c r="I48" s="10">
         <v>2024</v>
       </c>
-      <c r="J48" s="10">
-        <v>2024</v>
+      <c r="J48" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M48" s="1" t="s">
         <v>169</v>
       </c>
+      <c r="N48" s="1">
+        <v>42</v>
+      </c>
       <c r="O48" s="1">
-        <v>42</v>
-      </c>
-      <c r="P48" s="1">
         <v>29.7</v>
       </c>
       <c r="R48" s="1" t="s">
@@ -4475,37 +4476,37 @@
       <c r="C49" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E49" s="8">
+      <c r="D49" s="8">
         <v>46046</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="F49" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H49" s="10">
+        <v>2024</v>
+      </c>
       <c r="I49" s="10">
         <v>2024</v>
       </c>
-      <c r="J49" s="10">
-        <v>2024</v>
+      <c r="J49" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M49" s="1" t="s">
         <v>169</v>
       </c>
+      <c r="N49" s="1">
+        <v>42</v>
+      </c>
       <c r="O49" s="1">
-        <v>42</v>
-      </c>
-      <c r="P49" s="1">
         <v>29.7</v>
       </c>
       <c r="R49" s="1" t="s">
@@ -4525,37 +4526,37 @@
       <c r="C50" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E50" s="8">
+      <c r="D50" s="8">
         <v>46046</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G50" s="6" t="s">
+      <c r="F50" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H50" s="10">
+        <v>2024</v>
+      </c>
       <c r="I50" s="10">
         <v>2024</v>
       </c>
-      <c r="J50" s="10">
-        <v>2024</v>
+      <c r="J50" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M50" s="1" t="s">
         <v>169</v>
       </c>
+      <c r="N50" s="1">
+        <v>42</v>
+      </c>
       <c r="O50" s="1">
-        <v>42</v>
-      </c>
-      <c r="P50" s="1">
         <v>29.7</v>
       </c>
       <c r="R50" s="1" t="s">
@@ -4575,37 +4576,37 @@
       <c r="C51" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E51" s="8">
+      <c r="D51" s="8">
         <v>46046</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G51" s="6" t="s">
+      <c r="F51" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H51" s="10">
+        <v>2024</v>
+      </c>
       <c r="I51" s="10">
         <v>2024</v>
       </c>
-      <c r="J51" s="10">
-        <v>2024</v>
+      <c r="J51" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M51" s="1" t="s">
         <v>169</v>
       </c>
+      <c r="N51" s="1">
+        <v>42</v>
+      </c>
       <c r="O51" s="1">
-        <v>42</v>
-      </c>
-      <c r="P51" s="1">
         <v>29.7</v>
       </c>
       <c r="R51" s="1" t="s">
@@ -4625,37 +4626,37 @@
       <c r="C52" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E52" s="8">
+      <c r="D52" s="8">
         <v>46046</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G52" s="6" t="s">
+      <c r="F52" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H52" s="10">
+        <v>2024</v>
+      </c>
       <c r="I52" s="10">
         <v>2024</v>
       </c>
-      <c r="J52" s="10">
-        <v>2024</v>
+      <c r="J52" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M52" s="1" t="s">
         <v>169</v>
       </c>
+      <c r="N52" s="1">
+        <v>42</v>
+      </c>
       <c r="O52" s="1">
-        <v>42</v>
-      </c>
-      <c r="P52" s="1">
         <v>29.7</v>
       </c>
       <c r="R52" s="1" t="s">
@@ -4675,37 +4676,37 @@
       <c r="C53" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E53" s="8">
+      <c r="D53" s="8">
         <v>46046</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="F53" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H53" s="10">
+        <v>2024</v>
+      </c>
       <c r="I53" s="10">
         <v>2024</v>
       </c>
-      <c r="J53" s="10">
-        <v>2024</v>
+      <c r="J53" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M53" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="N53" s="1">
+        <v>42</v>
+      </c>
       <c r="O53" s="1">
-        <v>42</v>
-      </c>
-      <c r="P53" s="1">
         <v>29.7</v>
       </c>
       <c r="R53" s="1" t="s">
@@ -4725,37 +4726,37 @@
       <c r="C54" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E54" s="8">
+      <c r="D54" s="8">
         <v>46046</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G54" s="6" t="s">
+      <c r="F54" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H54" s="10">
+        <v>2024</v>
+      </c>
       <c r="I54" s="10">
         <v>2024</v>
       </c>
-      <c r="J54" s="10">
-        <v>2024</v>
+      <c r="J54" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M54" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="N54" s="1">
+        <v>42</v>
+      </c>
       <c r="O54" s="1">
-        <v>42</v>
-      </c>
-      <c r="P54" s="1">
         <v>29.7</v>
       </c>
       <c r="R54" s="1" t="s">
@@ -4775,37 +4776,37 @@
       <c r="C55" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E55" s="8">
+      <c r="D55" s="8">
         <v>46046</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G55" s="6" t="s">
+      <c r="F55" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H55" s="10">
+        <v>2024</v>
+      </c>
       <c r="I55" s="10">
         <v>2024</v>
       </c>
-      <c r="J55" s="10">
-        <v>2024</v>
+      <c r="J55" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M55" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="N55" s="1">
+        <v>42</v>
+      </c>
       <c r="O55" s="1">
-        <v>42</v>
-      </c>
-      <c r="P55" s="1">
         <v>29.7</v>
       </c>
       <c r="R55" s="1" t="s">
@@ -4825,37 +4826,37 @@
       <c r="C56" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E56" s="8">
+      <c r="D56" s="8">
         <v>46046</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G56" s="6" t="s">
+      <c r="F56" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H56" s="10">
+        <v>2024</v>
+      </c>
       <c r="I56" s="10">
         <v>2024</v>
       </c>
-      <c r="J56" s="10">
-        <v>2024</v>
+      <c r="J56" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M56" s="1" t="s">
         <v>205</v>
       </c>
+      <c r="N56" s="1">
+        <v>29.7</v>
+      </c>
       <c r="O56" s="1">
-        <v>29.7</v>
-      </c>
-      <c r="P56" s="1">
         <v>42</v>
       </c>
       <c r="R56" s="1" t="s">
@@ -4875,34 +4876,34 @@
       <c r="C57" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E57" s="8">
+      <c r="D57" s="8">
         <v>46053</v>
       </c>
+      <c r="E57" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F57" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G57" s="1" t="s">
         <v>209</v>
+      </c>
+      <c r="H57" s="10">
+        <v>2017</v>
       </c>
       <c r="I57" s="10">
         <v>2017</v>
       </c>
-      <c r="J57" s="10">
-        <v>2017</v>
+      <c r="J57" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M57" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="N57" s="1">
+        <v>30</v>
+      </c>
       <c r="O57" s="1">
-        <v>30</v>
-      </c>
-      <c r="P57" s="1">
         <v>30</v>
       </c>
       <c r="R57" s="1" t="s">
@@ -4922,34 +4923,34 @@
       <c r="C58" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E58" s="8">
+      <c r="D58" s="8">
         <v>46053</v>
       </c>
+      <c r="E58" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F58" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G58" s="1" t="s">
         <v>215</v>
+      </c>
+      <c r="H58" s="10">
+        <v>2017</v>
       </c>
       <c r="I58" s="10">
         <v>2017</v>
       </c>
-      <c r="J58" s="10">
-        <v>2017</v>
+      <c r="J58" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M58" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="N58" s="1">
+        <v>30</v>
+      </c>
       <c r="O58" s="1">
-        <v>30</v>
-      </c>
-      <c r="P58" s="1">
         <v>30</v>
       </c>
       <c r="R58" s="1" t="s">
@@ -4969,34 +4970,34 @@
       <c r="C59" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E59" s="8">
+      <c r="D59" s="8">
         <v>46053</v>
       </c>
+      <c r="E59" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F59" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G59" s="1" t="s">
         <v>218</v>
+      </c>
+      <c r="H59" s="10">
+        <v>2017</v>
       </c>
       <c r="I59" s="10">
         <v>2017</v>
       </c>
-      <c r="J59" s="10">
-        <v>2017</v>
+      <c r="J59" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M59" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="N59" s="1">
+        <v>30</v>
+      </c>
       <c r="O59" s="1">
-        <v>30</v>
-      </c>
-      <c r="P59" s="1">
         <v>30</v>
       </c>
       <c r="R59" s="1" t="s">
@@ -5016,34 +5017,34 @@
       <c r="C60" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E60" s="8">
+      <c r="D60" s="8">
         <v>46053</v>
       </c>
+      <c r="E60" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F60" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G60" s="1" t="s">
         <v>222</v>
+      </c>
+      <c r="H60" s="10">
+        <v>2017</v>
       </c>
       <c r="I60" s="10">
         <v>2017</v>
       </c>
-      <c r="J60" s="10">
-        <v>2017</v>
+      <c r="J60" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M60" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="N60" s="1">
+        <v>30</v>
+      </c>
       <c r="O60" s="1">
-        <v>30</v>
-      </c>
-      <c r="P60" s="1">
         <v>30</v>
       </c>
       <c r="R60" s="1" t="s">
@@ -5063,34 +5064,34 @@
       <c r="C61" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E61" s="8">
+      <c r="D61" s="8">
         <v>46053</v>
       </c>
+      <c r="E61" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F61" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G61" s="1" t="s">
         <v>226</v>
       </c>
+      <c r="H61" s="10">
+        <v>2024</v>
+      </c>
       <c r="I61" s="10">
         <v>2024</v>
       </c>
-      <c r="J61" s="10">
-        <v>2024</v>
+      <c r="J61" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M61" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="N61" s="1">
+        <v>30</v>
+      </c>
       <c r="O61" s="1">
-        <v>30</v>
-      </c>
-      <c r="P61" s="1">
         <v>40</v>
       </c>
       <c r="R61" s="1" t="s">
@@ -5110,34 +5111,34 @@
       <c r="C62" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E62" s="8">
+      <c r="D62" s="8">
         <v>46053</v>
       </c>
+      <c r="E62" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F62" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G62" s="1" t="s">
         <v>229</v>
       </c>
+      <c r="H62" s="10">
+        <v>2024</v>
+      </c>
       <c r="I62" s="10">
         <v>2024</v>
       </c>
-      <c r="J62" s="10">
-        <v>2024</v>
+      <c r="J62" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M62" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="N62" s="1">
+        <v>30</v>
+      </c>
       <c r="O62" s="1">
-        <v>30</v>
-      </c>
-      <c r="P62" s="1">
         <v>30</v>
       </c>
       <c r="R62" s="1" t="s">
@@ -5157,34 +5158,34 @@
       <c r="C63" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E63" s="8">
+      <c r="D63" s="8">
         <v>46053</v>
       </c>
+      <c r="E63" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F63" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G63" s="1" t="s">
         <v>232</v>
       </c>
+      <c r="H63" s="10">
+        <v>2024</v>
+      </c>
       <c r="I63" s="10">
         <v>2024</v>
       </c>
-      <c r="J63" s="10">
-        <v>2024</v>
+      <c r="J63" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M63" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="N63" s="1">
+        <v>30</v>
+      </c>
       <c r="O63" s="1">
-        <v>30</v>
-      </c>
-      <c r="P63" s="1">
         <v>30</v>
       </c>
       <c r="R63" s="1" t="s">
@@ -5204,34 +5205,34 @@
       <c r="C64" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E64" s="8">
+      <c r="D64" s="8">
         <v>46053</v>
       </c>
+      <c r="E64" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F64" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G64" s="1" t="s">
         <v>235</v>
+      </c>
+      <c r="H64" s="10">
+        <v>2025</v>
       </c>
       <c r="I64" s="10">
         <v>2025</v>
       </c>
-      <c r="J64" s="10">
-        <v>2025</v>
+      <c r="J64" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M64" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="N64" s="1">
+        <v>30</v>
+      </c>
       <c r="O64" s="1">
-        <v>30</v>
-      </c>
-      <c r="P64" s="1">
         <v>40</v>
       </c>
       <c r="R64" s="1" t="s">
@@ -5251,34 +5252,34 @@
       <c r="C65" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E65" s="8">
+      <c r="D65" s="8">
         <v>46053</v>
       </c>
+      <c r="E65" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F65" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G65" s="1" t="s">
         <v>238</v>
+      </c>
+      <c r="H65" s="10">
+        <v>2025</v>
       </c>
       <c r="I65" s="10">
         <v>2025</v>
       </c>
-      <c r="J65" s="10">
-        <v>2025</v>
+      <c r="J65" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M65" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="N65" s="1">
+        <v>30</v>
+      </c>
       <c r="O65" s="1">
-        <v>30</v>
-      </c>
-      <c r="P65" s="1">
         <v>30</v>
       </c>
       <c r="R65" s="1" t="s">
@@ -5298,34 +5299,34 @@
       <c r="C66" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E66" s="8">
+      <c r="D66" s="8">
         <v>46053</v>
       </c>
+      <c r="E66" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F66" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G66" s="1" t="s">
         <v>241</v>
+      </c>
+      <c r="H66" s="10">
+        <v>2025</v>
       </c>
       <c r="I66" s="10">
         <v>2025</v>
       </c>
-      <c r="J66" s="10">
-        <v>2025</v>
+      <c r="J66" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M66" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="N66" s="1">
+        <v>40</v>
+      </c>
       <c r="O66" s="1">
-        <v>40</v>
-      </c>
-      <c r="P66" s="1">
         <v>30</v>
       </c>
       <c r="R66" s="1" t="s">
@@ -5345,34 +5346,34 @@
       <c r="C67" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E67" s="8">
+      <c r="D67" s="8">
         <v>46053</v>
       </c>
+      <c r="E67" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F67" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G67" s="1" t="s">
         <v>244</v>
+      </c>
+      <c r="H67" s="10">
+        <v>2025</v>
       </c>
       <c r="I67" s="10">
         <v>2025</v>
       </c>
-      <c r="J67" s="10">
-        <v>2025</v>
+      <c r="J67" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M67" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="N67" s="1">
+        <v>30</v>
+      </c>
       <c r="O67" s="1">
-        <v>30</v>
-      </c>
-      <c r="P67" s="1">
         <v>30</v>
       </c>
       <c r="R67" s="1" t="s">
@@ -5392,34 +5393,34 @@
       <c r="C68" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E68" s="8">
+      <c r="D68" s="8">
         <v>46053</v>
       </c>
+      <c r="E68" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F68" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G68" s="1" t="s">
         <v>247</v>
+      </c>
+      <c r="H68" s="10">
+        <v>2025</v>
       </c>
       <c r="I68" s="10">
         <v>2025</v>
       </c>
-      <c r="J68" s="10">
-        <v>2025</v>
+      <c r="J68" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M68" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="N68" s="1">
+        <v>30</v>
+      </c>
       <c r="O68" s="1">
-        <v>30</v>
-      </c>
-      <c r="P68" s="1">
         <v>30</v>
       </c>
       <c r="R68" s="1" t="s">
@@ -5439,34 +5440,34 @@
       <c r="C69" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E69" s="8">
+      <c r="D69" s="8">
         <v>46053</v>
       </c>
+      <c r="E69" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F69" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G69" s="1" t="s">
         <v>250</v>
+      </c>
+      <c r="H69" s="10">
+        <v>2025</v>
       </c>
       <c r="I69" s="10">
         <v>2025</v>
       </c>
-      <c r="J69" s="10">
-        <v>2025</v>
+      <c r="J69" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M69" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="N69" s="1">
+        <v>30</v>
+      </c>
       <c r="O69" s="1">
-        <v>30</v>
-      </c>
-      <c r="P69" s="1">
         <v>30</v>
       </c>
       <c r="R69" s="1" t="s">
@@ -5486,34 +5487,34 @@
       <c r="C70" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E70" s="8">
+      <c r="D70" s="8">
         <v>46053</v>
       </c>
+      <c r="E70" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F70" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G70" s="1" t="s">
         <v>253</v>
       </c>
+      <c r="H70" s="10">
+        <v>2024</v>
+      </c>
       <c r="I70" s="10">
         <v>2024</v>
       </c>
-      <c r="J70" s="10">
-        <v>2024</v>
+      <c r="J70" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M70" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="N70" s="1">
+        <v>30</v>
+      </c>
       <c r="O70" s="1">
-        <v>30</v>
-      </c>
-      <c r="P70" s="1">
         <v>30</v>
       </c>
       <c r="R70" s="1" t="s">
@@ -5533,34 +5534,34 @@
       <c r="C71" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E71" s="8">
+      <c r="D71" s="8">
         <v>46053</v>
       </c>
+      <c r="E71" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F71" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G71" s="1" t="s">
         <v>256</v>
       </c>
+      <c r="H71" s="10">
+        <v>2024</v>
+      </c>
       <c r="I71" s="10">
         <v>2024</v>
       </c>
-      <c r="J71" s="10">
-        <v>2024</v>
+      <c r="J71" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M71" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="N71" s="1">
+        <v>50</v>
+      </c>
       <c r="O71" s="1">
-        <v>50</v>
-      </c>
-      <c r="P71" s="1">
         <v>50</v>
       </c>
       <c r="R71" s="1" t="s">
@@ -5580,34 +5581,34 @@
       <c r="C72" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E72" s="8">
+      <c r="D72" s="8">
         <v>46053</v>
       </c>
+      <c r="E72" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F72" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G72" s="1" t="s">
         <v>259</v>
       </c>
+      <c r="H72" s="10">
+        <v>2024</v>
+      </c>
       <c r="I72" s="10">
         <v>2024</v>
       </c>
-      <c r="J72" s="10">
-        <v>2024</v>
+      <c r="J72" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M72" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="N72" s="1">
+        <v>50</v>
+      </c>
       <c r="O72" s="1">
-        <v>50</v>
-      </c>
-      <c r="P72" s="1">
         <v>50</v>
       </c>
       <c r="R72" s="1" t="s">
@@ -5627,34 +5628,34 @@
       <c r="C73" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E73" s="8">
+      <c r="D73" s="8">
         <v>46053</v>
       </c>
+      <c r="E73" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F73" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G73" s="1" t="s">
         <v>262</v>
       </c>
+      <c r="H73" s="10">
+        <v>2024</v>
+      </c>
       <c r="I73" s="10">
         <v>2024</v>
       </c>
-      <c r="J73" s="10">
-        <v>2024</v>
+      <c r="J73" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M73" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="N73" s="1">
+        <v>50</v>
+      </c>
       <c r="O73" s="1">
-        <v>50</v>
-      </c>
-      <c r="P73" s="1">
         <v>50</v>
       </c>
       <c r="R73" s="1" t="s">
@@ -5674,34 +5675,34 @@
       <c r="C74" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E74" s="8">
+      <c r="D74" s="8">
         <v>46053</v>
       </c>
+      <c r="E74" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F74" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G74" s="1" t="s">
         <v>265</v>
       </c>
+      <c r="H74" s="10">
+        <v>2024</v>
+      </c>
       <c r="I74" s="10">
         <v>2024</v>
       </c>
-      <c r="J74" s="10">
-        <v>2024</v>
+      <c r="J74" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M74" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="N74" s="1">
+        <v>50</v>
+      </c>
       <c r="O74" s="1">
-        <v>50</v>
-      </c>
-      <c r="P74" s="1">
         <v>50</v>
       </c>
       <c r="R74" s="1" t="s">
@@ -5721,34 +5722,34 @@
       <c r="C75" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E75" s="8">
+      <c r="D75" s="8">
         <v>46053</v>
       </c>
+      <c r="E75" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F75" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G75" s="1" t="s">
         <v>268</v>
       </c>
+      <c r="H75" s="10">
+        <v>2024</v>
+      </c>
       <c r="I75" s="10">
         <v>2024</v>
       </c>
-      <c r="J75" s="10">
-        <v>2024</v>
+      <c r="J75" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M75" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="N75" s="1">
+        <v>50</v>
+      </c>
       <c r="O75" s="1">
-        <v>50</v>
-      </c>
-      <c r="P75" s="1">
         <v>50</v>
       </c>
       <c r="R75" s="1" t="s">
@@ -5768,34 +5769,34 @@
       <c r="C76" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E76" s="8">
+      <c r="D76" s="8">
         <v>46053</v>
       </c>
+      <c r="E76" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F76" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G76" s="1" t="s">
         <v>271</v>
+      </c>
+      <c r="H76" s="10">
+        <v>2023</v>
       </c>
       <c r="I76" s="10">
         <v>2023</v>
       </c>
-      <c r="J76" s="10">
-        <v>2023</v>
+      <c r="J76" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M76" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="N76" s="1">
+        <v>50</v>
+      </c>
       <c r="O76" s="1">
-        <v>50</v>
-      </c>
-      <c r="P76" s="1">
         <v>50</v>
       </c>
       <c r="R76" s="1" t="s">
@@ -5815,34 +5816,34 @@
       <c r="C77" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E77" s="8">
+      <c r="D77" s="8">
         <v>46053</v>
       </c>
+      <c r="E77" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F77" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G77" s="1" t="s">
         <v>274</v>
+      </c>
+      <c r="H77" s="10">
+        <v>2023</v>
       </c>
       <c r="I77" s="10">
         <v>2023</v>
       </c>
-      <c r="J77" s="10">
-        <v>2023</v>
+      <c r="J77" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M77" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="N77" s="1">
+        <v>50</v>
+      </c>
       <c r="O77" s="1">
-        <v>50</v>
-      </c>
-      <c r="P77" s="1">
         <v>50</v>
       </c>
       <c r="R77" s="1" t="s">
@@ -5862,34 +5863,34 @@
       <c r="C78" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E78" s="8">
+      <c r="D78" s="8">
         <v>46053</v>
       </c>
+      <c r="E78" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F78" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G78" s="1" t="s">
         <v>277</v>
+      </c>
+      <c r="H78" s="10">
+        <v>2023</v>
       </c>
       <c r="I78" s="10">
         <v>2023</v>
       </c>
-      <c r="J78" s="10">
-        <v>2023</v>
+      <c r="J78" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M78" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="N78" s="1">
+        <v>50</v>
+      </c>
       <c r="O78" s="1">
-        <v>50</v>
-      </c>
-      <c r="P78" s="1">
         <v>50</v>
       </c>
       <c r="R78" s="1" t="s">
@@ -5909,34 +5910,34 @@
       <c r="C79" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E79" s="8">
+      <c r="D79" s="8">
         <v>46053</v>
       </c>
+      <c r="E79" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F79" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G79" s="1" t="s">
         <v>280</v>
+      </c>
+      <c r="H79" s="10">
+        <v>2023</v>
       </c>
       <c r="I79" s="10">
         <v>2023</v>
       </c>
-      <c r="J79" s="10">
-        <v>2023</v>
+      <c r="J79" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M79" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="N79" s="1">
+        <v>50</v>
+      </c>
       <c r="O79" s="1">
-        <v>50</v>
-      </c>
-      <c r="P79" s="1">
         <v>50</v>
       </c>
       <c r="R79" s="1" t="s">
@@ -5956,34 +5957,34 @@
       <c r="C80" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E80" s="8">
+      <c r="D80" s="8">
         <v>46053</v>
       </c>
+      <c r="E80" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F80" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G80" s="1" t="s">
         <v>283</v>
       </c>
+      <c r="H80" s="10">
+        <v>2024</v>
+      </c>
       <c r="I80" s="10">
         <v>2024</v>
       </c>
-      <c r="J80" s="10">
-        <v>2024</v>
+      <c r="J80" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M80" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="N80" s="1">
+        <v>50</v>
+      </c>
       <c r="O80" s="1">
-        <v>50</v>
-      </c>
-      <c r="P80" s="1">
         <v>50</v>
       </c>
       <c r="R80" s="1" t="s">
@@ -6003,34 +6004,34 @@
       <c r="C81" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E81" s="8">
+      <c r="D81" s="8">
         <v>46053</v>
       </c>
+      <c r="E81" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F81" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G81" s="1" t="s">
         <v>286</v>
       </c>
+      <c r="H81" s="10">
+        <v>2024</v>
+      </c>
       <c r="I81" s="10">
         <v>2024</v>
       </c>
-      <c r="J81" s="10">
-        <v>2024</v>
+      <c r="J81" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M81" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="N81" s="1">
+        <v>40</v>
+      </c>
       <c r="O81" s="1">
-        <v>40</v>
-      </c>
-      <c r="P81" s="1">
         <v>40</v>
       </c>
       <c r="R81" s="1" t="s">
@@ -6050,34 +6051,34 @@
       <c r="C82" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E82" s="8">
+      <c r="D82" s="8">
         <v>46053</v>
       </c>
+      <c r="E82" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F82" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G82" s="1" t="s">
         <v>289</v>
       </c>
+      <c r="H82" s="10">
+        <v>2024</v>
+      </c>
       <c r="I82" s="10">
         <v>2024</v>
       </c>
-      <c r="J82" s="10">
-        <v>2024</v>
+      <c r="J82" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M82" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="N82" s="1">
+        <v>40</v>
+      </c>
       <c r="O82" s="1">
-        <v>40</v>
-      </c>
-      <c r="P82" s="1">
         <v>40</v>
       </c>
       <c r="R82" s="1" t="s">
@@ -6097,34 +6098,34 @@
       <c r="C83" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E83" s="8">
+      <c r="D83" s="8">
         <v>46053</v>
       </c>
+      <c r="E83" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F83" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G83" s="1" t="s">
         <v>292</v>
       </c>
+      <c r="H83" s="10">
+        <v>2024</v>
+      </c>
       <c r="I83" s="10">
         <v>2024</v>
       </c>
-      <c r="J83" s="10">
-        <v>2024</v>
+      <c r="J83" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M83" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="N83" s="1">
+        <v>40</v>
+      </c>
       <c r="O83" s="1">
-        <v>40</v>
-      </c>
-      <c r="P83" s="1">
         <v>40</v>
       </c>
       <c r="R83" s="1" t="s">
@@ -6144,34 +6145,34 @@
       <c r="C84" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E84" s="8">
+      <c r="D84" s="8">
         <v>46053</v>
       </c>
+      <c r="E84" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F84" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G84" s="1" t="s">
         <v>295</v>
       </c>
+      <c r="H84" s="10">
+        <v>2024</v>
+      </c>
       <c r="I84" s="10">
         <v>2024</v>
       </c>
-      <c r="J84" s="10">
-        <v>2024</v>
+      <c r="J84" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M84" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="N84" s="1">
+        <v>30</v>
+      </c>
       <c r="O84" s="1">
-        <v>30</v>
-      </c>
-      <c r="P84" s="1">
         <v>40</v>
       </c>
       <c r="R84" s="1" t="s">
@@ -6191,34 +6192,34 @@
       <c r="C85" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E85" s="8">
+      <c r="D85" s="8">
         <v>46053</v>
       </c>
+      <c r="E85" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F85" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G85" s="1" t="s">
         <v>298</v>
+      </c>
+      <c r="H85" s="10">
+        <v>2021</v>
       </c>
       <c r="I85" s="10">
         <v>2021</v>
       </c>
-      <c r="J85" s="10">
-        <v>2021</v>
+      <c r="J85" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M85" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="N85" s="1">
+        <v>30</v>
+      </c>
       <c r="O85" s="1">
-        <v>30</v>
-      </c>
-      <c r="P85" s="1">
         <v>30</v>
       </c>
       <c r="R85" s="1" t="s">
@@ -6238,34 +6239,34 @@
       <c r="C86" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E86" s="8">
+      <c r="D86" s="8">
         <v>46053</v>
       </c>
+      <c r="E86" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F86" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G86" s="1" t="s">
         <v>301</v>
+      </c>
+      <c r="H86" s="10">
+        <v>2023</v>
       </c>
       <c r="I86" s="10">
         <v>2023</v>
       </c>
-      <c r="J86" s="10">
-        <v>2023</v>
+      <c r="J86" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M86" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="N86" s="1">
+        <v>30</v>
+      </c>
       <c r="O86" s="1">
-        <v>30</v>
-      </c>
-      <c r="P86" s="1">
         <v>30</v>
       </c>
       <c r="R86" s="1" t="s">
@@ -6285,34 +6286,34 @@
       <c r="C87" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E87" s="8">
+      <c r="D87" s="8">
         <v>46053</v>
       </c>
+      <c r="E87" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F87" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G87" s="1" t="s">
         <v>304</v>
+      </c>
+      <c r="H87" s="10">
+        <v>2023</v>
       </c>
       <c r="I87" s="10">
         <v>2023</v>
       </c>
-      <c r="J87" s="10">
-        <v>2023</v>
+      <c r="J87" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M87" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="N87" s="1">
+        <v>30</v>
+      </c>
       <c r="O87" s="1">
-        <v>30</v>
-      </c>
-      <c r="P87" s="1">
         <v>30</v>
       </c>
       <c r="R87" s="1" t="s">
@@ -6332,34 +6333,34 @@
       <c r="C88" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E88" s="8">
+      <c r="D88" s="8">
         <v>46053</v>
       </c>
+      <c r="E88" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F88" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G88" s="1" t="s">
         <v>307</v>
+      </c>
+      <c r="H88" s="10">
+        <v>2023</v>
       </c>
       <c r="I88" s="10">
         <v>2023</v>
       </c>
-      <c r="J88" s="10">
-        <v>2023</v>
+      <c r="J88" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M88" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="N88" s="1">
+        <v>30</v>
+      </c>
       <c r="O88" s="1">
-        <v>30</v>
-      </c>
-      <c r="P88" s="1">
         <v>30</v>
       </c>
       <c r="R88" s="1" t="s">
@@ -6379,34 +6380,34 @@
       <c r="C89" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E89" s="8">
+      <c r="D89" s="8">
         <v>46053</v>
       </c>
+      <c r="E89" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F89" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G89" s="1" t="s">
         <v>310</v>
+      </c>
+      <c r="H89" s="10">
+        <v>2023</v>
       </c>
       <c r="I89" s="10">
         <v>2023</v>
       </c>
-      <c r="J89" s="10">
-        <v>2023</v>
+      <c r="J89" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M89" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="N89" s="1">
+        <v>30</v>
+      </c>
       <c r="O89" s="1">
-        <v>30</v>
-      </c>
-      <c r="P89" s="1">
         <v>30</v>
       </c>
       <c r="R89" s="1" t="s">
@@ -6426,34 +6427,34 @@
       <c r="C90" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E90" s="8">
+      <c r="D90" s="8">
         <v>46053</v>
       </c>
+      <c r="E90" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F90" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G90" s="1" t="s">
         <v>313</v>
+      </c>
+      <c r="H90" s="10">
+        <v>2023</v>
       </c>
       <c r="I90" s="10">
         <v>2023</v>
       </c>
-      <c r="J90" s="10">
-        <v>2023</v>
+      <c r="J90" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M90" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="N90" s="1">
+        <v>30</v>
+      </c>
       <c r="O90" s="1">
-        <v>30</v>
-      </c>
-      <c r="P90" s="1">
         <v>30</v>
       </c>
       <c r="R90" s="1" t="s">
@@ -6473,34 +6474,34 @@
       <c r="C91" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E91" s="8">
+      <c r="D91" s="8">
         <v>46053</v>
       </c>
+      <c r="E91" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F91" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G91" s="1" t="s">
         <v>316</v>
+      </c>
+      <c r="H91" s="10">
+        <v>2023</v>
       </c>
       <c r="I91" s="10">
         <v>2023</v>
       </c>
-      <c r="J91" s="10">
-        <v>2023</v>
+      <c r="J91" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M91" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="N91" s="1">
+        <v>30</v>
+      </c>
       <c r="O91" s="1">
-        <v>30</v>
-      </c>
-      <c r="P91" s="1">
         <v>30</v>
       </c>
       <c r="R91" s="1" t="s">
@@ -6520,34 +6521,34 @@
       <c r="C92" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E92" s="8">
+      <c r="D92" s="8">
         <v>46053</v>
       </c>
+      <c r="E92" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F92" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G92" s="1" t="s">
         <v>319</v>
+      </c>
+      <c r="H92" s="10">
+        <v>2023</v>
       </c>
       <c r="I92" s="10">
         <v>2023</v>
       </c>
-      <c r="J92" s="10">
-        <v>2023</v>
+      <c r="J92" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M92" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="N92" s="1">
+        <v>30</v>
+      </c>
       <c r="O92" s="1">
-        <v>30</v>
-      </c>
-      <c r="P92" s="1">
         <v>40</v>
       </c>
       <c r="R92" s="1" t="s">
@@ -6567,34 +6568,34 @@
       <c r="C93" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E93" s="8">
+      <c r="D93" s="8">
         <v>46053</v>
       </c>
+      <c r="E93" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F93" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G93" s="1" t="s">
         <v>322</v>
+      </c>
+      <c r="H93" s="10">
+        <v>2023</v>
       </c>
       <c r="I93" s="10">
         <v>2023</v>
       </c>
-      <c r="J93" s="10">
-        <v>2023</v>
+      <c r="J93" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M93" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="N93" s="1">
+        <v>30</v>
+      </c>
       <c r="O93" s="1">
-        <v>30</v>
-      </c>
-      <c r="P93" s="1">
         <v>30</v>
       </c>
       <c r="R93" s="1" t="s">
@@ -6614,34 +6615,34 @@
       <c r="C94" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E94" s="8">
+      <c r="D94" s="8">
         <v>46053</v>
       </c>
+      <c r="E94" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F94" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G94" s="1" t="s">
         <v>325</v>
+      </c>
+      <c r="H94" s="10">
+        <v>2023</v>
       </c>
       <c r="I94" s="10">
         <v>2023</v>
       </c>
-      <c r="J94" s="10">
-        <v>2023</v>
+      <c r="J94" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M94" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="N94" s="1">
+        <v>22.5</v>
+      </c>
       <c r="O94" s="1">
-        <v>22.5</v>
-      </c>
-      <c r="P94" s="1">
         <v>40</v>
       </c>
       <c r="R94" s="1" t="s">
@@ -6661,34 +6662,34 @@
       <c r="C95" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E95" s="8">
+      <c r="D95" s="8">
         <v>46053</v>
       </c>
+      <c r="E95" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F95" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G95" s="1" t="s">
         <v>328</v>
+      </c>
+      <c r="H95" s="10">
+        <v>2023</v>
       </c>
       <c r="I95" s="10">
         <v>2023</v>
       </c>
-      <c r="J95" s="10">
-        <v>2023</v>
+      <c r="J95" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M95" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="N95" s="1">
+        <v>22.5</v>
+      </c>
       <c r="O95" s="1">
-        <v>22.5</v>
-      </c>
-      <c r="P95" s="1">
         <v>40</v>
       </c>
       <c r="R95" s="1" t="s">
@@ -6708,34 +6709,34 @@
       <c r="C96" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E96" s="8">
+      <c r="D96" s="8">
         <v>46053</v>
       </c>
+      <c r="E96" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F96" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G96" s="1" t="s">
         <v>331</v>
+      </c>
+      <c r="H96" s="10">
+        <v>2023</v>
       </c>
       <c r="I96" s="10">
         <v>2023</v>
       </c>
-      <c r="J96" s="10">
-        <v>2023</v>
+      <c r="J96" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M96" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="N96" s="1">
+        <v>30</v>
+      </c>
       <c r="O96" s="1">
-        <v>30</v>
-      </c>
-      <c r="P96" s="1">
         <v>30</v>
       </c>
       <c r="R96" s="1" t="s">
@@ -6755,34 +6756,34 @@
       <c r="C97" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E97" s="8">
+      <c r="D97" s="8">
         <v>46053</v>
       </c>
+      <c r="E97" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F97" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G97" s="1" t="s">
         <v>334</v>
+      </c>
+      <c r="H97" s="10">
+        <v>2023</v>
       </c>
       <c r="I97" s="10">
         <v>2023</v>
       </c>
-      <c r="J97" s="10">
-        <v>2023</v>
+      <c r="J97" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M97" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="N97" s="1">
+        <v>30</v>
+      </c>
       <c r="O97" s="1">
-        <v>30</v>
-      </c>
-      <c r="P97" s="1">
         <v>30</v>
       </c>
       <c r="R97" s="1" t="s">
@@ -6802,34 +6803,34 @@
       <c r="C98" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E98" s="8">
+      <c r="D98" s="8">
         <v>46053</v>
       </c>
+      <c r="E98" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F98" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G98" s="1" t="s">
         <v>337</v>
+      </c>
+      <c r="H98" s="10">
+        <v>2023</v>
       </c>
       <c r="I98" s="10">
         <v>2023</v>
       </c>
-      <c r="J98" s="10">
-        <v>2023</v>
+      <c r="J98" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M98" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="N98" s="1">
+        <v>30</v>
+      </c>
       <c r="O98" s="1">
-        <v>30</v>
-      </c>
-      <c r="P98" s="1">
         <v>30</v>
       </c>
       <c r="R98" s="1" t="s">
@@ -6849,34 +6850,34 @@
       <c r="C99" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E99" s="8">
+      <c r="D99" s="8">
         <v>46053</v>
       </c>
+      <c r="E99" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F99" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G99" s="1" t="s">
         <v>340</v>
+      </c>
+      <c r="H99" s="10">
+        <v>2023</v>
       </c>
       <c r="I99" s="10">
         <v>2023</v>
       </c>
-      <c r="J99" s="10">
-        <v>2023</v>
+      <c r="J99" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M99" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="N99" s="1">
+        <v>30</v>
+      </c>
       <c r="O99" s="1">
-        <v>30</v>
-      </c>
-      <c r="P99" s="1">
         <v>30</v>
       </c>
       <c r="R99" s="1" t="s">
@@ -6896,34 +6897,34 @@
       <c r="C100" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E100" s="8">
+      <c r="D100" s="8">
         <v>46053</v>
       </c>
+      <c r="E100" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F100" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G100" s="1" t="s">
         <v>343</v>
+      </c>
+      <c r="H100" s="10">
+        <v>2023</v>
       </c>
       <c r="I100" s="10">
         <v>2023</v>
       </c>
-      <c r="J100" s="10">
-        <v>2023</v>
+      <c r="J100" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M100" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="N100" s="1">
+        <v>30</v>
+      </c>
       <c r="O100" s="1">
-        <v>30</v>
-      </c>
-      <c r="P100" s="1">
         <v>30</v>
       </c>
       <c r="R100" s="1" t="s">
@@ -6943,34 +6944,34 @@
       <c r="C101" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E101" s="8">
+      <c r="D101" s="8">
         <v>46053</v>
       </c>
+      <c r="E101" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F101" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G101" s="1" t="s">
         <v>346</v>
+      </c>
+      <c r="H101" s="10">
+        <v>2023</v>
       </c>
       <c r="I101" s="10">
         <v>2023</v>
       </c>
-      <c r="J101" s="10">
-        <v>2023</v>
+      <c r="J101" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M101" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="N101" s="1">
+        <v>30</v>
+      </c>
       <c r="O101" s="1">
-        <v>30</v>
-      </c>
-      <c r="P101" s="1">
         <v>30</v>
       </c>
       <c r="R101" s="1" t="s">
@@ -6990,34 +6991,34 @@
       <c r="C102" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E102" s="8">
+      <c r="D102" s="8">
         <v>46053</v>
       </c>
+      <c r="E102" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F102" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G102" s="1" t="s">
         <v>349</v>
+      </c>
+      <c r="H102" s="10">
+        <v>2023</v>
       </c>
       <c r="I102" s="10">
         <v>2023</v>
       </c>
-      <c r="J102" s="10">
-        <v>2023</v>
+      <c r="J102" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M102" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="N102" s="1">
+        <v>30</v>
+      </c>
       <c r="O102" s="1">
-        <v>30</v>
-      </c>
-      <c r="P102" s="1">
         <v>30</v>
       </c>
       <c r="R102" s="1" t="s">
@@ -7037,34 +7038,34 @@
       <c r="C103" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E103" s="8">
+      <c r="D103" s="8">
         <v>46053</v>
       </c>
+      <c r="E103" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F103" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G103" s="1" t="s">
         <v>352</v>
+      </c>
+      <c r="H103" s="10">
+        <v>2023</v>
       </c>
       <c r="I103" s="10">
         <v>2023</v>
       </c>
-      <c r="J103" s="10">
-        <v>2023</v>
+      <c r="J103" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M103" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="N103" s="1">
+        <v>30</v>
+      </c>
       <c r="O103" s="1">
-        <v>30</v>
-      </c>
-      <c r="P103" s="1">
         <v>30</v>
       </c>
       <c r="R103" s="1" t="s">
@@ -7084,34 +7085,34 @@
       <c r="C104" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E104" s="8">
+      <c r="D104" s="8">
         <v>46053</v>
       </c>
+      <c r="E104" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F104" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G104" s="1" t="s">
         <v>355</v>
+      </c>
+      <c r="H104" s="10">
+        <v>2023</v>
       </c>
       <c r="I104" s="10">
         <v>2023</v>
       </c>
-      <c r="J104" s="10">
-        <v>2023</v>
+      <c r="J104" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M104" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="N104" s="1">
+        <v>40</v>
+      </c>
       <c r="O104" s="1">
-        <v>40</v>
-      </c>
-      <c r="P104" s="1">
         <v>30</v>
       </c>
       <c r="R104" s="1" t="s">
@@ -7131,34 +7132,34 @@
       <c r="C105" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E105" s="8">
+      <c r="D105" s="8">
         <v>46053</v>
       </c>
+      <c r="E105" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F105" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G105" s="1" t="s">
         <v>358</v>
+      </c>
+      <c r="H105" s="10">
+        <v>2023</v>
       </c>
       <c r="I105" s="10">
         <v>2023</v>
       </c>
-      <c r="J105" s="10">
-        <v>2023</v>
+      <c r="J105" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M105" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="N105" s="1">
+        <v>30</v>
+      </c>
       <c r="O105" s="1">
-        <v>30</v>
-      </c>
-      <c r="P105" s="1">
         <v>30</v>
       </c>
       <c r="R105" s="1" t="s">
@@ -7178,34 +7179,34 @@
       <c r="C106" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E106" s="8">
+      <c r="D106" s="8">
         <v>46053</v>
       </c>
+      <c r="E106" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F106" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G106" s="1" t="s">
         <v>361</v>
+      </c>
+      <c r="H106" s="10">
+        <v>2023</v>
       </c>
       <c r="I106" s="10">
         <v>2023</v>
       </c>
-      <c r="J106" s="10">
-        <v>2023</v>
+      <c r="J106" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M106" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="N106" s="1">
+        <v>30</v>
+      </c>
       <c r="O106" s="1">
-        <v>30</v>
-      </c>
-      <c r="P106" s="1">
         <v>30</v>
       </c>
       <c r="R106" s="1" t="s">
@@ -7225,34 +7226,34 @@
       <c r="C107" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E107" s="8">
+      <c r="D107" s="8">
         <v>46053</v>
       </c>
+      <c r="E107" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F107" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G107" s="1" t="s">
         <v>364</v>
+      </c>
+      <c r="H107" s="10">
+        <v>2023</v>
       </c>
       <c r="I107" s="10">
         <v>2023</v>
       </c>
-      <c r="J107" s="10">
-        <v>2023</v>
+      <c r="J107" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M107" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="N107" s="1">
+        <v>30</v>
+      </c>
       <c r="O107" s="1">
-        <v>30</v>
-      </c>
-      <c r="P107" s="1">
         <v>30</v>
       </c>
       <c r="R107" s="1" t="s">
@@ -7312,24 +7313,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.83203125" style="1" customWidth="1"/>
     <col min="2" max="3" width="20.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="20.83203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
@@ -7339,14 +7341,17 @@
       <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>80</v>
       </c>
@@ -7356,14 +7361,17 @@
       <c r="C2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="8">
+        <v>46055</v>
+      </c>
+      <c r="E2" s="6">
         <v>2025</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>210</v>
       </c>
@@ -7373,10 +7381,13 @@
       <c r="C3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="8">
+        <v>46055</v>
+      </c>
+      <c r="E3" s="1">
         <v>2025</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>368</v>
       </c>
     </row>
@@ -7389,14 +7400,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="20.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -7411,6 +7422,9 @@
       <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="D1" s="7" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -7422,7 +7436,9 @@
       <c r="C2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="8">
+        <v>46055</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/works.xlsx
+++ b/data/works.xlsx
@@ -492,7 +492,7 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
     <col width="11.83203125" customWidth="1" style="5" min="1" max="1"/>
     <col width="24.1640625" customWidth="1" style="1" min="2" max="2"/>
@@ -1107,10 +1107,10 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
     <col width="11.33203125" customWidth="1" style="1" min="1" max="1"/>
     <col width="34.1640625" customWidth="1" style="1" min="2" max="2"/>
@@ -1133,8 +1133,8 @@
     <col width="15.5" customWidth="1" style="1" min="22" max="22"/>
     <col width="15.1640625" customWidth="1" style="1" min="23" max="23"/>
     <col width="17.83203125" customWidth="1" style="1" min="24" max="24"/>
-    <col width="10.83203125" customWidth="1" style="1" min="25" max="25"/>
-    <col width="10.83203125" customWidth="1" style="1" min="26" max="16384"/>
+    <col width="10.83203125" customWidth="1" style="1" min="25" max="26"/>
+    <col width="10.83203125" customWidth="1" style="1" min="27" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="3">
@@ -8654,7 +8654,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col width="15.83203125" customWidth="1" min="1" max="1"/>
     <col width="24.83203125" customWidth="1" min="2" max="2"/>
@@ -8712,7 +8712,7 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
     <col width="25.83203125" customWidth="1" style="1" min="1" max="1"/>
     <col width="20.83203125" customWidth="1" style="1" min="2" max="3"/>
@@ -8720,8 +8720,8 @@
     <col width="10.83203125" customWidth="1" style="1" min="5" max="5"/>
     <col width="19.83203125" customWidth="1" style="1" min="6" max="6"/>
     <col width="19" bestFit="1" customWidth="1" style="1" min="7" max="7"/>
-    <col width="10.83203125" customWidth="1" style="1" min="8" max="8"/>
-    <col width="10.83203125" customWidth="1" style="1" min="9" max="16384"/>
+    <col width="10.83203125" customWidth="1" style="1" min="8" max="9"/>
+    <col width="10.83203125" customWidth="1" style="1" min="10" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="3">
@@ -8829,12 +8829,12 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
     <col width="20.83203125" customWidth="1" style="1" min="1" max="3"/>
     <col width="17" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
-    <col width="10.83203125" customWidth="1" style="1" min="5" max="5"/>
-    <col width="10.83203125" customWidth="1" style="1" min="6" max="16384"/>
+    <col width="10.83203125" customWidth="1" style="1" min="5" max="6"/>
+    <col width="10.83203125" customWidth="1" style="1" min="7" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="3">
@@ -8899,12 +8899,12 @@
       <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
     <col width="20.83203125" customWidth="1" style="1" min="1" max="1"/>
     <col width="29.6640625" customWidth="1" style="1" min="2" max="2"/>
-    <col width="10.83203125" customWidth="1" style="1" min="3" max="3"/>
-    <col width="10.83203125" customWidth="1" style="1" min="4" max="16384"/>
+    <col width="10.83203125" customWidth="1" style="1" min="3" max="4"/>
+    <col width="10.83203125" customWidth="1" style="1" min="5" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="3">

--- a/data/works.xlsx
+++ b/data/works.xlsx
@@ -1,31 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10125"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dlf/Developer/dotlineform/dotlineform-site/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325BC6D1-BC13-F144-BB8A-BE9D28CCAA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3EBC4F-A010-D244-9A22-81A8BB28DDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schema" sheetId="1" r:id="rId1"/>
     <sheet name="Works" sheetId="2" r:id="rId2"/>
     <sheet name="WorkFiles" sheetId="3" r:id="rId3"/>
     <sheet name="Series" sheetId="4" r:id="rId4"/>
-    <sheet name="Themes" sheetId="5" r:id="rId5"/>
-    <sheet name="ThemeSeries" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="378">
   <si>
     <t>Works</t>
   </si>
@@ -1156,12 +1154,6 @@
   </si>
   <si>
     <t>2017-25</t>
-  </si>
-  <si>
-    <t>theme_id</t>
-  </si>
-  <si>
-    <t>curves</t>
   </si>
   <si>
     <t>curve poems (2025)</t>
@@ -2011,7 +2003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X107"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2133,7 +2125,7 @@
         <v>46055</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>85</v>
@@ -2183,7 +2175,7 @@
         <v>46055</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>93</v>
@@ -2233,7 +2225,7 @@
         <v>46055</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>96</v>
@@ -2283,7 +2275,7 @@
         <v>46055</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>98</v>
@@ -2333,7 +2325,7 @@
         <v>46055</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>100</v>
@@ -2383,7 +2375,7 @@
         <v>46055</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>102</v>
@@ -2433,7 +2425,7 @@
         <v>46055</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>104</v>
@@ -2483,7 +2475,7 @@
         <v>46055</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>107</v>
@@ -2533,7 +2525,7 @@
         <v>46055</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>110</v>
@@ -2583,7 +2575,7 @@
         <v>46055</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>113</v>
@@ -2633,7 +2625,7 @@
         <v>46055</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>116</v>
@@ -2683,7 +2675,7 @@
         <v>46055</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>118</v>
@@ -2733,7 +2725,7 @@
         <v>46055</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>120</v>
@@ -2783,7 +2775,7 @@
         <v>46055</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>122</v>
@@ -2833,7 +2825,7 @@
         <v>46055</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>124</v>
@@ -2883,7 +2875,7 @@
         <v>46055</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>126</v>
@@ -2933,7 +2925,7 @@
         <v>46055</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>128</v>
@@ -2983,7 +2975,7 @@
         <v>46055</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>130</v>
@@ -3033,7 +3025,7 @@
         <v>46055</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>132</v>
@@ -3083,7 +3075,7 @@
         <v>46055</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>134</v>
@@ -3133,7 +3125,7 @@
         <v>46055</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>136</v>
@@ -3183,7 +3175,7 @@
         <v>46055</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>138</v>
@@ -3233,7 +3225,7 @@
         <v>46055</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>141</v>
@@ -3283,7 +3275,7 @@
         <v>46055</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>143</v>
@@ -3333,7 +3325,7 @@
         <v>46055</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>145</v>
@@ -3383,7 +3375,7 @@
         <v>46055</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>147</v>
@@ -3433,7 +3425,7 @@
         <v>46055</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>149</v>
@@ -3483,7 +3475,7 @@
         <v>46055</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>151</v>
@@ -3533,7 +3525,7 @@
         <v>46055</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>153</v>
@@ -3583,7 +3575,7 @@
         <v>46055</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>156</v>
@@ -3633,7 +3625,7 @@
         <v>46055</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>158</v>
@@ -3683,7 +3675,7 @@
         <v>46055</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>160</v>
@@ -3733,7 +3725,7 @@
         <v>46055</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>163</v>
@@ -3783,7 +3775,7 @@
         <v>46055</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>166</v>
@@ -3833,7 +3825,7 @@
         <v>46055</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>168</v>
@@ -3883,7 +3875,7 @@
         <v>46055</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>170</v>
@@ -3933,7 +3925,7 @@
         <v>46055</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>173</v>
@@ -3983,7 +3975,7 @@
         <v>46055</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>175</v>
@@ -4033,7 +4025,7 @@
         <v>46055</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>178</v>
@@ -4083,7 +4075,7 @@
         <v>46055</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>180</v>
@@ -4133,7 +4125,7 @@
         <v>46055</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>182</v>
@@ -4183,7 +4175,7 @@
         <v>46055</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>184</v>
@@ -4233,7 +4225,7 @@
         <v>46055</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>186</v>
@@ -4283,7 +4275,7 @@
         <v>46055</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>188</v>
@@ -4333,7 +4325,7 @@
         <v>46055</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>190</v>
@@ -4383,7 +4375,7 @@
         <v>46055</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>192</v>
@@ -4433,7 +4425,7 @@
         <v>46055</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>194</v>
@@ -4483,7 +4475,7 @@
         <v>46055</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>196</v>
@@ -4533,7 +4525,7 @@
         <v>46055</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>198</v>
@@ -4583,7 +4575,7 @@
         <v>46055</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>200</v>
@@ -4633,7 +4625,7 @@
         <v>46055</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>202</v>
@@ -4683,7 +4675,7 @@
         <v>46055</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>204</v>
@@ -4733,7 +4725,7 @@
         <v>46055</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>206</v>
@@ -4783,7 +4775,7 @@
         <v>46055</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>208</v>
@@ -4833,7 +4825,7 @@
         <v>46055</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>211</v>
@@ -7276,7 +7268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -7397,93 +7389,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="3" width="20.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10.83203125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="8">
-        <v>46055</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="10.83203125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/works.xlsx
+++ b/data/works.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dlf/Developer/dotlineform/dotlineform-site/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3EBC4F-A010-D244-9A22-81A8BB28DDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDF6B7D-B4FA-BB41-BFCC-93C54B38617D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="378">
   <si>
     <t>Works</t>
   </si>
@@ -718,9 +718,6 @@
     <t>found form (2017-07-29).jpg</t>
   </si>
   <si>
-    <t>forms</t>
-  </si>
-  <si>
     <t>00407</t>
   </si>
   <si>
@@ -1157,6 +1154,9 @@
   </si>
   <si>
     <t>curve poems (2025)</t>
+  </si>
+  <si>
+    <t>has_primary_2400</t>
   </si>
 </sst>
 </file>
@@ -2001,13 +2001,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X107"/>
+  <dimension ref="A1:Y107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F48" sqref="F48"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
@@ -2018,26 +2018,27 @@
     <col min="4" max="4" width="20.83203125" style="8" customWidth="1"/>
     <col min="5" max="5" width="25" style="1" customWidth="1"/>
     <col min="6" max="6" width="37.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="10" customWidth="1"/>
-    <col min="10" max="11" width="20.83203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="29.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.1640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="20.83203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16.83203125" style="8" customWidth="1"/>
-    <col min="18" max="20" width="20.83203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="26.83203125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="15.5" style="1" customWidth="1"/>
-    <col min="23" max="23" width="15.1640625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="17.83203125" style="1" customWidth="1"/>
-    <col min="25" max="27" width="10.83203125" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="10" customWidth="1"/>
+    <col min="11" max="12" width="20.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="29.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.1640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="20.83203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.83203125" style="8" customWidth="1"/>
+    <col min="19" max="21" width="20.83203125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="26.83203125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="15.5" style="1" customWidth="1"/>
+    <col min="24" max="24" width="15.1640625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="17.83203125" style="1" customWidth="1"/>
+    <col min="26" max="28" width="10.83203125" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -2057,61 +2058,64 @@
         <v>21</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>81</v>
       </c>
@@ -2125,43 +2129,44 @@
         <v>46055</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="10">
-        <v>2024</v>
-      </c>
       <c r="I2" s="10">
         <v>2024</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <v>42</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P2" s="1">
         <v>29.7</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U2" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="V2" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>92</v>
       </c>
@@ -2175,43 +2180,44 @@
         <v>46055</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H3" s="10">
-        <v>2024</v>
-      </c>
       <c r="I3" s="10">
         <v>2024</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <v>42</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P3" s="1">
         <v>29.7</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U3" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="V3" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>95</v>
       </c>
@@ -2225,43 +2231,44 @@
         <v>46055</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="6"/>
+      <c r="H4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H4" s="10">
-        <v>2024</v>
-      </c>
       <c r="I4" s="10">
         <v>2024</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <v>42</v>
       </c>
-      <c r="O4" s="1">
+      <c r="P4" s="1">
         <v>29.7</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U4" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="V4" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>97</v>
       </c>
@@ -2275,43 +2282,44 @@
         <v>46055</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="6"/>
+      <c r="H5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H5" s="10">
-        <v>2024</v>
-      </c>
       <c r="I5" s="10">
         <v>2024</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <v>42</v>
       </c>
-      <c r="O5" s="1">
+      <c r="P5" s="1">
         <v>29.7</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U5" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="V5" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>99</v>
       </c>
@@ -2325,43 +2333,44 @@
         <v>46055</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="6"/>
+      <c r="H6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H6" s="10">
-        <v>2024</v>
-      </c>
       <c r="I6" s="10">
         <v>2024</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>42</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <v>29.7</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U6" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="V6" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>101</v>
       </c>
@@ -2375,43 +2384,44 @@
         <v>46055</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="6"/>
+      <c r="H7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H7" s="10">
-        <v>2024</v>
-      </c>
       <c r="I7" s="10">
         <v>2024</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>42</v>
       </c>
-      <c r="O7" s="1">
+      <c r="P7" s="1">
         <v>29.7</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U7" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="V7" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>103</v>
       </c>
@@ -2425,43 +2435,44 @@
         <v>46055</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="6"/>
+      <c r="H8" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H8" s="10">
-        <v>2024</v>
-      </c>
       <c r="I8" s="10">
         <v>2024</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <v>42</v>
       </c>
-      <c r="O8" s="1">
+      <c r="P8" s="1">
         <v>29.7</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U8" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="V8" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>106</v>
       </c>
@@ -2475,43 +2486,44 @@
         <v>46055</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="6"/>
+      <c r="H9" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H9" s="10">
-        <v>2024</v>
-      </c>
       <c r="I9" s="10">
         <v>2024</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <v>42</v>
       </c>
-      <c r="O9" s="1">
+      <c r="P9" s="1">
         <v>29.7</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U9" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="V9" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>109</v>
       </c>
@@ -2525,43 +2537,44 @@
         <v>46055</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="6"/>
+      <c r="H10" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H10" s="10">
-        <v>2024</v>
-      </c>
       <c r="I10" s="10">
         <v>2024</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="N10" s="1">
+      <c r="O10" s="1">
         <v>42</v>
       </c>
-      <c r="O10" s="1">
+      <c r="P10" s="1">
         <v>29.7</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U10" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="V10" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>111</v>
       </c>
@@ -2575,43 +2588,44 @@
         <v>46055</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="6"/>
+      <c r="H11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H11" s="10">
-        <v>2024</v>
-      </c>
       <c r="I11" s="10">
         <v>2024</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="N11" s="1">
+      <c r="O11" s="1">
         <v>42</v>
       </c>
-      <c r="O11" s="1">
+      <c r="P11" s="1">
         <v>29.7</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="S11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U11" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="V11" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>114</v>
       </c>
@@ -2625,43 +2639,44 @@
         <v>46055</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="6"/>
+      <c r="H12" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H12" s="10">
-        <v>2024</v>
-      </c>
       <c r="I12" s="10">
         <v>2024</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="N12" s="1">
+      <c r="O12" s="1">
         <v>42</v>
       </c>
-      <c r="O12" s="1">
+      <c r="P12" s="1">
         <v>29.7</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U12" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="V12" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>117</v>
       </c>
@@ -2675,43 +2690,44 @@
         <v>46055</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="6"/>
+      <c r="H13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H13" s="10">
-        <v>2024</v>
-      </c>
       <c r="I13" s="10">
         <v>2024</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="N13" s="1">
+      <c r="O13" s="1">
         <v>42</v>
       </c>
-      <c r="O13" s="1">
+      <c r="P13" s="1">
         <v>29.7</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="S13" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U13" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="V13" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>119</v>
       </c>
@@ -2725,43 +2741,44 @@
         <v>46055</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="6"/>
+      <c r="H14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H14" s="10">
-        <v>2024</v>
-      </c>
       <c r="I14" s="10">
         <v>2024</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="N14" s="1">
+      <c r="O14" s="1">
         <v>42</v>
       </c>
-      <c r="O14" s="1">
+      <c r="P14" s="1">
         <v>29.7</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="S14" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U14" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="V14" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>121</v>
       </c>
@@ -2775,43 +2792,44 @@
         <v>46055</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="6"/>
+      <c r="H15" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H15" s="10">
-        <v>2024</v>
-      </c>
       <c r="I15" s="10">
         <v>2024</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="N15" s="1">
+      <c r="O15" s="1">
         <v>42</v>
       </c>
-      <c r="O15" s="1">
+      <c r="P15" s="1">
         <v>29.7</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="S15" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U15" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="V15" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>123</v>
       </c>
@@ -2825,43 +2843,44 @@
         <v>46055</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="6"/>
+      <c r="H16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H16" s="10">
-        <v>2024</v>
-      </c>
       <c r="I16" s="10">
         <v>2024</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="N16" s="1">
+      <c r="O16" s="1">
         <v>42</v>
       </c>
-      <c r="O16" s="1">
+      <c r="P16" s="1">
         <v>29.7</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="S16" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U16" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>125</v>
       </c>
@@ -2875,43 +2894,44 @@
         <v>46055</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="6"/>
+      <c r="H17" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="10">
-        <v>2024</v>
-      </c>
       <c r="I17" s="10">
         <v>2024</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="N17" s="1">
+      <c r="O17" s="1">
         <v>42</v>
       </c>
-      <c r="O17" s="1">
+      <c r="P17" s="1">
         <v>29.7</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="S17" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U17" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>127</v>
       </c>
@@ -2925,43 +2945,44 @@
         <v>46055</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="6"/>
+      <c r="H18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H18" s="10">
-        <v>2024</v>
-      </c>
       <c r="I18" s="10">
         <v>2024</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="N18" s="1">
+      <c r="O18" s="1">
         <v>42</v>
       </c>
-      <c r="O18" s="1">
+      <c r="P18" s="1">
         <v>29.7</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="S18" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U18" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>129</v>
       </c>
@@ -2975,43 +2996,44 @@
         <v>46055</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="6"/>
+      <c r="H19" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H19" s="10">
-        <v>2024</v>
-      </c>
       <c r="I19" s="10">
         <v>2024</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="M19" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="N19" s="1">
+      <c r="O19" s="1">
         <v>42</v>
       </c>
-      <c r="O19" s="1">
+      <c r="P19" s="1">
         <v>29.7</v>
       </c>
-      <c r="R19" s="1" t="s">
+      <c r="S19" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U19" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>131</v>
       </c>
@@ -3025,43 +3047,44 @@
         <v>46055</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="6"/>
+      <c r="H20" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H20" s="10">
-        <v>2024</v>
-      </c>
       <c r="I20" s="10">
         <v>2024</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="M20" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="N20" s="1">
+      <c r="O20" s="1">
         <v>42</v>
       </c>
-      <c r="O20" s="1">
+      <c r="P20" s="1">
         <v>29.7</v>
       </c>
-      <c r="R20" s="1" t="s">
+      <c r="S20" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U20" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>133</v>
       </c>
@@ -3075,43 +3098,44 @@
         <v>46055</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="6"/>
+      <c r="H21" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H21" s="10">
-        <v>2024</v>
-      </c>
       <c r="I21" s="10">
         <v>2024</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="M21" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="N21" s="1">
+      <c r="O21" s="1">
         <v>42</v>
       </c>
-      <c r="O21" s="1">
+      <c r="P21" s="1">
         <v>29.7</v>
       </c>
-      <c r="R21" s="1" t="s">
+      <c r="S21" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U21" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>135</v>
       </c>
@@ -3125,43 +3149,44 @@
         <v>46055</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="6"/>
+      <c r="H22" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H22" s="10">
-        <v>2024</v>
-      </c>
       <c r="I22" s="10">
         <v>2024</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="L22" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="M22" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="N22" s="1">
+      <c r="O22" s="1">
         <v>42</v>
       </c>
-      <c r="O22" s="1">
+      <c r="P22" s="1">
         <v>29.7</v>
       </c>
-      <c r="R22" s="1" t="s">
+      <c r="S22" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U22" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>137</v>
       </c>
@@ -3175,43 +3200,44 @@
         <v>46055</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="6"/>
+      <c r="H23" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H23" s="10">
-        <v>2024</v>
-      </c>
       <c r="I23" s="10">
         <v>2024</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="L23" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="M23" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="N23" s="1">
+      <c r="O23" s="1">
         <v>42</v>
       </c>
-      <c r="O23" s="1">
+      <c r="P23" s="1">
         <v>29.7</v>
       </c>
-      <c r="R23" s="1" t="s">
+      <c r="S23" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U23" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>139</v>
       </c>
@@ -3225,43 +3251,44 @@
         <v>46055</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="6"/>
+      <c r="H24" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H24" s="10">
-        <v>2024</v>
-      </c>
       <c r="I24" s="10">
         <v>2024</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="L24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="M24" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="N24" s="1">
+      <c r="O24" s="1">
         <v>42</v>
       </c>
-      <c r="O24" s="1">
+      <c r="P24" s="1">
         <v>29.7</v>
       </c>
-      <c r="R24" s="1" t="s">
+      <c r="S24" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U24" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>142</v>
       </c>
@@ -3275,43 +3302,44 @@
         <v>46055</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="6"/>
+      <c r="H25" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H25" s="10">
-        <v>2024</v>
-      </c>
       <c r="I25" s="10">
         <v>2024</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="L25" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="M25" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="N25" s="1">
+      <c r="O25" s="1">
         <v>42</v>
       </c>
-      <c r="O25" s="1">
+      <c r="P25" s="1">
         <v>29.7</v>
       </c>
-      <c r="R25" s="1" t="s">
+      <c r="S25" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U25" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>144</v>
       </c>
@@ -3325,43 +3353,44 @@
         <v>46055</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="6"/>
+      <c r="H26" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H26" s="10">
-        <v>2024</v>
-      </c>
       <c r="I26" s="10">
         <v>2024</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="L26" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="M26" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="N26" s="1">
+      <c r="O26" s="1">
         <v>42</v>
       </c>
-      <c r="O26" s="1">
+      <c r="P26" s="1">
         <v>29.7</v>
       </c>
-      <c r="R26" s="1" t="s">
+      <c r="S26" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U26" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>146</v>
       </c>
@@ -3375,43 +3404,44 @@
         <v>46055</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="6"/>
+      <c r="H27" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H27" s="10">
-        <v>2024</v>
-      </c>
       <c r="I27" s="10">
         <v>2024</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J27" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="L27" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="M27" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="N27" s="1">
+      <c r="O27" s="1">
         <v>42</v>
       </c>
-      <c r="O27" s="1">
+      <c r="P27" s="1">
         <v>29.7</v>
       </c>
-      <c r="R27" s="1" t="s">
+      <c r="S27" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U27" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>148</v>
       </c>
@@ -3425,43 +3455,44 @@
         <v>46055</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="6"/>
+      <c r="H28" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H28" s="10">
-        <v>2024</v>
-      </c>
       <c r="I28" s="10">
         <v>2024</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J28" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="L28" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="M28" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="N28" s="1">
+      <c r="O28" s="1">
         <v>42</v>
       </c>
-      <c r="O28" s="1">
+      <c r="P28" s="1">
         <v>29.7</v>
       </c>
-      <c r="R28" s="1" t="s">
+      <c r="S28" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U28" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>150</v>
       </c>
@@ -3475,43 +3506,44 @@
         <v>46055</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="6"/>
+      <c r="H29" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H29" s="10">
-        <v>2024</v>
-      </c>
       <c r="I29" s="10">
         <v>2024</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J29" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="L29" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="M29" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="N29" s="1">
+      <c r="O29" s="1">
         <v>42</v>
       </c>
-      <c r="O29" s="1">
+      <c r="P29" s="1">
         <v>29.7</v>
       </c>
-      <c r="R29" s="1" t="s">
+      <c r="S29" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U29" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>152</v>
       </c>
@@ -3525,43 +3557,44 @@
         <v>46055</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="6"/>
+      <c r="H30" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H30" s="10">
-        <v>2024</v>
-      </c>
       <c r="I30" s="10">
         <v>2024</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J30" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="L30" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="M30" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="N30" s="1">
+      <c r="O30" s="1">
         <v>42</v>
       </c>
-      <c r="O30" s="1">
+      <c r="P30" s="1">
         <v>29.7</v>
       </c>
-      <c r="R30" s="1" t="s">
+      <c r="S30" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U30" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>155</v>
       </c>
@@ -3575,43 +3608,44 @@
         <v>46055</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="6"/>
+      <c r="H31" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H31" s="10">
-        <v>2024</v>
-      </c>
       <c r="I31" s="10">
         <v>2024</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J31" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K31" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="L31" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="M31" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="N31" s="1">
+      <c r="O31" s="1">
         <v>42</v>
       </c>
-      <c r="O31" s="1">
+      <c r="P31" s="1">
         <v>29.7</v>
       </c>
-      <c r="R31" s="1" t="s">
+      <c r="S31" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U31" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>157</v>
       </c>
@@ -3625,43 +3659,44 @@
         <v>46055</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="6"/>
+      <c r="H32" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H32" s="10">
-        <v>2024</v>
-      </c>
       <c r="I32" s="10">
         <v>2024</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="J32" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K32" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="L32" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="M32" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="N32" s="1">
+      <c r="O32" s="1">
         <v>42</v>
       </c>
-      <c r="O32" s="1">
+      <c r="P32" s="1">
         <v>29.7</v>
       </c>
-      <c r="R32" s="1" t="s">
+      <c r="S32" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U32" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>159</v>
       </c>
@@ -3675,43 +3710,44 @@
         <v>46055</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="6"/>
+      <c r="H33" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H33" s="10">
-        <v>2024</v>
-      </c>
       <c r="I33" s="10">
         <v>2024</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="J33" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="L33" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="M33" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="N33" s="1">
+      <c r="O33" s="1">
         <v>42</v>
       </c>
-      <c r="O33" s="1">
+      <c r="P33" s="1">
         <v>29.7</v>
       </c>
-      <c r="R33" s="1" t="s">
+      <c r="S33" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U33" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>161</v>
       </c>
@@ -3725,43 +3761,44 @@
         <v>46055</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="6"/>
+      <c r="H34" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H34" s="10">
-        <v>2024</v>
-      </c>
       <c r="I34" s="10">
         <v>2024</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="J34" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K34" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="L34" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="M34" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="N34" s="1">
+      <c r="O34" s="1">
         <v>42</v>
       </c>
-      <c r="O34" s="1">
+      <c r="P34" s="1">
         <v>29.7</v>
       </c>
-      <c r="R34" s="1" t="s">
+      <c r="S34" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U34" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>164</v>
       </c>
@@ -3775,43 +3812,44 @@
         <v>46055</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="6"/>
+      <c r="H35" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H35" s="10">
-        <v>2024</v>
-      </c>
       <c r="I35" s="10">
         <v>2024</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="J35" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K35" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="L35" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="M35" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="N35" s="1">
+      <c r="O35" s="1">
         <v>42</v>
       </c>
-      <c r="O35" s="1">
+      <c r="P35" s="1">
         <v>29.7</v>
       </c>
-      <c r="R35" s="1" t="s">
+      <c r="S35" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U35" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>167</v>
       </c>
@@ -3825,43 +3863,44 @@
         <v>46055</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="6"/>
+      <c r="H36" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H36" s="10">
-        <v>2024</v>
-      </c>
       <c r="I36" s="10">
         <v>2024</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="J36" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K36" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="L36" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="M36" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="N36" s="1">
+      <c r="O36" s="1">
         <v>42</v>
       </c>
-      <c r="O36" s="1">
+      <c r="P36" s="1">
         <v>29.7</v>
       </c>
-      <c r="R36" s="1" t="s">
+      <c r="S36" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U36" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V36" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>169</v>
       </c>
@@ -3875,43 +3914,44 @@
         <v>46055</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="6"/>
+      <c r="H37" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H37" s="10">
-        <v>2024</v>
-      </c>
       <c r="I37" s="10">
         <v>2024</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="J37" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K37" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="L37" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="M37" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="N37" s="1">
+      <c r="O37" s="1">
         <v>42</v>
       </c>
-      <c r="O37" s="1">
+      <c r="P37" s="1">
         <v>29.7</v>
       </c>
-      <c r="R37" s="1" t="s">
+      <c r="S37" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U37" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V37" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>172</v>
       </c>
@@ -3925,43 +3965,44 @@
         <v>46055</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="6"/>
+      <c r="H38" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H38" s="10">
-        <v>2024</v>
-      </c>
       <c r="I38" s="10">
         <v>2024</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="J38" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K38" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="L38" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="M38" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="N38" s="1">
+      <c r="O38" s="1">
         <v>42</v>
       </c>
-      <c r="O38" s="1">
+      <c r="P38" s="1">
         <v>29.7</v>
       </c>
-      <c r="R38" s="1" t="s">
+      <c r="S38" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U38" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>174</v>
       </c>
@@ -3975,43 +4016,44 @@
         <v>46055</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="6"/>
+      <c r="H39" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H39" s="10">
-        <v>2024</v>
-      </c>
       <c r="I39" s="10">
         <v>2024</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="J39" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K39" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="L39" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="M39" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="N39" s="1">
+      <c r="O39" s="1">
         <v>42</v>
       </c>
-      <c r="O39" s="1">
+      <c r="P39" s="1">
         <v>29.7</v>
       </c>
-      <c r="R39" s="1" t="s">
+      <c r="S39" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U39" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>177</v>
       </c>
@@ -4025,43 +4067,44 @@
         <v>46055</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="6"/>
+      <c r="H40" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H40" s="10">
-        <v>2024</v>
-      </c>
       <c r="I40" s="10">
         <v>2024</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="J40" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K40" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="L40" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L40" s="1" t="s">
+      <c r="M40" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="N40" s="1">
+      <c r="O40" s="1">
         <v>42</v>
       </c>
-      <c r="O40" s="1">
+      <c r="P40" s="1">
         <v>29.7</v>
       </c>
-      <c r="R40" s="1" t="s">
+      <c r="S40" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U40" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>179</v>
       </c>
@@ -4075,43 +4118,44 @@
         <v>46055</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" s="6"/>
+      <c r="H41" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H41" s="10">
-        <v>2024</v>
-      </c>
       <c r="I41" s="10">
         <v>2024</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="J41" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K41" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="L41" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L41" s="1" t="s">
+      <c r="M41" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="N41" s="1">
+      <c r="O41" s="1">
         <v>42</v>
       </c>
-      <c r="O41" s="1">
+      <c r="P41" s="1">
         <v>29.7</v>
       </c>
-      <c r="R41" s="1" t="s">
+      <c r="S41" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U41" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>181</v>
       </c>
@@ -4125,43 +4169,44 @@
         <v>46055</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" s="6"/>
+      <c r="H42" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H42" s="10">
-        <v>2024</v>
-      </c>
       <c r="I42" s="10">
         <v>2024</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J42" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K42" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="L42" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="M42" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="N42" s="1">
+      <c r="O42" s="1">
         <v>42</v>
       </c>
-      <c r="O42" s="1">
+      <c r="P42" s="1">
         <v>29.7</v>
       </c>
-      <c r="R42" s="1" t="s">
+      <c r="S42" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U42" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>183</v>
       </c>
@@ -4175,43 +4220,44 @@
         <v>46055</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" s="6"/>
+      <c r="H43" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H43" s="10">
-        <v>2024</v>
-      </c>
       <c r="I43" s="10">
         <v>2024</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="J43" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K43" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="L43" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="M43" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="N43" s="1">
+      <c r="O43" s="1">
         <v>42</v>
       </c>
-      <c r="O43" s="1">
+      <c r="P43" s="1">
         <v>29.7</v>
       </c>
-      <c r="R43" s="1" t="s">
+      <c r="S43" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U43" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>185</v>
       </c>
@@ -4225,43 +4271,44 @@
         <v>46055</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" s="6"/>
+      <c r="H44" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H44" s="10">
-        <v>2024</v>
-      </c>
       <c r="I44" s="10">
         <v>2024</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="J44" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K44" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="L44" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="M44" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="N44" s="1">
+      <c r="O44" s="1">
         <v>42</v>
       </c>
-      <c r="O44" s="1">
+      <c r="P44" s="1">
         <v>29.7</v>
       </c>
-      <c r="R44" s="1" t="s">
+      <c r="S44" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U44" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>187</v>
       </c>
@@ -4275,43 +4322,44 @@
         <v>46055</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" s="6"/>
+      <c r="H45" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H45" s="10">
-        <v>2024</v>
-      </c>
       <c r="I45" s="10">
         <v>2024</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="J45" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K45" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="L45" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="M45" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="N45" s="1">
+      <c r="O45" s="1">
         <v>42</v>
       </c>
-      <c r="O45" s="1">
+      <c r="P45" s="1">
         <v>29.7</v>
       </c>
-      <c r="R45" s="1" t="s">
+      <c r="S45" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U45" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>189</v>
       </c>
@@ -4325,43 +4373,44 @@
         <v>46055</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" s="6"/>
+      <c r="H46" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H46" s="10">
-        <v>2024</v>
-      </c>
       <c r="I46" s="10">
         <v>2024</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="J46" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K46" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="L46" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L46" s="1" t="s">
+      <c r="M46" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="N46" s="1">
+      <c r="O46" s="1">
         <v>42</v>
       </c>
-      <c r="O46" s="1">
+      <c r="P46" s="1">
         <v>29.7</v>
       </c>
-      <c r="R46" s="1" t="s">
+      <c r="S46" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U46" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>191</v>
       </c>
@@ -4375,43 +4424,44 @@
         <v>46055</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" s="6"/>
+      <c r="H47" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H47" s="10">
-        <v>2024</v>
-      </c>
       <c r="I47" s="10">
         <v>2024</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="J47" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K47" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K47" s="1" t="s">
+      <c r="L47" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L47" s="1" t="s">
+      <c r="M47" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="N47" s="1">
+      <c r="O47" s="1">
         <v>42</v>
       </c>
-      <c r="O47" s="1">
+      <c r="P47" s="1">
         <v>29.7</v>
       </c>
-      <c r="R47" s="1" t="s">
+      <c r="S47" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U47" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>193</v>
       </c>
@@ -4425,43 +4475,44 @@
         <v>46055</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" s="6"/>
+      <c r="H48" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H48" s="10">
-        <v>2024</v>
-      </c>
       <c r="I48" s="10">
         <v>2024</v>
       </c>
-      <c r="J48" s="1" t="s">
+      <c r="J48" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K48" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K48" s="1" t="s">
+      <c r="L48" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L48" s="1" t="s">
+      <c r="M48" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="N48" s="1">
+      <c r="O48" s="1">
         <v>42</v>
       </c>
-      <c r="O48" s="1">
+      <c r="P48" s="1">
         <v>29.7</v>
       </c>
-      <c r="R48" s="1" t="s">
+      <c r="S48" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U48" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>195</v>
       </c>
@@ -4475,43 +4526,44 @@
         <v>46055</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" s="6"/>
+      <c r="H49" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H49" s="10">
-        <v>2024</v>
-      </c>
       <c r="I49" s="10">
         <v>2024</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="J49" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K49" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K49" s="1" t="s">
+      <c r="L49" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="M49" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="N49" s="1">
+      <c r="O49" s="1">
         <v>42</v>
       </c>
-      <c r="O49" s="1">
+      <c r="P49" s="1">
         <v>29.7</v>
       </c>
-      <c r="R49" s="1" t="s">
+      <c r="S49" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U49" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>197</v>
       </c>
@@ -4525,43 +4577,44 @@
         <v>46055</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G50" s="6"/>
+      <c r="H50" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H50" s="10">
-        <v>2024</v>
-      </c>
       <c r="I50" s="10">
         <v>2024</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="J50" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K50" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K50" s="1" t="s">
+      <c r="L50" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L50" s="1" t="s">
+      <c r="M50" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="N50" s="1">
+      <c r="O50" s="1">
         <v>42</v>
       </c>
-      <c r="O50" s="1">
+      <c r="P50" s="1">
         <v>29.7</v>
       </c>
-      <c r="R50" s="1" t="s">
+      <c r="S50" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U50" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>199</v>
       </c>
@@ -4575,43 +4628,44 @@
         <v>46055</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G51" s="6"/>
+      <c r="H51" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H51" s="10">
-        <v>2024</v>
-      </c>
       <c r="I51" s="10">
         <v>2024</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="J51" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K51" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K51" s="1" t="s">
+      <c r="L51" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L51" s="1" t="s">
+      <c r="M51" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="N51" s="1">
+      <c r="O51" s="1">
         <v>42</v>
       </c>
-      <c r="O51" s="1">
+      <c r="P51" s="1">
         <v>29.7</v>
       </c>
-      <c r="R51" s="1" t="s">
+      <c r="S51" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U51" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>201</v>
       </c>
@@ -4625,43 +4679,44 @@
         <v>46055</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G52" s="6"/>
+      <c r="H52" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H52" s="10">
-        <v>2024</v>
-      </c>
       <c r="I52" s="10">
         <v>2024</v>
       </c>
-      <c r="J52" s="1" t="s">
+      <c r="J52" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K52" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K52" s="1" t="s">
+      <c r="L52" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L52" s="1" t="s">
+      <c r="M52" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="N52" s="1">
+      <c r="O52" s="1">
         <v>42</v>
       </c>
-      <c r="O52" s="1">
+      <c r="P52" s="1">
         <v>29.7</v>
       </c>
-      <c r="R52" s="1" t="s">
+      <c r="S52" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U52" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>203</v>
       </c>
@@ -4675,43 +4730,44 @@
         <v>46055</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G53" s="6"/>
+      <c r="H53" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H53" s="10">
-        <v>2024</v>
-      </c>
       <c r="I53" s="10">
         <v>2024</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="J53" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K53" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K53" s="1" t="s">
+      <c r="L53" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L53" s="1" t="s">
+      <c r="M53" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="N53" s="1">
+      <c r="O53" s="1">
         <v>42</v>
       </c>
-      <c r="O53" s="1">
+      <c r="P53" s="1">
         <v>29.7</v>
       </c>
-      <c r="R53" s="1" t="s">
+      <c r="S53" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U53" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>205</v>
       </c>
@@ -4725,43 +4781,44 @@
         <v>46055</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G54" s="6"/>
+      <c r="H54" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H54" s="10">
-        <v>2024</v>
-      </c>
       <c r="I54" s="10">
         <v>2024</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="J54" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K54" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K54" s="1" t="s">
+      <c r="L54" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L54" s="1" t="s">
+      <c r="M54" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="N54" s="1">
+      <c r="O54" s="1">
         <v>42</v>
       </c>
-      <c r="O54" s="1">
+      <c r="P54" s="1">
         <v>29.7</v>
       </c>
-      <c r="R54" s="1" t="s">
+      <c r="S54" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U54" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>207</v>
       </c>
@@ -4775,43 +4832,44 @@
         <v>46055</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G55" s="6"/>
+      <c r="H55" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H55" s="10">
-        <v>2024</v>
-      </c>
       <c r="I55" s="10">
         <v>2024</v>
       </c>
-      <c r="J55" s="1" t="s">
+      <c r="J55" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K55" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K55" s="1" t="s">
+      <c r="L55" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L55" s="1" t="s">
+      <c r="M55" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="N55" s="1">
+      <c r="O55" s="1">
         <v>42</v>
       </c>
-      <c r="O55" s="1">
+      <c r="P55" s="1">
         <v>29.7</v>
       </c>
-      <c r="R55" s="1" t="s">
+      <c r="S55" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U55" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>209</v>
       </c>
@@ -4825,43 +4883,44 @@
         <v>46055</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G56" s="6"/>
+      <c r="H56" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H56" s="10">
-        <v>2024</v>
-      </c>
       <c r="I56" s="10">
         <v>2024</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="J56" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K56" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K56" s="1" t="s">
+      <c r="L56" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L56" s="1" t="s">
+      <c r="M56" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="N56" s="1">
+      <c r="O56" s="1">
         <v>29.7</v>
       </c>
-      <c r="O56" s="1">
+      <c r="P56" s="1">
         <v>42</v>
       </c>
-      <c r="R56" s="1" t="s">
+      <c r="S56" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U56" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>213</v>
       </c>
@@ -4880,35 +4939,35 @@
       <c r="F57" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="H57" s="10">
-        <v>2017</v>
-      </c>
       <c r="I57" s="10">
         <v>2017</v>
       </c>
-      <c r="J57" s="1" t="s">
+      <c r="J57" s="10">
+        <v>2017</v>
+      </c>
+      <c r="K57" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K57" s="1" t="s">
+      <c r="L57" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L57" s="1" t="s">
+      <c r="M57" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="N57" s="1">
-        <v>30</v>
       </c>
       <c r="O57" s="1">
         <v>30</v>
       </c>
-      <c r="R57" s="1" t="s">
+      <c r="P57" s="1">
+        <v>30</v>
+      </c>
+      <c r="S57" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="U57" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>221</v>
       </c>
@@ -4927,35 +4986,35 @@
       <c r="F58" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="H58" s="10">
-        <v>2017</v>
-      </c>
       <c r="I58" s="10">
         <v>2017</v>
       </c>
-      <c r="J58" s="1" t="s">
+      <c r="J58" s="10">
+        <v>2017</v>
+      </c>
+      <c r="K58" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K58" s="1" t="s">
+      <c r="L58" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L58" s="1" t="s">
+      <c r="M58" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="N58" s="1">
-        <v>30</v>
       </c>
       <c r="O58" s="1">
         <v>30</v>
       </c>
-      <c r="R58" s="1" t="s">
+      <c r="P58" s="1">
+        <v>30</v>
+      </c>
+      <c r="S58" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="U58" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>224</v>
       </c>
@@ -4974,35 +5033,35 @@
       <c r="F59" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="H59" s="10">
-        <v>2017</v>
-      </c>
       <c r="I59" s="10">
         <v>2017</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="J59" s="10">
+        <v>2017</v>
+      </c>
+      <c r="K59" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K59" s="1" t="s">
+      <c r="L59" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L59" s="1" t="s">
+      <c r="M59" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="N59" s="1">
-        <v>30</v>
       </c>
       <c r="O59" s="1">
         <v>30</v>
       </c>
-      <c r="R59" s="1" t="s">
+      <c r="P59" s="1">
+        <v>30</v>
+      </c>
+      <c r="S59" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="U59" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>227</v>
       </c>
@@ -5021,40 +5080,40 @@
       <c r="F60" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="H60" s="10">
-        <v>2017</v>
-      </c>
       <c r="I60" s="10">
         <v>2017</v>
       </c>
-      <c r="J60" s="1" t="s">
+      <c r="J60" s="10">
+        <v>2017</v>
+      </c>
+      <c r="K60" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K60" s="1" t="s">
+      <c r="L60" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L60" s="1" t="s">
+      <c r="M60" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="N60" s="1">
-        <v>30</v>
       </c>
       <c r="O60" s="1">
         <v>30</v>
       </c>
-      <c r="R60" s="1" t="s">
+      <c r="P60" s="1">
+        <v>30</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V60" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="U60" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A61" s="6" t="s">
+      <c r="B61" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>229</v>
@@ -5066,42 +5125,42 @@
         <v>215</v>
       </c>
       <c r="F61" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I61" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J61" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="O61" s="1">
+        <v>30</v>
+      </c>
+      <c r="P61" s="1">
+        <v>40</v>
+      </c>
+      <c r="S61" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V61" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="H61" s="10">
-        <v>2024</v>
-      </c>
-      <c r="I61" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="N61" s="1">
-        <v>30</v>
-      </c>
-      <c r="O61" s="1">
-        <v>40</v>
-      </c>
-      <c r="R61" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="U61" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A62" s="6" t="s">
+      <c r="B62" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>229</v>
@@ -5113,42 +5172,42 @@
         <v>215</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H62" s="10">
-        <v>2024</v>
+        <v>236</v>
       </c>
       <c r="I62" s="10">
         <v>2024</v>
       </c>
-      <c r="J62" s="1" t="s">
+      <c r="J62" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K62" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K62" s="1" t="s">
+      <c r="L62" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L62" s="1" t="s">
+      <c r="M62" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="N62" s="1">
-        <v>30</v>
       </c>
       <c r="O62" s="1">
         <v>30</v>
       </c>
-      <c r="R62" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="U62" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P62" s="1">
+        <v>30</v>
+      </c>
+      <c r="S62" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V62" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>229</v>
@@ -5160,42 +5219,42 @@
         <v>215</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="H63" s="10">
-        <v>2024</v>
+        <v>239</v>
       </c>
       <c r="I63" s="10">
         <v>2024</v>
       </c>
-      <c r="J63" s="1" t="s">
+      <c r="J63" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K63" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K63" s="1" t="s">
+      <c r="L63" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L63" s="1" t="s">
+      <c r="M63" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="N63" s="1">
-        <v>30</v>
       </c>
       <c r="O63" s="1">
         <v>30</v>
       </c>
-      <c r="R63" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="U63" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P63" s="1">
+        <v>30</v>
+      </c>
+      <c r="S63" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V63" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>229</v>
@@ -5207,42 +5266,42 @@
         <v>215</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H64" s="10">
-        <v>2025</v>
+        <v>242</v>
       </c>
       <c r="I64" s="10">
         <v>2025</v>
       </c>
-      <c r="J64" s="1" t="s">
+      <c r="J64" s="10">
+        <v>2025</v>
+      </c>
+      <c r="K64" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K64" s="1" t="s">
+      <c r="L64" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L64" s="1" t="s">
+      <c r="M64" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="N64" s="1">
+      <c r="O64" s="1">
         <v>30</v>
       </c>
-      <c r="O64" s="1">
+      <c r="P64" s="1">
         <v>40</v>
       </c>
-      <c r="R64" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="U64" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S64" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V64" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>229</v>
@@ -5254,42 +5313,42 @@
         <v>215</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="H65" s="10">
-        <v>2025</v>
+        <v>245</v>
       </c>
       <c r="I65" s="10">
         <v>2025</v>
       </c>
-      <c r="J65" s="1" t="s">
+      <c r="J65" s="10">
+        <v>2025</v>
+      </c>
+      <c r="K65" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K65" s="1" t="s">
+      <c r="L65" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L65" s="1" t="s">
+      <c r="M65" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="N65" s="1">
-        <v>30</v>
       </c>
       <c r="O65" s="1">
         <v>30</v>
       </c>
-      <c r="R65" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="U65" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P65" s="1">
+        <v>30</v>
+      </c>
+      <c r="S65" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V65" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>229</v>
@@ -5301,42 +5360,42 @@
         <v>215</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="H66" s="10">
-        <v>2025</v>
+        <v>248</v>
       </c>
       <c r="I66" s="10">
         <v>2025</v>
       </c>
-      <c r="J66" s="1" t="s">
+      <c r="J66" s="10">
+        <v>2025</v>
+      </c>
+      <c r="K66" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K66" s="1" t="s">
+      <c r="L66" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L66" s="1" t="s">
+      <c r="M66" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="N66" s="1">
+      <c r="O66" s="1">
         <v>40</v>
       </c>
-      <c r="O66" s="1">
+      <c r="P66" s="1">
         <v>30</v>
       </c>
-      <c r="R66" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="U66" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S66" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V66" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>229</v>
@@ -5348,42 +5407,42 @@
         <v>215</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="H67" s="10">
-        <v>2025</v>
+        <v>251</v>
       </c>
       <c r="I67" s="10">
         <v>2025</v>
       </c>
-      <c r="J67" s="1" t="s">
+      <c r="J67" s="10">
+        <v>2025</v>
+      </c>
+      <c r="K67" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K67" s="1" t="s">
+      <c r="L67" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L67" s="1" t="s">
+      <c r="M67" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="N67" s="1">
-        <v>30</v>
       </c>
       <c r="O67" s="1">
         <v>30</v>
       </c>
-      <c r="R67" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="U67" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P67" s="1">
+        <v>30</v>
+      </c>
+      <c r="S67" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V67" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>229</v>
@@ -5395,42 +5454,42 @@
         <v>215</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="H68" s="10">
-        <v>2025</v>
+        <v>254</v>
       </c>
       <c r="I68" s="10">
         <v>2025</v>
       </c>
-      <c r="J68" s="1" t="s">
+      <c r="J68" s="10">
+        <v>2025</v>
+      </c>
+      <c r="K68" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K68" s="1" t="s">
+      <c r="L68" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L68" s="1" t="s">
+      <c r="M68" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="N68" s="1">
-        <v>30</v>
       </c>
       <c r="O68" s="1">
         <v>30</v>
       </c>
-      <c r="R68" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="U68" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P68" s="1">
+        <v>30</v>
+      </c>
+      <c r="S68" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V68" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>229</v>
@@ -5442,42 +5501,42 @@
         <v>215</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="H69" s="10">
-        <v>2025</v>
+        <v>257</v>
       </c>
       <c r="I69" s="10">
         <v>2025</v>
       </c>
-      <c r="J69" s="1" t="s">
+      <c r="J69" s="10">
+        <v>2025</v>
+      </c>
+      <c r="K69" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K69" s="1" t="s">
+      <c r="L69" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L69" s="1" t="s">
+      <c r="M69" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="N69" s="1">
-        <v>30</v>
       </c>
       <c r="O69" s="1">
         <v>30</v>
       </c>
-      <c r="R69" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="U69" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P69" s="1">
+        <v>30</v>
+      </c>
+      <c r="S69" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V69" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>229</v>
@@ -5489,42 +5548,42 @@
         <v>215</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="H70" s="10">
-        <v>2024</v>
+        <v>260</v>
       </c>
       <c r="I70" s="10">
         <v>2024</v>
       </c>
-      <c r="J70" s="1" t="s">
+      <c r="J70" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K70" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K70" s="1" t="s">
+      <c r="L70" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L70" s="1" t="s">
+      <c r="M70" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="N70" s="1">
-        <v>30</v>
       </c>
       <c r="O70" s="1">
         <v>30</v>
       </c>
-      <c r="R70" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="U70" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P70" s="1">
+        <v>30</v>
+      </c>
+      <c r="S70" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V70" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>229</v>
@@ -5536,42 +5595,42 @@
         <v>215</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="H71" s="10">
-        <v>2024</v>
+        <v>263</v>
       </c>
       <c r="I71" s="10">
         <v>2024</v>
       </c>
-      <c r="J71" s="1" t="s">
+      <c r="J71" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K71" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K71" s="1" t="s">
+      <c r="L71" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L71" s="1" t="s">
+      <c r="M71" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="N71" s="1">
-        <v>50</v>
       </c>
       <c r="O71" s="1">
         <v>50</v>
       </c>
-      <c r="R71" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="U71" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P71" s="1">
+        <v>50</v>
+      </c>
+      <c r="S71" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V71" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>229</v>
@@ -5583,42 +5642,42 @@
         <v>215</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="H72" s="10">
-        <v>2024</v>
+        <v>266</v>
       </c>
       <c r="I72" s="10">
         <v>2024</v>
       </c>
-      <c r="J72" s="1" t="s">
+      <c r="J72" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K72" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K72" s="1" t="s">
+      <c r="L72" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L72" s="1" t="s">
+      <c r="M72" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="N72" s="1">
-        <v>50</v>
       </c>
       <c r="O72" s="1">
         <v>50</v>
       </c>
-      <c r="R72" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="U72" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P72" s="1">
+        <v>50</v>
+      </c>
+      <c r="S72" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V72" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>229</v>
@@ -5630,42 +5689,42 @@
         <v>215</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="H73" s="10">
-        <v>2024</v>
+        <v>269</v>
       </c>
       <c r="I73" s="10">
         <v>2024</v>
       </c>
-      <c r="J73" s="1" t="s">
+      <c r="J73" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K73" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K73" s="1" t="s">
+      <c r="L73" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L73" s="1" t="s">
+      <c r="M73" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="N73" s="1">
-        <v>50</v>
       </c>
       <c r="O73" s="1">
         <v>50</v>
       </c>
-      <c r="R73" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="U73" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P73" s="1">
+        <v>50</v>
+      </c>
+      <c r="S73" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V73" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>229</v>
@@ -5677,42 +5736,42 @@
         <v>215</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="H74" s="10">
-        <v>2024</v>
+        <v>272</v>
       </c>
       <c r="I74" s="10">
         <v>2024</v>
       </c>
-      <c r="J74" s="1" t="s">
+      <c r="J74" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K74" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K74" s="1" t="s">
+      <c r="L74" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L74" s="1" t="s">
+      <c r="M74" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="N74" s="1">
-        <v>50</v>
       </c>
       <c r="O74" s="1">
         <v>50</v>
       </c>
-      <c r="R74" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="U74" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P74" s="1">
+        <v>50</v>
+      </c>
+      <c r="S74" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V74" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>229</v>
@@ -5724,42 +5783,42 @@
         <v>215</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="H75" s="10">
-        <v>2024</v>
+        <v>275</v>
       </c>
       <c r="I75" s="10">
         <v>2024</v>
       </c>
-      <c r="J75" s="1" t="s">
+      <c r="J75" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K75" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K75" s="1" t="s">
+      <c r="L75" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L75" s="1" t="s">
+      <c r="M75" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="N75" s="1">
-        <v>50</v>
       </c>
       <c r="O75" s="1">
         <v>50</v>
       </c>
-      <c r="R75" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="U75" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P75" s="1">
+        <v>50</v>
+      </c>
+      <c r="S75" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V75" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>229</v>
@@ -5771,42 +5830,42 @@
         <v>215</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="H76" s="10">
-        <v>2023</v>
+        <v>278</v>
       </c>
       <c r="I76" s="10">
         <v>2023</v>
       </c>
-      <c r="J76" s="1" t="s">
+      <c r="J76" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K76" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K76" s="1" t="s">
+      <c r="L76" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L76" s="1" t="s">
+      <c r="M76" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="N76" s="1">
-        <v>50</v>
       </c>
       <c r="O76" s="1">
         <v>50</v>
       </c>
-      <c r="R76" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="U76" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P76" s="1">
+        <v>50</v>
+      </c>
+      <c r="S76" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V76" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>229</v>
@@ -5818,42 +5877,42 @@
         <v>215</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="H77" s="10">
-        <v>2023</v>
+        <v>281</v>
       </c>
       <c r="I77" s="10">
         <v>2023</v>
       </c>
-      <c r="J77" s="1" t="s">
+      <c r="J77" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K77" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K77" s="1" t="s">
+      <c r="L77" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L77" s="1" t="s">
+      <c r="M77" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="N77" s="1">
-        <v>50</v>
       </c>
       <c r="O77" s="1">
         <v>50</v>
       </c>
-      <c r="R77" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="U77" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P77" s="1">
+        <v>50</v>
+      </c>
+      <c r="S77" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V77" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>229</v>
@@ -5865,42 +5924,42 @@
         <v>215</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="H78" s="10">
-        <v>2023</v>
+        <v>284</v>
       </c>
       <c r="I78" s="10">
         <v>2023</v>
       </c>
-      <c r="J78" s="1" t="s">
+      <c r="J78" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K78" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K78" s="1" t="s">
+      <c r="L78" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L78" s="1" t="s">
+      <c r="M78" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="N78" s="1">
-        <v>50</v>
       </c>
       <c r="O78" s="1">
         <v>50</v>
       </c>
-      <c r="R78" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="U78" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P78" s="1">
+        <v>50</v>
+      </c>
+      <c r="S78" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V78" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>229</v>
@@ -5912,42 +5971,42 @@
         <v>215</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="H79" s="10">
-        <v>2023</v>
+        <v>287</v>
       </c>
       <c r="I79" s="10">
         <v>2023</v>
       </c>
-      <c r="J79" s="1" t="s">
+      <c r="J79" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K79" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K79" s="1" t="s">
+      <c r="L79" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L79" s="1" t="s">
+      <c r="M79" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="N79" s="1">
-        <v>50</v>
       </c>
       <c r="O79" s="1">
         <v>50</v>
       </c>
-      <c r="R79" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="U79" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P79" s="1">
+        <v>50</v>
+      </c>
+      <c r="S79" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V79" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>229</v>
@@ -5959,42 +6018,42 @@
         <v>215</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="H80" s="10">
-        <v>2024</v>
+        <v>290</v>
       </c>
       <c r="I80" s="10">
         <v>2024</v>
       </c>
-      <c r="J80" s="1" t="s">
+      <c r="J80" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K80" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K80" s="1" t="s">
+      <c r="L80" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L80" s="1" t="s">
+      <c r="M80" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="N80" s="1">
-        <v>50</v>
       </c>
       <c r="O80" s="1">
         <v>50</v>
       </c>
-      <c r="R80" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="U80" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P80" s="1">
+        <v>50</v>
+      </c>
+      <c r="S80" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V80" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>229</v>
@@ -6006,42 +6065,42 @@
         <v>215</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="H81" s="10">
-        <v>2024</v>
+        <v>293</v>
       </c>
       <c r="I81" s="10">
         <v>2024</v>
       </c>
-      <c r="J81" s="1" t="s">
+      <c r="J81" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K81" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K81" s="1" t="s">
+      <c r="L81" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L81" s="1" t="s">
+      <c r="M81" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="N81" s="1">
-        <v>40</v>
       </c>
       <c r="O81" s="1">
         <v>40</v>
       </c>
-      <c r="R81" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="U81" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P81" s="1">
+        <v>40</v>
+      </c>
+      <c r="S81" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V81" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>229</v>
@@ -6053,42 +6112,42 @@
         <v>215</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="H82" s="10">
-        <v>2024</v>
+        <v>296</v>
       </c>
       <c r="I82" s="10">
         <v>2024</v>
       </c>
-      <c r="J82" s="1" t="s">
+      <c r="J82" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K82" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K82" s="1" t="s">
+      <c r="L82" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L82" s="1" t="s">
+      <c r="M82" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="N82" s="1">
-        <v>40</v>
       </c>
       <c r="O82" s="1">
         <v>40</v>
       </c>
-      <c r="R82" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="U82" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P82" s="1">
+        <v>40</v>
+      </c>
+      <c r="S82" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V82" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>229</v>
@@ -6100,42 +6159,42 @@
         <v>215</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="H83" s="10">
-        <v>2024</v>
+        <v>299</v>
       </c>
       <c r="I83" s="10">
         <v>2024</v>
       </c>
-      <c r="J83" s="1" t="s">
+      <c r="J83" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K83" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K83" s="1" t="s">
+      <c r="L83" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L83" s="1" t="s">
+      <c r="M83" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="N83" s="1">
-        <v>40</v>
       </c>
       <c r="O83" s="1">
         <v>40</v>
       </c>
-      <c r="R83" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="U83" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P83" s="1">
+        <v>40</v>
+      </c>
+      <c r="S83" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V83" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>229</v>
@@ -6147,42 +6206,42 @@
         <v>215</v>
       </c>
       <c r="F84" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="I84" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J84" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="O84" s="1">
+        <v>30</v>
+      </c>
+      <c r="P84" s="1">
+        <v>40</v>
+      </c>
+      <c r="S84" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V84" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A85" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="H84" s="10">
-        <v>2024</v>
-      </c>
-      <c r="I84" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="K84" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="L84" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="N84" s="1">
-        <v>30</v>
-      </c>
-      <c r="O84" s="1">
-        <v>40</v>
-      </c>
-      <c r="R84" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="U84" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A85" s="6" t="s">
+      <c r="B85" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>229</v>
@@ -6194,42 +6253,42 @@
         <v>215</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="H85" s="10">
-        <v>2021</v>
+        <v>305</v>
       </c>
       <c r="I85" s="10">
         <v>2021</v>
       </c>
-      <c r="J85" s="1" t="s">
+      <c r="J85" s="10">
+        <v>2021</v>
+      </c>
+      <c r="K85" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K85" s="1" t="s">
+      <c r="L85" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L85" s="1" t="s">
+      <c r="M85" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="N85" s="1">
-        <v>30</v>
       </c>
       <c r="O85" s="1">
         <v>30</v>
       </c>
-      <c r="R85" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="U85" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P85" s="1">
+        <v>30</v>
+      </c>
+      <c r="S85" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V85" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>229</v>
@@ -6241,42 +6300,42 @@
         <v>215</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="H86" s="10">
-        <v>2023</v>
+        <v>308</v>
       </c>
       <c r="I86" s="10">
         <v>2023</v>
       </c>
-      <c r="J86" s="1" t="s">
+      <c r="J86" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K86" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K86" s="1" t="s">
+      <c r="L86" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L86" s="1" t="s">
+      <c r="M86" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="N86" s="1">
-        <v>30</v>
       </c>
       <c r="O86" s="1">
         <v>30</v>
       </c>
-      <c r="R86" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="U86" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P86" s="1">
+        <v>30</v>
+      </c>
+      <c r="S86" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V86" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>229</v>
@@ -6288,42 +6347,42 @@
         <v>215</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="H87" s="10">
-        <v>2023</v>
+        <v>311</v>
       </c>
       <c r="I87" s="10">
         <v>2023</v>
       </c>
-      <c r="J87" s="1" t="s">
+      <c r="J87" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K87" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K87" s="1" t="s">
+      <c r="L87" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L87" s="1" t="s">
+      <c r="M87" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="N87" s="1">
-        <v>30</v>
       </c>
       <c r="O87" s="1">
         <v>30</v>
       </c>
-      <c r="R87" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="U87" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P87" s="1">
+        <v>30</v>
+      </c>
+      <c r="S87" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V87" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>229</v>
@@ -6335,42 +6394,42 @@
         <v>215</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="H88" s="10">
-        <v>2023</v>
+        <v>314</v>
       </c>
       <c r="I88" s="10">
         <v>2023</v>
       </c>
-      <c r="J88" s="1" t="s">
+      <c r="J88" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K88" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K88" s="1" t="s">
+      <c r="L88" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L88" s="1" t="s">
+      <c r="M88" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="N88" s="1">
-        <v>30</v>
       </c>
       <c r="O88" s="1">
         <v>30</v>
       </c>
-      <c r="R88" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="U88" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P88" s="1">
+        <v>30</v>
+      </c>
+      <c r="S88" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V88" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>317</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>229</v>
@@ -6382,42 +6441,42 @@
         <v>215</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="H89" s="10">
-        <v>2023</v>
+        <v>317</v>
       </c>
       <c r="I89" s="10">
         <v>2023</v>
       </c>
-      <c r="J89" s="1" t="s">
+      <c r="J89" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K89" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K89" s="1" t="s">
+      <c r="L89" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L89" s="1" t="s">
+      <c r="M89" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="N89" s="1">
-        <v>30</v>
       </c>
       <c r="O89" s="1">
         <v>30</v>
       </c>
-      <c r="R89" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="U89" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P89" s="1">
+        <v>30</v>
+      </c>
+      <c r="S89" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V89" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>229</v>
@@ -6429,42 +6488,42 @@
         <v>215</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="H90" s="10">
-        <v>2023</v>
+        <v>320</v>
       </c>
       <c r="I90" s="10">
         <v>2023</v>
       </c>
-      <c r="J90" s="1" t="s">
+      <c r="J90" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K90" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K90" s="1" t="s">
+      <c r="L90" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L90" s="1" t="s">
+      <c r="M90" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="N90" s="1">
-        <v>30</v>
       </c>
       <c r="O90" s="1">
         <v>30</v>
       </c>
-      <c r="R90" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="U90" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P90" s="1">
+        <v>30</v>
+      </c>
+      <c r="S90" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V90" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>229</v>
@@ -6476,42 +6535,42 @@
         <v>215</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="H91" s="10">
-        <v>2023</v>
+        <v>323</v>
       </c>
       <c r="I91" s="10">
         <v>2023</v>
       </c>
-      <c r="J91" s="1" t="s">
+      <c r="J91" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K91" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K91" s="1" t="s">
+      <c r="L91" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L91" s="1" t="s">
+      <c r="M91" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="N91" s="1">
-        <v>30</v>
       </c>
       <c r="O91" s="1">
         <v>30</v>
       </c>
-      <c r="R91" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="U91" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P91" s="1">
+        <v>30</v>
+      </c>
+      <c r="S91" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V91" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>326</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>229</v>
@@ -6523,42 +6582,42 @@
         <v>215</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="H92" s="10">
-        <v>2023</v>
+        <v>326</v>
       </c>
       <c r="I92" s="10">
         <v>2023</v>
       </c>
-      <c r="J92" s="1" t="s">
+      <c r="J92" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K92" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K92" s="1" t="s">
+      <c r="L92" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L92" s="1" t="s">
+      <c r="M92" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="N92" s="1">
+      <c r="O92" s="1">
         <v>30</v>
       </c>
-      <c r="O92" s="1">
+      <c r="P92" s="1">
         <v>40</v>
       </c>
-      <c r="R92" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="U92" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S92" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V92" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>329</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>229</v>
@@ -6570,42 +6629,42 @@
         <v>215</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="H93" s="10">
-        <v>2023</v>
+        <v>329</v>
       </c>
       <c r="I93" s="10">
         <v>2023</v>
       </c>
-      <c r="J93" s="1" t="s">
+      <c r="J93" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K93" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K93" s="1" t="s">
+      <c r="L93" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L93" s="1" t="s">
+      <c r="M93" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="N93" s="1">
-        <v>30</v>
       </c>
       <c r="O93" s="1">
         <v>30</v>
       </c>
-      <c r="R93" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="U93" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P93" s="1">
+        <v>30</v>
+      </c>
+      <c r="S93" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V93" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>229</v>
@@ -6617,42 +6676,42 @@
         <v>215</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H94" s="10">
-        <v>2023</v>
+        <v>332</v>
       </c>
       <c r="I94" s="10">
         <v>2023</v>
       </c>
-      <c r="J94" s="1" t="s">
+      <c r="J94" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K94" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K94" s="1" t="s">
+      <c r="L94" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L94" s="1" t="s">
+      <c r="M94" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="N94" s="1">
+      <c r="O94" s="1">
         <v>22.5</v>
       </c>
-      <c r="O94" s="1">
+      <c r="P94" s="1">
         <v>40</v>
       </c>
-      <c r="R94" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="U94" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S94" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V94" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>229</v>
@@ -6664,42 +6723,42 @@
         <v>215</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="H95" s="10">
-        <v>2023</v>
+        <v>335</v>
       </c>
       <c r="I95" s="10">
         <v>2023</v>
       </c>
-      <c r="J95" s="1" t="s">
+      <c r="J95" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K95" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K95" s="1" t="s">
+      <c r="L95" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L95" s="1" t="s">
+      <c r="M95" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="N95" s="1">
+      <c r="O95" s="1">
         <v>22.5</v>
       </c>
-      <c r="O95" s="1">
+      <c r="P95" s="1">
         <v>40</v>
       </c>
-      <c r="R95" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="U95" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S95" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V95" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>229</v>
@@ -6711,42 +6770,42 @@
         <v>215</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="H96" s="10">
-        <v>2023</v>
+        <v>338</v>
       </c>
       <c r="I96" s="10">
         <v>2023</v>
       </c>
-      <c r="J96" s="1" t="s">
+      <c r="J96" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K96" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K96" s="1" t="s">
+      <c r="L96" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L96" s="1" t="s">
+      <c r="M96" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="N96" s="1">
-        <v>30</v>
       </c>
       <c r="O96" s="1">
         <v>30</v>
       </c>
-      <c r="R96" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="U96" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P96" s="1">
+        <v>30</v>
+      </c>
+      <c r="S96" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V96" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>229</v>
@@ -6758,42 +6817,42 @@
         <v>215</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H97" s="10">
-        <v>2023</v>
+        <v>341</v>
       </c>
       <c r="I97" s="10">
         <v>2023</v>
       </c>
-      <c r="J97" s="1" t="s">
+      <c r="J97" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K97" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K97" s="1" t="s">
+      <c r="L97" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L97" s="1" t="s">
+      <c r="M97" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="N97" s="1">
-        <v>30</v>
       </c>
       <c r="O97" s="1">
         <v>30</v>
       </c>
-      <c r="R97" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="U97" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P97" s="1">
+        <v>30</v>
+      </c>
+      <c r="S97" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V97" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>229</v>
@@ -6805,42 +6864,42 @@
         <v>215</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="H98" s="10">
-        <v>2023</v>
+        <v>344</v>
       </c>
       <c r="I98" s="10">
         <v>2023</v>
       </c>
-      <c r="J98" s="1" t="s">
+      <c r="J98" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K98" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K98" s="1" t="s">
+      <c r="L98" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L98" s="1" t="s">
+      <c r="M98" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="N98" s="1">
-        <v>30</v>
       </c>
       <c r="O98" s="1">
         <v>30</v>
       </c>
-      <c r="R98" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="U98" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P98" s="1">
+        <v>30</v>
+      </c>
+      <c r="S98" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V98" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>229</v>
@@ -6852,42 +6911,42 @@
         <v>215</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="H99" s="10">
-        <v>2023</v>
+        <v>347</v>
       </c>
       <c r="I99" s="10">
         <v>2023</v>
       </c>
-      <c r="J99" s="1" t="s">
+      <c r="J99" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K99" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K99" s="1" t="s">
+      <c r="L99" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L99" s="1" t="s">
+      <c r="M99" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="N99" s="1">
-        <v>30</v>
       </c>
       <c r="O99" s="1">
         <v>30</v>
       </c>
-      <c r="R99" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="U99" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P99" s="1">
+        <v>30</v>
+      </c>
+      <c r="S99" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V99" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>229</v>
@@ -6899,42 +6958,42 @@
         <v>215</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="H100" s="10">
-        <v>2023</v>
+        <v>350</v>
       </c>
       <c r="I100" s="10">
         <v>2023</v>
       </c>
-      <c r="J100" s="1" t="s">
+      <c r="J100" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K100" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K100" s="1" t="s">
+      <c r="L100" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L100" s="1" t="s">
+      <c r="M100" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="N100" s="1">
-        <v>30</v>
       </c>
       <c r="O100" s="1">
         <v>30</v>
       </c>
-      <c r="R100" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="U100" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P100" s="1">
+        <v>30</v>
+      </c>
+      <c r="S100" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V100" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>229</v>
@@ -6946,42 +7005,42 @@
         <v>215</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="H101" s="10">
-        <v>2023</v>
+        <v>353</v>
       </c>
       <c r="I101" s="10">
         <v>2023</v>
       </c>
-      <c r="J101" s="1" t="s">
+      <c r="J101" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K101" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K101" s="1" t="s">
+      <c r="L101" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L101" s="1" t="s">
+      <c r="M101" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="N101" s="1">
-        <v>30</v>
       </c>
       <c r="O101" s="1">
         <v>30</v>
       </c>
-      <c r="R101" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="U101" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P101" s="1">
+        <v>30</v>
+      </c>
+      <c r="S101" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V101" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>229</v>
@@ -6993,42 +7052,42 @@
         <v>215</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="H102" s="10">
-        <v>2023</v>
+        <v>356</v>
       </c>
       <c r="I102" s="10">
         <v>2023</v>
       </c>
-      <c r="J102" s="1" t="s">
+      <c r="J102" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K102" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K102" s="1" t="s">
+      <c r="L102" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L102" s="1" t="s">
+      <c r="M102" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="N102" s="1">
-        <v>30</v>
       </c>
       <c r="O102" s="1">
         <v>30</v>
       </c>
-      <c r="R102" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="U102" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P102" s="1">
+        <v>30</v>
+      </c>
+      <c r="S102" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V102" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>229</v>
@@ -7040,42 +7099,42 @@
         <v>215</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="H103" s="10">
-        <v>2023</v>
+        <v>359</v>
       </c>
       <c r="I103" s="10">
         <v>2023</v>
       </c>
-      <c r="J103" s="1" t="s">
+      <c r="J103" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K103" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K103" s="1" t="s">
+      <c r="L103" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L103" s="1" t="s">
+      <c r="M103" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="N103" s="1">
-        <v>30</v>
       </c>
       <c r="O103" s="1">
         <v>30</v>
       </c>
-      <c r="R103" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="U103" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P103" s="1">
+        <v>30</v>
+      </c>
+      <c r="S103" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V103" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>362</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>229</v>
@@ -7087,42 +7146,42 @@
         <v>215</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="H104" s="10">
-        <v>2023</v>
+        <v>362</v>
       </c>
       <c r="I104" s="10">
         <v>2023</v>
       </c>
-      <c r="J104" s="1" t="s">
+      <c r="J104" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K104" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K104" s="1" t="s">
+      <c r="L104" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L104" s="1" t="s">
+      <c r="M104" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="N104" s="1">
+      <c r="O104" s="1">
         <v>40</v>
       </c>
-      <c r="O104" s="1">
+      <c r="P104" s="1">
         <v>30</v>
       </c>
-      <c r="R104" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="U104" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S104" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V104" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>229</v>
@@ -7134,42 +7193,42 @@
         <v>215</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="H105" s="10">
-        <v>2023</v>
+        <v>365</v>
       </c>
       <c r="I105" s="10">
         <v>2023</v>
       </c>
-      <c r="J105" s="1" t="s">
+      <c r="J105" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K105" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K105" s="1" t="s">
+      <c r="L105" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L105" s="1" t="s">
+      <c r="M105" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="N105" s="1">
-        <v>30</v>
       </c>
       <c r="O105" s="1">
         <v>30</v>
       </c>
-      <c r="R105" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="U105" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P105" s="1">
+        <v>30</v>
+      </c>
+      <c r="S105" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V105" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>229</v>
@@ -7181,42 +7240,42 @@
         <v>215</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="H106" s="10">
-        <v>2023</v>
+        <v>368</v>
       </c>
       <c r="I106" s="10">
         <v>2023</v>
       </c>
-      <c r="J106" s="1" t="s">
+      <c r="J106" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K106" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K106" s="1" t="s">
+      <c r="L106" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L106" s="1" t="s">
+      <c r="M106" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="N106" s="1">
-        <v>30</v>
       </c>
       <c r="O106" s="1">
         <v>30</v>
       </c>
-      <c r="R106" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="U106" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P106" s="1">
+        <v>30</v>
+      </c>
+      <c r="S106" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V106" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>229</v>
@@ -7228,33 +7287,33 @@
         <v>215</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="H107" s="10">
-        <v>2023</v>
+        <v>371</v>
       </c>
       <c r="I107" s="10">
         <v>2023</v>
       </c>
-      <c r="J107" s="1" t="s">
+      <c r="J107" s="10">
+        <v>2023</v>
+      </c>
+      <c r="K107" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K107" s="1" t="s">
+      <c r="L107" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L107" s="1" t="s">
+      <c r="M107" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="N107" s="1">
-        <v>30</v>
       </c>
       <c r="O107" s="1">
         <v>30</v>
       </c>
-      <c r="R107" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="U107" s="6" t="s">
+      <c r="P107" s="1">
+        <v>30</v>
+      </c>
+      <c r="S107" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V107" s="6" t="s">
         <v>91</v>
       </c>
     </row>
@@ -7295,10 +7354,10 @@
         <v>81</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -7363,7 +7422,7 @@
         <v>2025</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -7383,7 +7442,7 @@
         <v>2025</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>

--- a/data/works.xlsx
+++ b/data/works.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dlf/Developer/dotlineform/dotlineform-site/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDF6B7D-B4FA-BB41-BFCC-93C54B38617D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9219781F-1A43-2E42-9AD0-6AD8AA2EEBAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schema" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="380">
   <si>
     <t>Works</t>
   </si>
@@ -1157,6 +1157,12 @@
   </si>
   <si>
     <t>has_primary_2400</t>
+  </si>
+  <si>
+    <t>true if not blank</t>
+  </si>
+  <si>
+    <t>generate a 2400px srcset image? (use sparingly due to large file size)</t>
   </si>
 </sst>
 </file>
@@ -1568,17 +1574,17 @@
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.83203125" style="5" customWidth="1"/>
     <col min="2" max="2" width="24.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="54.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="85.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1695,13 +1701,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>377</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>379</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1709,13 +1715,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1723,13 +1729,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1737,13 +1743,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1751,13 +1757,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1765,13 +1771,13 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1779,10 +1785,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>41</v>
@@ -1793,13 +1799,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1807,10 +1813,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>46</v>
@@ -1821,13 +1827,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1835,13 +1841,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1849,13 +1855,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1863,13 +1869,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1877,13 +1883,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1891,13 +1897,13 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1905,13 +1911,13 @@
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1919,7 +1925,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>68</v>
@@ -1933,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>68</v>
@@ -1942,28 +1948,28 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1971,10 +1977,10 @@
         <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>75</v>
@@ -1985,17 +1991,32 @@
         <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>80</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2003,11 +2024,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>

--- a/data/works.xlsx
+++ b/data/works.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dlf/Developer/dotlineform/dotlineform-site/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9219781F-1A43-2E42-9AD0-6AD8AA2EEBAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F7B4D9-8CFB-7841-87BE-44C35B79B822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="379">
   <si>
     <t>Works</t>
   </si>
@@ -67,9 +67,6 @@
     <t>draft | ready | published</t>
   </si>
   <si>
-    <t>script only processes 'ready', then script sets to 'published' when created work page</t>
-  </si>
-  <si>
     <t>published_date</t>
   </si>
   <si>
@@ -712,9 +709,6 @@
     <t>found form (2017-07-29)</t>
   </si>
   <si>
-    <t>draft</t>
-  </si>
-  <si>
     <t>found form (2017-07-29).jpg</t>
   </si>
   <si>
@@ -1163,6 +1157,9 @@
   </si>
   <si>
     <t>generate a 2400px srcset image? (use sparingly due to large file size)</t>
+  </si>
+  <si>
+    <t>status = blank are not processed</t>
   </si>
 </sst>
 </file>
@@ -1577,7 +1574,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
@@ -1651,7 +1648,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1659,13 +1656,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1673,13 +1670,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1687,13 +1684,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1701,13 +1698,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>379</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1715,13 +1712,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1729,13 +1726,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1743,13 +1740,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1757,13 +1754,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1771,13 +1768,13 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1785,13 +1782,13 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1799,13 +1796,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1813,13 +1810,13 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1827,13 +1824,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1841,13 +1838,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1855,13 +1852,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1869,13 +1866,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1883,13 +1880,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1897,13 +1894,13 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1911,13 +1908,13 @@
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1925,13 +1922,13 @@
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1939,13 +1936,13 @@
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1953,23 +1950,23 @@
         <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1980,10 +1977,10 @@
         <v>6</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1991,13 +1988,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="D33" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -2005,13 +2002,13 @@
         <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2025,10 +2022,10 @@
   <dimension ref="A1:Y107"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomRight" activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
@@ -2070,109 +2067,109 @@
         <v>12</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y1" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D2" s="8">
         <v>46055</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J2" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I2" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J2" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="O2" s="1">
         <v>42</v>
@@ -2181,49 +2178,49 @@
         <v>29.7</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D3" s="8">
         <v>46055</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J3" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J3" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O3" s="1">
         <v>42</v>
@@ -2232,49 +2229,49 @@
         <v>29.7</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D4" s="8">
         <v>46055</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J4" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I4" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J4" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O4" s="1">
         <v>42</v>
@@ -2283,49 +2280,49 @@
         <v>29.7</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V4" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D5" s="8">
         <v>46055</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J5" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I5" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J5" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="O5" s="1">
         <v>42</v>
@@ -2334,49 +2331,49 @@
         <v>29.7</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V5" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D6" s="8">
         <v>46055</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J6" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I6" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J6" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M6" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O6" s="1">
         <v>42</v>
@@ -2385,49 +2382,49 @@
         <v>29.7</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V6" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D7" s="8">
         <v>46055</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J7" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I7" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J7" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M7" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O7" s="1">
         <v>42</v>
@@ -2436,49 +2433,49 @@
         <v>29.7</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V7" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D8" s="8">
         <v>46055</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J8" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I8" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J8" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M8" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O8" s="1">
         <v>42</v>
@@ -2487,49 +2484,49 @@
         <v>29.7</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V8" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D9" s="8">
         <v>46055</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J9" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I9" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J9" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M9" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O9" s="1">
         <v>42</v>
@@ -2538,49 +2535,49 @@
         <v>29.7</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V9" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D10" s="8">
         <v>46055</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J10" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I10" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J10" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M10" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O10" s="1">
         <v>42</v>
@@ -2589,49 +2586,49 @@
         <v>29.7</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V10" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" s="8">
         <v>46055</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J11" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I11" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J11" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="O11" s="1">
         <v>42</v>
@@ -2640,49 +2637,49 @@
         <v>29.7</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V11" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" s="8">
         <v>46055</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J12" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I12" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J12" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M12" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O12" s="1">
         <v>42</v>
@@ -2691,49 +2688,49 @@
         <v>29.7</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V12" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D13" s="8">
         <v>46055</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J13" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I13" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J13" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M13" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O13" s="1">
         <v>42</v>
@@ -2742,49 +2739,49 @@
         <v>29.7</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V13" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D14" s="8">
         <v>46055</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J14" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I14" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J14" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M14" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O14" s="1">
         <v>42</v>
@@ -2793,49 +2790,49 @@
         <v>29.7</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V14" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D15" s="8">
         <v>46055</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J15" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I15" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J15" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M15" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O15" s="1">
         <v>42</v>
@@ -2844,49 +2841,49 @@
         <v>29.7</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V15" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D16" s="8">
         <v>46055</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J16" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I16" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J16" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M16" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O16" s="1">
         <v>42</v>
@@ -2895,49 +2892,49 @@
         <v>29.7</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V16" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D17" s="8">
         <v>46055</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J17" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I17" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J17" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M17" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O17" s="1">
         <v>42</v>
@@ -2946,49 +2943,49 @@
         <v>29.7</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V17" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D18" s="8">
         <v>46055</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J18" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I18" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J18" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M18" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O18" s="1">
         <v>42</v>
@@ -2997,49 +2994,49 @@
         <v>29.7</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V18" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D19" s="8">
         <v>46055</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J19" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I19" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J19" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K19" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M19" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O19" s="1">
         <v>42</v>
@@ -3048,49 +3045,49 @@
         <v>29.7</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V19" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D20" s="8">
         <v>46055</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J20" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I20" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J20" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L20" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M20" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O20" s="1">
         <v>42</v>
@@ -3099,49 +3096,49 @@
         <v>29.7</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V20" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D21" s="8">
         <v>46055</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J21" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I21" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J21" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K21" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L21" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M21" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O21" s="1">
         <v>42</v>
@@ -3150,49 +3147,49 @@
         <v>29.7</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V21" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D22" s="8">
         <v>46055</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J22" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I22" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J22" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K22" s="1" t="s">
+      <c r="L22" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L22" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M22" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O22" s="1">
         <v>42</v>
@@ -3201,49 +3198,49 @@
         <v>29.7</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V22" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D23" s="8">
         <v>46055</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J23" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I23" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J23" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K23" s="1" t="s">
+      <c r="L23" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="M23" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="O23" s="1">
         <v>42</v>
@@ -3252,49 +3249,49 @@
         <v>29.7</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V23" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="C24" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D24" s="8">
         <v>46055</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J24" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I24" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J24" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K24" s="1" t="s">
+      <c r="L24" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L24" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M24" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O24" s="1">
         <v>42</v>
@@ -3303,49 +3300,49 @@
         <v>29.7</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V24" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D25" s="8">
         <v>46055</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J25" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I25" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J25" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K25" s="1" t="s">
+      <c r="L25" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L25" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M25" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O25" s="1">
         <v>42</v>
@@ -3354,49 +3351,49 @@
         <v>29.7</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V25" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D26" s="8">
         <v>46055</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I26" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J26" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I26" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J26" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K26" s="1" t="s">
+      <c r="L26" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L26" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M26" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O26" s="1">
         <v>42</v>
@@ -3405,49 +3402,49 @@
         <v>29.7</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V26" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D27" s="8">
         <v>46055</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I27" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J27" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I27" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J27" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K27" s="1" t="s">
+      <c r="L27" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L27" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M27" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O27" s="1">
         <v>42</v>
@@ -3456,49 +3453,49 @@
         <v>29.7</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V27" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D28" s="8">
         <v>46055</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I28" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J28" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I28" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J28" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K28" s="1" t="s">
+      <c r="L28" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L28" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M28" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O28" s="1">
         <v>42</v>
@@ -3507,49 +3504,49 @@
         <v>29.7</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V28" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D29" s="8">
         <v>46055</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I29" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J29" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I29" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J29" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K29" s="1" t="s">
+      <c r="L29" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L29" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M29" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O29" s="1">
         <v>42</v>
@@ -3558,49 +3555,49 @@
         <v>29.7</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V29" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D30" s="8">
         <v>46055</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I30" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J30" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I30" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J30" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K30" s="1" t="s">
+      <c r="L30" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L30" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M30" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O30" s="1">
         <v>42</v>
@@ -3609,49 +3606,49 @@
         <v>29.7</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V30" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D31" s="8">
         <v>46055</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I31" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J31" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K31" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I31" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J31" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K31" s="1" t="s">
+      <c r="L31" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L31" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M31" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O31" s="1">
         <v>42</v>
@@ -3660,49 +3657,49 @@
         <v>29.7</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V31" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D32" s="8">
         <v>46055</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I32" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J32" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K32" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I32" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J32" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K32" s="1" t="s">
+      <c r="L32" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L32" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M32" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O32" s="1">
         <v>42</v>
@@ -3711,49 +3708,49 @@
         <v>29.7</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V32" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D33" s="8">
         <v>46055</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I33" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J33" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I33" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J33" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K33" s="1" t="s">
+      <c r="L33" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L33" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M33" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O33" s="1">
         <v>42</v>
@@ -3762,49 +3759,49 @@
         <v>29.7</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V33" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D34" s="8">
         <v>46055</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I34" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J34" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K34" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I34" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J34" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K34" s="1" t="s">
+      <c r="L34" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="M34" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="O34" s="1">
         <v>42</v>
@@ -3813,49 +3810,49 @@
         <v>29.7</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V34" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="C35" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D35" s="8">
         <v>46055</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I35" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J35" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K35" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I35" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J35" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K35" s="1" t="s">
+      <c r="L35" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="M35" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="O35" s="1">
         <v>42</v>
@@ -3864,49 +3861,49 @@
         <v>29.7</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V35" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D36" s="8">
         <v>46055</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I36" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J36" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K36" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I36" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J36" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K36" s="1" t="s">
+      <c r="L36" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="M36" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="O36" s="1">
         <v>42</v>
@@ -3915,49 +3912,49 @@
         <v>29.7</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V36" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D37" s="8">
         <v>46055</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I37" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J37" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K37" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I37" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J37" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K37" s="1" t="s">
+      <c r="L37" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L37" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M37" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O37" s="1">
         <v>42</v>
@@ -3966,49 +3963,49 @@
         <v>29.7</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V37" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D38" s="8">
         <v>46055</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I38" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J38" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K38" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I38" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J38" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K38" s="1" t="s">
+      <c r="L38" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L38" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M38" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O38" s="1">
         <v>42</v>
@@ -4017,49 +4014,49 @@
         <v>29.7</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V38" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D39" s="8">
         <v>46055</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I39" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J39" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K39" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I39" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J39" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K39" s="1" t="s">
+      <c r="L39" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L39" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M39" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O39" s="1">
         <v>42</v>
@@ -4068,49 +4065,49 @@
         <v>29.7</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V39" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D40" s="8">
         <v>46055</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I40" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J40" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K40" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I40" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J40" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K40" s="1" t="s">
+      <c r="L40" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L40" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M40" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O40" s="1">
         <v>42</v>
@@ -4119,49 +4116,49 @@
         <v>29.7</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V40" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D41" s="8">
         <v>46055</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I41" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J41" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K41" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I41" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J41" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K41" s="1" t="s">
+      <c r="L41" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L41" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M41" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O41" s="1">
         <v>42</v>
@@ -4170,49 +4167,49 @@
         <v>29.7</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V41" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D42" s="8">
         <v>46055</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I42" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J42" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K42" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I42" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J42" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K42" s="1" t="s">
+      <c r="L42" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L42" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M42" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O42" s="1">
         <v>42</v>
@@ -4221,49 +4218,49 @@
         <v>29.7</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V42" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D43" s="8">
         <v>46055</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I43" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J43" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K43" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I43" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J43" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K43" s="1" t="s">
+      <c r="L43" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="M43" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="O43" s="1">
         <v>42</v>
@@ -4272,49 +4269,49 @@
         <v>29.7</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V43" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D44" s="8">
         <v>46055</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I44" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J44" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K44" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I44" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J44" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K44" s="1" t="s">
+      <c r="L44" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L44" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M44" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O44" s="1">
         <v>42</v>
@@ -4323,49 +4320,49 @@
         <v>29.7</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V44" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D45" s="8">
         <v>46055</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I45" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J45" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K45" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I45" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J45" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K45" s="1" t="s">
+      <c r="L45" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L45" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M45" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O45" s="1">
         <v>42</v>
@@ -4374,49 +4371,49 @@
         <v>29.7</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V45" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D46" s="8">
         <v>46055</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I46" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J46" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K46" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I46" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J46" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K46" s="1" t="s">
+      <c r="L46" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L46" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M46" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O46" s="1">
         <v>42</v>
@@ -4425,49 +4422,49 @@
         <v>29.7</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V46" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D47" s="8">
         <v>46055</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I47" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J47" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K47" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I47" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J47" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K47" s="1" t="s">
+      <c r="L47" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L47" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M47" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O47" s="1">
         <v>42</v>
@@ -4476,49 +4473,49 @@
         <v>29.7</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V47" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D48" s="8">
         <v>46055</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I48" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J48" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K48" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I48" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J48" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K48" s="1" t="s">
+      <c r="L48" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L48" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M48" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O48" s="1">
         <v>42</v>
@@ -4527,49 +4524,49 @@
         <v>29.7</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V48" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D49" s="8">
         <v>46055</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I49" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J49" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K49" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I49" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J49" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K49" s="1" t="s">
+      <c r="L49" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L49" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M49" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O49" s="1">
         <v>42</v>
@@ -4578,49 +4575,49 @@
         <v>29.7</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V49" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D50" s="8">
         <v>46055</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I50" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J50" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K50" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I50" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J50" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K50" s="1" t="s">
+      <c r="L50" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L50" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M50" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O50" s="1">
         <v>42</v>
@@ -4629,49 +4626,49 @@
         <v>29.7</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V50" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D51" s="8">
         <v>46055</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I51" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J51" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K51" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I51" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J51" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K51" s="1" t="s">
+      <c r="L51" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L51" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M51" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O51" s="1">
         <v>42</v>
@@ -4680,49 +4677,49 @@
         <v>29.7</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V51" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D52" s="8">
         <v>46055</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I52" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J52" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K52" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I52" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J52" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K52" s="1" t="s">
+      <c r="L52" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L52" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M52" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O52" s="1">
         <v>42</v>
@@ -4731,49 +4728,49 @@
         <v>29.7</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V52" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D53" s="8">
         <v>46055</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I53" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J53" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K53" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I53" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J53" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K53" s="1" t="s">
+      <c r="L53" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L53" s="1" t="s">
+      <c r="M53" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="O53" s="1">
         <v>42</v>
@@ -4782,49 +4779,49 @@
         <v>29.7</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V53" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D54" s="8">
         <v>46055</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I54" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J54" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K54" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I54" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J54" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K54" s="1" t="s">
+      <c r="L54" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L54" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M54" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O54" s="1">
         <v>42</v>
@@ -4833,49 +4830,49 @@
         <v>29.7</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V54" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D55" s="8">
         <v>46055</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G55" s="6"/>
       <c r="H55" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I55" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J55" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K55" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I55" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J55" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K55" s="1" t="s">
+      <c r="L55" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L55" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M55" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O55" s="1">
         <v>42</v>
@@ -4884,49 +4881,49 @@
         <v>29.7</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V55" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="C56" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D56" s="8">
         <v>46055</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G56" s="6"/>
       <c r="H56" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I56" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J56" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K56" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I56" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J56" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K56" s="1" t="s">
+      <c r="L56" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L56" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M56" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O56" s="1">
         <v>29.7</v>
@@ -4935,30 +4932,30 @@
         <v>42</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V56" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="C57" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D57" s="8">
         <v>46055</v>
       </c>
       <c r="E57" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="I57" s="10">
         <v>2017</v>
@@ -4967,13 +4964,13 @@
         <v>2017</v>
       </c>
       <c r="K57" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L57" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L57" s="1" t="s">
+      <c r="M57" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O57" s="1">
         <v>30</v>
@@ -4982,30 +4979,30 @@
         <v>30</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V57" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="C58" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D58" s="8">
         <v>46055</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I58" s="10">
         <v>2017</v>
@@ -5014,13 +5011,13 @@
         <v>2017</v>
       </c>
       <c r="K58" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L58" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L58" s="1" t="s">
+      <c r="M58" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O58" s="1">
         <v>30</v>
@@ -5029,30 +5026,30 @@
         <v>30</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V58" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="C59" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D59" s="8">
         <v>46055</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I59" s="10">
         <v>2017</v>
@@ -5061,13 +5058,13 @@
         <v>2017</v>
       </c>
       <c r="K59" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L59" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L59" s="1" t="s">
+      <c r="M59" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O59" s="1">
         <v>30</v>
@@ -5076,30 +5073,27 @@
         <v>30</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V59" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="D60" s="8">
         <v>46053</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I60" s="10">
         <v>2017</v>
@@ -5108,13 +5102,13 @@
         <v>2017</v>
       </c>
       <c r="K60" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L60" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L60" s="1" t="s">
+      <c r="M60" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O60" s="1">
         <v>30</v>
@@ -5123,30 +5117,27 @@
         <v>30</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V60" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D61" s="8">
         <v>46053</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I61" s="10">
         <v>2024</v>
@@ -5155,13 +5146,13 @@
         <v>2024</v>
       </c>
       <c r="K61" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L61" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L61" s="1" t="s">
+      <c r="M61" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O61" s="1">
         <v>30</v>
@@ -5170,30 +5161,27 @@
         <v>40</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V61" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D62" s="8">
         <v>46053</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I62" s="10">
         <v>2024</v>
@@ -5202,13 +5190,13 @@
         <v>2024</v>
       </c>
       <c r="K62" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L62" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L62" s="1" t="s">
+      <c r="M62" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O62" s="1">
         <v>30</v>
@@ -5217,30 +5205,27 @@
         <v>30</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V62" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="D63" s="8">
         <v>46053</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I63" s="10">
         <v>2024</v>
@@ -5249,13 +5234,13 @@
         <v>2024</v>
       </c>
       <c r="K63" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L63" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L63" s="1" t="s">
+      <c r="M63" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="M63" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O63" s="1">
         <v>30</v>
@@ -5264,30 +5249,27 @@
         <v>30</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V63" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="D64" s="8">
         <v>46053</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I64" s="10">
         <v>2025</v>
@@ -5296,13 +5278,13 @@
         <v>2025</v>
       </c>
       <c r="K64" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L64" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L64" s="1" t="s">
+      <c r="M64" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O64" s="1">
         <v>30</v>
@@ -5311,30 +5293,27 @@
         <v>40</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V64" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="D65" s="8">
         <v>46053</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I65" s="10">
         <v>2025</v>
@@ -5343,13 +5322,13 @@
         <v>2025</v>
       </c>
       <c r="K65" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L65" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L65" s="1" t="s">
+      <c r="M65" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="M65" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O65" s="1">
         <v>30</v>
@@ -5358,30 +5337,27 @@
         <v>30</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V65" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="D66" s="8">
         <v>46053</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I66" s="10">
         <v>2025</v>
@@ -5390,13 +5366,13 @@
         <v>2025</v>
       </c>
       <c r="K66" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L66" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L66" s="1" t="s">
+      <c r="M66" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="M66" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O66" s="1">
         <v>40</v>
@@ -5405,30 +5381,27 @@
         <v>30</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V66" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="D67" s="8">
         <v>46053</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I67" s="10">
         <v>2025</v>
@@ -5437,13 +5410,13 @@
         <v>2025</v>
       </c>
       <c r="K67" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L67" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L67" s="1" t="s">
+      <c r="M67" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="M67" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O67" s="1">
         <v>30</v>
@@ -5452,30 +5425,27 @@
         <v>30</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V67" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="D68" s="8">
         <v>46053</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I68" s="10">
         <v>2025</v>
@@ -5484,13 +5454,13 @@
         <v>2025</v>
       </c>
       <c r="K68" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L68" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L68" s="1" t="s">
+      <c r="M68" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="M68" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O68" s="1">
         <v>30</v>
@@ -5499,30 +5469,27 @@
         <v>30</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V68" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="D69" s="8">
         <v>46053</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I69" s="10">
         <v>2025</v>
@@ -5531,13 +5498,13 @@
         <v>2025</v>
       </c>
       <c r="K69" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L69" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L69" s="1" t="s">
+      <c r="M69" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="M69" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O69" s="1">
         <v>30</v>
@@ -5546,30 +5513,27 @@
         <v>30</v>
       </c>
       <c r="S69" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V69" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="D70" s="8">
         <v>46053</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I70" s="10">
         <v>2024</v>
@@ -5578,13 +5542,13 @@
         <v>2024</v>
       </c>
       <c r="K70" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L70" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L70" s="1" t="s">
+      <c r="M70" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="M70" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O70" s="1">
         <v>30</v>
@@ -5593,30 +5557,27 @@
         <v>30</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V70" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="D71" s="8">
         <v>46053</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I71" s="10">
         <v>2024</v>
@@ -5625,13 +5586,13 @@
         <v>2024</v>
       </c>
       <c r="K71" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L71" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L71" s="1" t="s">
+      <c r="M71" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="M71" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O71" s="1">
         <v>50</v>
@@ -5640,30 +5601,27 @@
         <v>50</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V71" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="D72" s="8">
         <v>46053</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I72" s="10">
         <v>2024</v>
@@ -5672,13 +5630,13 @@
         <v>2024</v>
       </c>
       <c r="K72" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L72" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L72" s="1" t="s">
+      <c r="M72" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="M72" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O72" s="1">
         <v>50</v>
@@ -5687,30 +5645,27 @@
         <v>50</v>
       </c>
       <c r="S72" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V72" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="D73" s="8">
         <v>46053</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I73" s="10">
         <v>2024</v>
@@ -5719,13 +5674,13 @@
         <v>2024</v>
       </c>
       <c r="K73" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L73" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L73" s="1" t="s">
+      <c r="M73" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="M73" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O73" s="1">
         <v>50</v>
@@ -5734,30 +5689,27 @@
         <v>50</v>
       </c>
       <c r="S73" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V73" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="D74" s="8">
         <v>46053</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I74" s="10">
         <v>2024</v>
@@ -5766,13 +5718,13 @@
         <v>2024</v>
       </c>
       <c r="K74" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L74" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L74" s="1" t="s">
+      <c r="M74" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="M74" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O74" s="1">
         <v>50</v>
@@ -5781,30 +5733,27 @@
         <v>50</v>
       </c>
       <c r="S74" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V74" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>229</v>
+        <v>272</v>
       </c>
       <c r="D75" s="8">
         <v>46053</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I75" s="10">
         <v>2024</v>
@@ -5813,13 +5762,13 @@
         <v>2024</v>
       </c>
       <c r="K75" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L75" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L75" s="1" t="s">
+      <c r="M75" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="M75" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O75" s="1">
         <v>50</v>
@@ -5828,30 +5777,27 @@
         <v>50</v>
       </c>
       <c r="S75" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V75" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>229</v>
+        <v>275</v>
       </c>
       <c r="D76" s="8">
         <v>46053</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I76" s="10">
         <v>2023</v>
@@ -5860,13 +5806,13 @@
         <v>2023</v>
       </c>
       <c r="K76" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L76" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L76" s="1" t="s">
+      <c r="M76" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="M76" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O76" s="1">
         <v>50</v>
@@ -5875,30 +5821,27 @@
         <v>50</v>
       </c>
       <c r="S76" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V76" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>229</v>
+        <v>278</v>
       </c>
       <c r="D77" s="8">
         <v>46053</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I77" s="10">
         <v>2023</v>
@@ -5907,13 +5850,13 @@
         <v>2023</v>
       </c>
       <c r="K77" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L77" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L77" s="1" t="s">
+      <c r="M77" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="M77" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O77" s="1">
         <v>50</v>
@@ -5922,30 +5865,27 @@
         <v>50</v>
       </c>
       <c r="S77" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V77" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>229</v>
+        <v>281</v>
       </c>
       <c r="D78" s="8">
         <v>46053</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I78" s="10">
         <v>2023</v>
@@ -5954,13 +5894,13 @@
         <v>2023</v>
       </c>
       <c r="K78" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L78" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L78" s="1" t="s">
+      <c r="M78" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="M78" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O78" s="1">
         <v>50</v>
@@ -5969,30 +5909,27 @@
         <v>50</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V78" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>229</v>
+        <v>284</v>
       </c>
       <c r="D79" s="8">
         <v>46053</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I79" s="10">
         <v>2023</v>
@@ -6001,13 +5938,13 @@
         <v>2023</v>
       </c>
       <c r="K79" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L79" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L79" s="1" t="s">
+      <c r="M79" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="M79" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O79" s="1">
         <v>50</v>
@@ -6016,30 +5953,27 @@
         <v>50</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V79" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>229</v>
+        <v>287</v>
       </c>
       <c r="D80" s="8">
         <v>46053</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I80" s="10">
         <v>2024</v>
@@ -6048,13 +5982,13 @@
         <v>2024</v>
       </c>
       <c r="K80" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L80" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L80" s="1" t="s">
+      <c r="M80" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="M80" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O80" s="1">
         <v>50</v>
@@ -6063,30 +5997,27 @@
         <v>50</v>
       </c>
       <c r="S80" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V80" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>229</v>
+        <v>290</v>
       </c>
       <c r="D81" s="8">
         <v>46053</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I81" s="10">
         <v>2024</v>
@@ -6095,13 +6026,13 @@
         <v>2024</v>
       </c>
       <c r="K81" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L81" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L81" s="1" t="s">
+      <c r="M81" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="M81" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O81" s="1">
         <v>40</v>
@@ -6110,30 +6041,27 @@
         <v>40</v>
       </c>
       <c r="S81" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V81" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>229</v>
+        <v>293</v>
       </c>
       <c r="D82" s="8">
         <v>46053</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I82" s="10">
         <v>2024</v>
@@ -6142,13 +6070,13 @@
         <v>2024</v>
       </c>
       <c r="K82" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L82" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L82" s="1" t="s">
+      <c r="M82" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="M82" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O82" s="1">
         <v>40</v>
@@ -6157,30 +6085,27 @@
         <v>40</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V82" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>229</v>
+        <v>296</v>
       </c>
       <c r="D83" s="8">
         <v>46053</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I83" s="10">
         <v>2024</v>
@@ -6189,13 +6114,13 @@
         <v>2024</v>
       </c>
       <c r="K83" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L83" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L83" s="1" t="s">
+      <c r="M83" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="M83" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O83" s="1">
         <v>40</v>
@@ -6204,30 +6129,27 @@
         <v>40</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V83" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>229</v>
+        <v>299</v>
       </c>
       <c r="D84" s="8">
         <v>46053</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I84" s="10">
         <v>2024</v>
@@ -6236,13 +6158,13 @@
         <v>2024</v>
       </c>
       <c r="K84" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L84" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L84" s="1" t="s">
+      <c r="M84" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="M84" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O84" s="1">
         <v>30</v>
@@ -6251,30 +6173,27 @@
         <v>40</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V84" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>229</v>
+        <v>302</v>
       </c>
       <c r="D85" s="8">
         <v>46053</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I85" s="10">
         <v>2021</v>
@@ -6283,13 +6202,13 @@
         <v>2021</v>
       </c>
       <c r="K85" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L85" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L85" s="1" t="s">
+      <c r="M85" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="M85" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O85" s="1">
         <v>30</v>
@@ -6298,30 +6217,27 @@
         <v>30</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V85" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="D86" s="8">
         <v>46053</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I86" s="10">
         <v>2023</v>
@@ -6330,13 +6246,13 @@
         <v>2023</v>
       </c>
       <c r="K86" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L86" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L86" s="1" t="s">
+      <c r="M86" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="M86" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O86" s="1">
         <v>30</v>
@@ -6345,30 +6261,27 @@
         <v>30</v>
       </c>
       <c r="S86" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V86" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>229</v>
+        <v>308</v>
       </c>
       <c r="D87" s="8">
         <v>46053</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I87" s="10">
         <v>2023</v>
@@ -6377,13 +6290,13 @@
         <v>2023</v>
       </c>
       <c r="K87" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L87" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L87" s="1" t="s">
+      <c r="M87" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="M87" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O87" s="1">
         <v>30</v>
@@ -6392,30 +6305,27 @@
         <v>30</v>
       </c>
       <c r="S87" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V87" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>229</v>
+        <v>311</v>
       </c>
       <c r="D88" s="8">
         <v>46053</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I88" s="10">
         <v>2023</v>
@@ -6424,13 +6334,13 @@
         <v>2023</v>
       </c>
       <c r="K88" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L88" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L88" s="1" t="s">
+      <c r="M88" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="M88" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O88" s="1">
         <v>30</v>
@@ -6439,30 +6349,27 @@
         <v>30</v>
       </c>
       <c r="S88" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V88" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>229</v>
+        <v>314</v>
       </c>
       <c r="D89" s="8">
         <v>46053</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I89" s="10">
         <v>2023</v>
@@ -6471,13 +6378,13 @@
         <v>2023</v>
       </c>
       <c r="K89" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L89" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L89" s="1" t="s">
+      <c r="M89" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="M89" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O89" s="1">
         <v>30</v>
@@ -6486,30 +6393,27 @@
         <v>30</v>
       </c>
       <c r="S89" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V89" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>229</v>
+        <v>317</v>
       </c>
       <c r="D90" s="8">
         <v>46053</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I90" s="10">
         <v>2023</v>
@@ -6518,13 +6422,13 @@
         <v>2023</v>
       </c>
       <c r="K90" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L90" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L90" s="1" t="s">
+      <c r="M90" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="M90" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O90" s="1">
         <v>30</v>
@@ -6533,30 +6437,27 @@
         <v>30</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V90" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>229</v>
+        <v>320</v>
       </c>
       <c r="D91" s="8">
         <v>46053</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I91" s="10">
         <v>2023</v>
@@ -6565,13 +6466,13 @@
         <v>2023</v>
       </c>
       <c r="K91" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L91" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L91" s="1" t="s">
+      <c r="M91" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="M91" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O91" s="1">
         <v>30</v>
@@ -6580,30 +6481,27 @@
         <v>30</v>
       </c>
       <c r="S91" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V91" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>229</v>
+        <v>323</v>
       </c>
       <c r="D92" s="8">
         <v>46053</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I92" s="10">
         <v>2023</v>
@@ -6612,13 +6510,13 @@
         <v>2023</v>
       </c>
       <c r="K92" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L92" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L92" s="1" t="s">
+      <c r="M92" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="M92" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O92" s="1">
         <v>30</v>
@@ -6627,30 +6525,27 @@
         <v>40</v>
       </c>
       <c r="S92" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V92" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>229</v>
+        <v>326</v>
       </c>
       <c r="D93" s="8">
         <v>46053</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I93" s="10">
         <v>2023</v>
@@ -6659,13 +6554,13 @@
         <v>2023</v>
       </c>
       <c r="K93" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L93" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L93" s="1" t="s">
+      <c r="M93" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="M93" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O93" s="1">
         <v>30</v>
@@ -6674,30 +6569,27 @@
         <v>30</v>
       </c>
       <c r="S93" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V93" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>229</v>
+        <v>329</v>
       </c>
       <c r="D94" s="8">
         <v>46053</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I94" s="10">
         <v>2023</v>
@@ -6706,13 +6598,13 @@
         <v>2023</v>
       </c>
       <c r="K94" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L94" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L94" s="1" t="s">
+      <c r="M94" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="M94" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O94" s="1">
         <v>22.5</v>
@@ -6721,30 +6613,27 @@
         <v>40</v>
       </c>
       <c r="S94" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V94" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>229</v>
+        <v>332</v>
       </c>
       <c r="D95" s="8">
         <v>46053</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I95" s="10">
         <v>2023</v>
@@ -6753,13 +6642,13 @@
         <v>2023</v>
       </c>
       <c r="K95" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L95" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L95" s="1" t="s">
+      <c r="M95" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="M95" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O95" s="1">
         <v>22.5</v>
@@ -6768,30 +6657,27 @@
         <v>40</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V95" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>229</v>
+        <v>335</v>
       </c>
       <c r="D96" s="8">
         <v>46053</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I96" s="10">
         <v>2023</v>
@@ -6800,13 +6686,13 @@
         <v>2023</v>
       </c>
       <c r="K96" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L96" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L96" s="1" t="s">
+      <c r="M96" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="M96" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O96" s="1">
         <v>30</v>
@@ -6815,30 +6701,27 @@
         <v>30</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V96" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>229</v>
+        <v>338</v>
       </c>
       <c r="D97" s="8">
         <v>46053</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I97" s="10">
         <v>2023</v>
@@ -6847,13 +6730,13 @@
         <v>2023</v>
       </c>
       <c r="K97" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L97" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L97" s="1" t="s">
+      <c r="M97" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="M97" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O97" s="1">
         <v>30</v>
@@ -6862,30 +6745,27 @@
         <v>30</v>
       </c>
       <c r="S97" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V97" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>229</v>
+        <v>341</v>
       </c>
       <c r="D98" s="8">
         <v>46053</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I98" s="10">
         <v>2023</v>
@@ -6894,13 +6774,13 @@
         <v>2023</v>
       </c>
       <c r="K98" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L98" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L98" s="1" t="s">
+      <c r="M98" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="M98" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O98" s="1">
         <v>30</v>
@@ -6909,30 +6789,27 @@
         <v>30</v>
       </c>
       <c r="S98" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V98" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>229</v>
+        <v>344</v>
       </c>
       <c r="D99" s="8">
         <v>46053</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I99" s="10">
         <v>2023</v>
@@ -6941,13 +6818,13 @@
         <v>2023</v>
       </c>
       <c r="K99" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L99" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L99" s="1" t="s">
+      <c r="M99" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="M99" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O99" s="1">
         <v>30</v>
@@ -6956,30 +6833,27 @@
         <v>30</v>
       </c>
       <c r="S99" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V99" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>229</v>
+        <v>347</v>
       </c>
       <c r="D100" s="8">
         <v>46053</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I100" s="10">
         <v>2023</v>
@@ -6988,13 +6862,13 @@
         <v>2023</v>
       </c>
       <c r="K100" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L100" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L100" s="1" t="s">
+      <c r="M100" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="M100" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O100" s="1">
         <v>30</v>
@@ -7003,30 +6877,27 @@
         <v>30</v>
       </c>
       <c r="S100" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V100" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>229</v>
+        <v>350</v>
       </c>
       <c r="D101" s="8">
         <v>46053</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I101" s="10">
         <v>2023</v>
@@ -7035,13 +6906,13 @@
         <v>2023</v>
       </c>
       <c r="K101" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L101" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L101" s="1" t="s">
+      <c r="M101" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="M101" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O101" s="1">
         <v>30</v>
@@ -7050,30 +6921,27 @@
         <v>30</v>
       </c>
       <c r="S101" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V101" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>229</v>
+        <v>353</v>
       </c>
       <c r="D102" s="8">
         <v>46053</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I102" s="10">
         <v>2023</v>
@@ -7082,13 +6950,13 @@
         <v>2023</v>
       </c>
       <c r="K102" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L102" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L102" s="1" t="s">
+      <c r="M102" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="M102" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O102" s="1">
         <v>30</v>
@@ -7097,30 +6965,27 @@
         <v>30</v>
       </c>
       <c r="S102" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V102" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>229</v>
+        <v>356</v>
       </c>
       <c r="D103" s="8">
         <v>46053</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I103" s="10">
         <v>2023</v>
@@ -7129,13 +6994,13 @@
         <v>2023</v>
       </c>
       <c r="K103" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L103" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L103" s="1" t="s">
+      <c r="M103" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="M103" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O103" s="1">
         <v>30</v>
@@ -7144,30 +7009,27 @@
         <v>30</v>
       </c>
       <c r="S103" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V103" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>229</v>
+        <v>359</v>
       </c>
       <c r="D104" s="8">
         <v>46053</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I104" s="10">
         <v>2023</v>
@@ -7176,13 +7038,13 @@
         <v>2023</v>
       </c>
       <c r="K104" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L104" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L104" s="1" t="s">
+      <c r="M104" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="M104" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O104" s="1">
         <v>40</v>
@@ -7191,30 +7053,27 @@
         <v>30</v>
       </c>
       <c r="S104" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V104" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>229</v>
+        <v>362</v>
       </c>
       <c r="D105" s="8">
         <v>46053</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I105" s="10">
         <v>2023</v>
@@ -7223,13 +7082,13 @@
         <v>2023</v>
       </c>
       <c r="K105" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L105" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L105" s="1" t="s">
+      <c r="M105" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="M105" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O105" s="1">
         <v>30</v>
@@ -7238,30 +7097,27 @@
         <v>30</v>
       </c>
       <c r="S105" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V105" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>229</v>
+        <v>365</v>
       </c>
       <c r="D106" s="8">
         <v>46053</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I106" s="10">
         <v>2023</v>
@@ -7270,13 +7126,13 @@
         <v>2023</v>
       </c>
       <c r="K106" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L106" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L106" s="1" t="s">
+      <c r="M106" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="M106" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O106" s="1">
         <v>30</v>
@@ -7285,30 +7141,27 @@
         <v>30</v>
       </c>
       <c r="S106" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V106" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>229</v>
+        <v>368</v>
       </c>
       <c r="D107" s="8">
         <v>46053</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I107" s="10">
         <v>2023</v>
@@ -7317,13 +7170,13 @@
         <v>2023</v>
       </c>
       <c r="K107" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L107" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L107" s="1" t="s">
+      <c r="M107" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="M107" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O107" s="1">
         <v>30</v>
@@ -7332,10 +7185,10 @@
         <v>30</v>
       </c>
       <c r="S107" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V107" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -7364,21 +7217,21 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -7408,7 +7261,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>9</v>
@@ -7417,24 +7270,24 @@
         <v>12</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" s="8">
         <v>46055</v>
@@ -7443,18 +7296,18 @@
         <v>2025</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D3" s="8">
         <v>46055</v>
@@ -7463,7 +7316,7 @@
         <v>2025</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>

--- a/data/works.xlsx
+++ b/data/works.xlsx
@@ -8,22 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dlf/Developer/dotlineform/dotlineform-site/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F7B4D9-8CFB-7841-87BE-44C35B79B822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471CCE8D-3A99-0949-A467-EAB758F106BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schema" sheetId="1" r:id="rId1"/>
     <sheet name="Works" sheetId="2" r:id="rId2"/>
-    <sheet name="WorkFiles" sheetId="3" r:id="rId3"/>
-    <sheet name="Series" sheetId="4" r:id="rId4"/>
+    <sheet name="Series" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="377">
   <si>
     <t>Works</t>
   </si>
@@ -1133,12 +1132,6 @@
   </si>
   <si>
     <t>found form 38.jpg</t>
-  </si>
-  <si>
-    <t>00286-work-card.pdf</t>
-  </si>
-  <si>
-    <t>work card (PDF)</t>
   </si>
   <si>
     <t>2024-25</t>
@@ -1573,7 +1566,7 @@
   </sheetPr>
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1648,7 +1641,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1698,13 +1691,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>377</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2076,7 +2069,7 @@
         <v>20</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>23</v>
@@ -2147,7 +2140,7 @@
         <v>46055</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>84</v>
@@ -2198,7 +2191,7 @@
         <v>46055</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>92</v>
@@ -2249,7 +2242,7 @@
         <v>46055</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>95</v>
@@ -2300,7 +2293,7 @@
         <v>46055</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>97</v>
@@ -2351,7 +2344,7 @@
         <v>46055</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>99</v>
@@ -2402,7 +2395,7 @@
         <v>46055</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>101</v>
@@ -2453,7 +2446,7 @@
         <v>46055</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>103</v>
@@ -2504,7 +2497,7 @@
         <v>46055</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>106</v>
@@ -2555,7 +2548,7 @@
         <v>46055</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>109</v>
@@ -2606,7 +2599,7 @@
         <v>46055</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>112</v>
@@ -2657,7 +2650,7 @@
         <v>46055</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>115</v>
@@ -2708,7 +2701,7 @@
         <v>46055</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>117</v>
@@ -2759,7 +2752,7 @@
         <v>46055</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>119</v>
@@ -2810,7 +2803,7 @@
         <v>46055</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>121</v>
@@ -2861,7 +2854,7 @@
         <v>46055</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>123</v>
@@ -2912,7 +2905,7 @@
         <v>46055</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>125</v>
@@ -2963,7 +2956,7 @@
         <v>46055</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>127</v>
@@ -3014,7 +3007,7 @@
         <v>46055</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>129</v>
@@ -3065,7 +3058,7 @@
         <v>46055</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>131</v>
@@ -3116,7 +3109,7 @@
         <v>46055</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>133</v>
@@ -3167,7 +3160,7 @@
         <v>46055</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>135</v>
@@ -3218,7 +3211,7 @@
         <v>46055</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>137</v>
@@ -3269,7 +3262,7 @@
         <v>46055</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>140</v>
@@ -3320,7 +3313,7 @@
         <v>46055</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>142</v>
@@ -3371,7 +3364,7 @@
         <v>46055</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>144</v>
@@ -3422,7 +3415,7 @@
         <v>46055</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>146</v>
@@ -3473,7 +3466,7 @@
         <v>46055</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>148</v>
@@ -3524,7 +3517,7 @@
         <v>46055</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>150</v>
@@ -3575,7 +3568,7 @@
         <v>46055</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>152</v>
@@ -3626,7 +3619,7 @@
         <v>46055</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>155</v>
@@ -3677,7 +3670,7 @@
         <v>46055</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>157</v>
@@ -3728,7 +3721,7 @@
         <v>46055</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>159</v>
@@ -3779,7 +3772,7 @@
         <v>46055</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>162</v>
@@ -3830,7 +3823,7 @@
         <v>46055</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>165</v>
@@ -3881,7 +3874,7 @@
         <v>46055</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>167</v>
@@ -3932,7 +3925,7 @@
         <v>46055</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>169</v>
@@ -3983,7 +3976,7 @@
         <v>46055</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>172</v>
@@ -4034,7 +4027,7 @@
         <v>46055</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>174</v>
@@ -4085,7 +4078,7 @@
         <v>46055</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>177</v>
@@ -4136,7 +4129,7 @@
         <v>46055</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>179</v>
@@ -4187,7 +4180,7 @@
         <v>46055</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>181</v>
@@ -4238,7 +4231,7 @@
         <v>46055</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>183</v>
@@ -4289,7 +4282,7 @@
         <v>46055</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>185</v>
@@ -4340,7 +4333,7 @@
         <v>46055</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>187</v>
@@ -4391,7 +4384,7 @@
         <v>46055</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>189</v>
@@ -4442,7 +4435,7 @@
         <v>46055</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>191</v>
@@ -4493,7 +4486,7 @@
         <v>46055</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>193</v>
@@ -4544,7 +4537,7 @@
         <v>46055</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>195</v>
@@ -4595,7 +4588,7 @@
         <v>46055</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>197</v>
@@ -4646,7 +4639,7 @@
         <v>46055</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>199</v>
@@ -4697,7 +4690,7 @@
         <v>46055</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>201</v>
@@ -4748,7 +4741,7 @@
         <v>46055</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>203</v>
@@ -4799,7 +4792,7 @@
         <v>46055</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>205</v>
@@ -4850,7 +4843,7 @@
         <v>46055</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>207</v>
@@ -4901,7 +4894,7 @@
         <v>46055</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>210</v>
@@ -7198,52 +7191,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.83203125" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -7296,7 +7247,7 @@
         <v>2025</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -7316,7 +7267,7 @@
         <v>2025</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>

--- a/data/works.xlsx
+++ b/data/works.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dlf/Developer/dotlineform/dotlineform-site/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471CCE8D-3A99-0949-A467-EAB758F106BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CB0413-CF22-824B-A442-EFC9692F3B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schema" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="390">
   <si>
     <t>Works</t>
   </si>
@@ -708,6 +708,9 @@
     <t>found form (2017-07-29)</t>
   </si>
   <si>
+    <t>draft</t>
+  </si>
+  <si>
     <t>found form (2017-07-29).jpg</t>
   </si>
   <si>
@@ -1153,6 +1156,42 @@
   </si>
   <si>
     <t>status = blank are not processed</t>
+  </si>
+  <si>
+    <t>00454</t>
+  </si>
+  <si>
+    <t>I bet you look good on the dancefloor</t>
+  </si>
+  <si>
+    <t>I bet you look good on the dancefloor.jpeg</t>
+  </si>
+  <si>
+    <t>good-on-dancefloor</t>
+  </si>
+  <si>
+    <t>Nicky Benson</t>
+  </si>
+  <si>
+    <t>00455</t>
+  </si>
+  <si>
+    <t>dotlineform (2021)</t>
+  </si>
+  <si>
+    <t>dotlineform (2021).jpg</t>
+  </si>
+  <si>
+    <t>dotlineform-2021</t>
+  </si>
+  <si>
+    <t>painting</t>
+  </si>
+  <si>
+    <t>acrylic on canvas</t>
+  </si>
+  <si>
+    <t>dot,line,form</t>
   </si>
 </sst>
 </file>
@@ -1641,7 +1680,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1691,13 +1730,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2012,23 +2051,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y107"/>
+  <dimension ref="A1:Y109"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D51" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="F75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C93" sqref="C93"/>
+      <selection pane="bottomRight" activeCell="K109" sqref="K109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="72.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="37.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.83203125" style="10" customWidth="1"/>
@@ -2069,7 +2108,7 @@
         <v>20</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>23</v>
@@ -2140,7 +2179,7 @@
         <v>46055</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>84</v>
@@ -2191,7 +2230,7 @@
         <v>46055</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>92</v>
@@ -2242,7 +2281,7 @@
         <v>46055</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>95</v>
@@ -2293,7 +2332,7 @@
         <v>46055</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>97</v>
@@ -2344,7 +2383,7 @@
         <v>46055</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>99</v>
@@ -2395,7 +2434,7 @@
         <v>46055</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>101</v>
@@ -2446,7 +2485,7 @@
         <v>46055</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>103</v>
@@ -2497,7 +2536,7 @@
         <v>46055</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>106</v>
@@ -2548,7 +2587,7 @@
         <v>46055</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>109</v>
@@ -2599,7 +2638,7 @@
         <v>46055</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>112</v>
@@ -2650,7 +2689,7 @@
         <v>46055</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>115</v>
@@ -2701,7 +2740,7 @@
         <v>46055</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>117</v>
@@ -2752,7 +2791,7 @@
         <v>46055</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>119</v>
@@ -2803,7 +2842,7 @@
         <v>46055</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>121</v>
@@ -2854,7 +2893,7 @@
         <v>46055</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>123</v>
@@ -2905,7 +2944,7 @@
         <v>46055</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>125</v>
@@ -2956,7 +2995,7 @@
         <v>46055</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>127</v>
@@ -3007,7 +3046,7 @@
         <v>46055</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>129</v>
@@ -3058,7 +3097,7 @@
         <v>46055</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>131</v>
@@ -3109,7 +3148,7 @@
         <v>46055</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>133</v>
@@ -3160,7 +3199,7 @@
         <v>46055</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>135</v>
@@ -3211,7 +3250,7 @@
         <v>46055</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>137</v>
@@ -3262,7 +3301,7 @@
         <v>46055</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>140</v>
@@ -3313,7 +3352,7 @@
         <v>46055</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>142</v>
@@ -3364,7 +3403,7 @@
         <v>46055</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>144</v>
@@ -3415,7 +3454,7 @@
         <v>46055</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>146</v>
@@ -3466,7 +3505,7 @@
         <v>46055</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>148</v>
@@ -3517,7 +3556,7 @@
         <v>46055</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>150</v>
@@ -3568,7 +3607,7 @@
         <v>46055</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>152</v>
@@ -3619,7 +3658,7 @@
         <v>46055</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>155</v>
@@ -3670,7 +3709,7 @@
         <v>46055</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>157</v>
@@ -3721,7 +3760,7 @@
         <v>46055</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>159</v>
@@ -3772,7 +3811,7 @@
         <v>46055</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>162</v>
@@ -3823,7 +3862,7 @@
         <v>46055</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>165</v>
@@ -3874,7 +3913,7 @@
         <v>46055</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>167</v>
@@ -3925,7 +3964,7 @@
         <v>46055</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>169</v>
@@ -3976,7 +4015,7 @@
         <v>46055</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>172</v>
@@ -4027,7 +4066,7 @@
         <v>46055</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>174</v>
@@ -4078,7 +4117,7 @@
         <v>46055</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>177</v>
@@ -4129,7 +4168,7 @@
         <v>46055</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>179</v>
@@ -4180,7 +4219,7 @@
         <v>46055</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>181</v>
@@ -4231,7 +4270,7 @@
         <v>46055</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>183</v>
@@ -4282,7 +4321,7 @@
         <v>46055</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>185</v>
@@ -4333,7 +4372,7 @@
         <v>46055</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>187</v>
@@ -4384,7 +4423,7 @@
         <v>46055</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>189</v>
@@ -4435,7 +4474,7 @@
         <v>46055</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>191</v>
@@ -4486,7 +4525,7 @@
         <v>46055</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>193</v>
@@ -4537,7 +4576,7 @@
         <v>46055</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>195</v>
@@ -4588,7 +4627,7 @@
         <v>46055</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>197</v>
@@ -4639,7 +4678,7 @@
         <v>46055</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>199</v>
@@ -4690,7 +4729,7 @@
         <v>46055</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>201</v>
@@ -4741,7 +4780,7 @@
         <v>46055</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>203</v>
@@ -4792,7 +4831,7 @@
         <v>46055</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>205</v>
@@ -4843,7 +4882,7 @@
         <v>46055</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>207</v>
@@ -4894,7 +4933,7 @@
         <v>46055</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>210</v>
@@ -5086,7 +5125,7 @@
         <v>214</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I60" s="10">
         <v>2017</v>
@@ -5118,10 +5157,10 @@
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D61" s="8">
         <v>46053</v>
@@ -5130,7 +5169,7 @@
         <v>214</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I61" s="10">
         <v>2024</v>
@@ -5162,10 +5201,10 @@
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D62" s="8">
         <v>46053</v>
@@ -5174,7 +5213,7 @@
         <v>214</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I62" s="10">
         <v>2024</v>
@@ -5206,10 +5245,10 @@
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D63" s="8">
         <v>46053</v>
@@ -5218,7 +5257,7 @@
         <v>214</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I63" s="10">
         <v>2024</v>
@@ -5250,10 +5289,10 @@
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D64" s="8">
         <v>46053</v>
@@ -5262,7 +5301,7 @@
         <v>214</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I64" s="10">
         <v>2025</v>
@@ -5294,10 +5333,10 @@
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D65" s="8">
         <v>46053</v>
@@ -5306,7 +5345,7 @@
         <v>214</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I65" s="10">
         <v>2025</v>
@@ -5338,10 +5377,10 @@
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D66" s="8">
         <v>46053</v>
@@ -5350,7 +5389,7 @@
         <v>214</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I66" s="10">
         <v>2025</v>
@@ -5382,10 +5421,10 @@
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D67" s="8">
         <v>46053</v>
@@ -5394,7 +5433,7 @@
         <v>214</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I67" s="10">
         <v>2025</v>
@@ -5426,10 +5465,10 @@
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D68" s="8">
         <v>46053</v>
@@ -5438,7 +5477,7 @@
         <v>214</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I68" s="10">
         <v>2025</v>
@@ -5470,10 +5509,10 @@
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D69" s="8">
         <v>46053</v>
@@ -5482,7 +5521,7 @@
         <v>214</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I69" s="10">
         <v>2025</v>
@@ -5514,10 +5553,10 @@
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D70" s="8">
         <v>46053</v>
@@ -5526,7 +5565,7 @@
         <v>214</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I70" s="10">
         <v>2024</v>
@@ -5558,10 +5597,10 @@
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D71" s="8">
         <v>46053</v>
@@ -5570,7 +5609,7 @@
         <v>214</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I71" s="10">
         <v>2024</v>
@@ -5602,10 +5641,10 @@
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D72" s="8">
         <v>46053</v>
@@ -5614,7 +5653,7 @@
         <v>214</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I72" s="10">
         <v>2024</v>
@@ -5646,10 +5685,10 @@
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D73" s="8">
         <v>46053</v>
@@ -5658,7 +5697,7 @@
         <v>214</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I73" s="10">
         <v>2024</v>
@@ -5690,10 +5729,10 @@
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D74" s="8">
         <v>46053</v>
@@ -5702,7 +5741,7 @@
         <v>214</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I74" s="10">
         <v>2024</v>
@@ -5734,10 +5773,10 @@
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D75" s="8">
         <v>46053</v>
@@ -5746,7 +5785,7 @@
         <v>214</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I75" s="10">
         <v>2024</v>
@@ -5778,10 +5817,10 @@
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D76" s="8">
         <v>46053</v>
@@ -5790,7 +5829,7 @@
         <v>214</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I76" s="10">
         <v>2023</v>
@@ -5822,10 +5861,10 @@
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D77" s="8">
         <v>46053</v>
@@ -5834,7 +5873,7 @@
         <v>214</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I77" s="10">
         <v>2023</v>
@@ -5866,10 +5905,10 @@
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D78" s="8">
         <v>46053</v>
@@ -5878,7 +5917,7 @@
         <v>214</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I78" s="10">
         <v>2023</v>
@@ -5910,10 +5949,10 @@
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D79" s="8">
         <v>46053</v>
@@ -5922,7 +5961,7 @@
         <v>214</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I79" s="10">
         <v>2023</v>
@@ -5954,10 +5993,10 @@
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D80" s="8">
         <v>46053</v>
@@ -5966,7 +6005,7 @@
         <v>214</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I80" s="10">
         <v>2024</v>
@@ -5998,10 +6037,10 @@
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D81" s="8">
         <v>46053</v>
@@ -6010,7 +6049,7 @@
         <v>214</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I81" s="10">
         <v>2024</v>
@@ -6042,10 +6081,10 @@
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D82" s="8">
         <v>46053</v>
@@ -6054,7 +6093,7 @@
         <v>214</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I82" s="10">
         <v>2024</v>
@@ -6086,10 +6125,10 @@
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D83" s="8">
         <v>46053</v>
@@ -6098,7 +6137,7 @@
         <v>214</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I83" s="10">
         <v>2024</v>
@@ -6130,10 +6169,10 @@
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D84" s="8">
         <v>46053</v>
@@ -6142,7 +6181,7 @@
         <v>214</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I84" s="10">
         <v>2024</v>
@@ -6174,10 +6213,10 @@
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D85" s="8">
         <v>46053</v>
@@ -6186,7 +6225,7 @@
         <v>214</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I85" s="10">
         <v>2021</v>
@@ -6218,10 +6257,10 @@
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D86" s="8">
         <v>46053</v>
@@ -6230,7 +6269,7 @@
         <v>214</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I86" s="10">
         <v>2023</v>
@@ -6262,10 +6301,10 @@
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D87" s="8">
         <v>46053</v>
@@ -6274,7 +6313,7 @@
         <v>214</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I87" s="10">
         <v>2023</v>
@@ -6306,10 +6345,10 @@
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D88" s="8">
         <v>46053</v>
@@ -6318,7 +6357,7 @@
         <v>214</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I88" s="10">
         <v>2023</v>
@@ -6350,10 +6389,10 @@
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D89" s="8">
         <v>46053</v>
@@ -6362,7 +6401,7 @@
         <v>214</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I89" s="10">
         <v>2023</v>
@@ -6394,10 +6433,10 @@
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D90" s="8">
         <v>46053</v>
@@ -6406,7 +6445,7 @@
         <v>214</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I90" s="10">
         <v>2023</v>
@@ -6438,10 +6477,10 @@
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D91" s="8">
         <v>46053</v>
@@ -6450,7 +6489,7 @@
         <v>214</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I91" s="10">
         <v>2023</v>
@@ -6482,10 +6521,10 @@
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D92" s="8">
         <v>46053</v>
@@ -6494,7 +6533,7 @@
         <v>214</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I92" s="10">
         <v>2023</v>
@@ -6526,10 +6565,10 @@
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D93" s="8">
         <v>46053</v>
@@ -6538,7 +6577,7 @@
         <v>214</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I93" s="10">
         <v>2023</v>
@@ -6570,10 +6609,10 @@
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D94" s="8">
         <v>46053</v>
@@ -6582,7 +6621,7 @@
         <v>214</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I94" s="10">
         <v>2023</v>
@@ -6614,10 +6653,10 @@
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D95" s="8">
         <v>46053</v>
@@ -6626,7 +6665,7 @@
         <v>214</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I95" s="10">
         <v>2023</v>
@@ -6658,10 +6697,10 @@
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D96" s="8">
         <v>46053</v>
@@ -6670,7 +6709,7 @@
         <v>214</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I96" s="10">
         <v>2023</v>
@@ -6702,10 +6741,10 @@
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D97" s="8">
         <v>46053</v>
@@ -6714,7 +6753,7 @@
         <v>214</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I97" s="10">
         <v>2023</v>
@@ -6746,10 +6785,10 @@
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D98" s="8">
         <v>46053</v>
@@ -6758,7 +6797,7 @@
         <v>214</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I98" s="10">
         <v>2023</v>
@@ -6790,10 +6829,10 @@
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D99" s="8">
         <v>46053</v>
@@ -6802,7 +6841,7 @@
         <v>214</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I99" s="10">
         <v>2023</v>
@@ -6834,10 +6873,10 @@
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D100" s="8">
         <v>46053</v>
@@ -6846,7 +6885,7 @@
         <v>214</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I100" s="10">
         <v>2023</v>
@@ -6878,10 +6917,10 @@
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D101" s="8">
         <v>46053</v>
@@ -6890,7 +6929,7 @@
         <v>214</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I101" s="10">
         <v>2023</v>
@@ -6922,10 +6961,10 @@
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D102" s="8">
         <v>46053</v>
@@ -6934,7 +6973,7 @@
         <v>214</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I102" s="10">
         <v>2023</v>
@@ -6966,10 +7005,10 @@
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D103" s="8">
         <v>46053</v>
@@ -6978,7 +7017,7 @@
         <v>214</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I103" s="10">
         <v>2023</v>
@@ -7010,10 +7049,10 @@
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D104" s="8">
         <v>46053</v>
@@ -7022,7 +7061,7 @@
         <v>214</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I104" s="10">
         <v>2023</v>
@@ -7054,10 +7093,10 @@
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D105" s="8">
         <v>46053</v>
@@ -7066,7 +7105,7 @@
         <v>214</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I105" s="10">
         <v>2023</v>
@@ -7098,10 +7137,10 @@
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D106" s="8">
         <v>46053</v>
@@ -7110,7 +7149,7 @@
         <v>214</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I106" s="10">
         <v>2023</v>
@@ -7142,10 +7181,10 @@
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D107" s="8">
         <v>46053</v>
@@ -7154,7 +7193,7 @@
         <v>214</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I107" s="10">
         <v>2023</v>
@@ -7181,6 +7220,100 @@
         <v>219</v>
       </c>
       <c r="V107" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A108" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D108" s="8">
+        <v>46066</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="I108" s="10">
+        <v>2025</v>
+      </c>
+      <c r="J108" s="10">
+        <v>2025</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="O108" s="1">
+        <v>29.7</v>
+      </c>
+      <c r="P108" s="1">
+        <v>42</v>
+      </c>
+      <c r="S108" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="T108" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="V108" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A109" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D109" s="8">
+        <v>46066</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="I109" s="10">
+        <v>2021</v>
+      </c>
+      <c r="J109" s="10">
+        <v>2021</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="O109" s="1">
+        <v>50</v>
+      </c>
+      <c r="P109" s="1">
+        <v>120</v>
+      </c>
+      <c r="S109" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="V109" s="6" t="s">
         <v>90</v>
       </c>
     </row>
@@ -7192,10 +7325,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
@@ -7247,7 +7380,7 @@
         <v>2025</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -7267,7 +7400,24 @@
         <v>2025</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2021</v>
       </c>
     </row>
   </sheetData>

--- a/data/works.xlsx
+++ b/data/works.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dlf/Developer/dotlineform/dotlineform-site/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CB0413-CF22-824B-A442-EFC9692F3B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B160B67-47D0-134D-A220-BD719BB21470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schema" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,6 @@
     <t>status</t>
   </si>
   <si>
-    <t>draft | ready | published</t>
-  </si>
-  <si>
     <t>published_date</t>
   </si>
   <si>
@@ -1192,6 +1189,9 @@
   </si>
   <si>
     <t>dot,line,form</t>
+  </si>
+  <si>
+    <t>draft | published</t>
   </si>
 </sst>
 </file>
@@ -1605,8 +1605,8 @@
   </sheetPr>
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
@@ -1677,10 +1677,10 @@
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>389</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1688,13 +1688,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1702,13 +1702,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1716,13 +1716,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1730,13 +1730,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1744,13 +1744,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1758,13 +1758,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1772,13 +1772,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1786,13 +1786,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1800,13 +1800,13 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1814,13 +1814,13 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1828,13 +1828,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1842,13 +1842,13 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1856,13 +1856,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1870,13 +1870,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1884,13 +1884,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1898,13 +1898,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1912,13 +1912,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1926,13 +1926,13 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1940,13 +1940,13 @@
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1954,13 +1954,13 @@
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1968,13 +1968,13 @@
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1982,23 +1982,23 @@
         <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -2009,10 +2009,10 @@
         <v>6</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -2020,13 +2020,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="D33" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -2034,13 +2034,13 @@
         <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2053,11 +2053,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F75" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K109" sqref="K109"/>
+      <selection pane="bottomRight" activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
@@ -2099,109 +2099,109 @@
         <v>12</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y1" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D2" s="8">
         <v>46055</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J2" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I2" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J2" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="O2" s="1">
         <v>42</v>
@@ -2210,49 +2210,49 @@
         <v>29.7</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D3" s="8">
         <v>46055</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J3" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I3" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J3" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="M3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O3" s="1">
         <v>42</v>
@@ -2261,49 +2261,49 @@
         <v>29.7</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D4" s="8">
         <v>46055</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J4" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I4" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J4" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="M4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O4" s="1">
         <v>42</v>
@@ -2312,49 +2312,49 @@
         <v>29.7</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V4" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D5" s="8">
         <v>46055</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J5" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I5" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J5" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="O5" s="1">
         <v>42</v>
@@ -2363,49 +2363,49 @@
         <v>29.7</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V5" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D6" s="8">
         <v>46055</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J6" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I6" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J6" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="M6" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O6" s="1">
         <v>42</v>
@@ -2414,49 +2414,49 @@
         <v>29.7</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V6" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D7" s="8">
         <v>46055</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J7" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I7" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J7" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="M7" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O7" s="1">
         <v>42</v>
@@ -2465,49 +2465,49 @@
         <v>29.7</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V7" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D8" s="8">
         <v>46055</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J8" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I8" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J8" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="M8" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O8" s="1">
         <v>42</v>
@@ -2516,49 +2516,49 @@
         <v>29.7</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V8" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D9" s="8">
         <v>46055</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J9" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I9" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J9" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="M9" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O9" s="1">
         <v>42</v>
@@ -2567,49 +2567,49 @@
         <v>29.7</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V9" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D10" s="8">
         <v>46055</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J10" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I10" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J10" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="M10" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O10" s="1">
         <v>42</v>
@@ -2618,49 +2618,49 @@
         <v>29.7</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V10" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D11" s="8">
         <v>46055</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J11" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I11" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J11" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="O11" s="1">
         <v>42</v>
@@ -2669,49 +2669,49 @@
         <v>29.7</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V11" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12" s="8">
         <v>46055</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J12" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I12" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J12" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="M12" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O12" s="1">
         <v>42</v>
@@ -2720,49 +2720,49 @@
         <v>29.7</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V12" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D13" s="8">
         <v>46055</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J13" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I13" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J13" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="M13" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O13" s="1">
         <v>42</v>
@@ -2771,49 +2771,49 @@
         <v>29.7</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V13" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D14" s="8">
         <v>46055</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J14" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I14" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J14" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="M14" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O14" s="1">
         <v>42</v>
@@ -2822,49 +2822,49 @@
         <v>29.7</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V14" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D15" s="8">
         <v>46055</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J15" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I15" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J15" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="M15" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O15" s="1">
         <v>42</v>
@@ -2873,49 +2873,49 @@
         <v>29.7</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V15" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D16" s="8">
         <v>46055</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J16" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I16" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J16" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="M16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O16" s="1">
         <v>42</v>
@@ -2924,49 +2924,49 @@
         <v>29.7</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V16" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D17" s="8">
         <v>46055</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J17" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I17" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J17" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="M17" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O17" s="1">
         <v>42</v>
@@ -2975,49 +2975,49 @@
         <v>29.7</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V17" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D18" s="8">
         <v>46055</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J18" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I18" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J18" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="M18" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O18" s="1">
         <v>42</v>
@@ -3026,49 +3026,49 @@
         <v>29.7</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V18" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D19" s="8">
         <v>46055</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J19" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I19" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J19" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K19" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="M19" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O19" s="1">
         <v>42</v>
@@ -3077,49 +3077,49 @@
         <v>29.7</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V19" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D20" s="8">
         <v>46055</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I20" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J20" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I20" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J20" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L20" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="M20" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O20" s="1">
         <v>42</v>
@@ -3128,49 +3128,49 @@
         <v>29.7</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V20" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D21" s="8">
         <v>46055</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J21" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I21" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J21" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K21" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L21" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="M21" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O21" s="1">
         <v>42</v>
@@ -3179,49 +3179,49 @@
         <v>29.7</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V21" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D22" s="8">
         <v>46055</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I22" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J22" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I22" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J22" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K22" s="1" t="s">
+      <c r="L22" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L22" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="M22" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O22" s="1">
         <v>42</v>
@@ -3230,49 +3230,49 @@
         <v>29.7</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V22" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D23" s="8">
         <v>46055</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I23" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J23" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I23" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J23" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K23" s="1" t="s">
+      <c r="L23" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="M23" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="O23" s="1">
         <v>42</v>
@@ -3281,49 +3281,49 @@
         <v>29.7</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V23" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="C24" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D24" s="8">
         <v>46055</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I24" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J24" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I24" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J24" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K24" s="1" t="s">
+      <c r="L24" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L24" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="M24" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O24" s="1">
         <v>42</v>
@@ -3332,49 +3332,49 @@
         <v>29.7</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V24" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D25" s="8">
         <v>46055</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I25" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J25" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I25" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J25" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K25" s="1" t="s">
+      <c r="L25" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L25" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="M25" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O25" s="1">
         <v>42</v>
@@ -3383,49 +3383,49 @@
         <v>29.7</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V25" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D26" s="8">
         <v>46055</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I26" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J26" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I26" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J26" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K26" s="1" t="s">
+      <c r="L26" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L26" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="M26" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O26" s="1">
         <v>42</v>
@@ -3434,49 +3434,49 @@
         <v>29.7</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V26" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D27" s="8">
         <v>46055</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I27" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J27" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I27" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J27" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K27" s="1" t="s">
+      <c r="L27" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L27" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="M27" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O27" s="1">
         <v>42</v>
@@ -3485,49 +3485,49 @@
         <v>29.7</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V27" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D28" s="8">
         <v>46055</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I28" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J28" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I28" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J28" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K28" s="1" t="s">
+      <c r="L28" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L28" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="M28" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O28" s="1">
         <v>42</v>
@@ -3536,49 +3536,49 @@
         <v>29.7</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V28" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D29" s="8">
         <v>46055</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I29" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J29" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I29" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J29" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K29" s="1" t="s">
+      <c r="L29" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L29" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="M29" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="1">
         <v>42</v>
@@ -3587,49 +3587,49 @@
         <v>29.7</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V29" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D30" s="8">
         <v>46055</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I30" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J30" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I30" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J30" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K30" s="1" t="s">
+      <c r="L30" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L30" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="M30" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O30" s="1">
         <v>42</v>
@@ -3638,49 +3638,49 @@
         <v>29.7</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V30" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D31" s="8">
         <v>46055</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I31" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J31" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K31" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I31" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J31" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K31" s="1" t="s">
+      <c r="L31" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L31" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="M31" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O31" s="1">
         <v>42</v>
@@ -3689,49 +3689,49 @@
         <v>29.7</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V31" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D32" s="8">
         <v>46055</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I32" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J32" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K32" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I32" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J32" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K32" s="1" t="s">
+      <c r="L32" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L32" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="M32" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O32" s="1">
         <v>42</v>
@@ -3740,49 +3740,49 @@
         <v>29.7</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V32" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D33" s="8">
         <v>46055</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I33" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J33" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I33" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J33" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K33" s="1" t="s">
+      <c r="L33" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L33" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="M33" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O33" s="1">
         <v>42</v>
@@ -3791,49 +3791,49 @@
         <v>29.7</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V33" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D34" s="8">
         <v>46055</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I34" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J34" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K34" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I34" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J34" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K34" s="1" t="s">
+      <c r="L34" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="M34" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="O34" s="1">
         <v>42</v>
@@ -3842,49 +3842,49 @@
         <v>29.7</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V34" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="C35" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D35" s="8">
         <v>46055</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I35" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J35" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K35" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I35" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J35" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K35" s="1" t="s">
+      <c r="L35" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="M35" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="O35" s="1">
         <v>42</v>
@@ -3893,49 +3893,49 @@
         <v>29.7</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V35" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D36" s="8">
         <v>46055</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I36" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J36" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K36" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I36" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J36" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K36" s="1" t="s">
+      <c r="L36" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="M36" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="O36" s="1">
         <v>42</v>
@@ -3944,49 +3944,49 @@
         <v>29.7</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V36" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D37" s="8">
         <v>46055</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I37" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J37" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K37" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I37" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J37" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K37" s="1" t="s">
+      <c r="L37" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L37" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="M37" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O37" s="1">
         <v>42</v>
@@ -3995,49 +3995,49 @@
         <v>29.7</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V37" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D38" s="8">
         <v>46055</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I38" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J38" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K38" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I38" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J38" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K38" s="1" t="s">
+      <c r="L38" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L38" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="M38" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O38" s="1">
         <v>42</v>
@@ -4046,49 +4046,49 @@
         <v>29.7</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V38" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D39" s="8">
         <v>46055</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I39" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J39" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K39" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I39" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J39" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K39" s="1" t="s">
+      <c r="L39" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L39" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="M39" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O39" s="1">
         <v>42</v>
@@ -4097,49 +4097,49 @@
         <v>29.7</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V39" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D40" s="8">
         <v>46055</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I40" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J40" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K40" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I40" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J40" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K40" s="1" t="s">
+      <c r="L40" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L40" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="M40" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O40" s="1">
         <v>42</v>
@@ -4148,49 +4148,49 @@
         <v>29.7</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V40" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D41" s="8">
         <v>46055</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I41" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J41" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K41" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I41" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J41" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K41" s="1" t="s">
+      <c r="L41" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L41" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="M41" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O41" s="1">
         <v>42</v>
@@ -4199,49 +4199,49 @@
         <v>29.7</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V41" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D42" s="8">
         <v>46055</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I42" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J42" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K42" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I42" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J42" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K42" s="1" t="s">
+      <c r="L42" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L42" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="M42" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O42" s="1">
         <v>42</v>
@@ -4250,49 +4250,49 @@
         <v>29.7</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V42" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D43" s="8">
         <v>46055</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I43" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J43" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K43" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I43" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J43" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K43" s="1" t="s">
+      <c r="L43" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="M43" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="O43" s="1">
         <v>42</v>
@@ -4301,49 +4301,49 @@
         <v>29.7</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V43" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D44" s="8">
         <v>46055</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I44" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J44" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K44" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I44" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J44" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K44" s="1" t="s">
+      <c r="L44" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L44" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="M44" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O44" s="1">
         <v>42</v>
@@ -4352,49 +4352,49 @@
         <v>29.7</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V44" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D45" s="8">
         <v>46055</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I45" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J45" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K45" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I45" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J45" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K45" s="1" t="s">
+      <c r="L45" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L45" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="M45" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O45" s="1">
         <v>42</v>
@@ -4403,49 +4403,49 @@
         <v>29.7</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V45" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D46" s="8">
         <v>46055</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I46" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J46" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K46" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I46" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J46" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K46" s="1" t="s">
+      <c r="L46" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L46" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="M46" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O46" s="1">
         <v>42</v>
@@ -4454,49 +4454,49 @@
         <v>29.7</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V46" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D47" s="8">
         <v>46055</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I47" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J47" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K47" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I47" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J47" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K47" s="1" t="s">
+      <c r="L47" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L47" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="M47" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O47" s="1">
         <v>42</v>
@@ -4505,49 +4505,49 @@
         <v>29.7</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V47" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D48" s="8">
         <v>46055</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I48" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J48" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K48" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I48" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J48" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K48" s="1" t="s">
+      <c r="L48" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L48" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="M48" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O48" s="1">
         <v>42</v>
@@ -4556,49 +4556,49 @@
         <v>29.7</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V48" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D49" s="8">
         <v>46055</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I49" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J49" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K49" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I49" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J49" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K49" s="1" t="s">
+      <c r="L49" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L49" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="M49" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O49" s="1">
         <v>42</v>
@@ -4607,49 +4607,49 @@
         <v>29.7</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V49" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D50" s="8">
         <v>46055</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I50" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J50" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K50" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I50" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J50" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K50" s="1" t="s">
+      <c r="L50" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L50" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="M50" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O50" s="1">
         <v>42</v>
@@ -4658,49 +4658,49 @@
         <v>29.7</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V50" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D51" s="8">
         <v>46055</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I51" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J51" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K51" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I51" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J51" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K51" s="1" t="s">
+      <c r="L51" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L51" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="M51" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O51" s="1">
         <v>42</v>
@@ -4709,49 +4709,49 @@
         <v>29.7</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V51" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D52" s="8">
         <v>46055</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I52" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J52" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K52" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I52" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J52" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K52" s="1" t="s">
+      <c r="L52" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L52" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="M52" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O52" s="1">
         <v>42</v>
@@ -4760,49 +4760,49 @@
         <v>29.7</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V52" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D53" s="8">
         <v>46055</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I53" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J53" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K53" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I53" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J53" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K53" s="1" t="s">
+      <c r="L53" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L53" s="1" t="s">
+      <c r="M53" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="O53" s="1">
         <v>42</v>
@@ -4811,49 +4811,49 @@
         <v>29.7</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V53" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D54" s="8">
         <v>46055</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I54" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J54" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K54" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I54" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J54" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K54" s="1" t="s">
+      <c r="L54" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L54" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="M54" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O54" s="1">
         <v>42</v>
@@ -4862,49 +4862,49 @@
         <v>29.7</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V54" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D55" s="8">
         <v>46055</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G55" s="6"/>
       <c r="H55" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I55" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J55" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K55" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I55" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J55" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K55" s="1" t="s">
+      <c r="L55" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L55" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="M55" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O55" s="1">
         <v>42</v>
@@ -4913,49 +4913,49 @@
         <v>29.7</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V55" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="C56" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D56" s="8">
         <v>46055</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G56" s="6"/>
       <c r="H56" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I56" s="10">
+        <v>2024</v>
+      </c>
+      <c r="J56" s="10">
+        <v>2024</v>
+      </c>
+      <c r="K56" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I56" s="10">
-        <v>2024</v>
-      </c>
-      <c r="J56" s="10">
-        <v>2024</v>
-      </c>
-      <c r="K56" s="1" t="s">
+      <c r="L56" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L56" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="M56" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O56" s="1">
         <v>29.7</v>
@@ -4964,30 +4964,30 @@
         <v>42</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V56" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="C57" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D57" s="8">
         <v>46055</v>
       </c>
       <c r="E57" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="I57" s="10">
         <v>2017</v>
@@ -4996,13 +4996,13 @@
         <v>2017</v>
       </c>
       <c r="K57" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L57" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L57" s="1" t="s">
+      <c r="M57" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O57" s="1">
         <v>30</v>
@@ -5011,30 +5011,30 @@
         <v>30</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V57" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="C58" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D58" s="8">
         <v>46055</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I58" s="10">
         <v>2017</v>
@@ -5043,13 +5043,13 @@
         <v>2017</v>
       </c>
       <c r="K58" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L58" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L58" s="1" t="s">
+      <c r="M58" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O58" s="1">
         <v>30</v>
@@ -5058,30 +5058,30 @@
         <v>30</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V58" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="C59" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D59" s="8">
         <v>46055</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I59" s="10">
         <v>2017</v>
@@ -5090,13 +5090,13 @@
         <v>2017</v>
       </c>
       <c r="K59" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L59" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L59" s="1" t="s">
+      <c r="M59" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O59" s="1">
         <v>30</v>
@@ -5105,27 +5105,27 @@
         <v>30</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V59" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="D60" s="8">
         <v>46053</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I60" s="10">
         <v>2017</v>
@@ -5134,13 +5134,13 @@
         <v>2017</v>
       </c>
       <c r="K60" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L60" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L60" s="1" t="s">
+      <c r="M60" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O60" s="1">
         <v>30</v>
@@ -5149,27 +5149,27 @@
         <v>30</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V60" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="D61" s="8">
         <v>46053</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I61" s="10">
         <v>2024</v>
@@ -5178,13 +5178,13 @@
         <v>2024</v>
       </c>
       <c r="K61" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L61" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L61" s="1" t="s">
+      <c r="M61" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O61" s="1">
         <v>30</v>
@@ -5193,27 +5193,27 @@
         <v>40</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V61" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="D62" s="8">
         <v>46053</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I62" s="10">
         <v>2024</v>
@@ -5222,13 +5222,13 @@
         <v>2024</v>
       </c>
       <c r="K62" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L62" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L62" s="1" t="s">
+      <c r="M62" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O62" s="1">
         <v>30</v>
@@ -5237,27 +5237,27 @@
         <v>30</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V62" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="D63" s="8">
         <v>46053</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I63" s="10">
         <v>2024</v>
@@ -5266,13 +5266,13 @@
         <v>2024</v>
       </c>
       <c r="K63" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L63" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L63" s="1" t="s">
+      <c r="M63" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M63" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O63" s="1">
         <v>30</v>
@@ -5281,27 +5281,27 @@
         <v>30</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V63" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="D64" s="8">
         <v>46053</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I64" s="10">
         <v>2025</v>
@@ -5310,13 +5310,13 @@
         <v>2025</v>
       </c>
       <c r="K64" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L64" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L64" s="1" t="s">
+      <c r="M64" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O64" s="1">
         <v>30</v>
@@ -5325,27 +5325,27 @@
         <v>40</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V64" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="D65" s="8">
         <v>46053</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I65" s="10">
         <v>2025</v>
@@ -5354,13 +5354,13 @@
         <v>2025</v>
       </c>
       <c r="K65" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L65" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L65" s="1" t="s">
+      <c r="M65" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M65" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O65" s="1">
         <v>30</v>
@@ -5369,27 +5369,27 @@
         <v>30</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V65" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="D66" s="8">
         <v>46053</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I66" s="10">
         <v>2025</v>
@@ -5398,13 +5398,13 @@
         <v>2025</v>
       </c>
       <c r="K66" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L66" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L66" s="1" t="s">
+      <c r="M66" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M66" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O66" s="1">
         <v>40</v>
@@ -5413,27 +5413,27 @@
         <v>30</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V66" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="D67" s="8">
         <v>46053</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I67" s="10">
         <v>2025</v>
@@ -5442,13 +5442,13 @@
         <v>2025</v>
       </c>
       <c r="K67" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L67" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L67" s="1" t="s">
+      <c r="M67" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M67" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O67" s="1">
         <v>30</v>
@@ -5457,27 +5457,27 @@
         <v>30</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V67" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="D68" s="8">
         <v>46053</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I68" s="10">
         <v>2025</v>
@@ -5486,13 +5486,13 @@
         <v>2025</v>
       </c>
       <c r="K68" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L68" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L68" s="1" t="s">
+      <c r="M68" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M68" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O68" s="1">
         <v>30</v>
@@ -5501,27 +5501,27 @@
         <v>30</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V68" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="D69" s="8">
         <v>46053</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I69" s="10">
         <v>2025</v>
@@ -5530,13 +5530,13 @@
         <v>2025</v>
       </c>
       <c r="K69" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L69" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L69" s="1" t="s">
+      <c r="M69" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M69" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O69" s="1">
         <v>30</v>
@@ -5545,27 +5545,27 @@
         <v>30</v>
       </c>
       <c r="S69" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V69" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="D70" s="8">
         <v>46053</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I70" s="10">
         <v>2024</v>
@@ -5574,13 +5574,13 @@
         <v>2024</v>
       </c>
       <c r="K70" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L70" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L70" s="1" t="s">
+      <c r="M70" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M70" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O70" s="1">
         <v>30</v>
@@ -5589,27 +5589,27 @@
         <v>30</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V70" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="D71" s="8">
         <v>46053</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I71" s="10">
         <v>2024</v>
@@ -5618,13 +5618,13 @@
         <v>2024</v>
       </c>
       <c r="K71" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L71" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L71" s="1" t="s">
+      <c r="M71" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M71" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O71" s="1">
         <v>50</v>
@@ -5633,27 +5633,27 @@
         <v>50</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V71" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="D72" s="8">
         <v>46053</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I72" s="10">
         <v>2024</v>
@@ -5662,13 +5662,13 @@
         <v>2024</v>
       </c>
       <c r="K72" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L72" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L72" s="1" t="s">
+      <c r="M72" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M72" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O72" s="1">
         <v>50</v>
@@ -5677,27 +5677,27 @@
         <v>50</v>
       </c>
       <c r="S72" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V72" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="D73" s="8">
         <v>46053</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I73" s="10">
         <v>2024</v>
@@ -5706,13 +5706,13 @@
         <v>2024</v>
       </c>
       <c r="K73" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L73" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L73" s="1" t="s">
+      <c r="M73" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M73" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O73" s="1">
         <v>50</v>
@@ -5721,27 +5721,27 @@
         <v>50</v>
       </c>
       <c r="S73" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V73" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="D74" s="8">
         <v>46053</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I74" s="10">
         <v>2024</v>
@@ -5750,13 +5750,13 @@
         <v>2024</v>
       </c>
       <c r="K74" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L74" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L74" s="1" t="s">
+      <c r="M74" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M74" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O74" s="1">
         <v>50</v>
@@ -5765,27 +5765,27 @@
         <v>50</v>
       </c>
       <c r="S74" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V74" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="D75" s="8">
         <v>46053</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I75" s="10">
         <v>2024</v>
@@ -5794,13 +5794,13 @@
         <v>2024</v>
       </c>
       <c r="K75" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L75" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L75" s="1" t="s">
+      <c r="M75" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M75" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O75" s="1">
         <v>50</v>
@@ -5809,27 +5809,27 @@
         <v>50</v>
       </c>
       <c r="S75" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V75" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="D76" s="8">
         <v>46053</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I76" s="10">
         <v>2023</v>
@@ -5838,13 +5838,13 @@
         <v>2023</v>
       </c>
       <c r="K76" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L76" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L76" s="1" t="s">
+      <c r="M76" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M76" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O76" s="1">
         <v>50</v>
@@ -5853,27 +5853,27 @@
         <v>50</v>
       </c>
       <c r="S76" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V76" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="D77" s="8">
         <v>46053</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I77" s="10">
         <v>2023</v>
@@ -5882,13 +5882,13 @@
         <v>2023</v>
       </c>
       <c r="K77" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L77" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L77" s="1" t="s">
+      <c r="M77" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M77" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O77" s="1">
         <v>50</v>
@@ -5897,27 +5897,27 @@
         <v>50</v>
       </c>
       <c r="S77" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V77" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="D78" s="8">
         <v>46053</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I78" s="10">
         <v>2023</v>
@@ -5926,13 +5926,13 @@
         <v>2023</v>
       </c>
       <c r="K78" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L78" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L78" s="1" t="s">
+      <c r="M78" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M78" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O78" s="1">
         <v>50</v>
@@ -5941,27 +5941,27 @@
         <v>50</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V78" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>285</v>
       </c>
       <c r="D79" s="8">
         <v>46053</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I79" s="10">
         <v>2023</v>
@@ -5970,13 +5970,13 @@
         <v>2023</v>
       </c>
       <c r="K79" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L79" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L79" s="1" t="s">
+      <c r="M79" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M79" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O79" s="1">
         <v>50</v>
@@ -5985,27 +5985,27 @@
         <v>50</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V79" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>288</v>
       </c>
       <c r="D80" s="8">
         <v>46053</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I80" s="10">
         <v>2024</v>
@@ -6014,13 +6014,13 @@
         <v>2024</v>
       </c>
       <c r="K80" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L80" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L80" s="1" t="s">
+      <c r="M80" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M80" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O80" s="1">
         <v>50</v>
@@ -6029,27 +6029,27 @@
         <v>50</v>
       </c>
       <c r="S80" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V80" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="D81" s="8">
         <v>46053</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I81" s="10">
         <v>2024</v>
@@ -6058,13 +6058,13 @@
         <v>2024</v>
       </c>
       <c r="K81" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L81" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L81" s="1" t="s">
+      <c r="M81" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M81" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O81" s="1">
         <v>40</v>
@@ -6073,27 +6073,27 @@
         <v>40</v>
       </c>
       <c r="S81" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V81" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="D82" s="8">
         <v>46053</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I82" s="10">
         <v>2024</v>
@@ -6102,13 +6102,13 @@
         <v>2024</v>
       </c>
       <c r="K82" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L82" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L82" s="1" t="s">
+      <c r="M82" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M82" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O82" s="1">
         <v>40</v>
@@ -6117,27 +6117,27 @@
         <v>40</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V82" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="D83" s="8">
         <v>46053</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I83" s="10">
         <v>2024</v>
@@ -6146,13 +6146,13 @@
         <v>2024</v>
       </c>
       <c r="K83" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L83" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L83" s="1" t="s">
+      <c r="M83" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M83" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O83" s="1">
         <v>40</v>
@@ -6161,27 +6161,27 @@
         <v>40</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V83" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="D84" s="8">
         <v>46053</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I84" s="10">
         <v>2024</v>
@@ -6190,13 +6190,13 @@
         <v>2024</v>
       </c>
       <c r="K84" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L84" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L84" s="1" t="s">
+      <c r="M84" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M84" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O84" s="1">
         <v>30</v>
@@ -6205,27 +6205,27 @@
         <v>40</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V84" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="D85" s="8">
         <v>46053</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I85" s="10">
         <v>2021</v>
@@ -6234,13 +6234,13 @@
         <v>2021</v>
       </c>
       <c r="K85" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L85" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L85" s="1" t="s">
+      <c r="M85" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M85" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O85" s="1">
         <v>30</v>
@@ -6249,27 +6249,27 @@
         <v>30</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V85" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="D86" s="8">
         <v>46053</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I86" s="10">
         <v>2023</v>
@@ -6278,13 +6278,13 @@
         <v>2023</v>
       </c>
       <c r="K86" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L86" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L86" s="1" t="s">
+      <c r="M86" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M86" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O86" s="1">
         <v>30</v>
@@ -6293,27 +6293,27 @@
         <v>30</v>
       </c>
       <c r="S86" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V86" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="D87" s="8">
         <v>46053</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I87" s="10">
         <v>2023</v>
@@ -6322,13 +6322,13 @@
         <v>2023</v>
       </c>
       <c r="K87" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L87" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L87" s="1" t="s">
+      <c r="M87" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M87" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O87" s="1">
         <v>30</v>
@@ -6337,27 +6337,27 @@
         <v>30</v>
       </c>
       <c r="S87" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V87" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="D88" s="8">
         <v>46053</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I88" s="10">
         <v>2023</v>
@@ -6366,13 +6366,13 @@
         <v>2023</v>
       </c>
       <c r="K88" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L88" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L88" s="1" t="s">
+      <c r="M88" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M88" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O88" s="1">
         <v>30</v>
@@ -6381,27 +6381,27 @@
         <v>30</v>
       </c>
       <c r="S88" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V88" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="D89" s="8">
         <v>46053</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I89" s="10">
         <v>2023</v>
@@ -6410,13 +6410,13 @@
         <v>2023</v>
       </c>
       <c r="K89" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L89" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L89" s="1" t="s">
+      <c r="M89" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M89" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O89" s="1">
         <v>30</v>
@@ -6425,27 +6425,27 @@
         <v>30</v>
       </c>
       <c r="S89" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V89" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="D90" s="8">
         <v>46053</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I90" s="10">
         <v>2023</v>
@@ -6454,13 +6454,13 @@
         <v>2023</v>
       </c>
       <c r="K90" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L90" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L90" s="1" t="s">
+      <c r="M90" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M90" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O90" s="1">
         <v>30</v>
@@ -6469,27 +6469,27 @@
         <v>30</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V90" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="D91" s="8">
         <v>46053</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I91" s="10">
         <v>2023</v>
@@ -6498,13 +6498,13 @@
         <v>2023</v>
       </c>
       <c r="K91" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L91" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L91" s="1" t="s">
+      <c r="M91" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M91" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O91" s="1">
         <v>30</v>
@@ -6513,27 +6513,27 @@
         <v>30</v>
       </c>
       <c r="S91" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V91" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="D92" s="8">
         <v>46053</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I92" s="10">
         <v>2023</v>
@@ -6542,13 +6542,13 @@
         <v>2023</v>
       </c>
       <c r="K92" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L92" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L92" s="1" t="s">
+      <c r="M92" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M92" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O92" s="1">
         <v>30</v>
@@ -6557,27 +6557,27 @@
         <v>40</v>
       </c>
       <c r="S92" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V92" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="D93" s="8">
         <v>46053</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I93" s="10">
         <v>2023</v>
@@ -6586,13 +6586,13 @@
         <v>2023</v>
       </c>
       <c r="K93" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L93" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L93" s="1" t="s">
+      <c r="M93" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M93" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O93" s="1">
         <v>30</v>
@@ -6601,27 +6601,27 @@
         <v>30</v>
       </c>
       <c r="S93" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V93" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="D94" s="8">
         <v>46053</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I94" s="10">
         <v>2023</v>
@@ -6630,13 +6630,13 @@
         <v>2023</v>
       </c>
       <c r="K94" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L94" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L94" s="1" t="s">
+      <c r="M94" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M94" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O94" s="1">
         <v>22.5</v>
@@ -6645,27 +6645,27 @@
         <v>40</v>
       </c>
       <c r="S94" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V94" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="D95" s="8">
         <v>46053</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I95" s="10">
         <v>2023</v>
@@ -6674,13 +6674,13 @@
         <v>2023</v>
       </c>
       <c r="K95" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L95" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L95" s="1" t="s">
+      <c r="M95" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M95" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O95" s="1">
         <v>22.5</v>
@@ -6689,27 +6689,27 @@
         <v>40</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V95" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="D96" s="8">
         <v>46053</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I96" s="10">
         <v>2023</v>
@@ -6718,13 +6718,13 @@
         <v>2023</v>
       </c>
       <c r="K96" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L96" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L96" s="1" t="s">
+      <c r="M96" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M96" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O96" s="1">
         <v>30</v>
@@ -6733,27 +6733,27 @@
         <v>30</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V96" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="D97" s="8">
         <v>46053</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I97" s="10">
         <v>2023</v>
@@ -6762,13 +6762,13 @@
         <v>2023</v>
       </c>
       <c r="K97" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L97" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L97" s="1" t="s">
+      <c r="M97" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M97" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O97" s="1">
         <v>30</v>
@@ -6777,27 +6777,27 @@
         <v>30</v>
       </c>
       <c r="S97" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V97" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="D98" s="8">
         <v>46053</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I98" s="10">
         <v>2023</v>
@@ -6806,13 +6806,13 @@
         <v>2023</v>
       </c>
       <c r="K98" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L98" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L98" s="1" t="s">
+      <c r="M98" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M98" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O98" s="1">
         <v>30</v>
@@ -6821,27 +6821,27 @@
         <v>30</v>
       </c>
       <c r="S98" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V98" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="D99" s="8">
         <v>46053</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I99" s="10">
         <v>2023</v>
@@ -6850,13 +6850,13 @@
         <v>2023</v>
       </c>
       <c r="K99" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L99" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L99" s="1" t="s">
+      <c r="M99" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M99" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O99" s="1">
         <v>30</v>
@@ -6865,27 +6865,27 @@
         <v>30</v>
       </c>
       <c r="S99" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V99" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="D100" s="8">
         <v>46053</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I100" s="10">
         <v>2023</v>
@@ -6894,13 +6894,13 @@
         <v>2023</v>
       </c>
       <c r="K100" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L100" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L100" s="1" t="s">
+      <c r="M100" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M100" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O100" s="1">
         <v>30</v>
@@ -6909,27 +6909,27 @@
         <v>30</v>
       </c>
       <c r="S100" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V100" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="D101" s="8">
         <v>46053</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I101" s="10">
         <v>2023</v>
@@ -6938,13 +6938,13 @@
         <v>2023</v>
       </c>
       <c r="K101" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L101" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L101" s="1" t="s">
+      <c r="M101" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M101" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O101" s="1">
         <v>30</v>
@@ -6953,27 +6953,27 @@
         <v>30</v>
       </c>
       <c r="S101" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V101" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="D102" s="8">
         <v>46053</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I102" s="10">
         <v>2023</v>
@@ -6982,13 +6982,13 @@
         <v>2023</v>
       </c>
       <c r="K102" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L102" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L102" s="1" t="s">
+      <c r="M102" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M102" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O102" s="1">
         <v>30</v>
@@ -6997,27 +6997,27 @@
         <v>30</v>
       </c>
       <c r="S102" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V102" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="D103" s="8">
         <v>46053</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I103" s="10">
         <v>2023</v>
@@ -7026,13 +7026,13 @@
         <v>2023</v>
       </c>
       <c r="K103" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L103" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L103" s="1" t="s">
+      <c r="M103" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M103" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O103" s="1">
         <v>30</v>
@@ -7041,27 +7041,27 @@
         <v>30</v>
       </c>
       <c r="S103" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V103" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="D104" s="8">
         <v>46053</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I104" s="10">
         <v>2023</v>
@@ -7070,13 +7070,13 @@
         <v>2023</v>
       </c>
       <c r="K104" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L104" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L104" s="1" t="s">
+      <c r="M104" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M104" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O104" s="1">
         <v>40</v>
@@ -7085,27 +7085,27 @@
         <v>30</v>
       </c>
       <c r="S104" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V104" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>363</v>
       </c>
       <c r="D105" s="8">
         <v>46053</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I105" s="10">
         <v>2023</v>
@@ -7114,13 +7114,13 @@
         <v>2023</v>
       </c>
       <c r="K105" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L105" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L105" s="1" t="s">
+      <c r="M105" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M105" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O105" s="1">
         <v>30</v>
@@ -7129,27 +7129,27 @@
         <v>30</v>
       </c>
       <c r="S105" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V105" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="D106" s="8">
         <v>46053</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I106" s="10">
         <v>2023</v>
@@ -7158,13 +7158,13 @@
         <v>2023</v>
       </c>
       <c r="K106" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L106" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L106" s="1" t="s">
+      <c r="M106" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M106" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O106" s="1">
         <v>30</v>
@@ -7173,27 +7173,27 @@
         <v>30</v>
       </c>
       <c r="S106" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V106" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="D107" s="8">
         <v>46053</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I107" s="10">
         <v>2023</v>
@@ -7202,13 +7202,13 @@
         <v>2023</v>
       </c>
       <c r="K107" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L107" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L107" s="1" t="s">
+      <c r="M107" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="M107" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="O107" s="1">
         <v>30</v>
@@ -7217,27 +7217,27 @@
         <v>30</v>
       </c>
       <c r="S107" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V107" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="D108" s="8">
         <v>46066</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I108" s="10">
         <v>2025</v>
@@ -7246,13 +7246,13 @@
         <v>2025</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O108" s="1">
         <v>29.7</v>
@@ -7261,33 +7261,30 @@
         <v>42</v>
       </c>
       <c r="S108" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T108" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="V108" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="C109" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F109" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D109" s="8">
-        <v>46066</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="I109" s="10">
         <v>2021</v>
@@ -7296,13 +7293,13 @@
         <v>2021</v>
       </c>
       <c r="K109" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="L109" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="L109" s="1" t="s">
+      <c r="M109" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="M109" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="O109" s="1">
         <v>50</v>
@@ -7311,10 +7308,10 @@
         <v>120</v>
       </c>
       <c r="S109" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="V109" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -7345,7 +7342,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>9</v>
@@ -7354,24 +7351,24 @@
         <v>12</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D2" s="8">
         <v>46055</v>
@@ -7380,18 +7377,18 @@
         <v>2025</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="8">
         <v>46055</v>
@@ -7400,18 +7397,18 @@
         <v>2025</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E4" s="1">
         <v>2021</v>

--- a/data/works.xlsx
+++ b/data/works.xlsx
@@ -556,7 +556,7 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
     <col width="11.83203125" customWidth="1" style="5" min="1" max="1"/>
     <col width="24.1640625" customWidth="1" style="1" min="2" max="2"/>
@@ -1195,7 +1195,7 @@
       <selection pane="bottomRight" activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
     <col width="11.33203125" customWidth="1" style="1" min="1" max="1"/>
     <col width="72.83203125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
@@ -8761,7 +8761,7 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
     <col width="25.83203125" customWidth="1" style="1" min="1" max="1"/>
     <col width="20.83203125" customWidth="1" style="1" min="2" max="3"/>
@@ -8878,7 +8878,7 @@
         </is>
       </c>
       <c r="D4" s="8" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>2021</v>
@@ -8930,7 +8930,7 @@
       <selection activeCell="A319" sqref="A319"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="21.83203125" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="21.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col width="41.6640625" bestFit="1" customWidth="1" style="16" min="1" max="1"/>
     <col width="9.33203125" customWidth="1" style="16" min="2" max="2"/>

--- a/data/works.xlsx
+++ b/data/works.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20600" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20600" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="schema" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'index - old version'!$A$1:$G$804</definedName>
   </definedNames>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -24,7 +24,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;yes&quot;\,&quot;yes&quot;\,&quot;yes&quot;\,&quot;yes&quot;"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -112,7 +112,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -150,7 +150,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
@@ -558,7 +557,7 @@
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
     <col width="21.83203125" customWidth="1" style="4" min="1" max="1"/>
     <col width="70.1640625" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
@@ -1235,21 +1234,21 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y110"/>
+  <dimension ref="A1:Y111"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D85" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A110" sqref="A110"/>
+      <selection pane="bottomRight" activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
     <col width="11.33203125" customWidth="1" style="1" min="1" max="1"/>
     <col width="72.83203125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
     <col width="19" customWidth="1" style="1" min="3" max="3"/>
-    <col width="35.1640625" customWidth="1" style="18" min="4" max="4"/>
+    <col width="17" bestFit="1" customWidth="1" style="18" min="4" max="4"/>
     <col width="38.1640625" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
     <col width="43.1640625" bestFit="1" customWidth="1" style="1" min="6" max="6"/>
     <col width="19.83203125" bestFit="1" customWidth="1" style="1" min="7" max="7"/>
@@ -1267,9 +1266,9 @@
     <col width="26.83203125" customWidth="1" style="1" min="22" max="22"/>
     <col width="15.5" customWidth="1" style="1" min="23" max="23"/>
     <col width="15.1640625" customWidth="1" style="1" min="24" max="24"/>
-    <col width="17.83203125" customWidth="1" style="1" min="25" max="25"/>
-    <col width="10.83203125" customWidth="1" style="1" min="26" max="31"/>
-    <col width="10.83203125" customWidth="1" style="1" min="32" max="16384"/>
+    <col width="51" bestFit="1" customWidth="1" style="1" min="25" max="25"/>
+    <col width="10.83203125" customWidth="1" style="1" min="26" max="32"/>
+    <col width="10.83203125" customWidth="1" style="1" min="33" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="3">
@@ -8767,7 +8766,7 @@
       </c>
       <c r="L110" s="1" t="inlineStr">
         <is>
-          <t>digital</t>
+          <t>digital print</t>
         </is>
       </c>
       <c r="M110" s="1" t="inlineStr">
@@ -8789,6 +8788,80 @@
       <c r="V110" s="5" t="inlineStr">
         <is>
           <t>Michael Davies</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="5" t="inlineStr">
+        <is>
+          <t>00457</t>
+        </is>
+      </c>
+      <c r="B111" s="1" t="inlineStr">
+        <is>
+          <t>intuition (2020)</t>
+        </is>
+      </c>
+      <c r="C111" s="1" t="inlineStr">
+        <is>
+          <t>published</t>
+        </is>
+      </c>
+      <c r="D111" s="19" t="n">
+        <v>46067</v>
+      </c>
+      <c r="E111" s="1" t="inlineStr">
+        <is>
+          <t>intuition (2020)</t>
+        </is>
+      </c>
+      <c r="F111" s="1" t="inlineStr">
+        <is>
+          <t>intuition.jpg</t>
+        </is>
+      </c>
+      <c r="I111" s="9" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J111" s="9" t="inlineStr">
+        <is>
+          <t>c. 2001-11</t>
+        </is>
+      </c>
+      <c r="K111" s="1" t="inlineStr">
+        <is>
+          <t>intuition-2020</t>
+        </is>
+      </c>
+      <c r="L111" s="1" t="inlineStr">
+        <is>
+          <t>music</t>
+        </is>
+      </c>
+      <c r="M111" s="1" t="inlineStr">
+        <is>
+          <t>audio files (mp3/FLAC/wav)</t>
+        </is>
+      </c>
+      <c r="O111" s="1" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="P111" s="1" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="S111" s="1" t="inlineStr">
+        <is>
+          <t>music,intuition</t>
+        </is>
+      </c>
+      <c r="V111" s="5" t="inlineStr">
+        <is>
+          <t>Michael Davies</t>
+        </is>
+      </c>
+      <c r="Y111" s="1" t="inlineStr">
+        <is>
+          <t>https://dotlineform.bandcamp.com/album/intuition</t>
         </is>
       </c>
     </row>
@@ -8804,13 +8877,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
     <col width="25.83203125" customWidth="1" style="1" min="1" max="1"/>
     <col width="20.83203125" customWidth="1" style="1" min="2" max="3"/>
@@ -8818,8 +8891,8 @@
     <col width="10.83203125" customWidth="1" style="1" min="5" max="5"/>
     <col width="19.83203125" customWidth="1" style="1" min="6" max="6"/>
     <col width="19" bestFit="1" customWidth="1" style="1" min="7" max="7"/>
-    <col width="10.83203125" customWidth="1" style="1" min="8" max="13"/>
-    <col width="10.83203125" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="10.83203125" customWidth="1" style="1" min="8" max="14"/>
+    <col width="10.83203125" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="3">
@@ -8960,6 +9033,34 @@
       </c>
       <c r="F5" s="1" t="n">
         <v>2010</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>intuition-2020</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>intuition (2020)</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>published</t>
+        </is>
+      </c>
+      <c r="D6" s="19" t="n">
+        <v>46067</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F6" s="9" t="inlineStr">
+        <is>
+          <t>c. 2001-11</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -8975,18 +9076,21 @@
   </sheetPr>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
-    <col width="22.83203125" customWidth="1" min="3" max="3"/>
-    <col width="17" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22.83203125" customWidth="1" min="6" max="6"/>
-    <col width="20.33203125" customWidth="1" min="7" max="7"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="9.6640625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="14.33203125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="17" bestFit="1" customWidth="1" style="18" min="5" max="5"/>
+    <col width="19.5" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" min="7" max="7"/>
     <col width="19.83203125" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="11.83203125" customWidth="1" min="10" max="10"/>
+    <col width="10.6640625" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="11.33203125" bestFit="1" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1">
@@ -9047,38 +9151,39 @@
           <t>00456</t>
         </is>
       </c>
-      <c r="B2" s="19" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>001</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>dots [detail 1]</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>published</t>
         </is>
       </c>
-      <c r="E2" s="20" t="n">
+      <c r="E2" s="18" t="n">
         <v>46067</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>details</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>dots [detail 1].jpg</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="H2" s="5" t="n"/>
+      <c r="I2" s="5" t="n">
         <v>5906</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" s="5" t="n">
         <v>5906</v>
       </c>
     </row>
@@ -9088,38 +9193,39 @@
           <t>00456</t>
         </is>
       </c>
-      <c r="B3" s="19" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>002</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>dots [detail 2]</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>published</t>
         </is>
       </c>
-      <c r="E3" s="20" t="n">
+      <c r="E3" s="18" t="n">
         <v>46067</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>details</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>dots [detail 2].jpg</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="H3" s="5" t="n"/>
+      <c r="I3" s="5" t="n">
         <v>5906</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="5" t="n">
         <v>5906</v>
       </c>
     </row>
@@ -9129,38 +9235,39 @@
           <t>00456</t>
         </is>
       </c>
-      <c r="B4" s="19" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>003</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>dots [detail 3]</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>published</t>
         </is>
       </c>
-      <c r="E4" s="20" t="n">
+      <c r="E4" s="18" t="n">
         <v>46067</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>details</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>dots [detail 3].jpg</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="H4" s="5" t="n"/>
+      <c r="I4" s="5" t="n">
         <v>5906</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="5" t="n">
         <v>5906</v>
       </c>
     </row>
@@ -9170,38 +9277,39 @@
           <t>00456</t>
         </is>
       </c>
-      <c r="B5" s="19" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>004</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>dots [detail 4]</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>published</t>
         </is>
       </c>
-      <c r="E5" s="20" t="n">
+      <c r="E5" s="18" t="n">
         <v>46067</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>details</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" s="5" t="inlineStr">
         <is>
           <t>dots [detail 4].jpg</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="H5" s="5" t="n"/>
+      <c r="I5" s="5" t="n">
         <v>5906</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5" s="5" t="n">
         <v>5906</v>
       </c>
     </row>
@@ -9211,38 +9319,39 @@
           <t>00456</t>
         </is>
       </c>
-      <c r="B6" s="19" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>005</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>dots [detail 5]</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>published</t>
         </is>
       </c>
-      <c r="E6" s="20" t="n">
+      <c r="E6" s="18" t="n">
         <v>46067</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>details</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>dots [detail 5].jpg</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="H6" s="5" t="n"/>
+      <c r="I6" s="5" t="n">
         <v>5906</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6" s="5" t="n">
         <v>5906</v>
       </c>
     </row>
@@ -9259,11 +9368,11 @@
   </sheetPr>
   <dimension ref="A1:G840"/>
   <sheetViews>
-    <sheetView topLeftCell="A310" workbookViewId="0">
-      <selection activeCell="A319" sqref="A319"/>
+    <sheetView topLeftCell="A441" workbookViewId="0">
+      <selection activeCell="A476" sqref="A476"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="21.83203125" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="21.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col width="41.6640625" bestFit="1" customWidth="1" style="12" min="1" max="1"/>
     <col width="9.33203125" customWidth="1" style="12" min="2" max="2"/>
@@ -9273,8 +9382,8 @@
     <col width="20.1640625" bestFit="1" customWidth="1" style="12" min="6" max="6"/>
     <col width="48.1640625" bestFit="1" customWidth="1" style="12" min="7" max="7"/>
     <col width="21.83203125" customWidth="1" style="12" min="8" max="256"/>
-    <col width="21.83203125" customWidth="1" style="17" min="257" max="258"/>
-    <col width="21.83203125" customWidth="1" style="17" min="259" max="16384"/>
+    <col width="21.83203125" customWidth="1" style="17" min="257" max="259"/>
+    <col width="21.83203125" customWidth="1" style="17" min="260" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1">

--- a/data/works.xlsx
+++ b/data/works.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20600" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20600" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="schema" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'index - old version'!$A$1:$G$804</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -24,7 +24,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;yes&quot;\,&quot;yes&quot;\,&quot;yes&quot;\,&quot;yes&quot;"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -1236,11 +1236,11 @@
   </sheetPr>
   <dimension ref="A1:Y111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B113" sqref="B113"/>
+      <selection pane="bottomRight" activeCell="J112" sqref="J112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -1254,7 +1254,7 @@
     <col width="19.83203125" bestFit="1" customWidth="1" style="1" min="7" max="7"/>
     <col width="20.83203125" customWidth="1" style="1" min="8" max="8"/>
     <col width="10.83203125" customWidth="1" style="9" min="9" max="9"/>
-    <col width="16.6640625" customWidth="1" style="9" min="10" max="10"/>
+    <col width="21.83203125" bestFit="1" customWidth="1" style="9" min="10" max="10"/>
     <col width="20.83203125" customWidth="1" style="1" min="11" max="12"/>
     <col width="29.5" bestFit="1" customWidth="1" style="1" min="13" max="13"/>
     <col width="10.83203125" customWidth="1" style="1" min="14" max="14"/>
@@ -1267,8 +1267,8 @@
     <col width="15.5" customWidth="1" style="1" min="23" max="23"/>
     <col width="15.1640625" customWidth="1" style="1" min="24" max="24"/>
     <col width="51" bestFit="1" customWidth="1" style="1" min="25" max="25"/>
-    <col width="10.83203125" customWidth="1" style="1" min="26" max="32"/>
-    <col width="10.83203125" customWidth="1" style="1" min="33" max="16384"/>
+    <col width="10.83203125" customWidth="1" style="1" min="26" max="33"/>
+    <col width="10.83203125" customWidth="1" style="1" min="34" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="3">
@@ -8825,7 +8825,7 @@
       </c>
       <c r="J111" s="9" t="inlineStr">
         <is>
-          <t>c. 2001-11</t>
+          <t>recorded c. 2001-11</t>
         </is>
       </c>
       <c r="K111" s="1" t="inlineStr">
@@ -8879,8 +8879,8 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -8891,8 +8891,8 @@
     <col width="10.83203125" customWidth="1" style="1" min="5" max="5"/>
     <col width="19.83203125" customWidth="1" style="1" min="6" max="6"/>
     <col width="19" bestFit="1" customWidth="1" style="1" min="7" max="7"/>
-    <col width="10.83203125" customWidth="1" style="1" min="8" max="14"/>
-    <col width="10.83203125" customWidth="1" style="1" min="15" max="16384"/>
+    <col width="10.83203125" customWidth="1" style="1" min="8" max="15"/>
+    <col width="10.83203125" customWidth="1" style="1" min="16" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="3">
@@ -9059,7 +9059,7 @@
       </c>
       <c r="F6" s="9" t="inlineStr">
         <is>
-          <t>c. 2001-11</t>
+          <t>recorded c. 2001-11</t>
         </is>
       </c>
     </row>
@@ -9382,8 +9382,8 @@
     <col width="20.1640625" bestFit="1" customWidth="1" style="12" min="6" max="6"/>
     <col width="48.1640625" bestFit="1" customWidth="1" style="12" min="7" max="7"/>
     <col width="21.83203125" customWidth="1" style="12" min="8" max="256"/>
-    <col width="21.83203125" customWidth="1" style="17" min="257" max="259"/>
-    <col width="21.83203125" customWidth="1" style="17" min="260" max="16384"/>
+    <col width="21.83203125" customWidth="1" style="17" min="257" max="260"/>
+    <col width="21.83203125" customWidth="1" style="17" min="261" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1">

--- a/data/works.xlsx
+++ b/data/works.xlsx
@@ -8,26 +8,40 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dlf/Developer/dotlineform/dotlineform-site/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA54E47B-23C8-574F-8F53-2F092C38EE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7924C44-12A3-E94C-B1AF-070B66A37613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schema" sheetId="1" r:id="rId1"/>
     <sheet name="Works" sheetId="2" r:id="rId2"/>
     <sheet name="Series" sheetId="3" r:id="rId3"/>
     <sheet name="WorkDetails" sheetId="4" r:id="rId4"/>
-    <sheet name="index - old version" sheetId="5" r:id="rId5"/>
+    <sheet name="Moments" sheetId="6" r:id="rId5"/>
+    <sheet name="index - old version" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'index - old version'!$A$1:$G$804</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'index - old version'!$A$1:$G$804</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4724" uniqueCount="1453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5019" uniqueCount="1606">
   <si>
     <t>Works</t>
   </si>
@@ -4386,6 +4400,465 @@
   </si>
   <si>
     <t>details to publish</t>
+  </si>
+  <si>
+    <t>moment_id</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>date_display</t>
+  </si>
+  <si>
+    <t>moment_folder</t>
+  </si>
+  <si>
+    <t>13-moments-in-october</t>
+  </si>
+  <si>
+    <t>13 moments in October</t>
+  </si>
+  <si>
+    <t>4-stories</t>
+  </si>
+  <si>
+    <t>c. 2020?</t>
+  </si>
+  <si>
+    <t>4 stories</t>
+  </si>
+  <si>
+    <t>a-beautiful-route</t>
+  </si>
+  <si>
+    <t>a beautiful route</t>
+  </si>
+  <si>
+    <t>a-dance</t>
+  </si>
+  <si>
+    <t>a dance</t>
+  </si>
+  <si>
+    <t>a-doll-story</t>
+  </si>
+  <si>
+    <t>a doll story</t>
+  </si>
+  <si>
+    <t>a-feeling-of-free-will</t>
+  </si>
+  <si>
+    <t>a feeling of free will</t>
+  </si>
+  <si>
+    <t>a-lemon-tart-poem</t>
+  </si>
+  <si>
+    <t>a lemon tart poem</t>
+  </si>
+  <si>
+    <t>a-light-inside-a-flower</t>
+  </si>
+  <si>
+    <t>a light inside a flower</t>
+  </si>
+  <si>
+    <t>a-poem-about-love</t>
+  </si>
+  <si>
+    <t>c. 2018?</t>
+  </si>
+  <si>
+    <t>a poem about love</t>
+  </si>
+  <si>
+    <t>a-poem-about-purity</t>
+  </si>
+  <si>
+    <t>a poem about purity</t>
+  </si>
+  <si>
+    <t>a-question</t>
+  </si>
+  <si>
+    <t>a question</t>
+  </si>
+  <si>
+    <t>a-selina</t>
+  </si>
+  <si>
+    <t>a selina</t>
+  </si>
+  <si>
+    <t>all-the-little-cracks</t>
+  </si>
+  <si>
+    <t>c. 2015</t>
+  </si>
+  <si>
+    <t>all the little cracks</t>
+  </si>
+  <si>
+    <t>angels</t>
+  </si>
+  <si>
+    <t>c. Apr 1998</t>
+  </si>
+  <si>
+    <t>blue-sky</t>
+  </si>
+  <si>
+    <t>c. 2012?</t>
+  </si>
+  <si>
+    <t>blue sky</t>
+  </si>
+  <si>
+    <t>boundary-conditions</t>
+  </si>
+  <si>
+    <t>boundary conditions</t>
+  </si>
+  <si>
+    <t>cascading-waterfalls</t>
+  </si>
+  <si>
+    <t>c. 2016</t>
+  </si>
+  <si>
+    <t>cascading waterfalls</t>
+  </si>
+  <si>
+    <t>circle</t>
+  </si>
+  <si>
+    <t>c. 2019</t>
+  </si>
+  <si>
+    <t>clouds</t>
+  </si>
+  <si>
+    <t>c. 2019?</t>
+  </si>
+  <si>
+    <t>compiled</t>
+  </si>
+  <si>
+    <t>creatures-who-understand-light</t>
+  </si>
+  <si>
+    <t>creatures who understand light</t>
+  </si>
+  <si>
+    <t>dream-sleep</t>
+  </si>
+  <si>
+    <t>dream sleep</t>
+  </si>
+  <si>
+    <t>exit-dreams</t>
+  </si>
+  <si>
+    <t>exit dreams</t>
+  </si>
+  <si>
+    <t>healing-forms</t>
+  </si>
+  <si>
+    <t>healing forms</t>
+  </si>
+  <si>
+    <t>hi-honey</t>
+  </si>
+  <si>
+    <t>c. 2024?</t>
+  </si>
+  <si>
+    <t>hi honey</t>
+  </si>
+  <si>
+    <t>i-felt-my-self-sinking</t>
+  </si>
+  <si>
+    <t>I felt my self sinking, but not alone, and in peace</t>
+  </si>
+  <si>
+    <t>impenetrable</t>
+  </si>
+  <si>
+    <t>c. 2018</t>
+  </si>
+  <si>
+    <t>keys</t>
+  </si>
+  <si>
+    <t>leaves</t>
+  </si>
+  <si>
+    <t>little-clear-vessel</t>
+  </si>
+  <si>
+    <t>c. 1992</t>
+  </si>
+  <si>
+    <t>little clear vessel</t>
+  </si>
+  <si>
+    <t>lotus-pond</t>
+  </si>
+  <si>
+    <t>c. 2024</t>
+  </si>
+  <si>
+    <t>lotus pond</t>
+  </si>
+  <si>
+    <t>memory</t>
+  </si>
+  <si>
+    <t>occasionally</t>
+  </si>
+  <si>
+    <t>particles</t>
+  </si>
+  <si>
+    <t>c. 2013</t>
+  </si>
+  <si>
+    <t>peace-of-mind</t>
+  </si>
+  <si>
+    <t>peace of mind</t>
+  </si>
+  <si>
+    <t>perfection-of-flowers</t>
+  </si>
+  <si>
+    <t>c. 2014</t>
+  </si>
+  <si>
+    <t>perfection of flowers</t>
+  </si>
+  <si>
+    <t>rose</t>
+  </si>
+  <si>
+    <t>sadness-love</t>
+  </si>
+  <si>
+    <t>sadness love</t>
+  </si>
+  <si>
+    <t>samuel-beckett</t>
+  </si>
+  <si>
+    <t>Samuel Beckett</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>sleepy-moments</t>
+  </si>
+  <si>
+    <t>sleepy moments</t>
+  </si>
+  <si>
+    <t>snow</t>
+  </si>
+  <si>
+    <t>2018-2020</t>
+  </si>
+  <si>
+    <t>the-moment-collector</t>
+  </si>
+  <si>
+    <t>the moment collector</t>
+  </si>
+  <si>
+    <t>the-moon-and-the-sun</t>
+  </si>
+  <si>
+    <t>the moon and the sun</t>
+  </si>
+  <si>
+    <t>the-watch-keeper</t>
+  </si>
+  <si>
+    <t>the watch keeper</t>
+  </si>
+  <si>
+    <t>timeless</t>
+  </si>
+  <si>
+    <t>vessels</t>
+  </si>
+  <si>
+    <t>warmth</t>
+  </si>
+  <si>
+    <t>we-are-the-vessel</t>
+  </si>
+  <si>
+    <t>we are the vessel</t>
+  </si>
+  <si>
+    <t>we-make-ghosts</t>
+  </si>
+  <si>
+    <t>we make ghosts</t>
+  </si>
+  <si>
+    <t>where-words-end</t>
+  </si>
+  <si>
+    <t>where words end</t>
+  </si>
+  <si>
+    <t>where</t>
+  </si>
+  <si>
+    <t>where?</t>
+  </si>
+  <si>
+    <t>will-we-leave-residues</t>
+  </si>
+  <si>
+    <t>c. 2022</t>
+  </si>
+  <si>
+    <t>will we leave residues</t>
+  </si>
+  <si>
+    <t>winter</t>
+  </si>
+  <si>
+    <t>without-words</t>
+  </si>
+  <si>
+    <t>without words</t>
+  </si>
+  <si>
+    <t>13-moments-in-october.jpg</t>
+  </si>
+  <si>
+    <t>4-stories.jpg</t>
+  </si>
+  <si>
+    <t>a-beautiful-route.jpg</t>
+  </si>
+  <si>
+    <t>doll-glass-23.jpg</t>
+  </si>
+  <si>
+    <t>a-feeling-of-free-will.jpg</t>
+  </si>
+  <si>
+    <t>a-light-inside-a-flower.jpg</t>
+  </si>
+  <si>
+    <t>a-poem-about-love.jpg</t>
+  </si>
+  <si>
+    <t>a-poem-about-purity.jpg</t>
+  </si>
+  <si>
+    <t>all-the-little-cracks.jpg</t>
+  </si>
+  <si>
+    <t>angels.jpg</t>
+  </si>
+  <si>
+    <t>blue-sky.jpg</t>
+  </si>
+  <si>
+    <t>creatures-who-understand-light.jpg</t>
+  </si>
+  <si>
+    <t>dream-sleep.jpg</t>
+  </si>
+  <si>
+    <t>droplets.jpg</t>
+  </si>
+  <si>
+    <t>i-felt-my-self-sinking.jpg</t>
+  </si>
+  <si>
+    <t>keys.jpg</t>
+  </si>
+  <si>
+    <t>leaves.jpg</t>
+  </si>
+  <si>
+    <t>little-clear-vessel.jpg</t>
+  </si>
+  <si>
+    <t>occasionally.jpg</t>
+  </si>
+  <si>
+    <t>particles.jpg</t>
+  </si>
+  <si>
+    <t>peace-of-mind.jpg</t>
+  </si>
+  <si>
+    <t>perfection-of-flowers.jpg</t>
+  </si>
+  <si>
+    <t>samuel-beckett.jpg</t>
+  </si>
+  <si>
+    <t>sleepy-moments.jpg</t>
+  </si>
+  <si>
+    <t>snow.jpg</t>
+  </si>
+  <si>
+    <t>the-moment-collector.jpg</t>
+  </si>
+  <si>
+    <t>the-watch-keeper.jpg</t>
+  </si>
+  <si>
+    <t>warmth.jpg</t>
+  </si>
+  <si>
+    <t>we-are-the-vessel.jpg</t>
+  </si>
+  <si>
+    <t>we-make-ghosts.jpg</t>
+  </si>
+  <si>
+    <t>where-words-end.jpg</t>
+  </si>
+  <si>
+    <t>will-we-leave-residues.jpg</t>
+  </si>
+  <si>
+    <t>winter.jpg</t>
+  </si>
+  <si>
+    <t>draft</t>
+  </si>
+  <si>
+    <t>I felt my self sinking</t>
+  </si>
+  <si>
+    <t>a-lemon-tart-poem.jpg</t>
+  </si>
+  <si>
+    <t>hi-honey.jpg</t>
+  </si>
+  <si>
+    <t>impenetrable.jpg</t>
+  </si>
+  <si>
+    <t>sadness-love.jpg</t>
+  </si>
+  <si>
+    <t>moment_filename</t>
   </si>
 </sst>
 </file>
@@ -4397,7 +4870,7 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4458,6 +4931,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4483,7 +4970,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4522,6 +5009,17 @@
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5313,16 +5811,16 @@
   <dimension ref="A1:Y111"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D70" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A108" sqref="A108"/>
+      <selection pane="bottomRight" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="72.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -10683,8 +11181,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
@@ -10844,7 +11345,10 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
@@ -11048,13 +11552,1212 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42325F09-46A5-DE44-9D76-A93E021C1050}">
+  <dimension ref="A1:K57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" sqref="A1:J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.1640625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="34.83203125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="22" customWidth="1"/>
+    <col min="7" max="7" width="30.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.6640625" style="22" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>1455</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>1456</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>1605</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E2" s="23">
+        <v>45588</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>1458</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E3" s="23">
+        <v>43831</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>1460</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E4" s="23">
+        <v>43511</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>1463</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E5" s="23">
+        <v>43215</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E6" s="23">
+        <v>45822</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>1467</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E7" s="23">
+        <v>45588</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>1469</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E8" s="23">
+        <v>44715</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>1471</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E9" s="23">
+        <v>43549</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>1473</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E10" s="23">
+        <v>43101</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>1475</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>1476</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E11" s="23">
+        <v>43089</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>1478</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E12" s="23">
+        <v>41921</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E13" s="23">
+        <v>41875</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E14" s="23">
+        <v>42005</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>1484</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>1485</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E15" s="23">
+        <v>35886</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>1487</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>1486</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E16" s="23">
+        <v>40909</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>1489</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>1490</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E17" s="23">
+        <v>42005</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>1484</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E18" s="23">
+        <v>42370</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>1494</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E19" s="23">
+        <v>43466</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>1497</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E20" s="23">
+        <v>43466</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>1499</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E21" s="23">
+        <v>43733</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E22" s="23">
+        <v>43466</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>1497</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>1502</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E23" s="23">
+        <v>43219</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>1504</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E24" s="23">
+        <v>42693</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>1396</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E25" s="23">
+        <v>41093</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E26" s="23">
+        <v>42528</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>1494</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E27" s="23">
+        <v>45588</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>1510</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>1511</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E28" s="23">
+        <v>42005</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>1484</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>1600</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E29" s="23">
+        <v>43222</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>1515</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>1514</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E30" s="23">
+        <v>43647</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>1516</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E31" s="23">
+        <v>43577</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>1517</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E32" s="23">
+        <v>33604</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>1519</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>1520</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="22" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E33" s="23">
+        <v>45588</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>1522</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E34" s="23">
+        <v>45878</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E35" s="23">
+        <v>43653</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>1525</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E36" s="23">
+        <v>41275</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>1527</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>1526</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E37" s="23">
+        <v>43704</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>1529</v>
+      </c>
+      <c r="H37" s="22" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E38" s="23">
+        <v>41640</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>1531</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>1532</v>
+      </c>
+      <c r="H38" s="22" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E39" s="23">
+        <v>43515</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E40" s="23">
+        <v>40201</v>
+      </c>
+      <c r="G40" s="22" t="s">
+        <v>1535</v>
+      </c>
+      <c r="H40" s="22" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E41" s="23">
+        <v>33604</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>1519</v>
+      </c>
+      <c r="G41" s="22" t="s">
+        <v>1537</v>
+      </c>
+      <c r="H41" s="22" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E42" s="23">
+        <v>43262</v>
+      </c>
+      <c r="G42" s="22" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E43" s="23">
+        <v>43557</v>
+      </c>
+      <c r="G43" s="22" t="s">
+        <v>1540</v>
+      </c>
+      <c r="H43" s="22" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="22" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E44" s="23">
+        <v>43101</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>1542</v>
+      </c>
+      <c r="G44" s="22" t="s">
+        <v>1541</v>
+      </c>
+      <c r="H44" s="22" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="22" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E45" s="23">
+        <v>43107</v>
+      </c>
+      <c r="G45" s="22" t="s">
+        <v>1544</v>
+      </c>
+      <c r="H45" s="22" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="22" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E46" s="23">
+        <v>45589</v>
+      </c>
+      <c r="G46" s="22" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="22" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E47" s="23">
+        <v>41667</v>
+      </c>
+      <c r="G47" s="22" t="s">
+        <v>1548</v>
+      </c>
+      <c r="H47" s="22" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="22" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E48" s="23">
+        <v>43221</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>1515</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="22" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E49" s="23">
+        <v>43600</v>
+      </c>
+      <c r="G49" s="22" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="22" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E50" s="23">
+        <v>43429</v>
+      </c>
+      <c r="G50" s="22" t="s">
+        <v>1551</v>
+      </c>
+      <c r="H50" s="22" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="22" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E51" s="23">
+        <v>43232</v>
+      </c>
+      <c r="G51" s="22" t="s">
+        <v>1553</v>
+      </c>
+      <c r="H51" s="22" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="22" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E52" s="23">
+        <v>41640</v>
+      </c>
+      <c r="F52" s="22" t="s">
+        <v>1531</v>
+      </c>
+      <c r="G52" s="22" t="s">
+        <v>1555</v>
+      </c>
+      <c r="H52" s="22" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="22" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E53" s="23">
+        <v>43226</v>
+      </c>
+      <c r="G53" s="22" t="s">
+        <v>1557</v>
+      </c>
+      <c r="H53" s="22" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="22" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E54" s="23">
+        <v>43648</v>
+      </c>
+      <c r="G54" s="22" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="22" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E55" s="23">
+        <v>44562</v>
+      </c>
+      <c r="F55" s="22" t="s">
+        <v>1561</v>
+      </c>
+      <c r="G55" s="22" t="s">
+        <v>1562</v>
+      </c>
+      <c r="H55" s="22" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="22" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E56" s="23">
+        <v>43236</v>
+      </c>
+      <c r="G56" s="22" t="s">
+        <v>1563</v>
+      </c>
+      <c r="H56" s="22" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="22" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E57" s="23">
+        <v>43720</v>
+      </c>
+      <c r="G57" s="22" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IV840"/>
   <sheetViews>
-    <sheetView topLeftCell="A441" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A356" workbookViewId="0">
       <selection activeCell="A476" sqref="A476"/>
     </sheetView>
   </sheetViews>

--- a/data/works.xlsx
+++ b/data/works.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7924C44-12A3-E94C-B1AF-070B66A37613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schema" sheetId="1" r:id="rId1"/>
@@ -5810,8 +5810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y111"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D55" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B58" sqref="B58"/>
@@ -12757,7 +12757,7 @@
   </sheetPr>
   <dimension ref="A1:IV840"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A356" workbookViewId="0">
+    <sheetView topLeftCell="A356" workbookViewId="0">
       <selection activeCell="A476" sqref="A476"/>
     </sheetView>
   </sheetViews>
